--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74F43F5B-AC97-4DCF-906E-AFD231DC0F2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6E038-7632-494D-9DEB-411942670263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
   <si>
     <t>Company Info:</t>
   </si>
@@ -973,10 +973,7 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Tier 3</t>
-  </si>
-  <si>
-    <t>Avg</t>
+    <t>Dividend</t>
   </si>
 </sst>
 </file>
@@ -2185,6 +2182,9 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2226,9 +2226,6 @@
     </xf>
     <xf numFmtId="181" fontId="13" fillId="7" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3602,8 +3599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D86" sqref="D86"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3631,7 +3628,7 @@
       <c r="B5" s="141" t="s">
         <v>195</v>
       </c>
-      <c r="C5" s="287" t="s">
+      <c r="C5" s="271" t="s">
         <v>268</v>
       </c>
     </row>
@@ -3656,7 +3653,7 @@
         <v>215</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>269</v>
+        <v>70</v>
       </c>
       <c r="E8" s="267"/>
     </row>
@@ -4291,7 +4288,9 @@
       <c r="B48" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C48" s="59"/>
+      <c r="C48" s="59">
+        <v>13539631</v>
+      </c>
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
@@ -4301,7 +4300,9 @@
       <c r="B49" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="C49" s="59"/>
+      <c r="C49" s="59">
+        <v>305449</v>
+      </c>
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
@@ -4311,7 +4312,10 @@
       <c r="B50" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C50" s="59"/>
+      <c r="C50" s="59">
+        <f>1787467+193156</f>
+        <v>1980623</v>
+      </c>
       <c r="D50" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -4342,7 +4346,9 @@
       <c r="B53" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="C53" s="59"/>
+      <c r="C53" s="59">
+        <v>5889</v>
+      </c>
       <c r="D53" s="60">
         <f>D50</f>
         <v>0.6</v>
@@ -4363,7 +4369,9 @@
       <c r="B55" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C55" s="59"/>
+      <c r="C55" s="59">
+        <v>18623682</v>
+      </c>
       <c r="D55" s="60">
         <f>D52</f>
         <v>0.5</v>
@@ -4380,14 +4388,16 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="59"/>
+      <c r="C57" s="59">
+        <v>23436237</v>
+      </c>
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
@@ -4399,7 +4409,10 @@
       <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C58" s="59"/>
+      <c r="C58" s="59">
+        <f>325570+189255</f>
+        <v>514825</v>
+      </c>
       <c r="D58" s="60">
         <f>D48</f>
         <v>0.9</v>
@@ -4432,7 +4445,10 @@
       <c r="B61" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C61" s="59"/>
+      <c r="C61" s="59">
+        <f>758168+650701</f>
+        <v>1408869</v>
+      </c>
       <c r="D61" s="60">
         <f>D51</f>
         <v>0.6</v>
@@ -4454,7 +4470,9 @@
       <c r="B63" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="59"/>
+      <c r="C63" s="59">
+        <v>582318</v>
+      </c>
       <c r="D63" s="60">
         <f>D62</f>
         <v>0.5</v>
@@ -4465,7 +4483,9 @@
       <c r="B64" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="C64" s="59"/>
+      <c r="C64" s="59">
+        <v>898512</v>
+      </c>
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
@@ -4475,7 +4495,9 @@
       <c r="B65" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C65" s="59"/>
+      <c r="C65" s="59">
+        <v>24823141</v>
+      </c>
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
@@ -4487,22 +4509,25 @@
       <c r="B66" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C66" s="59"/>
+      <c r="C66" s="59">
+        <v>76964829</v>
+      </c>
       <c r="D66" s="60">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>70</v>
+        <v>45</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="59"/>
+      <c r="C67" s="59">
+        <v>39222688</v>
+      </c>
       <c r="D67" s="60">
-        <f>D65</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E67" s="221" t="s">
         <v>45</v>
@@ -4512,7 +4537,10 @@
       <c r="B68" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C68" s="59"/>
+      <c r="C68" s="59">
+        <f>4323428+1679757</f>
+        <v>6003185</v>
+      </c>
       <c r="D68" s="60">
         <f>D65</f>
         <v>0.1</v>
@@ -4534,7 +4562,9 @@
       <c r="B70" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C70" s="59"/>
+      <c r="C70" s="59">
+        <v>122504</v>
+      </c>
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
@@ -4565,13 +4595,17 @@
       <c r="B73" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C73" s="59"/>
+      <c r="C73" s="59">
+        <v>6636214</v>
+      </c>
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C74" s="59"/>
+      <c r="C74" s="59">
+        <v>43646</v>
+      </c>
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
@@ -4583,25 +4617,34 @@
       <c r="B76" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="C76" s="120"/>
+      <c r="C76" s="120">
+        <v>114041</v>
+      </c>
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
         <v>15</v>
       </c>
-      <c r="C77" s="83"/>
+      <c r="C77" s="83">
+        <v>25845852</v>
+      </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C78" s="59"/>
+      <c r="C78" s="59">
+        <f>48494864+2237084</f>
+        <v>50731948</v>
+      </c>
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C79" s="59"/>
+      <c r="C79" s="59">
+        <v>40529</v>
+      </c>
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
@@ -4613,19 +4656,25 @@
       <c r="B81" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="C81" s="120"/>
+      <c r="C81" s="120">
+        <v>278874</v>
+      </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
         <v>84</v>
       </c>
-      <c r="C82" s="83"/>
+      <c r="C82" s="83">
+        <v>61429709</v>
+      </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
         <v>220</v>
       </c>
-      <c r="C83" s="59"/>
+      <c r="C83" s="59">
+        <v>107256580</v>
+      </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
@@ -4652,7 +4701,7 @@
         <v>248</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4662,11 +4711,11 @@
       <c r="B89" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C89" s="271">
+      <c r="C89" s="272">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="271"/>
+      <c r="D89" s="272"/>
       <c r="E89" s="89" t="s">
         <v>206</v>
       </c>
@@ -4680,10 +4729,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="272" t="s">
+      <c r="C90" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="D90" s="272"/>
+      <c r="D90" s="273"/>
       <c r="E90" s="235" t="s">
         <v>101</v>
       </c>
@@ -4836,8 +4885,8 @@
       </c>
       <c r="D98" s="266"/>
       <c r="E98" s="254">
-        <f>F98</f>
-        <v>1.3499962549695244</v>
+        <f>F98*50%</f>
+        <v>0.67499812748476218</v>
       </c>
       <c r="F98" s="254">
         <f>C98</f>
@@ -4914,8 +4963,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4958,11 +5007,11 @@
       <c r="B3" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="277" t="str">
+      <c r="C3" s="278" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="278"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
@@ -4978,40 +5027,40 @@
       <c r="B4" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C4" s="279" t="str">
+      <c r="C4" s="280" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="280"/>
+      <c r="D4" s="281"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="283">
+      <c r="G4" s="284">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="283"/>
+      <c r="H4" s="284"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="281">
+      <c r="C5" s="282">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="282"/>
+      <c r="D5" s="283"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="275">
+      <c r="G5" s="276">
         <f>G3*G4/1000000</f>
         <v>22785.499929599999</v>
       </c>
-      <c r="H5" s="275"/>
+      <c r="H5" s="276"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5034,11 +5083,11 @@
       <c r="F6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="276" t="str">
+      <c r="G6" s="277" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="276"/>
+      <c r="H6" s="277"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5047,7 +5096,7 @@
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
-        <v>Tier 3</v>
+        <v>N</v>
       </c>
       <c r="D7" s="187" t="str">
         <f>Inputs!C9</f>
@@ -5223,9 +5272,9 @@
       <c r="F23" s="140" t="s">
         <v>188</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.18806617523911426</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5292,10 +5341,10 @@
       <c r="F28" s="53" t="s">
         <v>237</v>
       </c>
-      <c r="G28" s="273" t="s">
+      <c r="G28" s="274" t="s">
         <v>257</v>
       </c>
-      <c r="H28" s="273"/>
+      <c r="H28" s="274"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
@@ -5303,22 +5352,22 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>14.852855212678676</v>
+        <v>6.2522382154008387</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>26.725701696308782</v>
+        <v>23.405544657731692</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>17.473947309033736</v>
-      </c>
-      <c r="G29" s="274">
+        <v>10.777690967924521</v>
+      </c>
+      <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>23.239740605485899</v>
-      </c>
-      <c r="H29" s="274"/>
+        <v>20.352647528462342</v>
+      </c>
+      <c r="H29" s="275"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5350,10 +5399,10 @@
       <c r="B34" s="19" t="s">
         <v>225</v>
       </c>
-      <c r="C34" s="225" t="e">
+      <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
-        <v>#DIV/0!</v>
+        <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -7606,7 +7655,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
-        <v>0</v>
+        <v>208432382</v>
       </c>
       <c r="D27" s="65" t="str">
         <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
@@ -7657,7 +7706,7 @@
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
-        <v>0</v>
+        <v>58406336</v>
       </c>
       <c r="D28" s="199" t="str">
         <f>IF(Inputs!D34="","",Inputs!D34)</f>
@@ -7708,7 +7757,7 @@
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
-        <v>0</v>
+        <v>1980623</v>
       </c>
       <c r="D29" s="199" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
@@ -7759,7 +7808,7 @@
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
-        <v>0</v>
+        <v>18623682</v>
       </c>
       <c r="D30" s="199" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
@@ -7810,7 +7859,7 @@
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
-        <v>0</v>
+        <v>25845852</v>
       </c>
       <c r="D31" s="199" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
@@ -7861,7 +7910,7 @@
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
-        <v>0</v>
+        <v>61429709</v>
       </c>
       <c r="D32" s="199" t="str">
         <f>IF(Inputs!D38="","",Inputs!D38)</f>
@@ -7912,7 +7961,7 @@
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
-        <v>0</v>
+        <v>6793901</v>
       </c>
       <c r="D33" s="199" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
@@ -7963,7 +8012,7 @@
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
-        <v>0</v>
+        <v>51051351</v>
       </c>
       <c r="D34" s="199" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
@@ -8014,7 +8063,7 @@
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>0</v>
+        <v>57845252</v>
       </c>
       <c r="D35" s="77" t="str">
         <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
@@ -8065,7 +8114,7 @@
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
-        <v>0</v>
+        <v>121156821</v>
       </c>
       <c r="D36" s="199" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
@@ -8116,7 +8165,7 @@
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
-        <v>0</v>
+        <v>13900241</v>
       </c>
       <c r="D37" s="199" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
@@ -8167,7 +8216,7 @@
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
-        <v>0</v>
+        <v>39771641</v>
       </c>
       <c r="D38" s="199" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
@@ -8218,7 +8267,7 @@
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
-        <v>0</v>
+        <v>168660741</v>
       </c>
       <c r="D39" s="65" t="str">
         <f>IF(D38="","",D27-D38)</f>
@@ -8267,9 +8316,9 @@
       <c r="B40" s="98" t="s">
         <v>157</v>
       </c>
-      <c r="C40" s="155" t="e">
+      <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>#DIV/0!</v>
+        <v>2.2001523954725974E-2</v>
       </c>
       <c r="D40" s="155" t="e">
         <f>IF(D6="","",D14/MAX(D39,0))</f>
@@ -8713,7 +8762,7 @@
       </c>
       <c r="C50" s="156">
         <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0</v>
+        <v>0.15131239787715892</v>
       </c>
       <c r="D50" s="156" t="str">
         <f t="shared" si="41"/>
@@ -8764,7 +8813,7 @@
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>0</v>
+        <v>1.4227816099892221</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8881,9 +8930,9 @@
       <c r="B54" s="95" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="156" t="e">
+      <c r="C54" s="156">
         <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>#DIV/0!</v>
+        <v>0.41872361752311599</v>
       </c>
       <c r="D54" s="156" t="str">
         <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
@@ -8931,9 +8980,9 @@
       <c r="B55" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C55" s="157" t="str">
+      <c r="C55" s="157">
         <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>-</v>
+        <v>5.3783279107044654E-2</v>
       </c>
       <c r="D55" s="157" t="str">
         <f t="shared" si="45"/>
@@ -9031,9 +9080,9 @@
       <c r="B57" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="158" t="e">
+      <c r="C57" s="158">
         <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
-        <v>#DIV/0!</v>
+        <v>2.2597953435622862</v>
       </c>
       <c r="D57" s="158" t="str">
         <f t="shared" si="47"/>
@@ -10370,7 +10419,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F84" sqref="F84"/>
+      <selection activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10408,7 +10457,7 @@
       <c r="C3" s="87"/>
       <c r="D3" s="116">
         <f>C49-I49</f>
-        <v>0</v>
+        <v>121156821</v>
       </c>
       <c r="E3" s="67" t="str">
         <f>IF((C49-I49)=D3,"", "Error!")</f>
@@ -10421,7 +10470,7 @@
       </c>
       <c r="I3" s="204">
         <f>Inputs!C83</f>
-        <v>0</v>
+        <v>107256580</v>
       </c>
       <c r="K3" s="24"/>
     </row>
@@ -10432,7 +10481,7 @@
       <c r="C4" s="87"/>
       <c r="D4" s="65">
         <f>D3-I3</f>
-        <v>0</v>
+        <v>13900241</v>
       </c>
       <c r="E4" s="37"/>
       <c r="F4" s="87"/>
@@ -10450,9 +10499,9 @@
       <c r="H5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I5" s="63" t="e">
+      <c r="I5" s="63">
         <f>C28/I28</f>
-        <v>#DIV/0!</v>
+        <v>2.2597953435622862</v>
       </c>
       <c r="K5" s="24"/>
     </row>
@@ -10463,20 +10512,20 @@
       <c r="C6" s="87"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)*Exchange_Rate</f>
-        <v>0</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-28198312.699999988</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.2327422630212457</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I6" s="63" t="e">
+      <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
-        <v>#DIV/0!</v>
+        <v>0.61253898691364483</v>
       </c>
       <c r="J6" s="87"/>
       <c r="K6" s="24"/>
@@ -10497,9 +10546,9 @@
       <c r="H7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I7" s="63" t="e">
+      <c r="I7" s="63">
         <f>C24/I28</f>
-        <v>#DIV/0!</v>
+        <v>0.61231113603838638</v>
       </c>
       <c r="J7" s="87"/>
       <c r="K7" s="33"/>
@@ -10561,7 +10610,7 @@
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
-        <v>0</v>
+        <v>13539631</v>
       </c>
       <c r="D11" s="198">
         <f>Inputs!D48</f>
@@ -10569,7 +10618,7 @@
       </c>
       <c r="E11" s="88">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
-        <v>0</v>
+        <v>12185667.9</v>
       </c>
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
@@ -10578,7 +10627,7 @@
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
-        <v>0</v>
+        <v>6636214</v>
       </c>
       <c r="J11" s="87"/>
       <c r="K11" s="24"/>
@@ -10589,7 +10638,7 @@
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
-        <v>0</v>
+        <v>305449</v>
       </c>
       <c r="D12" s="198">
         <f>Inputs!D49</f>
@@ -10597,7 +10646,7 @@
       </c>
       <c r="E12" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>244359.2</v>
       </c>
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
@@ -10606,7 +10655,7 @@
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
-        <v>0</v>
+        <v>43646</v>
       </c>
       <c r="J12" s="87"/>
       <c r="K12" s="24"/>
@@ -10617,7 +10666,7 @@
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
-        <v>0</v>
+        <v>1980623</v>
       </c>
       <c r="D13" s="198">
         <f>Inputs!D50</f>
@@ -10625,7 +10674,7 @@
       </c>
       <c r="E13" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1188373.8</v>
       </c>
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
@@ -10662,7 +10711,7 @@
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
-        <v>0</v>
+        <v>114041</v>
       </c>
       <c r="J14" s="87"/>
       <c r="K14" s="27"/>
@@ -10690,7 +10739,7 @@
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
-        <v>0</v>
+        <v>6793901</v>
       </c>
       <c r="J15" s="87"/>
     </row>
@@ -10700,7 +10749,7 @@
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="D16" s="198">
         <f>Inputs!D53</f>
@@ -10708,7 +10757,7 @@
       </c>
       <c r="E16" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3533.4</v>
       </c>
       <c r="F16" s="112"/>
       <c r="G16" s="30"/>
@@ -10744,7 +10793,7 @@
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
-        <v>0</v>
+        <v>18623682</v>
       </c>
       <c r="D18" s="198">
         <f>Inputs!D55</f>
@@ -10752,7 +10801,7 @@
       </c>
       <c r="E18" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9311841</v>
       </c>
       <c r="F18" s="112"/>
       <c r="G18" s="87"/>
@@ -10777,11 +10826,11 @@
       </c>
       <c r="F19" s="134" t="str">
         <f>Inputs!E56</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G19" s="30">
         <f>IF(F19="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
@@ -10790,7 +10839,7 @@
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
-        <v>0</v>
+        <v>23436237</v>
       </c>
       <c r="D20" s="198">
         <f>Inputs!D57</f>
@@ -10798,7 +10847,7 @@
       </c>
       <c r="E20" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>14061742.199999999</v>
       </c>
       <c r="F20" s="134" t="str">
         <f>Inputs!E57</f>
@@ -10817,7 +10866,7 @@
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
-        <v>0</v>
+        <v>514825</v>
       </c>
       <c r="D21" s="198">
         <f>Inputs!D58</f>
@@ -10825,7 +10874,7 @@
       </c>
       <c r="E21" s="88">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>463342.5</v>
       </c>
       <c r="F21" s="112"/>
       <c r="G21" s="87"/>
@@ -10855,7 +10904,7 @@
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
-        <v>0</v>
+        <v>19051951</v>
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10873,19 +10922,19 @@
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
-        <v>0</v>
+        <v>15825703</v>
       </c>
       <c r="D24" s="62">
         <f>IF(E24=0,0,E24/C24)</f>
-        <v>0</v>
+        <v>0.86052423074033424</v>
       </c>
       <c r="E24" s="88">
         <f>SUM(E11:E14)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="113" t="e">
+        <v>13618400.9</v>
+      </c>
+      <c r="F24" s="113">
         <f>E24/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.36355620272480266</v>
       </c>
       <c r="G24" s="87"/>
     </row>
@@ -10895,27 +10944,27 @@
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
-        <v>0</v>
+        <v>5889</v>
       </c>
       <c r="D25" s="62">
         <f>IF(E25=0,0,E25/C25)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E25" s="88">
         <f>SUM(E15:E17)</f>
-        <v>0</v>
-      </c>
-      <c r="F25" s="113" t="e">
+        <v>3533.4</v>
+      </c>
+      <c r="F25" s="113">
         <f>E25/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>9.4327483537940028E-5</v>
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="63" t="e">
+      <c r="I25" s="63">
         <f>E28/I28</f>
-        <v>#DIV/0!</v>
+        <v>1.4493180569168314</v>
       </c>
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10924,31 +10973,31 @@
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
-        <v>0</v>
+        <v>42059919</v>
       </c>
       <c r="D26" s="62">
         <f>IF(E26=0,0,E26/C26)</f>
-        <v>0</v>
+        <v>0.55572107021889416</v>
       </c>
       <c r="E26" s="88">
         <f>E18+E19+E20</f>
-        <v>0</v>
-      </c>
-      <c r="F26" s="113" t="e">
+        <v>23373583.199999999</v>
+      </c>
+      <c r="F26" s="113">
         <f>E26/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>0.62398009976811897</v>
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="63" t="e">
+      <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J26" s="8" t="e">
+        <v>2.0045038778162945</v>
+      </c>
+      <c r="J26" s="8" t="str">
         <f>IF(I26&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v/>
       </c>
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10957,31 +11006,31 @@
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
-        <v>0</v>
+        <v>514825</v>
       </c>
       <c r="D27" s="62">
         <f>IF(E27=0,0,E27/C27)</f>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E27" s="88">
         <f>E21+E22</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="113" t="e">
+        <v>463342.5</v>
+      </c>
+      <c r="F27" s="113">
         <f>E27/$E$28</f>
-        <v>#DIV/0!</v>
+        <v>1.2369370023540492E-2</v>
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="63" t="e">
+      <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J27" s="8" t="e">
+        <v>0.52704527983832772</v>
+      </c>
+      <c r="J27" s="8" t="str">
         <f>IF(OR(I27&lt;0.75,C28&lt;I28),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10990,15 +11039,15 @@
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
-        <v>0</v>
-      </c>
-      <c r="D28" s="57" t="e">
+        <v>58406336</v>
+      </c>
+      <c r="D28" s="57">
         <f>E28/C28</f>
-        <v>#DIV/0!</v>
+        <v>0.64134925361522421</v>
       </c>
       <c r="E28" s="70">
         <f>SUM(E24:E27)</f>
-        <v>0</v>
+        <v>37458860</v>
       </c>
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
@@ -11007,11 +11056,11 @@
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
-        <v>0</v>
-      </c>
-      <c r="J28" s="32" t="e">
+        <v>25845852</v>
+      </c>
+      <c r="J28" s="32">
         <f>IF(J26="",1,0)+IF(J27="",1,0)+IF(J46="",1,0)+IF(J47="",1,0)</f>
-        <v>#DIV/0!</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11048,7 +11097,7 @@
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
-        <v>0</v>
+        <v>50731948</v>
       </c>
       <c r="J30" s="87"/>
     </row>
@@ -11058,7 +11107,7 @@
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
-        <v>0</v>
+        <v>1408869</v>
       </c>
       <c r="D31" s="198">
         <f>Inputs!D61</f>
@@ -11066,7 +11115,7 @@
       </c>
       <c r="E31" s="88">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
-        <v>0</v>
+        <v>845321.4</v>
       </c>
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
@@ -11075,7 +11124,7 @@
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
-        <v>0</v>
+        <v>40529</v>
       </c>
       <c r="J31" s="87"/>
     </row>
@@ -11112,7 +11161,7 @@
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
-        <v>0</v>
+        <v>582318</v>
       </c>
       <c r="D33" s="198">
         <f>Inputs!D63</f>
@@ -11120,7 +11169,7 @@
       </c>
       <c r="E33" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>291159</v>
       </c>
       <c r="F33" s="112"/>
       <c r="G33" s="30">
@@ -11132,7 +11181,7 @@
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
-        <v>0</v>
+        <v>278874</v>
       </c>
       <c r="J33" s="87"/>
     </row>
@@ -11142,7 +11191,7 @@
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
-        <v>0</v>
+        <v>898512</v>
       </c>
       <c r="D34" s="198">
         <f>Inputs!D64</f>
@@ -11150,7 +11199,7 @@
       </c>
       <c r="E34" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>359404.80000000005</v>
       </c>
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
@@ -11159,7 +11208,7 @@
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
-        <v>0</v>
+        <v>51051351</v>
       </c>
       <c r="J34" s="87"/>
     </row>
@@ -11169,7 +11218,7 @@
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
-        <v>0</v>
+        <v>24823141</v>
       </c>
       <c r="D35" s="198">
         <f>Inputs!D65</f>
@@ -11177,7 +11226,7 @@
       </c>
       <c r="E35" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2482314.1</v>
       </c>
       <c r="F35" s="134" t="str">
         <f>Inputs!E65</f>
@@ -11195,23 +11244,23 @@
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
-        <v>0</v>
+        <v>76964829</v>
       </c>
       <c r="D36" s="198">
         <f>Inputs!D66</f>
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
       <c r="E36" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>23089448.699999999</v>
       </c>
       <c r="F36" s="134" t="str">
         <f>Inputs!E66</f>
-        <v>N</v>
+        <v>Y</v>
       </c>
       <c r="G36" s="30">
         <f>IF(F36="Y",0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" s="87"/>
       <c r="I36" s="87"/>
@@ -11222,15 +11271,15 @@
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
-        <v>0</v>
+        <v>39222688</v>
       </c>
       <c r="D37" s="198">
         <f>Inputs!D67</f>
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="E37" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7844537.6000000006</v>
       </c>
       <c r="F37" s="134" t="str">
         <f>Inputs!E67</f>
@@ -11249,7 +11298,7 @@
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
-        <v>0</v>
+        <v>6003185</v>
       </c>
       <c r="D38" s="198">
         <f>Inputs!D68</f>
@@ -11257,7 +11306,7 @@
       </c>
       <c r="E38" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>600318.5</v>
       </c>
       <c r="F38" s="112"/>
       <c r="G38" s="87"/>
@@ -11291,7 +11340,7 @@
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
-        <v>0</v>
+        <v>122504</v>
       </c>
       <c r="D40" s="198">
         <f>Inputs!D70</f>
@@ -11299,7 +11348,7 @@
       </c>
       <c r="E40" s="88">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6125.2000000000007</v>
       </c>
       <c r="F40" s="112"/>
       <c r="G40" s="87"/>
@@ -11350,7 +11399,7 @@
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
-        <v>0</v>
+        <v>10378358</v>
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11368,15 +11417,15 @@
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
-        <v>0</v>
+        <v>1408869</v>
       </c>
       <c r="D44" s="62">
         <f>IF(E44=0,0,E44/C44)</f>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E44" s="88">
         <f>SUM(E30:E31)</f>
-        <v>0</v>
+        <v>845321.4</v>
       </c>
       <c r="F44" s="72"/>
       <c r="G44" s="87"/>
@@ -11387,15 +11436,15 @@
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
-        <v>0</v>
+        <v>26303971</v>
       </c>
       <c r="D45" s="62">
         <f>IF(E45=0,0,E45/C45)</f>
-        <v>0</v>
+        <v>0.11910284952792871</v>
       </c>
       <c r="E45" s="88">
         <f>SUM(E32:E35)</f>
-        <v>0</v>
+        <v>3132877.9000000004</v>
       </c>
       <c r="F45" s="72"/>
       <c r="G45" s="87"/>
@@ -11406,28 +11455,28 @@
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
-        <v>0</v>
+        <v>122190702</v>
       </c>
       <c r="D46" s="62">
         <f>IF(E46=0,0,E46/C46)</f>
-        <v>0</v>
+        <v>0.25807450390128706</v>
       </c>
       <c r="E46" s="88">
         <f>E36+E37+E38+E39</f>
-        <v>0</v>
+        <v>31534304.800000001</v>
       </c>
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="I46" s="63" t="e">
+      <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J46" s="8" t="e">
+        <v>0.25004165078233215</v>
+      </c>
+      <c r="J46" s="8" t="str">
         <f>IF(I46&lt;1,"Liquidity Problem!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Problem!</v>
       </c>
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11436,28 +11485,28 @@
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
-        <v>0</v>
+        <v>122504</v>
       </c>
       <c r="D47" s="62">
         <f>IF(E47=0,0,E47/C47)</f>
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E47" s="88">
         <f>E40+E41+E42</f>
-        <v>0</v>
+        <v>6125.2000000000007</v>
       </c>
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="63" t="e">
+      <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J47" s="8" t="e">
+        <v>0.2016616495882507</v>
+      </c>
+      <c r="J47" s="8" t="str">
         <f>IF(OR(I47&lt;0.5,C49&lt;I49),"Liquidity Issue!","")</f>
-        <v>#DIV/0!</v>
+        <v>Liquidity Issue!</v>
       </c>
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11466,15 +11515,15 @@
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="82" t="e">
+        <v>150026046</v>
+      </c>
+      <c r="D48" s="82">
         <f>E48/C48</f>
-        <v>#DIV/0!</v>
+        <v>0.23674975277292853</v>
       </c>
       <c r="E48" s="76">
         <f>SUM(E30:E42)</f>
-        <v>0</v>
+        <v>35518629.300000004</v>
       </c>
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
@@ -11483,7 +11532,7 @@
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
-        <v>0</v>
+        <v>61429709</v>
       </c>
       <c r="J48" s="8"/>
     </row>
@@ -11493,15 +11542,15 @@
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="56" t="e">
+        <v>208432382</v>
+      </c>
+      <c r="D49" s="56">
         <f>E49/C49</f>
-        <v>#DIV/0!</v>
+        <v>0.3501254872191597</v>
       </c>
       <c r="E49" s="88">
         <f>E28+E48</f>
-        <v>0</v>
+        <v>72977489.300000012</v>
       </c>
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
@@ -11510,7 +11559,7 @@
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
-        <v>0</v>
+        <v>87275561</v>
       </c>
       <c r="J49" s="87"/>
     </row>
@@ -11550,15 +11599,15 @@
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
-        <v>0</v>
+        <v>13900241</v>
       </c>
       <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>0</v>
+        <v>13900241</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11590,11 +11639,11 @@
         <v>89</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="284">
+      <c r="D56" s="285">
         <f>I15+I34</f>
-        <v>0</v>
-      </c>
-      <c r="E56" s="282"/>
+        <v>57845252</v>
+      </c>
+      <c r="E56" s="283"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11605,11 +11654,11 @@
         <v>90</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="283">
+      <c r="D57" s="284">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="282"/>
+      <c r="E57" s="283"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11621,11 +11670,11 @@
         <v>92</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="283">
+      <c r="D58" s="284">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="282"/>
+      <c r="E58" s="283"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11660,15 +11709,15 @@
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
-        <v>0</v>
+        <v>26232010</v>
       </c>
       <c r="D61" s="56">
         <f t="shared" ref="D61:D70" si="2">IF(E61=0,0,E61/C61)</f>
-        <v>0</v>
+        <v>0.12685400394403631</v>
       </c>
       <c r="E61" s="52">
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
-        <v>0</v>
+        <v>3327635.5</v>
       </c>
       <c r="F61" s="87"/>
       <c r="G61" s="87"/>
@@ -11681,15 +11730,15 @@
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
-        <v>0</v>
+        <v>13539631</v>
       </c>
       <c r="D62" s="107">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E62" s="118">
         <f>E11+E30</f>
-        <v>0</v>
+        <v>12185667.9</v>
       </c>
       <c r="F62" s="87"/>
       <c r="G62" s="87"/>
@@ -11702,15 +11751,15 @@
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
-        <v>0</v>
+        <v>39771641</v>
       </c>
       <c r="D63" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.39005942450300202</v>
       </c>
       <c r="E63" s="61">
         <f>E61+E62</f>
-        <v>0</v>
+        <v>15513303.4</v>
       </c>
       <c r="F63" s="87"/>
       <c r="G63" s="87"/>
@@ -11725,7 +11774,7 @@
       <c r="D64" s="208"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
-        <v>0</v>
+        <v>57845252</v>
       </c>
       <c r="F64" s="87"/>
       <c r="G64" s="87"/>
@@ -11738,15 +11787,15 @@
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
-        <v>0</v>
+        <v>-18073611</v>
       </c>
       <c r="D65" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2.3421965095962287</v>
       </c>
       <c r="E65" s="61">
         <f>E63-E64</f>
-        <v>0</v>
+        <v>-42331948.600000001</v>
       </c>
       <c r="F65" s="87"/>
       <c r="G65" s="87"/>
@@ -11783,15 +11832,15 @@
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
-        <v>0</v>
+        <v>168660741</v>
       </c>
       <c r="D68" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.34070872426678128</v>
       </c>
       <c r="E68" s="68">
         <f>E49-E63</f>
-        <v>0</v>
+        <v>57464185.900000013</v>
       </c>
       <c r="F68" s="87"/>
       <c r="G68" s="87"/>
@@ -11806,7 +11855,7 @@
       <c r="D69" s="208"/>
       <c r="E69" s="126">
         <f>I49-E64</f>
-        <v>0</v>
+        <v>29430309</v>
       </c>
       <c r="F69" s="87"/>
       <c r="G69" s="87"/>
@@ -11819,15 +11868,15 @@
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
-        <v>0</v>
+        <v>139230432</v>
       </c>
       <c r="D70" s="29">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.20134877481382815</v>
       </c>
       <c r="E70" s="68">
         <f>E68-E69</f>
-        <v>0</v>
+        <v>28033876.900000013</v>
       </c>
       <c r="F70" s="87"/>
       <c r="G70" s="87"/>
@@ -11839,19 +11888,19 @@
       <c r="B72" s="106" t="s">
         <v>127</v>
       </c>
-      <c r="C72" s="271">
+      <c r="C72" s="272">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="271"/>
-      <c r="E72" s="285" t="s">
+      <c r="D72" s="272"/>
+      <c r="E72" s="286" t="s">
         <v>206</v>
       </c>
-      <c r="F72" s="285"/>
-      <c r="H72" s="285" t="s">
+      <c r="F72" s="286"/>
+      <c r="H72" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="I72" s="285"/>
+      <c r="I72" s="286"/>
       <c r="K72" s="50" t="s">
         <v>7</v>
       </c>
@@ -11861,18 +11910,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="272" t="s">
+      <c r="C73" s="273" t="s">
         <v>100</v>
       </c>
-      <c r="D73" s="272"/>
-      <c r="E73" s="286" t="s">
+      <c r="D73" s="273"/>
+      <c r="E73" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="F73" s="272"/>
-      <c r="H73" s="286" t="s">
+      <c r="F73" s="273"/>
+      <c r="H73" s="287" t="s">
         <v>101</v>
       </c>
-      <c r="I73" s="272"/>
+      <c r="I73" s="273"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12268,11 +12317,11 @@
       </c>
       <c r="E88" s="170">
         <f>Inputs!E98</f>
-        <v>1.3499962549695244</v>
+        <v>0.67499812748476218</v>
       </c>
       <c r="F88" s="166">
         <f>E88/E86</f>
-        <v>0.83968271859293786</v>
+        <v>0.41984135929646893</v>
       </c>
       <c r="H88" s="170">
         <f>Inputs!F98</f>
@@ -12295,7 +12344,7 @@
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5987022609523844E-2</v>
+        <v>4.2993511304761922E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
@@ -12331,15 +12380,15 @@
       <c r="D92" s="10" t="s">
         <v>156</v>
       </c>
-      <c r="E92" s="285" t="s">
+      <c r="E92" s="286" t="s">
         <v>206</v>
       </c>
-      <c r="F92" s="285"/>
+      <c r="F92" s="286"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="285" t="s">
+      <c r="H92" s="286" t="s">
         <v>205</v>
       </c>
-      <c r="I92" s="285"/>
+      <c r="I92" s="286"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12388,7 +12437,7 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.780088113468974</v>
+        <v>12.575484272508646</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
@@ -12462,14 +12511,14 @@
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>0</v>
+        <v>-13900241</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
       <c r="H98" s="123">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-9.5777483212689418</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
@@ -12480,17 +12529,17 @@
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
-        <v>0</v>
+        <v>-42331948.600000001</v>
       </c>
       <c r="D99" s="214"/>
       <c r="E99" s="145">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
-        <v>0</v>
+        <v>-33.543408498143812</v>
       </c>
       <c r="F99" s="214"/>
       <c r="H99" s="145">
         <f>C99*Data!$C$4/Common_Shares</f>
-        <v>0</v>
+        <v>-29.168181302733753</v>
       </c>
       <c r="I99" s="216"/>
       <c r="K99" s="24"/>
@@ -12501,27 +12550,27 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>28510539.502847984</v>
+        <v>-27721650.097152017</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>16.698038262976379</v>
+        <v>0</v>
       </c>
       <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>19.644750897619268</v>
+        <v>0</v>
       </c>
       <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>19.644750897619268</v>
+        <v>0</v>
       </c>
       <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>19.644750897619268</v>
+        <v>0</v>
       </c>
       <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>26.126833682509453</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -12566,15 +12615,15 @@
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>13.007672162380972</v>
+        <v>6.2522382154008387</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>15.303143720448203</v>
+        <v>6.2522382154008387</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>15.303143720448203</v>
+        <v>10.777690967924521</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
@@ -12623,27 +12672,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>25360039.820370845</v>
+        <v>4536954.5674158679</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>14.852855212678676</v>
+        <v>3.1261191077004193</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>17.473947309033736</v>
+        <v>3.1261191077004193</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>17.473947309033736</v>
+        <v>5.3888454839622604</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>17.473947309033736</v>
+        <v>7.6515718602241014</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>23.239740605485899</v>
+        <v>10.176323764231171</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12656,7 +12705,7 @@
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
-        <v>Avg</v>
+        <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EF6E038-7632-494D-9DEB-411942670263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{307C6439-276D-4DEA-906E-6B5AC8B40F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33720" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -26,6 +26,17 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataSignature="AMtx7mi73Cg0ax9bLfpeUuF69nNRn7idDQ=="/>
@@ -4227,7 +4238,7 @@
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.5987022609523844E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -5017,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>15.7</v>
+        <v>15.54</v>
       </c>
       <c r="H3" s="134" t="s">
         <v>267</v>
@@ -5058,7 +5069,7 @@
       </c>
       <c r="G5" s="276">
         <f>G3*G4/1000000</f>
-        <v>22785.499929599999</v>
+        <v>22553.291013120001</v>
       </c>
       <c r="H5" s="276"/>
       <c r="I5" s="38"/>
@@ -5274,7 +5285,7 @@
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18806617523911426</v>
+        <v>0.18614957727489398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5290,7 +5301,7 @@
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.7652261133174214</v>
+        <v>9.6657078854110026</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5322,7 +5333,7 @@
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.5987022609523844E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5352,20 +5363,20 @@
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2522382154008387</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>23.405544657731692</v>
+        <v>23.501104207541875</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.777690967924521</v>
+        <v>10.815570092547695</v>
       </c>
       <c r="G29" s="275">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.352647528462342</v>
+        <v>20.435742789166849</v>
       </c>
       <c r="H29" s="275"/>
     </row>
@@ -12288,17 +12299,17 @@
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10240418280087138</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10240418280087138</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10240418280087138</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
@@ -12339,17 +12350,17 @@
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5987022609523844E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.2993511304761922E-2</v>
+        <v>4.3436172939817386E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.5987022609523844E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12409,14 +12420,14 @@
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.512610914573578</v>
+        <v>39.701924715284115</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>209</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.512610914573578</v>
+        <v>39.701924715284115</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -12437,14 +12448,14 @@
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.575484272508646</v>
+        <v>12.602193027352399</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>210</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.780088113468974</v>
+        <v>30.905756257759275</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12487,21 +12498,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28510539.502847984</v>
+        <v>28647139.906330846</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.644750897619268</v>
+        <v>19.738873315003442</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.644750897619268</v>
+        <v>19.738873315003442</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.126833682509453</v>
+        <v>26.252013215587173</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12550,7 +12561,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-27721650.097152017</v>
+        <v>-27585049.693669155</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12611,27 +12622,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22209540.137893707</v>
+        <v>22300216.671514444</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2522382154008387</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2522382154008387</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.777690967924521</v>
+        <v>10.815570092547695</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.303143720448203</v>
+        <v>15.36562299815745</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.352647528462342</v>
+        <v>20.435742789166849</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12672,27 +12683,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4536954.5674158679</v>
+        <v>4546590.4911427386</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1261191077004193</v>
+        <v>3.132758593468969</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1261191077004193</v>
+        <v>3.132758593468969</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.3888454839622604</v>
+        <v>5.4077850462738475</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6515718602241014</v>
+        <v>7.6828114990787251</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.176323764231171</v>
+        <v>10.217871394583424</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{307C6439-276D-4DEA-906E-6B5AC8B40F29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBED0F9-BA29-43A0-BF15-1B51E60D3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -54,6 +54,9 @@
     <t>Current Price:</t>
   </si>
   <si>
+    <t>HKD</t>
+  </si>
+  <si>
     <t>Number of Shares:</t>
   </si>
   <si>
@@ -105,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Total Liabilities / Total Assets</t>
-  </si>
-  <si>
     <t>Current Ratio</t>
   </si>
   <si>
@@ -126,13 +126,7 @@
     <t>Discount</t>
   </si>
   <si>
-    <t>Orderly Liquidation Values =</t>
-  </si>
-  <si>
     <t>Book Current Ratio</t>
-  </si>
-  <si>
-    <t>Orderly Liquidation Value per Shares =</t>
   </si>
   <si>
     <t>Book Quick Ratio</t>
@@ -449,10 +443,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Solvency Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Pre-tax Profit =</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -549,10 +539,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Profibility Qaulity Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>2. Total Debt + PS + Options</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -914,10 +900,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Cost Analysis</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,23 +950,52 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
+    <t>Profibility Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Analysis</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Op_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Common_Equity / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
     <t>0683.HK</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉里建設</t>
   </si>
   <si>
     <t>C0005</t>
-    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dividend</t>
   </si>
   <si>
     <t>HKD</t>
     <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>嘉里建設</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dividend</t>
   </si>
 </sst>
 </file>
@@ -1006,7 +1017,7 @@
     <numFmt numFmtId="186" formatCode="0&quot; Years&quot;"/>
     <numFmt numFmtId="187" formatCode="&quot;g = &quot;0.00%"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1199,13 +1210,6 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Microsoft YaHei"/>
-      <family val="1"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="14">
@@ -1551,7 +1555,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="288">
+  <cellXfs count="291">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2193,7 +2197,14 @@
     <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3610,8 +3621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
@@ -3624,28 +3635,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" x14ac:dyDescent="0.5">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>195</v>
-      </c>
-      <c r="C5" s="271" t="s">
-        <v>268</v>
+        <v>191</v>
+      </c>
+      <c r="C5" s="191" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3653,7 +3664,7 @@
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B7" s="140" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="190">
         <v>8</v>
@@ -3661,24 +3672,24 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="C8" s="191" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" s="267"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="C10" s="193">
         <v>1451305728</v>
@@ -3686,15 +3697,15 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="C11" s="192" t="s">
-        <v>267</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="218" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C12" s="219">
         <v>45291</v>
@@ -3702,7 +3713,7 @@
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="218" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C13" s="220">
         <v>1000</v>
@@ -3710,7 +3721,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3718,15 +3729,15 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
+        <v>250</v>
+      </c>
+      <c r="C15" s="176" t="s">
         <v>255</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="222" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C16" s="223">
         <v>0.25</v>
@@ -3735,61 +3746,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3838,7 +3849,7 @@
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B25" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C25" s="149">
         <v>13089628</v>
@@ -3864,7 +3875,7 @@
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C26" s="150">
         <v>6368352</v>
@@ -3890,7 +3901,7 @@
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C27" s="150">
         <v>1783204</v>
@@ -3916,7 +3927,7 @@
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C28" s="150"/>
       <c r="D28" s="150"/>
@@ -3932,7 +3943,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C29" s="150">
         <v>599686</v>
@@ -3958,7 +3969,7 @@
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C30" s="150">
         <v>920459</v>
@@ -3978,7 +3989,7 @@
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C31" s="150"/>
       <c r="D31" s="150"/>
@@ -3994,7 +4005,7 @@
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C32" s="150"/>
       <c r="D32" s="150"/>
@@ -4010,7 +4021,7 @@
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C33" s="150"/>
       <c r="D33" s="150"/>
@@ -4026,7 +4037,7 @@
     </row>
     <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -4048,7 +4059,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -4064,7 +4075,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4080,7 +4091,7 @@
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C37" s="217"/>
       <c r="D37" s="150"/>
@@ -4102,7 +4113,7 @@
     </row>
     <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -4118,7 +4129,7 @@
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C39" s="217"/>
       <c r="D39" s="150"/>
@@ -4140,7 +4151,7 @@
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C40" s="217"/>
       <c r="D40" s="150"/>
@@ -4162,7 +4173,7 @@
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B41" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C41" s="217"/>
       <c r="D41" s="150"/>
@@ -4184,7 +4195,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4200,7 +4211,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -4216,7 +4227,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C44" s="250">
         <v>1.3499962549695244</v>
@@ -4234,11 +4245,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4283,21 +4294,21 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="C47" s="194" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="194" t="s">
+        <v>192</v>
+      </c>
+      <c r="E47" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="D47" s="194" t="s">
-        <v>196</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C48" s="59">
         <v>13539631</v>
@@ -4309,7 +4320,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C49" s="59">
         <v>305449</v>
@@ -4321,7 +4332,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C50" s="59">
         <f>1787467+193156</f>
@@ -4335,7 +4346,7 @@
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
@@ -4345,7 +4356,7 @@
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
@@ -4355,7 +4366,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C53" s="59">
         <v>5889</v>
@@ -4368,7 +4379,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4378,7 +4389,7 @@
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C55" s="59">
         <v>18623682</v>
@@ -4391,7 +4402,7 @@
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
@@ -4399,12 +4410,12 @@
         <v>0.6</v>
       </c>
       <c r="E56" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C57" s="59">
         <v>23436237</v>
@@ -4413,12 +4424,12 @@
         <v>0.6</v>
       </c>
       <c r="E57" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C58" s="59">
         <f>325570+189255</f>
@@ -4432,7 +4443,7 @@
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C59" s="120"/>
       <c r="D59" s="195">
@@ -4443,7 +4454,7 @@
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
@@ -4454,7 +4465,7 @@
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C61" s="59">
         <f>758168+650701</f>
@@ -4468,7 +4479,7 @@
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
@@ -4479,7 +4490,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C63" s="59">
         <v>582318</v>
@@ -4492,7 +4503,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C64" s="59">
         <v>898512</v>
@@ -4504,7 +4515,7 @@
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C65" s="59">
         <v>24823141</v>
@@ -4513,12 +4524,12 @@
         <v>0.1</v>
       </c>
       <c r="E65" s="221" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C66" s="59">
         <v>76964829</v>
@@ -4527,12 +4538,12 @@
         <v>0.3</v>
       </c>
       <c r="E66" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C67" s="59">
         <v>39222688</v>
@@ -4541,12 +4552,12 @@
         <v>0.2</v>
       </c>
       <c r="E67" s="221" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C68" s="59">
         <f>4323428+1679757</f>
@@ -4560,7 +4571,7 @@
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
@@ -4571,7 +4582,7 @@
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C70" s="59">
         <v>122504</v>
@@ -4583,7 +4594,7 @@
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
@@ -4594,7 +4605,7 @@
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B72" s="246" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C72" s="247"/>
       <c r="D72" s="248">
@@ -4604,7 +4615,7 @@
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C73" s="59">
         <v>6636214</v>
@@ -4612,7 +4623,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C74" s="59">
         <v>43646</v>
@@ -4620,13 +4631,13 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B76" s="86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C76" s="120">
         <v>114041</v>
@@ -4634,7 +4645,7 @@
     </row>
     <row r="77" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B77" s="80" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C77" s="83">
         <v>25845852</v>
@@ -4642,7 +4653,7 @@
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C78" s="59">
         <f>48494864+2237084</f>
@@ -4651,7 +4662,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C79" s="59">
         <v>40529</v>
@@ -4659,13 +4670,13 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="59"/>
     </row>
     <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B81" s="86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C81" s="120">
         <v>278874</v>
@@ -4673,7 +4684,7 @@
     </row>
     <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C82" s="83">
         <v>61429709</v>
@@ -4681,7 +4692,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="C83" s="59">
         <v>107256580</v>
@@ -4689,19 +4700,19 @@
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4709,10 +4720,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4720,18 +4731,18 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="272">
+        <v>124</v>
+      </c>
+      <c r="C89" s="275">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="272"/>
+      <c r="D89" s="275"/>
       <c r="E89" s="89" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4740,20 +4751,20 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D90" s="273"/>
+      <c r="C90" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D90" s="276"/>
       <c r="E90" s="235" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F90" s="255" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -4771,7 +4782,7 @@
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B92" s="104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
@@ -4792,7 +4803,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4813,7 +4824,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4831,7 +4842,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4852,7 +4863,7 @@
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
@@ -4870,7 +4881,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4888,7 +4899,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4975,7 +4986,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5016,68 +5027,68 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="C3" s="278" t="str">
+        <v>190</v>
+      </c>
+      <c r="C3" s="281" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="282"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>15.54</v>
+        <v>15.42</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>195</v>
-      </c>
-      <c r="C4" s="280" t="str">
+        <v>191</v>
+      </c>
+      <c r="C4" s="283" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="281"/>
+      <c r="D4" s="284"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="284">
+        <v>3</v>
+      </c>
+      <c r="G4" s="287">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="284"/>
+      <c r="H4" s="287"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" s="282">
+        <v>159</v>
+      </c>
+      <c r="C5" s="285">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="283"/>
+      <c r="D5" s="286"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="276">
+        <v>97</v>
+      </c>
+      <c r="G5" s="279">
         <f>G3*G4/1000000</f>
-        <v>22553.291013120001</v>
-      </c>
-      <c r="H5" s="276"/>
+        <v>22379.134325759998</v>
+      </c>
+      <c r="H5" s="279"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="87" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="185">
         <f>Inputs!C7</f>
@@ -5092,18 +5103,18 @@
         <v>45291</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G6" s="277" t="str">
+        <v>5</v>
+      </c>
+      <c r="G6" s="280" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="277"/>
+      <c r="H6" s="280"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5115,7 +5126,7 @@
       </c>
       <c r="E7" s="87"/>
       <c r="F7" s="35" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G7" s="133">
         <v>1</v>
@@ -5128,40 +5139,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5174,29 +5185,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5206,12 +5217,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5221,29 +5232,29 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B19" s="142" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C19" s="135" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B20" s="137" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C20" s="171">
         <f>Fin_Analysis!I75</f>
         <v>0.48651894461783024</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -5251,7 +5262,7 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B21" s="137" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C21" s="171">
         <f>Fin_Analysis!I77</f>
@@ -5262,58 +5273,58 @@
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="137" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C22" s="171">
         <f>Fin_Analysis!I78</f>
         <v>9.375962912518726E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B23" s="137" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C23" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18614957727489398</v>
+        <v>0.18471212880172877</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6657078854110026</v>
+        <v>9.5910692144811875</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5322,83 +5333,83 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I83</f>
         <v>0.23767729177126601</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
       <c r="B28" s="90" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>237</v>
-      </c>
-      <c r="G28" s="274" t="s">
-        <v>257</v>
-      </c>
-      <c r="H28" s="274"/>
+        <v>233</v>
+      </c>
+      <c r="G28" s="277" t="s">
+        <v>252</v>
+      </c>
+      <c r="H28" s="277"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.265517186937938</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>23.501104207541875</v>
+        <v>23.574285222663697</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.815570092547695</v>
-      </c>
-      <c r="G29" s="275">
+        <v>10.844571529930548</v>
+      </c>
+      <c r="G29" s="278">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.435742789166849</v>
-      </c>
-      <c r="H29" s="275"/>
+        <v>20.499378454490174</v>
+      </c>
+      <c r="H29" s="278"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5408,25 +5419,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C55&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C55&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C55&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5436,7 +5447,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5446,14 +5457,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5463,7 +5474,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5478,14 +5489,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6438,12 +6449,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N931"/>
+  <dimension ref="A1:N932"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D15" sqref="D15"/>
+      <selection pane="topRight" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6465,21 +6476,21 @@
     <row r="2" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
+        <v>195</v>
+      </c>
+      <c r="F2" s="119" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>199</v>
       </c>
-      <c r="F2" s="119" t="s">
-        <v>202</v>
-      </c>
-      <c r="G2" s="148" t="s">
-        <v>203</v>
-      </c>
       <c r="H2" s="147" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6490,14 +6501,14 @@
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="201">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6519,7 +6530,7 @@
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="128">
         <f>Inputs!C13</f>
@@ -6530,7 +6541,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6541,7 +6552,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6591,7 +6602,7 @@
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6" s="200">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
@@ -6642,7 +6653,7 @@
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="92">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
@@ -6693,7 +6704,7 @@
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C8" s="199">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
@@ -6744,7 +6755,7 @@
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="98" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C9" s="151">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
@@ -6795,7 +6806,7 @@
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C10" s="199">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
@@ -6846,7 +6857,7 @@
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="199" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
@@ -6897,7 +6908,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6948,7 +6959,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6999,7 +7010,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7050,7 +7061,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7101,7 +7112,7 @@
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C16" s="199" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
@@ -7152,7 +7163,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7203,7 +7214,7 @@
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="94" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C18" s="152" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
@@ -7254,7 +7265,7 @@
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="97" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C19" s="199" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
@@ -7305,7 +7316,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7356,7 +7367,7 @@
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="97" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C21" s="199" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
@@ -7407,7 +7418,7 @@
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="98" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C22" s="161">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
@@ -7458,7 +7469,7 @@
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="153">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
@@ -7509,7 +7520,7 @@
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C24" s="154">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
@@ -7560,7 +7571,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -7611,7 +7622,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -7662,7 +7673,7 @@
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C27" s="65">
         <f>IF(C36="","",C36+C31+C32)</f>
@@ -7713,7 +7724,7 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C28</f>
@@ -7764,7 +7775,7 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C13</f>
@@ -7815,7 +7826,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -7866,7 +7877,7 @@
     <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I28</f>
@@ -7917,7 +7928,7 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I48</f>
@@ -7968,7 +7979,7 @@
     <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C33" s="65">
         <f>Fin_Analysis!I15</f>
@@ -8019,7 +8030,7 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C34" s="65">
         <f>Fin_Analysis!I34</f>
@@ -8070,7 +8081,7 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C35" s="77">
         <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
@@ -8121,7 +8132,7 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C36" s="65">
         <f>Fin_Analysis!D3</f>
@@ -8172,7 +8183,7 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!D4</f>
@@ -8223,7 +8234,7 @@
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="94" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C38" s="65">
         <f>Fin_Analysis!C63</f>
@@ -8274,7 +8285,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="94" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C39" s="65">
         <f>Fin_Analysis!C68</f>
@@ -8325,7 +8336,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8376,7 +8387,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8394,7 +8405,7 @@
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="95" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C42" s="156">
         <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
@@ -8445,7 +8456,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8496,7 +8507,7 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C44" s="153">
         <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
@@ -8547,7 +8558,7 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C45" s="153">
         <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
@@ -8598,7 +8609,7 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C46" s="153">
         <f>IF(C6="","",MAX(C12,0)/C6)</f>
@@ -8649,7 +8660,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8700,7 +8711,7 @@
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="94" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C48" s="153">
         <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
@@ -8751,7 +8762,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>149</v>
+        <v>261</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8768,50 +8779,50 @@
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="95" t="s">
-        <v>146</v>
-      </c>
-      <c r="C50" s="156">
-        <f t="shared" ref="C50:M50" si="41">IF(C29="","",C29/C6)</f>
-        <v>0.15131239787715892</v>
-      </c>
-      <c r="D50" s="156" t="str">
+      <c r="B50" s="271" t="s">
+        <v>263</v>
+      </c>
+      <c r="C50" s="272">
+        <f>IF(C6="","",C6/C39)</f>
+        <v>7.7609216717481402E-2</v>
+      </c>
+      <c r="D50" s="272" t="e">
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="E50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="F50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G50" s="272" t="e">
         <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="G50" s="156" t="str">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="H50" s="156" t="str">
+      <c r="I50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I50" s="156" t="str">
+      <c r="J50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J50" s="156" t="str">
+      <c r="K50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K50" s="156" t="str">
+      <c r="L50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L50" s="156" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="156" t="str">
+      <c r="M50" s="272" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -8820,11 +8831,11 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C30="","",C30/C6)</f>
-        <v>1.4227816099892221</v>
+        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
+        <v>0.15131239787715892</v>
       </c>
       <c r="D51" s="153" t="str">
         <f t="shared" si="42"/>
@@ -8871,167 +8882,168 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C52" s="153" t="e">
+        <v>144</v>
+      </c>
+      <c r="C52" s="153">
+        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
+        <v>1.4227816099892221</v>
+      </c>
+      <c r="D52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M52" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="N52" s="87"/>
+    </row>
+    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A53" s="4"/>
+      <c r="B53" s="94" t="s">
+        <v>258</v>
+      </c>
+      <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D52" s="153" t="e">
-        <f t="shared" ref="D52:M52" si="43">IF(E6="","",D16/(D6-E6))</f>
+      <c r="D53" s="153" t="e">
+        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E52" s="153" t="e">
-        <f t="shared" si="43"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F52" s="153" t="e">
-        <f t="shared" si="43"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
-    </row>
-    <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A53" s="16"/>
-      <c r="B53" s="102" t="s">
-        <v>124</v>
-      </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="36"/>
-      <c r="H53" s="36"/>
-      <c r="I53" s="36"/>
-      <c r="J53" s="36"/>
-      <c r="K53" s="36"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="36"/>
-    </row>
-    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="4"/>
-      <c r="B54" s="95" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="156">
-        <f>IF(C36="","",(C27-C36)/C27)</f>
-        <v>0.41872361752311599</v>
-      </c>
-      <c r="D54" s="156" t="str">
-        <f t="shared" ref="D54:M54" si="44">IF(D36="","",(D27-D36)/D27)</f>
-        <v/>
-      </c>
-      <c r="E54" s="156" t="e">
+      <c r="E53" s="153" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F54" s="156" t="e">
+      <c r="F53" s="153" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G54" s="156" t="e">
+      <c r="G53" s="153" t="str">
         <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H54" s="156" t="str">
+        <v/>
+      </c>
+      <c r="H53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M53" s="153" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
+      <c r="N53" s="87"/>
+    </row>
+    <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="16"/>
+      <c r="B54" s="102" t="s">
+        <v>262</v>
+      </c>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36"/>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
+      <c r="G54" s="36"/>
+      <c r="H54" s="36"/>
+      <c r="I54" s="36"/>
+      <c r="J54" s="36"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="36"/>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C55" s="157">
-        <f t="shared" ref="C55:M55" si="45">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>5.3783279107044654E-2</v>
-      </c>
-      <c r="D55" s="157" t="str">
+      <c r="B55" s="95" t="s">
+        <v>264</v>
+      </c>
+      <c r="C55" s="156">
+        <f>IF(C36="","",(C36-C37)/C27)</f>
+        <v>0.51458693208236717</v>
+      </c>
+      <c r="D55" s="156" t="str">
+        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
+        <v/>
+      </c>
+      <c r="E55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="E55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="F55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v>0.16460211680126566</v>
-      </c>
-      <c r="F55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="G55" s="156" t="e">
         <f t="shared" si="45"/>
-        <v>0.13423059684295194</v>
-      </c>
-      <c r="G55" s="157">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H55" s="156" t="str">
         <f t="shared" si="45"/>
-        <v>0.16550742385270611</v>
-      </c>
-      <c r="H55" s="157" t="str">
+        <v/>
+      </c>
+      <c r="I55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I55" s="157" t="str">
+      <c r="J55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J55" s="157" t="str">
+      <c r="K55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K55" s="157" t="str">
+      <c r="L55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L55" s="157" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="157" t="str">
+      <c r="M55" s="156" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -9039,112 +9051,302 @@
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="94" t="s">
-        <v>122</v>
-      </c>
-      <c r="C56" s="153">
-        <f t="shared" ref="C56:M56" si="46">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.19275644834711586</v>
-      </c>
-      <c r="D56" s="153">
+        <v>118</v>
+      </c>
+      <c r="C56" s="157">
+        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
+        <v>5.3783279107044654E-2</v>
+      </c>
+      <c r="D56" s="157" t="str">
         <f t="shared" si="46"/>
-        <v>7.9558955763155692E-2</v>
-      </c>
-      <c r="E56" s="153">
+        <v/>
+      </c>
+      <c r="E56" s="157">
         <f t="shared" si="46"/>
-        <v>9.108876012464287E-2</v>
-      </c>
-      <c r="F56" s="153">
+        <v>0.16460211680126566</v>
+      </c>
+      <c r="F56" s="157">
         <f t="shared" si="46"/>
-        <v>0.1304717773613695</v>
-      </c>
-      <c r="G56" s="153">
+        <v>0.13423059684295194</v>
+      </c>
+      <c r="G56" s="157">
         <f t="shared" si="46"/>
-        <v>0.12369131735100422</v>
-      </c>
-      <c r="H56" s="153" t="str">
+        <v>0.16550742385270611</v>
+      </c>
+      <c r="H56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I56" s="153" t="str">
+      <c r="I56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J56" s="153" t="str">
+      <c r="J56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K56" s="153" t="str">
+      <c r="K56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L56" s="153" t="str">
+      <c r="L56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M56" s="153" t="str">
+      <c r="M56" s="157" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
-      <c r="B57" s="98" t="s">
+      <c r="B57" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="C57" s="153">
+        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.19275644834711586</v>
+      </c>
+      <c r="D57" s="153">
+        <f t="shared" si="47"/>
+        <v>7.9558955763155692E-2</v>
+      </c>
+      <c r="E57" s="153">
+        <f t="shared" si="47"/>
+        <v>9.108876012464287E-2</v>
+      </c>
+      <c r="F57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1304717773613695</v>
+      </c>
+      <c r="G57" s="153">
+        <f t="shared" si="47"/>
+        <v>0.12369131735100422</v>
+      </c>
+      <c r="H57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M57" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A58" s="4"/>
+      <c r="B58" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="158">
-        <f t="shared" ref="C57:M57" si="47">IF(C28="","",C28/C31)</f>
+      <c r="C58" s="158">
+        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
         <v>2.2597953435622862</v>
       </c>
-      <c r="D57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="E57" s="158">
-        <f t="shared" si="47"/>
+      <c r="D58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E58" s="158">
+        <f t="shared" si="48"/>
         <v>2.3178775127698175</v>
       </c>
-      <c r="F57" s="158">
-        <f t="shared" si="47"/>
+      <c r="F58" s="158">
+        <f t="shared" si="48"/>
         <v>2.2711732065770964</v>
       </c>
-      <c r="G57" s="158">
-        <f t="shared" si="47"/>
+      <c r="G58" s="158">
+        <f t="shared" si="48"/>
         <v>1.5397960079820596</v>
       </c>
-      <c r="H57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="158" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+      <c r="H58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M58" s="158" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+    </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="4"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="102" t="s">
+        <v>265</v>
+      </c>
+      <c r="C59" s="273" t="str">
+        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
+        <v>Error</v>
+      </c>
+      <c r="D59" s="273" t="str">
+        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="E59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="F59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="G59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="H59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M59" s="273" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
+      <c r="B60" s="271" t="s">
+        <v>266</v>
+      </c>
+      <c r="C60" s="274">
+        <f>IF(C14="","",C14/(C36-C37))</f>
+        <v>3.4597349023559515E-2</v>
+      </c>
+      <c r="D60" s="274" t="e">
+        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G60" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M60" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
+      <c r="B61" s="271" t="s">
+        <v>267</v>
+      </c>
+      <c r="C61" s="274">
+        <f>IF(C22="","",C22/(C36-C37))</f>
+        <v>2.900621419528138E-2</v>
+      </c>
+      <c r="D61" s="274" t="e">
+        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G61" s="274" t="e">
+        <f t="shared" si="51"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="I61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="J61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="K61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="L61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
+      <c r="M61" s="274" t="str">
+        <f t="shared" si="51"/>
+        <v/>
+      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9707,7 +9909,9 @@
     <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A248" s="4"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A249" s="4"/>
+    </row>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10390,6 +10594,7 @@
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C6:M23 C27:M40">
@@ -10429,8 +10634,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D103" sqref="D103"/>
+    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E82" sqref="E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -10458,7 +10663,7 @@
       <c r="H2" s="7"/>
       <c r="I2" s="87"/>
       <c r="K2" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -10508,7 +10713,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -10517,12 +10722,13 @@
       <c r="K5" s="24"/>
     </row>
     <row r="6" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B6" s="20" t="s">
-        <v>26</v>
+      <c r="B6" s="20" t="str">
+        <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
+        <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
       <c r="D6" s="69">
-        <f>(E49-I49-E53)*Exchange_Rate</f>
+        <f>(E49-I49-E53)</f>
         <v>-28198312.699999988</v>
       </c>
       <c r="E6" s="56">
@@ -10532,7 +10738,7 @@
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
       <c r="H6" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
@@ -10542,8 +10748,9 @@
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="19" t="s">
-        <v>28</v>
+      <c r="B7" s="19" t="str">
+        <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
+        <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
       <c r="D7" s="66">
@@ -10555,7 +10762,7 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
@@ -10573,7 +10780,7 @@
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C9" s="86"/>
       <c r="D9" s="203">
@@ -10592,32 +10799,32 @@
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="74" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="74" t="s">
+        <v>192</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="F10" s="111" t="s">
         <v>33</v>
-      </c>
-      <c r="D10" s="74" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="74" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="87"/>
       <c r="H10" s="22" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="I10" s="74" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
@@ -10634,7 +10841,7 @@
       <c r="F11" s="112"/>
       <c r="G11" s="87"/>
       <c r="H11" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
@@ -10645,7 +10852,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10662,7 +10869,7 @@
       <c r="F12" s="112"/>
       <c r="G12" s="87"/>
       <c r="H12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
@@ -10673,7 +10880,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10690,7 +10897,7 @@
       <c r="F13" s="112"/>
       <c r="G13" s="87"/>
       <c r="H13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
@@ -10701,7 +10908,7 @@
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
@@ -10718,7 +10925,7 @@
       <c r="F14" s="112"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="I14" s="205">
         <f>Inputs!C76</f>
@@ -10729,7 +10936,7 @@
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
@@ -10746,7 +10953,7 @@
       <c r="F15" s="112"/>
       <c r="G15" s="87"/>
       <c r="H15" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="I15" s="84">
         <f>SUM(I11:I14)</f>
@@ -10756,7 +10963,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10778,7 +10985,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10800,7 +11007,7 @@
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
@@ -10821,7 +11028,7 @@
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
@@ -10846,7 +11053,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10873,7 +11080,7 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
@@ -10894,7 +11101,7 @@
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
@@ -10911,7 +11118,7 @@
       <c r="F22" s="112"/>
       <c r="G22" s="87"/>
       <c r="H22" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10923,13 +11130,13 @@
       <c r="D23" s="87"/>
       <c r="E23" s="87"/>
       <c r="F23" s="111" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G23" s="87"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10951,7 +11158,7 @@
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10971,7 +11178,7 @@
       </c>
       <c r="G25" s="87"/>
       <c r="H25" s="23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10980,7 +11187,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -11000,7 +11207,7 @@
       </c>
       <c r="G26" s="87"/>
       <c r="H26" s="23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -11013,7 +11220,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -11033,7 +11240,7 @@
       </c>
       <c r="G27" s="87"/>
       <c r="H27" s="23" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -11046,7 +11253,7 @@
     </row>
     <row r="28" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B28" s="78" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C28" s="79">
         <f>SUM(C11:C22)</f>
@@ -11063,7 +11270,7 @@
       <c r="F28" s="112"/>
       <c r="G28" s="87"/>
       <c r="H28" s="78" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I28" s="206">
         <f>Inputs!C77</f>
@@ -11079,7 +11286,7 @@
       <c r="D29" s="87"/>
       <c r="E29" s="87"/>
       <c r="F29" s="112" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G29" s="87"/>
       <c r="H29" s="87"/>
@@ -11088,7 +11295,7 @@
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
@@ -11104,7 +11311,7 @@
       <c r="F30" s="112"/>
       <c r="G30" s="87"/>
       <c r="H30" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
@@ -11114,7 +11321,7 @@
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
@@ -11131,7 +11338,7 @@
       <c r="F31" s="112"/>
       <c r="G31" s="87"/>
       <c r="H31" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
@@ -11141,7 +11348,7 @@
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
@@ -11158,7 +11365,7 @@
       <c r="F32" s="112"/>
       <c r="G32" s="87"/>
       <c r="H32" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
@@ -11168,7 +11375,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11188,7 +11395,7 @@
         <v>1</v>
       </c>
       <c r="H33" s="86" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I33" s="205">
         <f>Inputs!C81</f>
@@ -11198,7 +11405,7 @@
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
@@ -11215,7 +11422,7 @@
       <c r="F34" s="112"/>
       <c r="G34" s="87"/>
       <c r="H34" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I34" s="84">
         <f>SUM(I30:I33)</f>
@@ -11225,7 +11432,7 @@
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
@@ -11251,7 +11458,7 @@
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
@@ -11278,7 +11485,7 @@
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
@@ -11305,7 +11512,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -11326,7 +11533,7 @@
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
@@ -11347,7 +11554,7 @@
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
@@ -11368,7 +11575,7 @@
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
@@ -11389,7 +11596,7 @@
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
@@ -11406,7 +11613,7 @@
       <c r="F42" s="112"/>
       <c r="G42" s="87"/>
       <c r="H42" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -11424,7 +11631,7 @@
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -11443,7 +11650,7 @@
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -11462,7 +11669,7 @@
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -11479,7 +11686,7 @@
       <c r="F46" s="87"/>
       <c r="G46" s="87"/>
       <c r="H46" s="23" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -11492,7 +11699,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -11509,7 +11716,7 @@
       <c r="F47" s="87"/>
       <c r="G47" s="87"/>
       <c r="H47" s="23" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -11522,7 +11729,7 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C48" s="81">
         <f>SUM(C30:C42)</f>
@@ -11539,7 +11746,7 @@
       <c r="F48" s="87"/>
       <c r="G48" s="87"/>
       <c r="H48" s="80" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I48" s="207">
         <f>Inputs!C82</f>
@@ -11549,7 +11756,7 @@
     </row>
     <row r="49" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B49" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C49" s="61">
         <f>C28+C48</f>
@@ -11566,7 +11773,7 @@
       <c r="F49" s="87"/>
       <c r="G49" s="87"/>
       <c r="H49" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I49" s="52">
         <f>I28+I48</f>
@@ -11582,14 +11789,14 @@
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C52" s="87"/>
       <c r="D52" s="74" t="str">
@@ -11601,12 +11808,12 @@
       <c r="G52" s="87"/>
       <c r="I52" s="87"/>
       <c r="K52" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C53" s="88">
         <f>MAX(D4,0)</f>
@@ -11636,7 +11843,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11647,14 +11854,14 @@
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="285">
+      <c r="D56" s="288">
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="283"/>
+      <c r="E56" s="286"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11662,30 +11869,30 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="284">
+      <c r="D57" s="287">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="283"/>
+      <c r="E57" s="286"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="284">
+      <c r="D58" s="287">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="283"/>
+      <c r="E58" s="286"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11702,11 +11909,11 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E60" s="87"/>
       <c r="F60" s="9"/>
@@ -11716,7 +11923,7 @@
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11737,7 +11944,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11758,7 +11965,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11779,7 +11986,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11794,7 +12001,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11825,11 +12032,11 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E67" s="61"/>
       <c r="F67" s="87"/>
@@ -11839,7 +12046,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11860,7 +12067,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11875,7 +12082,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11897,23 +12104,23 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>127</v>
-      </c>
-      <c r="C72" s="272">
+        <v>124</v>
+      </c>
+      <c r="C72" s="275">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="272"/>
-      <c r="E72" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="286"/>
-      <c r="H72" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I72" s="286"/>
+      <c r="D72" s="275"/>
+      <c r="E72" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F72" s="289"/>
+      <c r="H72" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I72" s="289"/>
       <c r="K72" s="50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11921,23 +12128,23 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="273" t="s">
-        <v>100</v>
-      </c>
-      <c r="D73" s="273"/>
-      <c r="E73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="F73" s="273"/>
-      <c r="H73" s="287" t="s">
-        <v>101</v>
-      </c>
-      <c r="I73" s="273"/>
+      <c r="C73" s="276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D73" s="276"/>
+      <c r="E73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="F73" s="276"/>
+      <c r="H73" s="290" t="s">
+        <v>99</v>
+      </c>
+      <c r="I73" s="276"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11958,7 +12165,7 @@
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B75" s="104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
@@ -11988,7 +12195,7 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C76" s="161">
         <f>C74-C75</f>
@@ -12009,7 +12216,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12039,7 +12246,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12069,7 +12276,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12100,7 +12307,7 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
@@ -12127,12 +12334,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12162,7 +12369,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12192,7 +12399,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -12222,7 +12429,7 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C84" s="211"/>
       <c r="D84" s="159">
@@ -12243,7 +12450,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12274,7 +12481,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12295,28 +12502,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12346,21 +12553,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3436172939817386E-2</v>
+        <v>4.3774197631956044E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12377,29 +12584,29 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="E92" s="286" t="s">
-        <v>206</v>
-      </c>
-      <c r="F92" s="286"/>
+        <v>152</v>
+      </c>
+      <c r="E92" s="289" t="s">
+        <v>202</v>
+      </c>
+      <c r="F92" s="289"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="286" t="s">
-        <v>205</v>
-      </c>
-      <c r="I92" s="286"/>
+      <c r="H92" s="289" t="s">
+        <v>201</v>
+      </c>
+      <c r="I92" s="289"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12416,24 +12623,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.701924715284115</v>
+        <v>39.846976310144214</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.701924715284115</v>
+        <v>39.846976310144214</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12444,18 +12651,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.602193027352399</v>
+        <v>12.622618873275993</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.905756257759275</v>
+        <v>31.001994910891355</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12474,51 +12681,51 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
       <c r="I96" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28647139.906330846</v>
+        <v>28751802.674229197</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.738873315003442</v>
+        <v>19.810989593385798</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.738873315003442</v>
+        <v>19.810989593385798</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.252013215587173</v>
+        <v>26.34792535114526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
@@ -12536,7 +12743,7 @@
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -12557,11 +12764,11 @@
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-27585049.693669155</v>
+        <v>-27480386.925770804</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12591,58 +12798,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I102" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22300216.671514444</v>
+        <v>22369658.195582673</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.265517186937938</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.265517186937938</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.815570092547695</v>
+        <v>10.844571529930548</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.36562299815745</v>
+        <v>15.413470617531161</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.435742789166849</v>
+        <v>20.499378454490174</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12652,58 +12859,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
       <c r="I105" s="124" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4546590.4911427386</v>
+        <v>4553959.6813025931</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.132758593468969</v>
+        <v>3.1378362211649682</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.132758593468969</v>
+        <v>3.1378362211649682</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4077850462738475</v>
+        <v>5.4222857649652738</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.6828114990787251</v>
+        <v>7.7067353087655803</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.217871394583424</v>
+        <v>10.249689227245087</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12712,7 +12919,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>
@@ -12721,6 +12928,7 @@
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1CBED0F9-BA29-43A0-BF15-1B51E60D3308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DCF90D-21E0-4DA8-B359-5233C8E14273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
   <si>
     <t>Company Info:</t>
   </si>
@@ -527,14 +527,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>ST AR / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>ST Inventory / Sales</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST Inventory</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -601,21 +593,9 @@
     <t>Value Range</t>
   </si>
   <si>
-    <t>COGS</t>
-  </si>
-  <si>
-    <t>Interest</t>
-  </si>
-  <si>
-    <t>ΔWC</t>
-  </si>
-  <si>
     <t>- Non-controling Interests</t>
   </si>
   <si>
-    <t xml:space="preserve">Pre-tax Profit </t>
-  </si>
-  <si>
     <t>Normalized Payout Ratio</t>
   </si>
   <si>
@@ -643,9 +623,6 @@
     <t>https://fred.stlouisfed.org/series/DGS10</t>
   </si>
   <si>
-    <t>Normalized Cost Structure</t>
-  </si>
-  <si>
     <t>Price Indicators</t>
   </si>
   <si>
@@ -667,9 +644,6 @@
     <t>Market Yields</t>
   </si>
   <si>
-    <t>Non-controlling Interests</t>
-  </si>
-  <si>
     <t>Watchlist &amp; Comp_Group:</t>
   </si>
   <si>
@@ -869,14 +843,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>CAPX-D&amp;A</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPEX+R&amp;D</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>unclear</t>
   </si>
   <si>
@@ -962,10 +928,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales/Op_Assets</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Common_Equity / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -979,6 +941,42 @@
   </si>
   <si>
     <t>Pre-tax ROE</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales/Total_Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_AR / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ST_Inventory / Sales</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sales Turnover</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>EBIT Margin</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interest Expense</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized ΔWC</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normalized CAPX-D&amp;A</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROE &amp; Cost Structure</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1291,7 +1289,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1549,13 +1547,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="299">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2205,6 +2319,30 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2444,981 +2582,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="zh-CN"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-GB"/>
-              <a:t>Normalized Cost Structure</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:pieChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000001-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="6"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="80000"/>
-                  <a:lumOff val="20000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="19050">
-                <a:solidFill>
-                  <a:schemeClr val="lt1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-B454-40E1-9655-EE22B1F916AE}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:cat>
-            <c:strRef>
-              <c:f>Dashboard!$B$20:$B$26</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>COGS</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>OPEX+R&amp;D</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Non-controlling Interests</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>ΔWC</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Interest</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>CAPX-D&amp;A</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Pre-tax Profit </c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Dashboard!$C$20:$C$26</c:f>
-              <c:numCache>
-                <c:formatCode>0.00%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.48651894461783024</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13623030387112606</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9.375962912518726E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4.581383061459042E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.23767729177126601</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0A50-CA42-B693-027654020280}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:showLeaderLines val="1"/>
-        </c:dLbls>
-        <c:firstSliceAng val="0"/>
-      </c:pieChart>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="zh-CN"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="zh-CN"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="11">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent5"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>387350</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>1003300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{773B95BE-F378-2977-0A32-CF810A38528E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3621,7 +2784,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3635,28 +2798,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -3672,7 +2835,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -3681,15 +2844,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10" s="193">
         <v>1451305728</v>
@@ -3697,7 +2860,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -3721,7 +2884,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -3729,10 +2892,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -3746,55 +2909,55 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3943,7 +3106,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C29" s="150">
         <v>599686</v>
@@ -4075,7 +3238,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -4195,7 +3358,7 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="C42" s="217"/>
       <c r="D42" s="150"/>
@@ -4227,7 +3390,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C44" s="250">
         <v>1.3499962549695244</v>
@@ -4245,11 +3408,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7548395263912088E-2</v>
+        <v>8.8235049344413355E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4294,13 +3457,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -4366,7 +3529,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C53" s="59">
         <v>5889</v>
@@ -4379,7 +3542,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -4490,7 +3653,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C63" s="59">
         <v>582318</v>
@@ -4503,7 +3666,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="C64" s="59">
         <v>898512</v>
@@ -4692,7 +3855,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="C83" s="59">
         <v>107256580</v>
@@ -4712,7 +3875,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -4720,10 +3883,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -4733,16 +3896,16 @@
       <c r="B89" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C89" s="275">
+      <c r="C89" s="283">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="275"/>
+      <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -4751,10 +3914,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="276" t="s">
+      <c r="C90" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="276"/>
+      <c r="D90" s="284"/>
       <c r="E90" s="235" t="s">
         <v>99</v>
       </c>
@@ -4803,7 +3966,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -4824,7 +3987,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4842,7 +4005,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4881,7 +4044,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4899,7 +4062,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4985,8 +4148,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5027,62 +4190,62 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="C3" s="281" t="str">
+        <v>182</v>
+      </c>
+      <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="282"/>
+      <c r="D3" s="290"/>
       <c r="E3" s="87"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>15.42</v>
+        <v>15.3</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>191</v>
-      </c>
-      <c r="C4" s="283" t="str">
+        <v>183</v>
+      </c>
+      <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="284"/>
+      <c r="D4" s="292"/>
       <c r="E4" s="87"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="287">
+      <c r="G4" s="295">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="287"/>
+      <c r="H4" s="295"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="C5" s="285">
+        <v>157</v>
+      </c>
+      <c r="C5" s="293">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="286"/>
+      <c r="D5" s="294"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>97</v>
       </c>
-      <c r="G5" s="279">
+      <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>22379.134325759998</v>
-      </c>
-      <c r="H5" s="279"/>
+        <v>22204.977638400003</v>
+      </c>
+      <c r="H5" s="287"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -5105,16 +4268,16 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="280" t="str">
+      <c r="G6" s="288" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="280"/>
+      <c r="H6" s="288"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -5139,40 +4302,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -5185,29 +4348,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -5217,12 +4380,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -5230,9 +4393,9 @@
       <c r="D17" s="176"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>179</v>
+        <v>265</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -5240,91 +4403,91 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
-    <row r="20" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="137" t="s">
-        <v>165</v>
-      </c>
-      <c r="C20" s="171">
-        <f>Fin_Analysis!I75</f>
-        <v>0.48651894461783024</v>
+    <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="275" t="s">
+        <v>255</v>
+      </c>
+      <c r="C20" s="276">
+        <f>C23*C22*(1/C21)</f>
+        <v>3.4597349023559508E-2</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="137" t="s">
-        <v>240</v>
-      </c>
-      <c r="C21" s="171">
-        <f>Fin_Analysis!I77</f>
-        <v>0.13623030387112606</v>
+    <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="B21" s="277" t="s">
+        <v>253</v>
+      </c>
+      <c r="C21" s="278">
+        <f>Data!C55</f>
+        <v>0.51458693208236717</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="137" t="s">
-        <v>187</v>
-      </c>
-      <c r="C22" s="171">
-        <f>Fin_Analysis!I78</f>
-        <v>9.375962912518726E-2</v>
+      <c r="B22" s="279" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="280">
+        <f>Data!C50</f>
+        <v>6.2800357000190113E-2</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B23" s="137" t="s">
-        <v>167</v>
-      </c>
-      <c r="C23" s="171">
-        <f>Fin_Analysis!I80</f>
-        <v>0</v>
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="281" t="s">
+        <v>261</v>
+      </c>
+      <c r="C23" s="282">
+        <f>Data!C13</f>
+        <v>0.28349112238585644</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="G23" s="177">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18471212880172877</v>
+        <v>0.18327468032856359</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>166</v>
+        <v>262</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5910692144811875</v>
+        <v>9.5164305435513743</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="C25" s="171">
-        <f>Fin_Analysis!I82</f>
+        <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -5333,18 +4496,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="C26" s="171">
-        <f>Fin_Analysis!I83</f>
-        <v>0.23767729177126601</v>
+        <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
+        <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>8.8235049344413355E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5354,62 +4517,62 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D28" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="G28" s="277" t="s">
-        <v>252</v>
-      </c>
-      <c r="H28" s="277"/>
+        <v>225</v>
+      </c>
+      <c r="G28" s="285" t="s">
+        <v>242</v>
+      </c>
+      <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2756724423299364</v>
+        <v>6.2860004708452148</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>23.574285222663697</v>
+        <v>23.648800677939782</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.844571529930548</v>
-      </c>
-      <c r="G29" s="278">
+        <v>10.874095599426379</v>
+      </c>
+      <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.499378454490174</v>
-      </c>
-      <c r="H29" s="278"/>
+        <v>20.564174502556334</v>
+      </c>
+      <c r="H29" s="286"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -5419,7 +4582,7 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C34" s="225" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
@@ -5430,14 +4593,14 @@
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -5447,7 +4610,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -5457,14 +4620,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -5474,7 +4637,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -5489,14 +4652,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -6440,7 +5603,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="99" orientation="landscape" r:id="rId6"/>
-  <drawing r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -6454,7 +5616,7 @@
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C4" sqref="C4"/>
+      <selection pane="topRight" activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -6481,16 +5643,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="F2" s="119" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G2" s="148" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="H2" s="147" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -6508,7 +5670,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -6541,7 +5703,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -6908,7 +6070,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6959,7 +6121,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -7010,7 +6172,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -7061,7 +6223,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -7163,7 +6325,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -7316,7 +6478,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -7826,7 +6988,7 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C30" s="65">
         <f>Fin_Analysis!C18</f>
@@ -8336,7 +7498,7 @@
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="98" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C40" s="155">
         <f>IF(C6="","",C14/MAX(C39,0))</f>
@@ -8387,7 +7549,7 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="16"/>
       <c r="B41" s="55" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="C41" s="54"/>
       <c r="D41" s="54"/>
@@ -8456,7 +7618,7 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C43" s="153">
         <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
@@ -8660,7 +7822,7 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="94" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C47" s="153">
         <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
@@ -8762,7 +7924,7 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="16"/>
       <c r="B49" s="102" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="C49" s="36"/>
       <c r="D49" s="36"/>
@@ -8780,14 +7942,14 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="271" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="C50" s="272">
-        <f>IF(C6="","",C6/C39)</f>
-        <v>7.7609216717481402E-2</v>
+        <f>IF(C6="","",C6/C27)</f>
+        <v>6.2800357000190113E-2</v>
       </c>
       <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D39)</f>
+        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
         <v>#VALUE!</v>
       </c>
       <c r="E50" s="272" t="e">
@@ -8831,7 +7993,7 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>143</v>
+        <v>258</v>
       </c>
       <c r="C51" s="153">
         <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
@@ -8882,7 +8044,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="94" t="s">
-        <v>144</v>
+        <v>259</v>
       </c>
       <c r="C52" s="153">
         <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
@@ -8933,7 +8095,7 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="94" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
       <c r="C53" s="153" t="e">
         <f>IF(D6="","",C16/(C6-D6))</f>
@@ -8984,7 +8146,7 @@
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="16"/>
       <c r="B54" s="102" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="C54" s="36"/>
       <c r="D54" s="36"/>
@@ -9001,7 +8163,7 @@
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="95" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="C55" s="156">
         <f>IF(C36="","",(C36-C37)/C27)</f>
@@ -9201,11 +8363,11 @@
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="16"/>
       <c r="B59" s="102" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="C59" s="273" t="str">
         <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v>Error</v>
+        <v/>
       </c>
       <c r="D59" s="273" t="str">
         <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
@@ -9251,7 +8413,7 @@
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="271" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="C60" s="274">
         <f>IF(C14="","",C14/(C36-C37))</f>
@@ -9301,7 +8463,7 @@
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="271" t="s">
-        <v>267</v>
+        <v>256</v>
       </c>
       <c r="C61" s="274">
         <f>IF(C22="","",C22/(C36-C37))</f>
@@ -10805,7 +9967,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10963,7 +10125,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -11375,7 +10537,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -11843,7 +11005,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11857,11 +11019,11 @@
         <v>87</v>
       </c>
       <c r="C56" s="87"/>
-      <c r="D56" s="288">
+      <c r="D56" s="296">
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="286"/>
+      <c r="E56" s="294"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -11872,11 +11034,11 @@
         <v>88</v>
       </c>
       <c r="C57" s="87"/>
-      <c r="D57" s="287">
+      <c r="D57" s="295">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="286"/>
+      <c r="E57" s="294"/>
       <c r="G57" s="87"/>
       <c r="I57" s="87"/>
       <c r="K57" s="33" t="s">
@@ -11888,11 +11050,11 @@
         <v>90</v>
       </c>
       <c r="C58" s="87"/>
-      <c r="D58" s="287">
+      <c r="D58" s="295">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="286"/>
+      <c r="E58" s="294"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="87"/>
@@ -11909,7 +11071,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11986,7 +11148,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -12032,7 +11194,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -12067,7 +11229,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -12106,19 +11268,19 @@
       <c r="B72" s="106" t="s">
         <v>124</v>
       </c>
-      <c r="C72" s="275">
+      <c r="C72" s="283">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="275"/>
-      <c r="E72" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F72" s="289"/>
-      <c r="H72" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I72" s="289"/>
+      <c r="D72" s="283"/>
+      <c r="E72" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F72" s="297"/>
+      <c r="H72" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -12128,18 +11290,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="276" t="s">
+      <c r="C73" s="284" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="276"/>
-      <c r="E73" s="290" t="s">
+      <c r="D73" s="284"/>
+      <c r="E73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="F73" s="276"/>
-      <c r="H73" s="290" t="s">
+      <c r="F73" s="284"/>
+      <c r="H73" s="298" t="s">
         <v>99</v>
       </c>
-      <c r="I73" s="276"/>
+      <c r="I73" s="284"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12216,7 +11378,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -12246,7 +11408,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -12276,7 +11438,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -12339,7 +11501,7 @@
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -12369,7 +11531,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -12450,7 +11612,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -12481,7 +11643,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -12502,28 +11664,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10508141633814905</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10508141633814905</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10508141633814905</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -12553,21 +11715,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>8.8235049344413355E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3774197631956044E-2</v>
+        <v>4.4117524672206677E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>8.8235049344413355E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -12589,24 +11751,24 @@
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E92" s="289" t="s">
-        <v>202</v>
-      </c>
-      <c r="F92" s="289"/>
+        <v>150</v>
+      </c>
+      <c r="E92" s="297" t="s">
+        <v>194</v>
+      </c>
+      <c r="F92" s="297"/>
       <c r="G92" s="87"/>
-      <c r="H92" s="289" t="s">
-        <v>201</v>
-      </c>
-      <c r="I92" s="289"/>
+      <c r="H92" s="297" t="s">
+        <v>193</v>
+      </c>
+      <c r="I92" s="297"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -12623,24 +11785,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.846976310144214</v>
+        <v>39.994736898581799</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.846976310144214</v>
+        <v>39.994736898581799</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -12651,18 +11813,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.622618873275993</v>
+        <v>12.643392227662902</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.001994910891355</v>
+        <v>31.099988455273817</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -12681,14 +11843,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -12705,21 +11867,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28751802.674229197</v>
+        <v>28858420.131190516</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.810989593385798</v>
+        <v>19.88445272035095</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.810989593385798</v>
+        <v>19.88445272035095</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.34792535114526</v>
+        <v>26.44562874835394</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -12768,7 +11930,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-27480386.925770804</v>
+        <v>-27373769.468809485</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -12798,21 +11960,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -12825,31 +11987,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22369658.195582673</v>
+        <v>22440365.970985837</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2756724423299364</v>
+        <v>6.2860004708452148</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2756724423299364</v>
+        <v>6.2860004708452148</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.844571529930548</v>
+        <v>10.874095599426379</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.413470617531161</v>
+        <v>15.462190728007542</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.499378454490174</v>
+        <v>20.564174502556334</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12859,21 +12021,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12886,31 +12048,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4553959.6813025931</v>
+        <v>4561454.2447741786</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1378362211649682</v>
+        <v>3.1430002354226074</v>
       </c>
       <c r="E106" s="123">
         <f>(E100+E103)/2</f>
-        <v>3.1378362211649682</v>
+        <v>3.1430002354226074</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4222857649652738</v>
+        <v>5.4370477997131896</v>
       </c>
       <c r="H106" s="123">
         <f>(H100+H103)/2</f>
-        <v>7.7067353087655803</v>
+        <v>7.731095364003771</v>
       </c>
       <c r="I106" s="123">
         <f>(I100+I103)/2</f>
-        <v>10.249689227245087</v>
+        <v>10.282087251278167</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12919,7 +12081,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C7DCF90D-21E0-4DA8-B359-5233C8E14273}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33A875F-1435-4EC7-8881-5982D6325545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
   <si>
     <t>Company Info:</t>
   </si>
@@ -407,10 +407,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Noncurrent Liabilities</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>ST AR</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -912,10 +908,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Minority interests</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Profibility Analysis</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -977,6 +969,18 @@
   </si>
   <si>
     <t>ROE &amp; Cost Structure</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Total Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_2</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -2393,7 +2397,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2490,12 +2494,28 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7B7B7"/>
+          <bgColor rgb="FFB7B7B7"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2784,7 +2804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2798,28 +2818,28 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B4" s="141" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C4" s="188" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B5" s="141" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C5" s="191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B6" s="141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C6" s="189">
         <v>45639</v>
@@ -2835,7 +2855,7 @@
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B8" s="140" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" s="191" t="s">
         <v>68</v>
@@ -2844,15 +2864,15 @@
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B9" s="140" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" s="192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B10" s="140" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C10" s="193">
         <v>1451305728</v>
@@ -2860,7 +2880,7 @@
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B11" s="140" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="192" t="s">
         <v>2</v>
@@ -2884,7 +2904,7 @@
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="218" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C14" s="219">
         <v>45473</v>
@@ -2892,10 +2912,10 @@
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="218" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C15" s="176" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2909,61 +2929,61 @@
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="240" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C17" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="240" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C18" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D18" s="24"/>
     </row>
     <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="240" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C19" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="241" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C20" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="224" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C21" s="242" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
       <c r="B22" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C22" s="243" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B24" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3106,7 +3126,7 @@
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C29" s="150">
         <v>599686</v>
@@ -3198,9 +3218,9 @@
       <c r="L33" s="150"/>
       <c r="M33" s="150"/>
     </row>
-    <row r="34" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B34" s="94" t="s">
-        <v>15</v>
+    <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
+      <c r="B34" s="97" t="s">
+        <v>266</v>
       </c>
       <c r="C34" s="217"/>
       <c r="D34" s="150"/>
@@ -3222,7 +3242,7 @@
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="217"/>
       <c r="D35" s="150"/>
@@ -3238,7 +3258,7 @@
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C36" s="217"/>
       <c r="D36" s="150"/>
@@ -3253,10 +3273,11 @@
       <c r="M36" s="150"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="217"/>
+      <c r="B37" s="94" t="str">
+        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
+        <v>Total Liabilities Error</v>
+      </c>
+      <c r="C37" s="150"/>
       <c r="D37" s="150"/>
       <c r="E37" s="150">
         <v>22442764</v>
@@ -3274,9 +3295,9 @@
       <c r="L37" s="150"/>
       <c r="M37" s="150"/>
     </row>
-    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>113</v>
+        <v>265</v>
       </c>
       <c r="C38" s="217"/>
       <c r="D38" s="150"/>
@@ -3335,10 +3356,11 @@
       <c r="M40" s="150"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="217"/>
+      <c r="B41" s="94" t="str">
+        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
+        <v>Total Equity Error</v>
+      </c>
+      <c r="C41" s="150"/>
       <c r="D41" s="150"/>
       <c r="E41" s="150">
         <v>132313126</v>
@@ -3358,9 +3380,9 @@
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
-        <v>249</v>
-      </c>
-      <c r="C42" s="217"/>
+        <v>134</v>
+      </c>
+      <c r="C42" s="150"/>
       <c r="D42" s="150"/>
       <c r="E42" s="150"/>
       <c r="F42" s="150"/>
@@ -3374,7 +3396,7 @@
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C43" s="217"/>
       <c r="D43" s="150"/>
@@ -3390,7 +3412,7 @@
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C44" s="250">
         <v>1.3499962549695244</v>
@@ -3408,11 +3430,11 @@
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C45" s="152">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8235049344413355E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D45" s="152" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3457,13 +3479,13 @@
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C47" s="194" t="s">
         <v>31</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
         <v>33</v>
@@ -3483,7 +3505,7 @@
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="59">
         <v>305449</v>
@@ -3495,7 +3517,7 @@
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C50" s="59">
         <f>1787467+193156</f>
@@ -3529,7 +3551,7 @@
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C53" s="59">
         <v>5889</v>
@@ -3542,7 +3564,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3578,7 +3600,7 @@
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C57" s="59">
         <v>23436237</v>
@@ -3653,7 +3675,7 @@
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C63" s="59">
         <v>582318</v>
@@ -3666,7 +3688,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C64" s="59">
         <v>898512</v>
@@ -3720,7 +3742,7 @@
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C68" s="59">
         <f>4323428+1679757</f>
@@ -3855,7 +3877,7 @@
     </row>
     <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C83" s="59">
         <v>107256580</v>
@@ -3875,7 +3897,7 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C86" s="197">
         <v>5</v>
@@ -3883,10 +3905,10 @@
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C87" s="236" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D87" s="269">
         <v>0.02</v>
@@ -3894,7 +3916,7 @@
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
       <c r="B89" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C89" s="283">
         <f>C24</f>
@@ -3902,10 +3924,10 @@
       </c>
       <c r="D89" s="283"/>
       <c r="E89" s="89" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F89" s="89" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3927,7 +3949,7 @@
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
@@ -3966,7 +3988,7 @@
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
@@ -3987,7 +4009,7 @@
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
@@ -4005,7 +4027,7 @@
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
@@ -4044,7 +4066,7 @@
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
@@ -4062,7 +4084,7 @@
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B98" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C98" s="237">
         <f>C44</f>
@@ -4085,28 +4107,33 @@
     <mergeCell ref="C90:D90"/>
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C16 C25:M33 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="20" priority="11">
+  <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
+    <cfRule type="containsBlanks" dxfId="22" priority="14">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C37">
+    <cfRule type="containsBlanks" dxfId="21" priority="3">
+      <formula>LEN(TRIM(C37))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C41:C42">
+    <cfRule type="containsBlanks" dxfId="20" priority="1">
+      <formula>LEN(TRIM(C41))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="4">
+    <cfRule type="containsBlanks" dxfId="19" priority="7">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="3">
+    <cfRule type="containsBlanks" dxfId="18" priority="6">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D34:M43">
-    <cfRule type="containsBlanks" dxfId="17" priority="17">
-      <formula>LEN(TRIM(D34))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="16" priority="1">
+    <cfRule type="containsBlanks" dxfId="17" priority="4">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4148,8 +4175,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4190,7 +4217,7 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="289" t="str">
         <f>Inputs!C4</f>
@@ -4202,15 +4229,15 @@
         <v>1</v>
       </c>
       <c r="G3" s="132">
-        <v>15.3</v>
+        <v>15.42</v>
       </c>
       <c r="H3" s="134" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C4" s="291" t="str">
         <f>Inputs!C5</f>
@@ -4230,7 +4257,7 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C5" s="293">
         <f>Inputs!C6</f>
@@ -4243,7 +4270,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>22204.977638400003</v>
+        <v>22379.134325759998</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4277,7 +4304,7 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="86" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C7" s="187" t="str">
         <f>Inputs!C8</f>
@@ -4302,40 +4329,40 @@
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="139" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F9" s="143" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="172">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B11" s="122" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C11" s="173">
         <v>5.2299999999999999E-2</v>
       </c>
       <c r="D11" s="137" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C12" s="174">
         <v>7.4999999999999997E-2</v>
@@ -4348,29 +4375,29 @@
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C14" s="172">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C15" s="172">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B16" s="122" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C16" s="173">
         <v>0.16</v>
@@ -4380,12 +4407,12 @@
         <v>CN</v>
       </c>
       <c r="F16" s="110" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C17" s="175">
         <v>8.6249999999999993E-2</v>
@@ -4395,7 +4422,7 @@
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="142" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C19" s="135" t="s">
         <v>49</v>
@@ -4403,21 +4430,21 @@
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
       <c r="F19" s="142" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="275" t="s">
-        <v>255</v>
-      </c>
-      <c r="C20" s="276">
+        <v>253</v>
+      </c>
+      <c r="C20" s="276" t="e">
         <f>C23*C22*(1/C21)</f>
-        <v>3.4597349023559508E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G20" s="172">
         <v>0.15</v>
@@ -4425,69 +4452,69 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="277" t="s">
-        <v>253</v>
-      </c>
-      <c r="C21" s="278">
-        <f>Data!C55</f>
-        <v>0.51458693208236717</v>
+        <v>251</v>
+      </c>
+      <c r="C21" s="278" t="e">
+        <f>Data!C53</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="279" t="s">
-        <v>260</v>
-      </c>
-      <c r="C22" s="280">
-        <f>Data!C50</f>
-        <v>6.2800357000190113E-2</v>
+        <v>258</v>
+      </c>
+      <c r="C22" s="280" t="e">
+        <f>Data!C48</f>
+        <v>#DIV/0!</v>
       </c>
       <c r="F22" s="142" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="281" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C23" s="282">
         <f>Data!C13</f>
         <v>0.28349112238585644</v>
       </c>
       <c r="F23" s="140" t="s">
-        <v>177</v>
-      </c>
-      <c r="G23" s="177">
-        <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18327468032856359</v>
+        <v>176</v>
+      </c>
+      <c r="G23" s="177" t="e">
+        <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="137" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C24" s="171">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
       <c r="F24" s="140" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G24" s="268">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5164305435513743</v>
+        <v>9.5910692144811875</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="137" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C25" s="171">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
       <c r="F25" s="140" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G25" s="171">
         <f>Fin_Analysis!I88</f>
@@ -4496,18 +4523,18 @@
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="138" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C26" s="171">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
       <c r="F26" s="141" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G26" s="178">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8235049344413355E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4517,40 +4544,40 @@
         <v>7</v>
       </c>
       <c r="C28" s="89" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>160</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>161</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H28" s="285"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2860004708452148</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="D29" s="129">
         <f>G29*(1+G20)</f>
-        <v>23.648800677939782</v>
+        <v>23.574285222663697</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="131">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.874095599426379</v>
+        <v>10.844571529930548</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.564174502556334</v>
+        <v>20.499378454490174</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4558,21 +4585,21 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
       <c r="B32" s="196" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C32" s="224"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="245" t="str">
         <f>Inputs!C17</f>
@@ -4582,25 +4609,25 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C34" s="225" t="str">
-        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C56&lt;0.8),"Strongly disagree",
-IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C56&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C56&lt;1.4),"agree","Strongly agree")))</f>
+        <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
+IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
       <c r="B35" s="196" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C35" s="224"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C36" s="245" t="str">
         <f>Inputs!C18</f>
@@ -4610,7 +4637,7 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C37" s="245" t="str">
         <f>Inputs!C19</f>
@@ -4620,14 +4647,14 @@
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
       <c r="B38" s="196" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="224"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C39" s="245" t="str">
         <f>Inputs!C20</f>
@@ -4637,7 +4664,7 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C40" s="245" t="str">
         <f>Inputs!C21</f>
@@ -4652,14 +4679,14 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
       <c r="B43" s="226" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C43" s="244" t="str">
         <f>Inputs!C22</f>
@@ -5559,27 +5586,27 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
-    <cfRule type="containsBlanks" dxfId="15" priority="5">
+    <cfRule type="containsBlanks" dxfId="16" priority="5">
       <formula>LEN(TRIM(C11))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12">
-    <cfRule type="containsBlanks" dxfId="14" priority="3">
+    <cfRule type="containsBlanks" dxfId="15" priority="3">
       <formula>LEN(TRIM(D12))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="containsBlanks" dxfId="13" priority="2">
+    <cfRule type="containsBlanks" dxfId="14" priority="2">
       <formula>LEN(TRIM(D17))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28">
-    <cfRule type="cellIs" dxfId="12" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="13" priority="41" operator="greaterThan">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsBlanks" dxfId="11" priority="1">
+    <cfRule type="containsBlanks" dxfId="12" priority="1">
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5611,12 +5638,12 @@
   <sheetPr codeName="Sheet2">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:N932"/>
+  <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C60" sqref="C60"/>
+      <selection pane="topRight" activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5643,16 +5670,16 @@
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
       <c r="E2" s="148" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="F2" s="119" t="s">
+        <v>189</v>
+      </c>
+      <c r="G2" s="148" t="s">
         <v>190</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="H2" s="147" t="s">
         <v>191</v>
-      </c>
-      <c r="H2" s="147" t="s">
-        <v>192</v>
       </c>
       <c r="I2" s="7"/>
       <c r="J2" s="87"/>
@@ -5670,7 +5697,7 @@
         <v>45291</v>
       </c>
       <c r="E3" s="146" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
         <f>H14</f>
@@ -5703,7 +5730,7 @@
         <v>HKD</v>
       </c>
       <c r="E4" s="146" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
@@ -5714,7 +5741,7 @@
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="115" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -6070,7 +6097,7 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="199">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
@@ -6121,7 +6148,7 @@
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="228" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C13" s="229">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
@@ -6172,7 +6199,7 @@
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C14" s="230">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
@@ -6223,7 +6250,7 @@
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="231" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C15" s="232">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
@@ -6325,7 +6352,7 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C17" s="199">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
@@ -6478,7 +6505,7 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C20" s="152">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
@@ -6733,7 +6760,7 @@
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
       <c r="B25" s="234" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C25" s="233">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
@@ -6784,7 +6811,7 @@
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
       <c r="B26" s="114" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6838,24 +6865,24 @@
         <v>14</v>
       </c>
       <c r="C27" s="65">
-        <f>IF(C36="","",C36+C31+C32)</f>
-        <v>208432382</v>
+        <f>IF(C34="","",C34+C30)</f>
+        <v>0</v>
       </c>
       <c r="D27" s="65" t="str">
-        <f t="shared" ref="D27:M27" si="20">IF(D36="","",D36+D31+D32)</f>
-        <v/>
-      </c>
-      <c r="E27" s="65" t="e">
+        <f>IF(D34="","",D34+D30)</f>
+        <v/>
+      </c>
+      <c r="E27" s="65">
+        <f t="shared" ref="E27:M27" si="20">IF(E34="","",E34+E30)</f>
+        <v>154755890</v>
+      </c>
+      <c r="F27" s="65">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="65" t="e">
+        <v>145273340</v>
+      </c>
+      <c r="G27" s="65">
         <f t="shared" si="20"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G27" s="65" t="e">
-        <f t="shared" si="20"/>
-        <v>#VALUE!</v>
+        <v>135218509</v>
       </c>
       <c r="H27" s="65" t="str">
         <f t="shared" si="20"/>
@@ -6886,50 +6913,50 @@
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="94" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
       <c r="C28" s="65">
-        <f>Fin_Analysis!C28</f>
-        <v>58406336</v>
+        <f>Fin_Analysis!C13</f>
+        <v>1980623</v>
       </c>
       <c r="D28" s="199" t="str">
-        <f>IF(Inputs!D34="","",Inputs!D34)</f>
-        <v/>
-      </c>
-      <c r="E28" s="199">
-        <f>IF(Inputs!E34="","",Inputs!E34)</f>
-        <v>52019578</v>
-      </c>
-      <c r="F28" s="199">
-        <f>IF(Inputs!F34="","",Inputs!F34)</f>
-        <v>46824778</v>
-      </c>
-      <c r="G28" s="199">
-        <f>IF(Inputs!G34="","",Inputs!G34)</f>
-        <v>30542596</v>
+        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <v/>
+      </c>
+      <c r="E28" s="199" t="str">
+        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <v/>
+      </c>
+      <c r="F28" s="199" t="str">
+        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <v/>
+      </c>
+      <c r="G28" s="199" t="str">
+        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <v/>
       </c>
       <c r="H28" s="199" t="str">
-        <f>IF(Inputs!H34="","",Inputs!H34)</f>
+        <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
       <c r="I28" s="199" t="str">
-        <f>IF(Inputs!I34="","",Inputs!I34)</f>
+        <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
       <c r="J28" s="199" t="str">
-        <f>IF(Inputs!J34="","",Inputs!J34)</f>
+        <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
       <c r="K28" s="199" t="str">
-        <f>IF(Inputs!K34="","",Inputs!K34)</f>
+        <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
       <c r="L28" s="199" t="str">
-        <f>IF(Inputs!L34="","",Inputs!L34)</f>
+        <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
       <c r="M28" s="199" t="str">
-        <f>IF(Inputs!M34="","",Inputs!M34)</f>
+        <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
       <c r="N28" s="87"/>
@@ -6937,50 +6964,50 @@
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="94" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="C29" s="65">
-        <f>Fin_Analysis!C13</f>
-        <v>1980623</v>
+        <f>Fin_Analysis!C18</f>
+        <v>18623682</v>
       </c>
       <c r="D29" s="199" t="str">
-        <f>IF(Inputs!D35="","",Inputs!D35)</f>
+        <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
       <c r="E29" s="199" t="str">
-        <f>IF(Inputs!E35="","",Inputs!E35)</f>
+        <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
       <c r="F29" s="199" t="str">
-        <f>IF(Inputs!F35="","",Inputs!F35)</f>
+        <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
       <c r="G29" s="199" t="str">
-        <f>IF(Inputs!G35="","",Inputs!G35)</f>
+        <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
       <c r="H29" s="199" t="str">
-        <f>IF(Inputs!H35="","",Inputs!H35)</f>
+        <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
       <c r="I29" s="199" t="str">
-        <f>IF(Inputs!I35="","",Inputs!I35)</f>
+        <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
       <c r="J29" s="199" t="str">
-        <f>IF(Inputs!J35="","",Inputs!J35)</f>
+        <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
       <c r="K29" s="199" t="str">
-        <f>IF(Inputs!K35="","",Inputs!K35)</f>
+        <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
       <c r="L29" s="199" t="str">
-        <f>IF(Inputs!L35="","",Inputs!L35)</f>
+        <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
       <c r="M29" s="199" t="str">
-        <f>IF(Inputs!M35="","",Inputs!M35)</f>
+        <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
       <c r="N29" s="87"/>
@@ -6988,101 +7015,101 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="C30" s="65">
-        <f>Fin_Analysis!C18</f>
-        <v>18623682</v>
+        <f>Inputs!C37</f>
+        <v>0</v>
       </c>
       <c r="D30" s="199" t="str">
-        <f>IF(Inputs!D36="","",Inputs!D36)</f>
-        <v/>
-      </c>
-      <c r="E30" s="199" t="str">
-        <f>IF(Inputs!E36="","",Inputs!E36)</f>
-        <v/>
-      </c>
-      <c r="F30" s="199" t="str">
-        <f>IF(Inputs!F36="","",Inputs!F36)</f>
-        <v/>
-      </c>
-      <c r="G30" s="199" t="str">
-        <f>IF(Inputs!G36="","",Inputs!G36)</f>
-        <v/>
+        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <v/>
+      </c>
+      <c r="E30" s="199">
+        <f>IF(Inputs!E37="","",Inputs!E37)</f>
+        <v>22442764</v>
+      </c>
+      <c r="F30" s="199">
+        <f>IF(Inputs!F37="","",Inputs!F37)</f>
+        <v>20617000</v>
+      </c>
+      <c r="G30" s="199">
+        <f>IF(Inputs!G37="","",Inputs!G37)</f>
+        <v>19835482</v>
       </c>
       <c r="H30" s="199" t="str">
-        <f>IF(Inputs!H36="","",Inputs!H36)</f>
+        <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
       <c r="I30" s="199" t="str">
-        <f>IF(Inputs!I36="","",Inputs!I36)</f>
+        <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
       <c r="J30" s="199" t="str">
-        <f>IF(Inputs!J36="","",Inputs!J36)</f>
+        <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
       <c r="K30" s="199" t="str">
-        <f>IF(Inputs!K36="","",Inputs!K36)</f>
+        <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
       <c r="L30" s="199" t="str">
-        <f>IF(Inputs!L36="","",Inputs!L36)</f>
+        <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
       <c r="M30" s="199" t="str">
-        <f>IF(Inputs!M36="","",Inputs!M36)</f>
+        <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
       <c r="N30" s="87"/>
     </row>
-    <row r="31" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="94" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C31" s="65">
-        <f>Fin_Analysis!I28</f>
-        <v>25845852</v>
+        <f>Fin_Analysis!I15</f>
+        <v>6793901</v>
       </c>
       <c r="D31" s="199" t="str">
-        <f>IF(Inputs!D37="","",Inputs!D37)</f>
+        <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
       <c r="E31" s="199">
-        <f>IF(Inputs!E37="","",Inputs!E37)</f>
-        <v>22442764</v>
+        <f>IF(Inputs!E39="","",Inputs!E39)</f>
+        <v>5316310</v>
       </c>
       <c r="F31" s="199">
-        <f>IF(Inputs!F37="","",Inputs!F37)</f>
-        <v>20617000</v>
+        <f>IF(Inputs!F39="","",Inputs!F39)</f>
+        <v>6964787</v>
       </c>
       <c r="G31" s="199">
-        <f>IF(Inputs!G37="","",Inputs!G37)</f>
-        <v>19835482</v>
+        <f>IF(Inputs!G39="","",Inputs!G39)</f>
+        <v>8544578</v>
       </c>
       <c r="H31" s="199" t="str">
-        <f>IF(Inputs!H37="","",Inputs!H37)</f>
+        <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
       <c r="I31" s="199" t="str">
-        <f>IF(Inputs!I37="","",Inputs!I37)</f>
+        <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
       <c r="J31" s="199" t="str">
-        <f>IF(Inputs!J37="","",Inputs!J37)</f>
+        <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
       <c r="K31" s="199" t="str">
-        <f>IF(Inputs!K37="","",Inputs!K37)</f>
+        <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
       <c r="L31" s="199" t="str">
-        <f>IF(Inputs!L37="","",Inputs!L37)</f>
+        <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
       <c r="M31" s="199" t="str">
-        <f>IF(Inputs!M37="","",Inputs!M37)</f>
+        <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
       <c r="N31" s="87"/>
@@ -7090,101 +7117,101 @@
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="94" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="C32" s="65">
-        <f>Fin_Analysis!I48</f>
-        <v>61429709</v>
+        <f>Fin_Analysis!I34</f>
+        <v>51051351</v>
       </c>
       <c r="D32" s="199" t="str">
-        <f>IF(Inputs!D38="","",Inputs!D38)</f>
-        <v/>
-      </c>
-      <c r="E32" s="199" t="str">
-        <f>IF(Inputs!E38="","",Inputs!E38)</f>
-        <v/>
-      </c>
-      <c r="F32" s="199" t="str">
-        <f>IF(Inputs!F38="","",Inputs!F38)</f>
-        <v/>
-      </c>
-      <c r="G32" s="199" t="str">
-        <f>IF(Inputs!G38="","",Inputs!G38)</f>
-        <v/>
+        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <v/>
+      </c>
+      <c r="E32" s="199">
+        <f>IF(Inputs!E40="","",Inputs!E40)</f>
+        <v>32210595</v>
+      </c>
+      <c r="F32" s="199">
+        <f>IF(Inputs!F40="","",Inputs!F40)</f>
+        <v>37670707</v>
+      </c>
+      <c r="G32" s="199">
+        <f>IF(Inputs!G40="","",Inputs!G40)</f>
+        <v>31147279</v>
       </c>
       <c r="H32" s="199" t="str">
-        <f>IF(Inputs!H38="","",Inputs!H38)</f>
+        <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
       <c r="I32" s="199" t="str">
-        <f>IF(Inputs!I38="","",Inputs!I38)</f>
+        <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
       <c r="J32" s="199" t="str">
-        <f>IF(Inputs!J38="","",Inputs!J38)</f>
+        <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
       <c r="K32" s="199" t="str">
-        <f>IF(Inputs!K38="","",Inputs!K38)</f>
+        <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
       <c r="L32" s="199" t="str">
-        <f>IF(Inputs!L38="","",Inputs!L38)</f>
+        <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
       <c r="M32" s="199" t="str">
-        <f>IF(Inputs!M38="","",Inputs!M38)</f>
+        <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
       <c r="N32" s="87"/>
     </row>
-    <row r="33" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="94" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" s="65">
-        <f>Fin_Analysis!I15</f>
-        <v>6793901</v>
-      </c>
-      <c r="D33" s="199" t="str">
-        <f>IF(Inputs!D39="","",Inputs!D39)</f>
-        <v/>
-      </c>
-      <c r="E33" s="199">
-        <f>IF(Inputs!E39="","",Inputs!E39)</f>
-        <v>5316310</v>
-      </c>
-      <c r="F33" s="199">
-        <f>IF(Inputs!F39="","",Inputs!F39)</f>
-        <v>6964787</v>
-      </c>
-      <c r="G33" s="199">
-        <f>IF(Inputs!G39="","",Inputs!G39)</f>
-        <v>8544578</v>
-      </c>
-      <c r="H33" s="199" t="str">
-        <f>IF(Inputs!H39="","",Inputs!H39)</f>
-        <v/>
-      </c>
-      <c r="I33" s="199" t="str">
-        <f>IF(Inputs!I39="","",Inputs!I39)</f>
-        <v/>
-      </c>
-      <c r="J33" s="199" t="str">
-        <f>IF(Inputs!J39="","",Inputs!J39)</f>
-        <v/>
-      </c>
-      <c r="K33" s="199" t="str">
-        <f>IF(Inputs!K39="","",Inputs!K39)</f>
-        <v/>
-      </c>
-      <c r="L33" s="199" t="str">
-        <f>IF(Inputs!L39="","",Inputs!L39)</f>
-        <v/>
-      </c>
-      <c r="M33" s="199" t="str">
-        <f>IF(Inputs!M39="","",Inputs!M39)</f>
+        <v>19</v>
+      </c>
+      <c r="C33" s="77">
+        <f t="shared" ref="C33" si="21">IF(OR(C31="",C32=""),"",C31+C32)</f>
+        <v>57845252</v>
+      </c>
+      <c r="D33" s="77" t="str">
+        <f t="shared" ref="D33" si="22">IF(OR(D31="",D32=""),"",D31+D32)</f>
+        <v/>
+      </c>
+      <c r="E33" s="77">
+        <f t="shared" ref="E33" si="23">IF(OR(E31="",E32=""),"",E31+E32)</f>
+        <v>37526905</v>
+      </c>
+      <c r="F33" s="77">
+        <f t="shared" ref="F33" si="24">IF(OR(F31="",F32=""),"",F31+F32)</f>
+        <v>44635494</v>
+      </c>
+      <c r="G33" s="77">
+        <f t="shared" ref="G33" si="25">IF(OR(G31="",G32=""),"",G31+G32)</f>
+        <v>39691857</v>
+      </c>
+      <c r="H33" s="77" t="str">
+        <f t="shared" ref="H33" si="26">IF(OR(H31="",H32=""),"",H31+H32)</f>
+        <v/>
+      </c>
+      <c r="I33" s="77" t="str">
+        <f t="shared" ref="I33" si="27">IF(OR(I31="",I32=""),"",I31+I32)</f>
+        <v/>
+      </c>
+      <c r="J33" s="77" t="str">
+        <f t="shared" ref="J33" si="28">IF(OR(J31="",J32=""),"",J31+J32)</f>
+        <v/>
+      </c>
+      <c r="K33" s="77" t="str">
+        <f t="shared" ref="K33" si="29">IF(OR(K31="",K32=""),"",K31+K32)</f>
+        <v/>
+      </c>
+      <c r="L33" s="77" t="str">
+        <f t="shared" ref="L33" si="30">IF(OR(L31="",L32=""),"",L31+L32)</f>
+        <v/>
+      </c>
+      <c r="M33" s="77" t="str">
+        <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
       <c r="N33" s="87"/>
@@ -7192,50 +7219,50 @@
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="94" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="C34" s="65">
-        <f>Fin_Analysis!I34</f>
-        <v>51051351</v>
+        <f>Inputs!C41</f>
+        <v>0</v>
       </c>
       <c r="D34" s="199" t="str">
-        <f>IF(Inputs!D40="","",Inputs!D40)</f>
+        <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
       <c r="E34" s="199">
-        <f>IF(Inputs!E40="","",Inputs!E40)</f>
-        <v>32210595</v>
+        <f>IF(Inputs!E41="","",Inputs!E41)</f>
+        <v>132313126</v>
       </c>
       <c r="F34" s="199">
-        <f>IF(Inputs!F40="","",Inputs!F40)</f>
-        <v>37670707</v>
+        <f>IF(Inputs!F41="","",Inputs!F41)</f>
+        <v>124656340</v>
       </c>
       <c r="G34" s="199">
-        <f>IF(Inputs!G40="","",Inputs!G40)</f>
-        <v>31147279</v>
+        <f>IF(Inputs!G41="","",Inputs!G41)</f>
+        <v>115383027</v>
       </c>
       <c r="H34" s="199" t="str">
-        <f>IF(Inputs!H40="","",Inputs!H40)</f>
+        <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
       <c r="I34" s="199" t="str">
-        <f>IF(Inputs!I40="","",Inputs!I40)</f>
+        <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
       <c r="J34" s="199" t="str">
-        <f>IF(Inputs!J40="","",Inputs!J40)</f>
+        <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
       <c r="K34" s="199" t="str">
-        <f>IF(Inputs!K40="","",Inputs!K40)</f>
+        <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
       <c r="L34" s="199" t="str">
-        <f>IF(Inputs!L40="","",Inputs!L40)</f>
+        <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
       <c r="M34" s="199" t="str">
-        <f>IF(Inputs!M40="","",Inputs!M40)</f>
+        <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
       <c r="N34" s="87"/>
@@ -7243,50 +7270,50 @@
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="94" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="77">
-        <f t="shared" ref="C35" si="21">IF(OR(C33="",C34=""),"",C33+C34)</f>
-        <v>57845252</v>
-      </c>
-      <c r="D35" s="77" t="str">
-        <f t="shared" ref="D35" si="22">IF(OR(D33="",D34=""),"",D33+D34)</f>
-        <v/>
-      </c>
-      <c r="E35" s="77">
-        <f t="shared" ref="E35" si="23">IF(OR(E33="",E34=""),"",E33+E34)</f>
-        <v>37526905</v>
-      </c>
-      <c r="F35" s="77">
-        <f t="shared" ref="F35" si="24">IF(OR(F33="",F34=""),"",F33+F34)</f>
-        <v>44635494</v>
-      </c>
-      <c r="G35" s="77">
-        <f t="shared" ref="G35" si="25">IF(OR(G33="",G34=""),"",G33+G34)</f>
-        <v>39691857</v>
-      </c>
-      <c r="H35" s="77" t="str">
-        <f t="shared" ref="H35" si="26">IF(OR(H33="",H34=""),"",H33+H34)</f>
-        <v/>
-      </c>
-      <c r="I35" s="77" t="str">
-        <f t="shared" ref="I35" si="27">IF(OR(I33="",I34=""),"",I33+I34)</f>
-        <v/>
-      </c>
-      <c r="J35" s="77" t="str">
-        <f t="shared" ref="J35" si="28">IF(OR(J33="",J34=""),"",J33+J34)</f>
-        <v/>
-      </c>
-      <c r="K35" s="77" t="str">
-        <f t="shared" ref="K35" si="29">IF(OR(K33="",K34=""),"",K33+K34)</f>
-        <v/>
-      </c>
-      <c r="L35" s="77" t="str">
-        <f t="shared" ref="L35" si="30">IF(OR(L33="",L34=""),"",L33+L34)</f>
-        <v/>
-      </c>
-      <c r="M35" s="77" t="str">
-        <f t="shared" ref="M35" si="31">IF(OR(M33="",M34=""),"",M33+M34)</f>
+        <v>134</v>
+      </c>
+      <c r="C35" s="65">
+        <f>Inputs!C42</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="199" t="str">
+        <f>IF(Inputs!D42="","",Inputs!D42)</f>
+        <v/>
+      </c>
+      <c r="E35" s="199" t="str">
+        <f>IF(Inputs!E42="","",Inputs!E42)</f>
+        <v/>
+      </c>
+      <c r="F35" s="199" t="str">
+        <f>IF(Inputs!F42="","",Inputs!F42)</f>
+        <v/>
+      </c>
+      <c r="G35" s="199" t="str">
+        <f>IF(Inputs!G42="","",Inputs!G42)</f>
+        <v/>
+      </c>
+      <c r="H35" s="199" t="str">
+        <f>IF(Inputs!H42="","",Inputs!H42)</f>
+        <v/>
+      </c>
+      <c r="I35" s="199" t="str">
+        <f>IF(Inputs!I42="","",Inputs!I42)</f>
+        <v/>
+      </c>
+      <c r="J35" s="199" t="str">
+        <f>IF(Inputs!J42="","",Inputs!J42)</f>
+        <v/>
+      </c>
+      <c r="K35" s="199" t="str">
+        <f>IF(Inputs!K42="","",Inputs!K42)</f>
+        <v/>
+      </c>
+      <c r="L35" s="199" t="str">
+        <f>IF(Inputs!L42="","",Inputs!L42)</f>
+        <v/>
+      </c>
+      <c r="M35" s="199" t="str">
+        <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
       <c r="N35" s="87"/>
@@ -7294,50 +7321,50 @@
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="94" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C36" s="65">
-        <f>Fin_Analysis!D3</f>
-        <v>121156821</v>
+        <f>Inputs!C40</f>
+        <v>0</v>
       </c>
       <c r="D36" s="199" t="str">
-        <f>IF(Inputs!D41="","",Inputs!D41)</f>
-        <v/>
-      </c>
-      <c r="E36" s="199">
-        <f>IF(Inputs!E41="","",Inputs!E41)</f>
-        <v>132313126</v>
-      </c>
-      <c r="F36" s="199">
-        <f>IF(Inputs!F41="","",Inputs!F41)</f>
-        <v>124656340</v>
-      </c>
-      <c r="G36" s="199">
-        <f>IF(Inputs!G41="","",Inputs!G41)</f>
-        <v>115383027</v>
+        <f>IF(Inputs!D43="","",Inputs!D43)</f>
+        <v/>
+      </c>
+      <c r="E36" s="199" t="str">
+        <f>IF(Inputs!E43="","",Inputs!E43)</f>
+        <v/>
+      </c>
+      <c r="F36" s="199" t="str">
+        <f>IF(Inputs!F43="","",Inputs!F43)</f>
+        <v/>
+      </c>
+      <c r="G36" s="199" t="str">
+        <f>IF(Inputs!G43="","",Inputs!G43)</f>
+        <v/>
       </c>
       <c r="H36" s="199" t="str">
-        <f>IF(Inputs!H41="","",Inputs!H41)</f>
+        <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
       <c r="I36" s="199" t="str">
-        <f>IF(Inputs!I41="","",Inputs!I41)</f>
+        <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
       <c r="J36" s="199" t="str">
-        <f>IF(Inputs!J41="","",Inputs!J41)</f>
+        <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
       <c r="K36" s="199" t="str">
-        <f>IF(Inputs!K41="","",Inputs!K41)</f>
+        <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
       <c r="L36" s="199" t="str">
-        <f>IF(Inputs!L41="","",Inputs!L41)</f>
+        <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
       <c r="M36" s="199" t="str">
-        <f>IF(Inputs!M41="","",Inputs!M41)</f>
+        <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
       <c r="N36" s="87"/>
@@ -7345,272 +7372,272 @@
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="94" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C37" s="65">
-        <f>Fin_Analysis!D4</f>
-        <v>13900241</v>
-      </c>
-      <c r="D37" s="199" t="str">
-        <f>IF(Inputs!D42="","",Inputs!D42)</f>
-        <v/>
-      </c>
-      <c r="E37" s="199" t="str">
-        <f>IF(Inputs!E42="","",Inputs!E42)</f>
-        <v/>
-      </c>
-      <c r="F37" s="199" t="str">
-        <f>IF(Inputs!F42="","",Inputs!F42)</f>
-        <v/>
-      </c>
-      <c r="G37" s="199" t="str">
-        <f>IF(Inputs!G42="","",Inputs!G42)</f>
-        <v/>
-      </c>
-      <c r="H37" s="199" t="str">
-        <f>IF(Inputs!H42="","",Inputs!H42)</f>
-        <v/>
-      </c>
-      <c r="I37" s="199" t="str">
-        <f>IF(Inputs!I42="","",Inputs!I42)</f>
-        <v/>
-      </c>
-      <c r="J37" s="199" t="str">
-        <f>IF(Inputs!J42="","",Inputs!J42)</f>
-        <v/>
-      </c>
-      <c r="K37" s="199" t="str">
-        <f>IF(Inputs!K42="","",Inputs!K42)</f>
-        <v/>
-      </c>
-      <c r="L37" s="199" t="str">
-        <f>IF(Inputs!L42="","",Inputs!L42)</f>
-        <v/>
-      </c>
-      <c r="M37" s="199" t="str">
-        <f>IF(Inputs!M42="","",Inputs!M42)</f>
+        <f>Fin_Analysis!C68</f>
+        <v>168660741</v>
+      </c>
+      <c r="D37" s="65" t="str">
+        <f t="shared" ref="D37:M37" si="32">IF(D36="","",D27-D36)</f>
+        <v/>
+      </c>
+      <c r="E37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="F37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="G37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="H37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="I37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="J37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="K37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="L37" s="65" t="str">
+        <f t="shared" si="32"/>
+        <v/>
+      </c>
+      <c r="M37" s="65" t="str">
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="N37" s="87"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="94" t="s">
-        <v>133</v>
-      </c>
-      <c r="C38" s="65">
-        <f>Fin_Analysis!C63</f>
-        <v>39771641</v>
-      </c>
-      <c r="D38" s="199" t="str">
-        <f>IF(Inputs!D43="","",Inputs!D43)</f>
-        <v/>
-      </c>
-      <c r="E38" s="199" t="str">
-        <f>IF(Inputs!E43="","",Inputs!E43)</f>
-        <v/>
-      </c>
-      <c r="F38" s="199" t="str">
-        <f>IF(Inputs!F43="","",Inputs!F43)</f>
-        <v/>
-      </c>
-      <c r="G38" s="199" t="str">
-        <f>IF(Inputs!G43="","",Inputs!G43)</f>
-        <v/>
-      </c>
-      <c r="H38" s="199" t="str">
-        <f>IF(Inputs!H43="","",Inputs!H43)</f>
-        <v/>
-      </c>
-      <c r="I38" s="199" t="str">
-        <f>IF(Inputs!I43="","",Inputs!I43)</f>
-        <v/>
-      </c>
-      <c r="J38" s="199" t="str">
-        <f>IF(Inputs!J43="","",Inputs!J43)</f>
-        <v/>
-      </c>
-      <c r="K38" s="199" t="str">
-        <f>IF(Inputs!K43="","",Inputs!K43)</f>
-        <v/>
-      </c>
-      <c r="L38" s="199" t="str">
-        <f>IF(Inputs!L43="","",Inputs!L43)</f>
-        <v/>
-      </c>
-      <c r="M38" s="199" t="str">
-        <f>IF(Inputs!M43="","",Inputs!M43)</f>
+      <c r="B38" s="98" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="155">
+        <f>IF(C6="","",C14/MAX(C37,0))</f>
+        <v>2.2001523954725974E-2</v>
+      </c>
+      <c r="D38" s="155" t="e">
+        <f>IF(D6="","",D14/MAX(D37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E38" s="155" t="e">
+        <f>IF(E6="","",E14/MAX(E37,0))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F38" s="155" t="str">
+        <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
+        <v/>
+      </c>
+      <c r="G38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="H38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="I38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="J38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="K38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="L38" s="155" t="str">
+        <f t="shared" si="33"/>
+        <v/>
+      </c>
+      <c r="M38" s="155" t="str">
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="N38" s="87"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="4"/>
-      <c r="B39" s="94" t="s">
-        <v>137</v>
-      </c>
-      <c r="C39" s="65">
-        <f>Fin_Analysis!C68</f>
-        <v>168660741</v>
-      </c>
-      <c r="D39" s="65" t="str">
-        <f>IF(D38="","",D27-D38)</f>
-        <v/>
-      </c>
-      <c r="E39" s="65" t="str">
-        <f t="shared" ref="E39:M39" si="32">IF(E38="","",E27-E38)</f>
-        <v/>
-      </c>
-      <c r="F39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="G39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="H39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="I39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="J39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="K39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="L39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
-      <c r="M39" s="65" t="str">
-        <f t="shared" si="32"/>
-        <v/>
-      </c>
+      <c r="A39" s="16"/>
+      <c r="B39" s="55" t="s">
+        <v>248</v>
+      </c>
+      <c r="C39" s="54"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="54"/>
+      <c r="H39" s="54"/>
+      <c r="I39" s="54"/>
+      <c r="J39" s="54"/>
+      <c r="K39" s="54"/>
+      <c r="L39" s="54"/>
+      <c r="M39" s="54"/>
       <c r="N39" s="87"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="98" t="s">
-        <v>151</v>
-      </c>
-      <c r="C40" s="155">
-        <f>IF(C6="","",C14/MAX(C39,0))</f>
-        <v>2.2001523954725974E-2</v>
-      </c>
-      <c r="D40" s="155" t="e">
-        <f>IF(D6="","",D14/MAX(D39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E40" s="155" t="e">
-        <f>IF(E6="","",E14/MAX(E39,0))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F40" s="155" t="str">
-        <f t="shared" ref="F40:M40" si="33">IF(F39="","",F14/F39)</f>
-        <v/>
-      </c>
-      <c r="G40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="H40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="I40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="J40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="K40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="L40" s="155" t="str">
-        <f t="shared" si="33"/>
-        <v/>
-      </c>
-      <c r="M40" s="155" t="str">
-        <f t="shared" si="33"/>
+      <c r="B40" s="95" t="s">
+        <v>95</v>
+      </c>
+      <c r="C40" s="156">
+        <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
+        <v>0.48651894461783024</v>
+      </c>
+      <c r="D40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.52128467373406284</v>
+      </c>
+      <c r="E40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.42955949475049005</v>
+      </c>
+      <c r="F40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.42263499182368403</v>
+      </c>
+      <c r="G40" s="156">
+        <f t="shared" si="34"/>
+        <v>0.50159380457223135</v>
+      </c>
+      <c r="H40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="I40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="J40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="K40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="L40" s="156" t="str">
+        <f t="shared" si="34"/>
+        <v/>
+      </c>
+      <c r="M40" s="156" t="str">
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="N40" s="87"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="16"/>
-      <c r="B41" s="55" t="s">
-        <v>250</v>
-      </c>
-      <c r="C41" s="54"/>
-      <c r="D41" s="54"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="G41" s="54"/>
-      <c r="H41" s="54"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="54"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="54"/>
+      <c r="A41" s="4"/>
+      <c r="B41" s="94" t="s">
+        <v>221</v>
+      </c>
+      <c r="C41" s="153">
+        <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
+        <v>0.13623030387112606</v>
+      </c>
+      <c r="D41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.11788670348292293</v>
+      </c>
+      <c r="E41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.13070880454608683</v>
+      </c>
+      <c r="F41" s="153">
+        <f t="shared" si="35"/>
+        <v>0.1110896095869353</v>
+      </c>
+      <c r="G41" s="153">
+        <f t="shared" si="35"/>
+        <v>8.8881136874354449E-2</v>
+      </c>
+      <c r="H41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="I41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="J41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="K41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="L41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
+      <c r="M41" s="153" t="str">
+        <f t="shared" si="35"/>
+        <v/>
+      </c>
       <c r="N41" s="87"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C42" s="156">
-        <f t="shared" ref="C42:M42" si="34">IF(C6="","",C8/C6)</f>
-        <v>0.48651894461783024</v>
-      </c>
-      <c r="D42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.52128467373406284</v>
-      </c>
-      <c r="E42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.42955949475049005</v>
-      </c>
-      <c r="F42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.42263499182368403</v>
-      </c>
-      <c r="G42" s="156">
-        <f t="shared" si="34"/>
-        <v>0.50159380457223135</v>
-      </c>
-      <c r="H42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="I42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="J42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="K42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="L42" s="156" t="str">
-        <f t="shared" si="34"/>
-        <v/>
-      </c>
-      <c r="M42" s="156" t="str">
-        <f t="shared" si="34"/>
+      <c r="B42" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="C42" s="153">
+        <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="153">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="I42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="J42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="K42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="L42" s="153" t="str">
+        <f t="shared" si="36"/>
+        <v/>
+      </c>
+      <c r="M42" s="153" t="str">
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="N42" s="87"/>
@@ -7618,50 +7645,50 @@
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="94" t="s">
-        <v>222</v>
+        <v>118</v>
       </c>
       <c r="C43" s="153">
-        <f t="shared" ref="C43:M43" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
-        <v>0.13623030387112606</v>
+        <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
+        <v>4.581383061459042E-2</v>
       </c>
       <c r="D43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.11788670348292293</v>
+        <f t="shared" si="37"/>
+        <v>2.1741924097741849E-2</v>
       </c>
       <c r="E43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.13070880454608683</v>
+        <f t="shared" si="37"/>
+        <v>3.6710684655939116E-2</v>
       </c>
       <c r="F43" s="153">
-        <f t="shared" si="35"/>
-        <v>0.1110896095869353</v>
+        <f t="shared" si="37"/>
+        <v>5.3814505777255314E-2</v>
       </c>
       <c r="G43" s="153">
-        <f t="shared" si="35"/>
-        <v>8.8881136874354449E-2</v>
+        <f t="shared" si="37"/>
+        <v>4.5078833660593357E-2</v>
       </c>
       <c r="H43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="I43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="J43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="K43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="L43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="M43" s="153" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="N43" s="87"/>
@@ -7669,50 +7696,50 @@
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="94" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
       <c r="C44" s="153">
-        <f t="shared" ref="C44:M44" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
+        <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
+        <v>9.375962912518726E-2</v>
+      </c>
+      <c r="D44" s="153">
+        <f t="shared" si="38"/>
+        <v>6.5806036700884196E-2</v>
+      </c>
+      <c r="E44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="D44" s="153">
-        <f t="shared" si="36"/>
+      <c r="F44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="E44" s="153">
-        <f t="shared" si="36"/>
+      <c r="G44" s="153">
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="G44" s="153">
-        <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
       <c r="H44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="I44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="J44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="K44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="L44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="M44" s="153" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="N44" s="87"/>
@@ -7720,50 +7747,50 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>119</v>
+        <v>223</v>
       </c>
       <c r="C45" s="153">
-        <f t="shared" ref="C45:M45" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
-        <v>4.581383061459042E-2</v>
+        <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
+        <v>0</v>
       </c>
       <c r="D45" s="153">
-        <f t="shared" si="37"/>
-        <v>2.1741924097741849E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="E45" s="153">
-        <f t="shared" si="37"/>
-        <v>3.6710684655939116E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="F45" s="153">
-        <f t="shared" si="37"/>
-        <v>5.3814505777255314E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="G45" s="153">
-        <f t="shared" si="37"/>
-        <v>4.5078833660593357E-2</v>
+        <f t="shared" si="39"/>
+        <v>0</v>
       </c>
       <c r="H45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="I45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="J45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="K45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="L45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="M45" s="153" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="N45" s="87"/>
@@ -7771,221 +7798,221 @@
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="94" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="C46" s="153">
-        <f>IF(C6="","",MAX(C12,0)/C6)</f>
-        <v>9.375962912518726E-2</v>
+        <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
+        <v>0.23767729177126601</v>
       </c>
       <c r="D46" s="153">
-        <f t="shared" ref="D46:M46" si="38">IF(D6="","",MAX(D12,0)/D6)</f>
-        <v>6.5806036700884196E-2</v>
+        <f t="shared" si="40"/>
+        <v>0.27328066198438822</v>
       </c>
       <c r="E46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.40302101604748397</v>
       </c>
       <c r="F46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.41246089281212539</v>
       </c>
       <c r="G46" s="153">
-        <f t="shared" si="38"/>
-        <v>0</v>
+        <f t="shared" si="40"/>
+        <v>0.3644462248928208</v>
       </c>
       <c r="H46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="I46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="J46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="K46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="L46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="M46" s="153" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="N46" s="87"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="4"/>
-      <c r="B47" s="94" t="s">
-        <v>224</v>
-      </c>
-      <c r="C47" s="153">
-        <f>IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="153">
-        <f t="shared" ref="D47:M47" si="39">IF(D6="","",ABS(MAX(D21,0)-MAX(D19,0))/D6)</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="F47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="G47" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="H47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="I47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="J47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="K47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="L47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
-      <c r="M47" s="153" t="str">
-        <f t="shared" si="39"/>
-        <v/>
-      </c>
+      <c r="A47" s="16"/>
+      <c r="B47" s="102" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="36"/>
+      <c r="H47" s="36"/>
+      <c r="I47" s="36"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
       <c r="N47" s="87"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="94" t="s">
-        <v>121</v>
-      </c>
-      <c r="C48" s="153">
-        <f t="shared" ref="C48:M48" si="40">IF(C6="","",C22/C6)</f>
-        <v>0.23767729177126601</v>
-      </c>
-      <c r="D48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.27328066198438822</v>
-      </c>
-      <c r="E48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.40302101604748397</v>
-      </c>
-      <c r="F48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.41246089281212539</v>
-      </c>
-      <c r="G48" s="153">
-        <f t="shared" si="40"/>
-        <v>0.3644462248928208</v>
-      </c>
-      <c r="H48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="I48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="J48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="K48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="L48" s="153" t="str">
-        <f t="shared" si="40"/>
-        <v/>
-      </c>
-      <c r="M48" s="153" t="str">
-        <f t="shared" si="40"/>
+      <c r="B48" s="271" t="s">
+        <v>255</v>
+      </c>
+      <c r="C48" s="272" t="e">
+        <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D48" s="272" t="e">
+        <f t="shared" si="41"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E48" s="272">
+        <f t="shared" si="41"/>
+        <v>9.9038324163300023E-2</v>
+      </c>
+      <c r="F48" s="272">
+        <f t="shared" si="41"/>
+        <v>9.9991519435018147E-2</v>
+      </c>
+      <c r="G48" s="272">
+        <f t="shared" si="41"/>
+        <v>0.13330587752598277</v>
+      </c>
+      <c r="H48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="I48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="J48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="K48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="L48" s="272" t="str">
+        <f t="shared" si="41"/>
+        <v/>
+      </c>
+      <c r="M48" s="272" t="str">
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="N48" s="87"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="16"/>
-      <c r="B49" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36"/>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="36"/>
-      <c r="H49" s="36"/>
-      <c r="I49" s="36"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="36"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="36"/>
+      <c r="A49" s="4"/>
+      <c r="B49" s="94" t="s">
+        <v>256</v>
+      </c>
+      <c r="C49" s="153">
+        <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
+        <v>0.15131239787715892</v>
+      </c>
+      <c r="D49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="E49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="F49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="G49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="H49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="I49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="J49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="K49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="L49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
+      <c r="M49" s="153" t="str">
+        <f t="shared" si="42"/>
+        <v/>
+      </c>
       <c r="N49" s="87"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="271" t="s">
+      <c r="B50" s="94" t="s">
         <v>257</v>
       </c>
-      <c r="C50" s="272">
-        <f>IF(C6="","",C6/C27)</f>
-        <v>6.2800357000190113E-2</v>
-      </c>
-      <c r="D50" s="272" t="e">
-        <f t="shared" ref="D50:M50" si="41">IF(D6="","",D6/D27)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G50" s="272" t="e">
-        <f t="shared" si="41"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="I50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="J50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="K50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="L50" s="272" t="str">
-        <f t="shared" si="41"/>
-        <v/>
-      </c>
-      <c r="M50" s="272" t="str">
-        <f t="shared" si="41"/>
+      <c r="C50" s="153">
+        <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
+        <v>1.4227816099892221</v>
+      </c>
+      <c r="D50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="E50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="F50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="G50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="H50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="I50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="J50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="K50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="L50" s="153" t="str">
+        <f t="shared" si="43"/>
+        <v/>
+      </c>
+      <c r="M50" s="153" t="str">
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="N50" s="87"/>
@@ -7993,522 +8020,426 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>258</v>
-      </c>
-      <c r="C51" s="153">
-        <f t="shared" ref="C51:M51" si="42">IF(C29="","",C29/C6)</f>
-        <v>0.15131239787715892</v>
-      </c>
-      <c r="D51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="E51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
-      </c>
-      <c r="F51" s="153" t="str">
-        <f t="shared" si="42"/>
-        <v/>
+        <v>247</v>
+      </c>
+      <c r="C51" s="153" t="e">
+        <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F51" s="153" t="e">
+        <f t="shared" si="44"/>
+        <v>#VALUE!</v>
       </c>
       <c r="G51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="H51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="I51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="J51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="K51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="L51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="M51" s="153" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="N51" s="87"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A52" s="4"/>
-      <c r="B52" s="94" t="s">
-        <v>259</v>
-      </c>
-      <c r="C52" s="153">
-        <f t="shared" ref="C52:M52" si="43">IF(C30="","",C30/C6)</f>
-        <v>1.4227816099892221</v>
-      </c>
-      <c r="D52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="E52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="F52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="G52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="H52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="I52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="J52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="K52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="L52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="M52" s="153" t="str">
-        <f t="shared" si="43"/>
-        <v/>
-      </c>
-      <c r="N52" s="87"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C52" s="36"/>
+      <c r="D52" s="36"/>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="36"/>
+      <c r="J52" s="36"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="94" t="s">
-        <v>248</v>
-      </c>
-      <c r="C53" s="153" t="e">
-        <f>IF(D6="","",C16/(C6-D6))</f>
+      <c r="B53" s="95" t="s">
+        <v>251</v>
+      </c>
+      <c r="C53" s="156" t="e">
+        <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="E53" s="156" t="e">
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="D53" s="153" t="e">
-        <f t="shared" ref="D53:M53" si="44">IF(E6="","",D16/(D6-E6))</f>
+      <c r="F53" s="156" t="e">
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E53" s="153" t="e">
-        <f t="shared" si="44"/>
+      <c r="G53" s="156" t="e">
+        <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="153" t="e">
-        <f t="shared" si="44"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="H53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="I53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="J53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="K53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="L53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="M53" s="153" t="str">
-        <f t="shared" si="44"/>
-        <v/>
-      </c>
-      <c r="N53" s="87"/>
+      <c r="H53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="I53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="J53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="K53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="L53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
+      <c r="M53" s="156" t="str">
+        <f t="shared" si="45"/>
+        <v/>
+      </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A54" s="16"/>
-      <c r="B54" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36"/>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-      <c r="G54" s="36"/>
-      <c r="H54" s="36"/>
-      <c r="I54" s="36"/>
-      <c r="J54" s="36"/>
-      <c r="K54" s="36"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="36"/>
+      <c r="A54" s="4"/>
+      <c r="B54" s="94" t="s">
+        <v>117</v>
+      </c>
+      <c r="C54" s="157">
+        <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
+        <v>5.3783279107044654E-2</v>
+      </c>
+      <c r="D54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="E54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.16460211680126566</v>
+      </c>
+      <c r="F54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.13423059684295194</v>
+      </c>
+      <c r="G54" s="157">
+        <f t="shared" si="46"/>
+        <v>0.16550742385270611</v>
+      </c>
+      <c r="H54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="I54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="J54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="K54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="L54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
+      <c r="M54" s="157" t="str">
+        <f t="shared" si="46"/>
+        <v/>
+      </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="95" t="s">
-        <v>253</v>
-      </c>
-      <c r="C55" s="156">
-        <f>IF(C36="","",(C36-C37)/C27)</f>
-        <v>0.51458693208236717</v>
-      </c>
-      <c r="D55" s="156" t="str">
-        <f t="shared" ref="D55:M55" si="45">IF(D36="","",(D36-D37)/D27)</f>
-        <v/>
-      </c>
-      <c r="E55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G55" s="156" t="e">
-        <f t="shared" si="45"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="I55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="J55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="K55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="L55" s="156" t="str">
-        <f t="shared" si="45"/>
-        <v/>
-      </c>
-      <c r="M55" s="156" t="str">
-        <f t="shared" si="45"/>
+      <c r="B55" s="94" t="s">
+        <v>119</v>
+      </c>
+      <c r="C55" s="153">
+        <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
+        <v>0.19275644834711586</v>
+      </c>
+      <c r="D55" s="153">
+        <f t="shared" si="47"/>
+        <v>7.9558955763155692E-2</v>
+      </c>
+      <c r="E55" s="153">
+        <f t="shared" si="47"/>
+        <v>9.108876012464287E-2</v>
+      </c>
+      <c r="F55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.1304717773613695</v>
+      </c>
+      <c r="G55" s="153">
+        <f t="shared" si="47"/>
+        <v>0.12369131735100422</v>
+      </c>
+      <c r="H55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="I55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="J55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="K55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="L55" s="153" t="str">
+        <f t="shared" si="47"/>
+        <v/>
+      </c>
+      <c r="M55" s="153" t="str">
+        <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C56" s="157">
-        <f t="shared" ref="C56:M56" si="46">IF(OR(C22="",C35=""),"",IF(C35&lt;=0,"-",C22/C35))</f>
-        <v>5.3783279107044654E-2</v>
-      </c>
-      <c r="D56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="E56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.16460211680126566</v>
-      </c>
-      <c r="F56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.13423059684295194</v>
-      </c>
-      <c r="G56" s="157">
-        <f t="shared" si="46"/>
-        <v>0.16550742385270611</v>
-      </c>
-      <c r="H56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="I56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="J56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="K56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="L56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
-      </c>
-      <c r="M56" s="157" t="str">
-        <f t="shared" si="46"/>
-        <v/>
+      <c r="B56" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/C30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/D30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="E56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/E30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/F30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/G30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/H30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/I30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/J30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/K30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="L56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/L30)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M56" s="158" t="e">
+        <f>IF(#REF!="","",#REF!/M30)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A57" s="4"/>
-      <c r="B57" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C57" s="153">
-        <f t="shared" ref="C57:M57" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
-        <v>0.19275644834711586</v>
-      </c>
-      <c r="D57" s="153">
-        <f t="shared" si="47"/>
-        <v>7.9558955763155692E-2</v>
-      </c>
-      <c r="E57" s="153">
-        <f t="shared" si="47"/>
-        <v>9.108876012464287E-2</v>
-      </c>
-      <c r="F57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.1304717773613695</v>
-      </c>
-      <c r="G57" s="153">
-        <f t="shared" si="47"/>
-        <v>0.12369131735100422</v>
-      </c>
-      <c r="H57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="I57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="J57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="K57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="L57" s="153" t="str">
-        <f t="shared" si="47"/>
-        <v/>
-      </c>
-      <c r="M57" s="153" t="str">
-        <f t="shared" si="47"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="102" t="s">
+        <v>252</v>
+      </c>
+      <c r="C57" s="273" t="str">
+        <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
+        <v/>
+      </c>
+      <c r="D57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="E57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="F57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="G57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="H57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="I57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="J57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="K57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="L57" s="273" t="str">
+        <f t="shared" si="48"/>
+        <v/>
+      </c>
+      <c r="M57" s="273" t="str">
+        <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C58" s="158">
-        <f t="shared" ref="C58:M58" si="48">IF(C28="","",C28/C31)</f>
-        <v>2.2597953435622862</v>
-      </c>
-      <c r="D58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="E58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.3178775127698175</v>
-      </c>
-      <c r="F58" s="158">
-        <f t="shared" si="48"/>
-        <v>2.2711732065770964</v>
-      </c>
-      <c r="G58" s="158">
-        <f t="shared" si="48"/>
-        <v>1.5397960079820596</v>
-      </c>
-      <c r="H58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="I58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="J58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="K58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="L58" s="158" t="str">
-        <f t="shared" si="48"/>
-        <v/>
-      </c>
-      <c r="M58" s="158" t="str">
-        <f t="shared" si="48"/>
+      <c r="B58" s="271" t="s">
+        <v>253</v>
+      </c>
+      <c r="C58" s="274" t="e">
+        <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G58" s="274" t="e">
+        <f t="shared" si="49"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="I58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="J58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="K58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="L58" s="274" t="str">
+        <f t="shared" si="49"/>
+        <v/>
+      </c>
+      <c r="M58" s="274" t="str">
+        <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A59" s="16"/>
-      <c r="B59" s="102" t="s">
+      <c r="A59" s="4"/>
+      <c r="B59" s="271" t="s">
         <v>254</v>
       </c>
-      <c r="C59" s="273" t="str">
-        <f>IFERROR(IF(C13*C50*(1/C55)=C60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="D59" s="273" t="str">
-        <f t="shared" ref="D59:M59" si="49">IFERROR(IF(D13*D50*(1/D55)=D60,"","Error"),"")</f>
-        <v/>
-      </c>
-      <c r="E59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="F59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="G59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="H59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="I59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="J59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="K59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="L59" s="273" t="str">
-        <f t="shared" si="49"/>
-        <v/>
-      </c>
-      <c r="M59" s="273" t="str">
-        <f t="shared" si="49"/>
+      <c r="C59" s="274" t="e">
+        <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="E59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G59" s="274" t="e">
+        <f t="shared" si="50"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="H59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="I59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="J59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="K59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="L59" s="274" t="str">
+        <f t="shared" si="50"/>
+        <v/>
+      </c>
+      <c r="M59" s="274" t="str">
+        <f t="shared" si="50"/>
         <v/>
       </c>
     </row>
     <row r="60" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
-      <c r="B60" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C60" s="274">
-        <f>IF(C14="","",C14/(C36-C37))</f>
-        <v>3.4597349023559515E-2</v>
-      </c>
-      <c r="D60" s="274" t="e">
-        <f t="shared" ref="D60:M60" si="50">IF(D14="","",D14/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G60" s="274" t="e">
-        <f t="shared" si="50"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="I60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="J60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="K60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="L60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
-      <c r="M60" s="274" t="str">
-        <f t="shared" si="50"/>
-        <v/>
-      </c>
     </row>
     <row r="61" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
-      <c r="B61" s="271" t="s">
-        <v>256</v>
-      </c>
-      <c r="C61" s="274">
-        <f>IF(C22="","",C22/(C36-C37))</f>
-        <v>2.900621419528138E-2</v>
-      </c>
-      <c r="D61" s="274" t="e">
-        <f t="shared" ref="D61:M61" si="51">IF(D22="","",D22/(D36-D37))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G61" s="274" t="e">
-        <f t="shared" si="51"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="I61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="J61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="K61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="L61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
-      <c r="M61" s="274" t="str">
-        <f t="shared" si="51"/>
-        <v/>
-      </c>
     </row>
     <row r="62" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
@@ -9068,12 +8999,8 @@
     <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A247" s="4"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A248" s="4"/>
-    </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A249" s="4"/>
-    </row>
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9755,27 +9682,30 @@
     <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="20" type="noConversion"/>
-  <conditionalFormatting sqref="C6:M23 C27:M40">
-    <cfRule type="containsBlanks" dxfId="10" priority="4">
+  <conditionalFormatting sqref="C6:M23">
+    <cfRule type="containsBlanks" dxfId="11" priority="5">
       <formula>LEN(TRIM(C6))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:M25">
-    <cfRule type="containsBlanks" dxfId="9" priority="3">
+    <cfRule type="containsBlanks" dxfId="10" priority="4">
       <formula>LEN(TRIM(C25))=0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="C27:M38">
+    <cfRule type="containsBlanks" dxfId="9" priority="1">
+      <formula>LEN(TRIM(C27))=0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="D24:M24">
-    <cfRule type="containsBlanks" dxfId="8" priority="2">
+    <cfRule type="containsBlanks" dxfId="8" priority="3">
       <formula>LEN(TRIM(D24))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsBlanks" dxfId="7" priority="1">
+    <cfRule type="containsBlanks" dxfId="7" priority="2">
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9889,13 +9819,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69">
+      <c r="D6" s="69" t="e">
         <f>(E49-I49-E53)</f>
-        <v>-28198312.699999988</v>
-      </c>
-      <c r="E6" s="56">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E6" s="56" t="e">
         <f>1-D6/D3</f>
-        <v>1.2327422630212457</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9915,9 +9845,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66">
+      <c r="D7" s="66" t="e">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9967,7 +9897,7 @@
         <v>31</v>
       </c>
       <c r="D10" s="74" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E10" s="74" t="s">
         <v>32</v>
@@ -10014,7 +9944,7 @@
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
@@ -10042,7 +9972,7 @@
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
@@ -10125,7 +10055,7 @@
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
@@ -10147,7 +10077,7 @@
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
@@ -10215,7 +10145,7 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
@@ -10537,7 +10467,7 @@
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
@@ -10674,7 +10604,7 @@
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
@@ -10961,9 +10891,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="str">
+      <c r="D52" s="74" t="e">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>BV of the MI</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10981,13 +10911,13 @@
         <f>MAX(D4,0)</f>
         <v>13900241</v>
       </c>
-      <c r="D53" s="29">
+      <c r="D53" s="29" t="e">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>1</v>
-      </c>
-      <c r="E53" s="88">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E53" s="88" t="e">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>13900241</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -11005,7 +10935,7 @@
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C55" s="3"/>
       <c r="E55" s="125"/>
@@ -11071,7 +11001,7 @@
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
@@ -11106,7 +11036,7 @@
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="117">
         <f>C11+C30</f>
@@ -11127,7 +11057,7 @@
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11148,7 +11078,7 @@
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B64" s="121" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C64" s="208"/>
       <c r="D64" s="208"/>
@@ -11163,7 +11093,7 @@
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11194,7 +11124,7 @@
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
@@ -11208,7 +11138,7 @@
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11229,7 +11159,7 @@
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B69" s="121" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C69" s="208"/>
       <c r="D69" s="208"/>
@@ -11244,7 +11174,7 @@
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11266,7 +11196,7 @@
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
       <c r="B72" s="106" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C72" s="283">
         <f>Data!C5</f>
@@ -11274,11 +11204,11 @@
       </c>
       <c r="D72" s="283"/>
       <c r="E72" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F72" s="297"/>
       <c r="H72" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I72" s="297"/>
       <c r="K72" s="50" t="s">
@@ -11306,7 +11236,7 @@
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
@@ -11378,7 +11308,7 @@
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
@@ -11408,7 +11338,7 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
@@ -11438,7 +11368,7 @@
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B79" s="256" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C79" s="257">
         <f>C76-C77-C78</f>
@@ -11496,12 +11426,12 @@
         <v>0</v>
       </c>
       <c r="K80" s="181" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
@@ -11531,7 +11461,7 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
@@ -11561,7 +11491,7 @@
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B83" s="105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C83" s="163">
         <f>C79-C81-C82-C80</f>
@@ -11612,7 +11542,7 @@
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B85" s="263" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C85" s="257">
         <f>C83*(1-I84)</f>
@@ -11643,7 +11573,7 @@
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B86" s="87" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C86" s="167">
         <f>C85*Data!C4/Common_Shares</f>
@@ -11664,28 +11594,28 @@
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C87" s="261">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508141633814905</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="D87" s="209"/>
       <c r="E87" s="262">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508141633814905</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="F87" s="209"/>
       <c r="H87" s="262">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10508141633814905</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="I87" s="209"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C88" s="169">
         <f>Inputs!C44</f>
@@ -11715,21 +11645,21 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C89" s="261">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8235049344413355E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D89" s="209"/>
       <c r="E89" s="261">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4117524672206677E-2</v>
+        <v>4.3774197631956044E-2</v>
       </c>
       <c r="F89" s="209"/>
       <c r="H89" s="261">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8235049344413355E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="I89" s="209"/>
       <c r="K89" s="24"/>
@@ -11746,27 +11676,27 @@
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C92" s="198" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E92" s="297" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F92" s="297"/>
       <c r="G92" s="87"/>
       <c r="H92" s="297" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I92" s="297"/>
       <c r="K92" s="24"/>
@@ -11785,24 +11715,24 @@
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F93" s="144">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.994736898581799</v>
+        <v>39.846976310144214</v>
       </c>
       <c r="H93" s="87" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I93" s="144">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.994736898581799</v>
+        <v>39.846976310144214</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C94" s="182">
         <f>Dashboard!G20</f>
@@ -11813,18 +11743,18 @@
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F94" s="144">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.643392227662902</v>
+        <v>12.622618873275993</v>
       </c>
       <c r="H94" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I94" s="144">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.099988455273817</v>
+        <v>31.001994910891355</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11843,14 +11773,14 @@
         <v>HKD</v>
       </c>
       <c r="D96" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E96" s="183" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F96" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H96" s="183" t="str">
         <f>H72</f>
@@ -11863,49 +11793,49 @@
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28858420.131190516</v>
+        <v>28751802.674229197</v>
       </c>
       <c r="D97" s="213"/>
       <c r="E97" s="123">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.88445272035095</v>
+        <v>19.810989593385798</v>
       </c>
       <c r="F97" s="213"/>
       <c r="H97" s="123">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.88445272035095</v>
+        <v>19.810989593385798</v>
       </c>
       <c r="I97" s="123">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.44562874835394</v>
+        <v>26.34792535114526</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>141</v>
-      </c>
-      <c r="C98" s="91">
+        <v>140</v>
+      </c>
+      <c r="C98" s="91" t="e">
         <f>-E53*Exchange_Rate</f>
-        <v>-13900241</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="D98" s="213"/>
       <c r="E98" s="213"/>
       <c r="F98" s="213"/>
-      <c r="H98" s="123">
+      <c r="H98" s="123" t="e">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>-9.5777483212689418</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I98" s="215"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B99" s="105" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C99" s="108">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
@@ -11928,29 +11858,29 @@
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91">
+      <c r="C100" s="91" t="e">
         <f>C97+C98+$C$99</f>
-        <v>-27373769.468809485</v>
-      </c>
-      <c r="D100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D100" s="109" t="e">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>0</v>
-      </c>
-      <c r="E100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E100" s="109" t="e">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>0</v>
-      </c>
-      <c r="F100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F100" s="109" t="e">
         <f>(E100+H100)/2</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H100" s="109" t="e">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I100" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I100" s="109" t="e">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>0</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11960,21 +11890,21 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C102" s="127" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
       <c r="D102" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E102" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F102" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H102" s="183" t="str">
         <f>H96</f>
@@ -11987,31 +11917,31 @@
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22440365.970985837</v>
+        <v>22369658.195582673</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2860004708452148</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="E103" s="123">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2860004708452148</v>
+        <v>6.2756724423299364</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.874095599426379</v>
+        <v>10.844571529930548</v>
       </c>
       <c r="H103" s="123">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.462190728007542</v>
+        <v>15.413470617531161</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.564174502556334</v>
+        <v>20.499378454490174</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12021,21 +11951,21 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C105" s="127" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
       <c r="D105" s="124" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E105" s="184" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
       <c r="F105" s="227" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H105" s="184" t="str">
         <f>H96</f>
@@ -12048,31 +11978,31 @@
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="C106" s="91">
+        <v>185</v>
+      </c>
+      <c r="C106" s="91" t="e">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4561454.2447741786</v>
-      </c>
-      <c r="D106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D106" s="109" t="e">
         <f>(D100+D103)/2</f>
-        <v>3.1430002354226074</v>
-      </c>
-      <c r="E106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E106" s="123" t="e">
         <f>(E100+E103)/2</f>
-        <v>3.1430002354226074</v>
-      </c>
-      <c r="F106" s="109">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F106" s="109" t="e">
         <f>(F100+F103)/2</f>
-        <v>5.4370477997131896</v>
-      </c>
-      <c r="H106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="H106" s="123" t="e">
         <f>(H100+H103)/2</f>
-        <v>7.731095364003771</v>
-      </c>
-      <c r="I106" s="123">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I106" s="123" t="e">
         <f>(I100+I103)/2</f>
-        <v>10.282087251278167</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12081,7 +12011,7 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C108" s="128" t="str">
         <f>Inputs!C87</f>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A33A875F-1435-4EC7-8881-5982D6325545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{896CC339-96AA-4A38-9186-A646DF641E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
   <si>
     <t>Company Info:</t>
   </si>
@@ -748,10 +748,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Common Equity =</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>D/P Dividend Yield</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -948,10 +944,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Sales Turnover</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>EBIT Margin</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -981,6 +973,22 @@
   </si>
   <si>
     <t>PlaceHolder_1</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asset Turnover Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t># In general, the higher the accounts receivable, the higher the inventory, and the lower the fixed assets, the lower the asset turnover ratio.</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_3</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlaceHolder_4</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1908,7 +1916,6 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2144,12 +2151,8 @@
     <xf numFmtId="181" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2348,6 +2351,11 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2587,8 +2595,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
       <color rgb="FFB6D7A8"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFFFFFCC"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
@@ -2804,7 +2812,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C75" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2822,162 +2830,162 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="141" t="s">
+      <c r="B4" s="140" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="188" t="s">
-        <v>267</v>
+      <c r="C4" s="187" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="140" t="s">
         <v>182</v>
       </c>
-      <c r="C5" s="191" t="s">
-        <v>268</v>
+      <c r="C5" s="190" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="140" t="s">
         <v>156</v>
       </c>
-      <c r="C6" s="189">
+      <c r="C6" s="188">
         <v>45639</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="140" t="s">
+      <c r="B7" s="139" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="190">
+      <c r="C7" s="189">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="139" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="191" t="s">
+      <c r="C8" s="190" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="267"/>
+      <c r="E8" s="264"/>
     </row>
     <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="140" t="s">
+      <c r="B9" s="139" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="192" t="s">
-        <v>269</v>
+      <c r="C9" s="191" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="139" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="193">
+      <c r="C10" s="192">
         <v>1451305728</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="140" t="s">
+      <c r="B11" s="139" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="192" t="s">
+      <c r="C11" s="191" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="218" t="s">
+      <c r="B12" s="215" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="219">
+      <c r="C12" s="216">
         <v>45291</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="218" t="s">
+      <c r="B13" s="215" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="220">
+      <c r="C13" s="217">
         <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="218" t="s">
+      <c r="B14" s="215" t="s">
         <v>206</v>
       </c>
-      <c r="C14" s="219">
+      <c r="C14" s="216">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="218" t="s">
-        <v>239</v>
-      </c>
-      <c r="C15" s="176" t="s">
-        <v>244</v>
+      <c r="B15" s="215" t="s">
+        <v>238</v>
+      </c>
+      <c r="C15" s="175" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="222" t="s">
+      <c r="B16" s="219" t="s">
         <v>94</v>
       </c>
-      <c r="C16" s="223">
+      <c r="C16" s="220">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="240" t="s">
-        <v>211</v>
-      </c>
-      <c r="C17" s="242" t="s">
-        <v>230</v>
+      <c r="B17" s="237" t="s">
+        <v>210</v>
+      </c>
+      <c r="C17" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="240" t="s">
+      <c r="B18" s="237" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="239" t="s">
+        <v>229</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="237" t="s">
         <v>225</v>
       </c>
-      <c r="C18" s="242" t="s">
-        <v>230</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="240" t="s">
-        <v>226</v>
-      </c>
-      <c r="C19" s="242" t="s">
-        <v>230</v>
+      <c r="C19" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="241" t="s">
-        <v>215</v>
-      </c>
-      <c r="C20" s="242" t="s">
-        <v>230</v>
+      <c r="B20" s="238" t="s">
+        <v>214</v>
+      </c>
+      <c r="C20" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="224" t="s">
-        <v>218</v>
-      </c>
-      <c r="C21" s="242" t="s">
-        <v>230</v>
+      <c r="B21" s="221" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="239" t="s">
+        <v>229</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C22" s="243" t="s">
-        <v>242</v>
+      <c r="B22" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C22" s="240" t="s">
+        <v>241</v>
       </c>
       <c r="D22" s="24"/>
     </row>
@@ -3034,457 +3042,461 @@
       <c r="B25" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="149">
+      <c r="C25" s="148">
         <v>13089628</v>
       </c>
-      <c r="D25" s="149">
+      <c r="D25" s="148">
         <v>14590475</v>
       </c>
-      <c r="E25" s="149">
+      <c r="E25" s="148">
         <v>15326764</v>
       </c>
-      <c r="F25" s="149">
+      <c r="F25" s="148">
         <v>14526102</v>
       </c>
-      <c r="G25" s="149">
+      <c r="G25" s="148">
         <v>18025422</v>
       </c>
-      <c r="H25" s="149"/>
-      <c r="I25" s="149"/>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
-      <c r="L25" s="149"/>
-      <c r="M25" s="149"/>
+      <c r="H25" s="148"/>
+      <c r="I25" s="148"/>
+      <c r="J25" s="148"/>
+      <c r="K25" s="148"/>
+      <c r="L25" s="148"/>
+      <c r="M25" s="148"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B26" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="150">
+      <c r="C26" s="149">
         <v>6368352</v>
       </c>
-      <c r="D26" s="150">
+      <c r="D26" s="149">
         <v>7605791</v>
       </c>
-      <c r="E26" s="150">
+      <c r="E26" s="149">
         <v>6583757</v>
       </c>
-      <c r="F26" s="150">
+      <c r="F26" s="149">
         <v>6139239</v>
       </c>
-      <c r="G26" s="150">
+      <c r="G26" s="149">
         <v>9041440</v>
       </c>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
-      <c r="K26" s="150"/>
-      <c r="L26" s="150"/>
-      <c r="M26" s="150"/>
+      <c r="H26" s="149"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
     </row>
     <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B27" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="150">
+      <c r="C27" s="149">
         <v>1783204</v>
       </c>
-      <c r="D27" s="150">
+      <c r="D27" s="149">
         <v>1720023</v>
       </c>
-      <c r="E27" s="150">
+      <c r="E27" s="149">
         <v>2003343</v>
       </c>
-      <c r="F27" s="150">
+      <c r="F27" s="149">
         <v>1613699</v>
       </c>
-      <c r="G27" s="150">
+      <c r="G27" s="149">
         <v>1602120</v>
       </c>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
-      <c r="K27" s="150"/>
-      <c r="L27" s="150"/>
-      <c r="M27" s="150"/>
+      <c r="H27" s="149"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149"/>
+      <c r="K27" s="149"/>
+      <c r="L27" s="149"/>
+      <c r="M27" s="149"/>
     </row>
     <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B28" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="150"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
+      <c r="C28" s="149"/>
+      <c r="D28" s="149"/>
+      <c r="E28" s="149"/>
+      <c r="F28" s="149"/>
+      <c r="G28" s="149"/>
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="149"/>
+      <c r="L28" s="149"/>
+      <c r="M28" s="149"/>
     </row>
     <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B29" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C29" s="150">
+        <v>239</v>
+      </c>
+      <c r="C29" s="149">
         <v>599686</v>
       </c>
-      <c r="D29" s="150">
+      <c r="D29" s="149">
         <v>317225</v>
       </c>
-      <c r="E29" s="150">
+      <c r="E29" s="149">
         <v>562656</v>
       </c>
-      <c r="F29" s="150">
+      <c r="F29" s="149">
         <v>781715</v>
       </c>
-      <c r="G29" s="150">
+      <c r="G29" s="149">
         <v>812565</v>
       </c>
-      <c r="H29" s="150"/>
-      <c r="I29" s="150"/>
-      <c r="J29" s="150"/>
-      <c r="K29" s="150"/>
-      <c r="L29" s="150"/>
-      <c r="M29" s="150"/>
+      <c r="H29" s="149"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="149"/>
+      <c r="K29" s="149"/>
+      <c r="L29" s="149"/>
+      <c r="M29" s="149"/>
     </row>
     <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B30" s="99" t="s">
         <v>108</v>
       </c>
-      <c r="C30" s="150">
+      <c r="C30" s="149">
         <v>920459</v>
       </c>
-      <c r="D30" s="150">
+      <c r="D30" s="149">
         <v>720106</v>
       </c>
-      <c r="E30" s="150"/>
-      <c r="F30" s="150"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="150"/>
-      <c r="I30" s="150"/>
-      <c r="J30" s="150"/>
-      <c r="K30" s="150"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="150"/>
+      <c r="E30" s="149"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="149"/>
+      <c r="H30" s="149"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="149"/>
+      <c r="L30" s="149"/>
+      <c r="M30" s="149"/>
     </row>
     <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B31" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="150"/>
-      <c r="F31" s="150"/>
-      <c r="G31" s="150"/>
-      <c r="H31" s="150"/>
-      <c r="I31" s="150"/>
-      <c r="J31" s="150"/>
-      <c r="K31" s="150"/>
-      <c r="L31" s="150"/>
-      <c r="M31" s="150"/>
+      <c r="C31" s="149"/>
+      <c r="D31" s="149"/>
+      <c r="E31" s="149"/>
+      <c r="F31" s="149"/>
+      <c r="G31" s="149"/>
+      <c r="H31" s="149"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="149"/>
+      <c r="K31" s="149"/>
+      <c r="L31" s="149"/>
+      <c r="M31" s="149"/>
     </row>
     <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B32" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="150"/>
-      <c r="F32" s="150"/>
-      <c r="G32" s="150"/>
-      <c r="H32" s="150"/>
-      <c r="I32" s="150"/>
-      <c r="J32" s="150"/>
-      <c r="K32" s="150"/>
-      <c r="L32" s="150"/>
-      <c r="M32" s="150"/>
+      <c r="C32" s="149"/>
+      <c r="D32" s="149"/>
+      <c r="E32" s="149"/>
+      <c r="F32" s="149"/>
+      <c r="G32" s="149"/>
+      <c r="H32" s="149"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="149"/>
+      <c r="K32" s="149"/>
+      <c r="L32" s="149"/>
+      <c r="M32" s="149"/>
     </row>
     <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C33" s="150"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="150"/>
-      <c r="F33" s="150"/>
-      <c r="G33" s="150"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="150"/>
-      <c r="K33" s="150"/>
-      <c r="L33" s="150"/>
-      <c r="M33" s="150"/>
+      <c r="C33" s="149"/>
+      <c r="D33" s="149"/>
+      <c r="E33" s="149"/>
+      <c r="F33" s="149"/>
+      <c r="G33" s="149"/>
+      <c r="H33" s="149"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="149"/>
+      <c r="K33" s="149"/>
+      <c r="L33" s="149"/>
+      <c r="M33" s="149"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B34" s="97" t="s">
-        <v>266</v>
-      </c>
-      <c r="C34" s="217"/>
-      <c r="D34" s="150"/>
-      <c r="E34" s="150">
+        <v>264</v>
+      </c>
+      <c r="C34" s="214"/>
+      <c r="D34" s="149"/>
+      <c r="E34" s="149">
         <v>52019578</v>
       </c>
-      <c r="F34" s="150">
+      <c r="F34" s="149">
         <v>46824778</v>
       </c>
-      <c r="G34" s="150">
+      <c r="G34" s="149">
         <v>30542596</v>
       </c>
-      <c r="H34" s="150"/>
-      <c r="I34" s="150"/>
-      <c r="J34" s="150"/>
-      <c r="K34" s="150"/>
-      <c r="L34" s="150"/>
-      <c r="M34" s="150"/>
+      <c r="H34" s="149"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="149"/>
+      <c r="K34" s="149"/>
+      <c r="L34" s="149"/>
+      <c r="M34" s="149"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="94" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="217"/>
-      <c r="D35" s="150"/>
-      <c r="E35" s="150"/>
-      <c r="F35" s="150"/>
-      <c r="G35" s="150"/>
-      <c r="H35" s="150"/>
-      <c r="I35" s="150"/>
-      <c r="J35" s="150"/>
-      <c r="K35" s="150"/>
-      <c r="L35" s="150"/>
-      <c r="M35" s="150"/>
+      <c r="C35" s="214"/>
+      <c r="D35" s="149"/>
+      <c r="E35" s="149"/>
+      <c r="F35" s="149"/>
+      <c r="G35" s="149"/>
+      <c r="H35" s="149"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="149"/>
+      <c r="K35" s="149"/>
+      <c r="L35" s="149"/>
+      <c r="M35" s="149"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="94" t="s">
         <v>142</v>
       </c>
-      <c r="C36" s="217"/>
-      <c r="D36" s="150"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="150"/>
-      <c r="G36" s="150"/>
-      <c r="H36" s="150"/>
-      <c r="I36" s="150"/>
-      <c r="J36" s="150"/>
-      <c r="K36" s="150"/>
-      <c r="L36" s="150"/>
-      <c r="M36" s="150"/>
+      <c r="C36" s="214"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
+      <c r="K36" s="149"/>
+      <c r="L36" s="149"/>
+      <c r="M36" s="149"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="str">
-        <f>"Total Liabilities"&amp;IF(C77+C82=0,"",IF(C37=C77+C82,""," Error"))</f>
-        <v>Total Liabilities Error</v>
-      </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="150"/>
-      <c r="E37" s="150">
+      <c r="B37" s="94" t="s">
+        <v>262</v>
+      </c>
+      <c r="C37" s="149">
+        <v>87275561</v>
+      </c>
+      <c r="D37" s="149"/>
+      <c r="E37" s="149">
         <v>22442764</v>
       </c>
-      <c r="F37" s="150">
+      <c r="F37" s="149">
         <v>20617000</v>
       </c>
-      <c r="G37" s="150">
+      <c r="G37" s="149">
         <v>19835482</v>
       </c>
-      <c r="H37" s="150"/>
-      <c r="I37" s="150"/>
-      <c r="J37" s="150"/>
-      <c r="K37" s="150"/>
-      <c r="L37" s="150"/>
-      <c r="M37" s="150"/>
+      <c r="H37" s="149"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="149"/>
+      <c r="K37" s="149"/>
+      <c r="L37" s="149"/>
+      <c r="M37" s="149"/>
     </row>
     <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B38" s="94" t="s">
-        <v>265</v>
-      </c>
-      <c r="C38" s="217"/>
-      <c r="D38" s="150"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="150"/>
-      <c r="H38" s="150"/>
-      <c r="I38" s="150"/>
-      <c r="J38" s="150"/>
-      <c r="K38" s="150"/>
-      <c r="L38" s="150"/>
-      <c r="M38" s="150"/>
+        <v>263</v>
+      </c>
+      <c r="C38" s="214"/>
+      <c r="D38" s="149"/>
+      <c r="E38" s="149"/>
+      <c r="F38" s="149"/>
+      <c r="G38" s="149"/>
+      <c r="H38" s="149"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="149"/>
+      <c r="K38" s="149"/>
+      <c r="L38" s="149"/>
+      <c r="M38" s="149"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="217"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="150">
+      <c r="C39" s="214"/>
+      <c r="D39" s="149"/>
+      <c r="E39" s="149">
         <v>5316310</v>
       </c>
-      <c r="F39" s="150">
+      <c r="F39" s="149">
         <v>6964787</v>
       </c>
-      <c r="G39" s="150">
+      <c r="G39" s="149">
         <v>8544578</v>
       </c>
-      <c r="H39" s="150"/>
-      <c r="I39" s="150"/>
-      <c r="J39" s="150"/>
-      <c r="K39" s="150"/>
-      <c r="L39" s="150"/>
-      <c r="M39" s="150"/>
+      <c r="H39" s="149"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="149"/>
+      <c r="K39" s="149"/>
+      <c r="L39" s="149"/>
+      <c r="M39" s="149"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B40" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="217"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="150">
+      <c r="C40" s="214"/>
+      <c r="D40" s="149"/>
+      <c r="E40" s="149">
         <v>32210595</v>
       </c>
-      <c r="F40" s="150">
+      <c r="F40" s="149">
         <v>37670707</v>
       </c>
-      <c r="G40" s="150">
+      <c r="G40" s="149">
         <v>31147279</v>
       </c>
-      <c r="H40" s="150"/>
-      <c r="I40" s="150"/>
-      <c r="J40" s="150"/>
-      <c r="K40" s="150"/>
-      <c r="L40" s="150"/>
-      <c r="M40" s="150"/>
+      <c r="H40" s="149"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="149"/>
+      <c r="K40" s="149"/>
+      <c r="L40" s="149"/>
+      <c r="M40" s="149"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="str">
-        <f>"Total Equity"&amp;IF(C83="","",IF(C41=Fin_Analysis!D3,""," Error"))</f>
-        <v>Total Equity Error</v>
-      </c>
-      <c r="C41" s="150"/>
-      <c r="D41" s="150"/>
-      <c r="E41" s="150">
+      <c r="B41" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C41" s="149">
+        <v>121156821</v>
+      </c>
+      <c r="D41" s="149"/>
+      <c r="E41" s="149">
         <v>132313126</v>
       </c>
-      <c r="F41" s="150">
+      <c r="F41" s="149">
         <v>124656340</v>
       </c>
-      <c r="G41" s="150">
+      <c r="G41" s="149">
         <v>115383027</v>
       </c>
-      <c r="H41" s="150"/>
-      <c r="I41" s="150"/>
-      <c r="J41" s="150"/>
-      <c r="K41" s="150"/>
-      <c r="L41" s="150"/>
-      <c r="M41" s="150"/>
+      <c r="H41" s="149"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="149"/>
+      <c r="K41" s="149"/>
+      <c r="L41" s="149"/>
+      <c r="M41" s="149"/>
     </row>
     <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B42" s="94" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="150"/>
-      <c r="D42" s="150"/>
-      <c r="E42" s="150"/>
-      <c r="F42" s="150"/>
-      <c r="G42" s="150"/>
-      <c r="H42" s="150"/>
-      <c r="I42" s="150"/>
-      <c r="J42" s="150"/>
-      <c r="K42" s="150"/>
-      <c r="L42" s="150"/>
-      <c r="M42" s="150"/>
+      <c r="C42" s="149">
+        <v>13900241</v>
+      </c>
+      <c r="D42" s="149"/>
+      <c r="E42" s="149"/>
+      <c r="F42" s="149"/>
+      <c r="G42" s="149"/>
+      <c r="H42" s="149"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="149"/>
+      <c r="K42" s="149"/>
+      <c r="L42" s="149"/>
+      <c r="M42" s="149"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B43" s="94" t="s">
         <v>132</v>
       </c>
-      <c r="C43" s="217"/>
-      <c r="D43" s="150"/>
-      <c r="E43" s="150"/>
-      <c r="F43" s="150"/>
-      <c r="G43" s="150"/>
-      <c r="H43" s="150"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="150"/>
-      <c r="K43" s="150"/>
-      <c r="L43" s="150"/>
-      <c r="M43" s="150"/>
+      <c r="C43" s="214"/>
+      <c r="D43" s="149"/>
+      <c r="E43" s="149"/>
+      <c r="F43" s="149"/>
+      <c r="G43" s="149"/>
+      <c r="H43" s="149"/>
+      <c r="I43" s="149"/>
+      <c r="J43" s="149"/>
+      <c r="K43" s="149"/>
+      <c r="L43" s="149"/>
+      <c r="M43" s="149"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
         <v>194</v>
       </c>
-      <c r="C44" s="250">
+      <c r="C44" s="247">
         <v>1.3499962549695244</v>
       </c>
-      <c r="D44" s="250"/>
-      <c r="E44" s="250"/>
-      <c r="F44" s="250"/>
-      <c r="G44" s="250"/>
-      <c r="H44" s="250"/>
-      <c r="I44" s="250"/>
-      <c r="J44" s="250"/>
-      <c r="K44" s="250"/>
-      <c r="L44" s="250"/>
-      <c r="M44" s="250"/>
+      <c r="D44" s="247"/>
+      <c r="E44" s="247"/>
+      <c r="F44" s="247"/>
+      <c r="G44" s="247"/>
+      <c r="H44" s="247"/>
+      <c r="I44" s="247"/>
+      <c r="J44" s="247"/>
+      <c r="K44" s="247"/>
+      <c r="L44" s="247"/>
+      <c r="M44" s="247"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>236</v>
-      </c>
-      <c r="C45" s="152">
+        <v>235</v>
+      </c>
+      <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7548395263912088E-2</v>
-      </c>
-      <c r="D45" s="152" t="str">
+        <v>8.8698834097866247E-2</v>
+      </c>
+      <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="152" t="str">
+      <c r="E45" s="151" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="152" t="str">
+      <c r="F45" s="151" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="152" t="str">
+      <c r="G45" s="151" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B47" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C47" s="194" t="s">
+        <v>233</v>
+      </c>
+      <c r="C47" s="193" t="s">
         <v>31</v>
       </c>
-      <c r="D47" s="194" t="s">
+      <c r="D47" s="193" t="s">
         <v>183</v>
       </c>
       <c r="E47" s="111" t="s">
@@ -3564,7 +3576,7 @@
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
@@ -3594,7 +3606,7 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="221" t="s">
+      <c r="E56" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3608,7 +3620,7 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="221" t="s">
+      <c r="E57" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3630,8 +3642,8 @@
       <c r="B59" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C59" s="120"/>
-      <c r="D59" s="195">
+      <c r="C59" s="119"/>
+      <c r="D59" s="194">
         <f>D70</f>
         <v>0.05</v>
       </c>
@@ -3688,7 +3700,7 @@
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C64" s="59">
         <v>898512</v>
@@ -3708,7 +3720,7 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="221" t="s">
+      <c r="E65" s="218" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3722,7 +3734,7 @@
       <c r="D66" s="60">
         <v>0.3</v>
       </c>
-      <c r="E66" s="221" t="s">
+      <c r="E66" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3736,7 +3748,7 @@
       <c r="D67" s="60">
         <v>0.2</v>
       </c>
-      <c r="E67" s="221" t="s">
+      <c r="E67" s="218" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3789,14 +3801,14 @@
       <c r="E71" s="112"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="246" t="s">
+      <c r="B72" s="243" t="s">
         <v>73</v>
       </c>
-      <c r="C72" s="247"/>
-      <c r="D72" s="248">
+      <c r="C72" s="244"/>
+      <c r="D72" s="245">
         <v>0</v>
       </c>
-      <c r="E72" s="249"/>
+      <c r="E72" s="246"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
@@ -3824,7 +3836,7 @@
       <c r="B76" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="C76" s="120">
+      <c r="C76" s="119">
         <v>114041</v>
       </c>
     </row>
@@ -3863,23 +3875,23 @@
       <c r="B81" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="C81" s="120">
+      <c r="C81" s="119">
         <v>278874</v>
       </c>
     </row>
-    <row r="82" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="C82" s="83">
+        <v>267</v>
+      </c>
+      <c r="C82" s="214">
         <v>61429709</v>
       </c>
     </row>
-    <row r="83" spans="2:8" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>207</v>
-      </c>
-      <c r="C83" s="59">
+        <v>268</v>
+      </c>
+      <c r="C83" s="214">
         <v>107256580</v>
       </c>
     </row>
@@ -3897,20 +3909,20 @@
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="C86" s="197">
+        <v>234</v>
+      </c>
+      <c r="C86" s="196">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C87" s="236" t="s">
-        <v>270</v>
-      </c>
-      <c r="D87" s="269">
+        <v>232</v>
+      </c>
+      <c r="C87" s="233" t="s">
+        <v>272</v>
+      </c>
+      <c r="D87" s="266">
         <v>0.02</v>
       </c>
     </row>
@@ -3940,10 +3952,10 @@
         <v>98</v>
       </c>
       <c r="D90" s="284"/>
-      <c r="E90" s="235" t="s">
+      <c r="E90" s="232" t="s">
         <v>99</v>
       </c>
-      <c r="F90" s="255" t="s">
+      <c r="F90" s="252" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3955,12 +3967,12 @@
         <f>C25</f>
         <v>13089628</v>
       </c>
-      <c r="D91" s="209"/>
-      <c r="E91" s="251">
+      <c r="D91" s="206"/>
+      <c r="E91" s="248">
         <f>C91</f>
         <v>13089628</v>
       </c>
-      <c r="F91" s="251">
+      <c r="F91" s="248">
         <f>C91</f>
         <v>13089628</v>
       </c>
@@ -3973,75 +3985,75 @@
         <f>C26</f>
         <v>6368352</v>
       </c>
-      <c r="D92" s="159">
+      <c r="D92" s="158">
         <f>C92/C91</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="E92" s="252">
+      <c r="E92" s="249">
         <f>E91*D92</f>
         <v>6368352</v>
       </c>
-      <c r="F92" s="252">
+      <c r="F92" s="249">
         <f>F91*D92</f>
         <v>6368352</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B93" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1783204</v>
       </c>
-      <c r="D93" s="159">
+      <c r="D93" s="158">
         <f>C93/C91</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="E93" s="252">
+      <c r="E93" s="249">
         <f>E91*D93</f>
         <v>1783204</v>
       </c>
-      <c r="F93" s="252">
+      <c r="F93" s="249">
         <f>F91*D93</f>
         <v>1783204</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B94" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>599686</v>
       </c>
-      <c r="D94" s="159">
+      <c r="D94" s="158">
         <f>C94/C91</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="E94" s="253"/>
-      <c r="F94" s="252">
+      <c r="E94" s="250"/>
+      <c r="F94" s="249">
         <f>F91*D94</f>
         <v>599686</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="159">
+      <c r="D95" s="158">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="252">
+      <c r="E95" s="249">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="252">
+      <c r="F95" s="249">
         <f>F91*D95</f>
         <v>0</v>
       </c>
@@ -4054,12 +4066,12 @@
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="159">
+      <c r="D96" s="158">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="253"/>
-      <c r="F96" s="252">
+      <c r="E96" s="250"/>
+      <c r="F96" s="249">
         <f>F91*D96</f>
         <v>0</v>
       </c>
@@ -4072,12 +4084,12 @@
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D97" s="159">
+      <c r="D97" s="158">
         <f>C97/C91</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="E97" s="253"/>
-      <c r="F97" s="252">
+      <c r="E97" s="250"/>
+      <c r="F97" s="249">
         <f>F91*D97</f>
         <v>1227278.6666666667</v>
       </c>
@@ -4086,16 +4098,16 @@
       <c r="B98" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C98" s="237">
+      <c r="C98" s="234">
         <f>C44</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="D98" s="266"/>
-      <c r="E98" s="254">
+      <c r="D98" s="263"/>
+      <c r="E98" s="251">
         <f>F98*50%</f>
         <v>0.67499812748476218</v>
       </c>
-      <c r="F98" s="254">
+      <c r="F98" s="251">
         <f>C98</f>
         <v>1.3499962549695244</v>
       </c>
@@ -4176,7 +4188,7 @@
   <dimension ref="A1:J923"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4228,11 +4240,11 @@
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="132">
-        <v>15.42</v>
-      </c>
-      <c r="H3" s="134" t="s">
-        <v>271</v>
+      <c r="G3" s="131">
+        <v>15.22</v>
+      </c>
+      <c r="H3" s="133" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4270,7 +4282,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>22379.134325759998</v>
+        <v>22088.873180160001</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4280,11 +4292,11 @@
       <c r="B6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="186">
+      <c r="D6" s="185">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4306,11 +4318,11 @@
       <c r="B7" s="86" t="s">
         <v>179</v>
       </c>
-      <c r="C7" s="187" t="str">
+      <c r="C7" s="186" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="187" t="str">
+      <c r="D7" s="186" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
@@ -4318,7 +4330,7 @@
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="133">
+      <c r="G7" s="132">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4328,10 +4340,10 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="138" t="s">
         <v>178</v>
       </c>
-      <c r="F9" s="143" t="s">
+      <c r="F9" s="142" t="s">
         <v>173</v>
       </c>
     </row>
@@ -4339,7 +4351,7 @@
       <c r="B10" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="C10" s="172">
+      <c r="C10" s="171">
         <v>4.2000000000000003E-2</v>
       </c>
       <c r="F10" s="110" t="s">
@@ -4347,13 +4359,13 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="122" t="s">
+      <c r="B11" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="C11" s="173">
+      <c r="C11" s="172">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>177</v>
       </c>
       <c r="F11" s="110" t="s">
@@ -4362,12 +4374,12 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B12" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C12" s="174">
+        <v>236</v>
+      </c>
+      <c r="C12" s="173">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="172">
+      <c r="D12" s="171">
         <v>8.0625000000000002E-2</v>
       </c>
       <c r="F12" s="110"/>
@@ -4377,7 +4389,7 @@
       <c r="B14" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="172">
+      <c r="C14" s="171">
         <v>1.8100000000000002E-2</v>
       </c>
       <c r="F14" s="110" t="s">
@@ -4388,7 +4400,7 @@
       <c r="B15" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="172">
+      <c r="C15" s="171">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="F15" s="110" t="s">
@@ -4396,13 +4408,13 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="122" t="s">
+      <c r="B16" s="121" t="s">
         <v>175</v>
       </c>
-      <c r="C16" s="173">
+      <c r="C16" s="172">
         <v>0.16</v>
       </c>
-      <c r="D16" s="265" t="str">
+      <c r="D16" s="262" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -4412,129 +4424,129 @@
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B17" s="87" t="s">
-        <v>238</v>
-      </c>
-      <c r="C17" s="175">
+        <v>237</v>
+      </c>
+      <c r="C17" s="174">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="176"/>
+      <c r="D17" s="175"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="142" t="s">
-        <v>263</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C19" s="134" t="s">
         <v>49</v>
       </c>
       <c r="D19" s="87"/>
       <c r="E19" s="87"/>
-      <c r="F19" s="142" t="s">
+      <c r="F19" s="141" t="s">
         <v>199</v>
       </c>
       <c r="G19" s="87"/>
       <c r="H19" s="87"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="275" t="s">
-        <v>253</v>
-      </c>
-      <c r="C20" s="276" t="e">
+      <c r="B20" s="272" t="s">
+        <v>252</v>
+      </c>
+      <c r="C20" s="273">
         <f>C23*C22*(1/C21)</f>
-        <v>#DIV/0!</v>
+        <v>3.4597349023559508E-2</v>
       </c>
       <c r="F20" s="87" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="172">
+      <c r="G20" s="171">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="277" t="s">
-        <v>251</v>
-      </c>
-      <c r="C21" s="278" t="e">
+      <c r="B21" s="274" t="s">
+        <v>250</v>
+      </c>
+      <c r="C21" s="275">
         <f>Data!C53</f>
-        <v>#DIV/0!</v>
+        <v>0.51458693208236717</v>
       </c>
       <c r="F21" s="87"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="279" t="s">
-        <v>258</v>
-      </c>
-      <c r="C22" s="280" t="e">
+      <c r="B22" s="276" t="s">
+        <v>265</v>
+      </c>
+      <c r="C22" s="277">
         <f>Data!C48</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F22" s="142" t="s">
+        <v>6.2800357000190113E-2</v>
+      </c>
+      <c r="F22" s="141" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="281" t="s">
-        <v>259</v>
-      </c>
-      <c r="C23" s="282">
+      <c r="B23" s="278" t="s">
+        <v>257</v>
+      </c>
+      <c r="C23" s="279">
         <f>Data!C13</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="F23" s="140" t="s">
+      <c r="F23" s="139" t="s">
         <v>176</v>
       </c>
-      <c r="G23" s="177" t="e">
+      <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>#DIV/0!</v>
+        <v>0.18231638134645345</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C24" s="171">
+      <c r="B24" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C24" s="170">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="F24" s="140" t="s">
-        <v>243</v>
-      </c>
-      <c r="G24" s="268">
+      <c r="F24" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5910692144811875</v>
+        <v>9.4666714295981649</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="137" t="s">
-        <v>261</v>
-      </c>
-      <c r="C25" s="171">
+      <c r="B25" s="136" t="s">
+        <v>259</v>
+      </c>
+      <c r="C25" s="170">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="140" t="s">
+      <c r="F25" s="139" t="s">
         <v>163</v>
       </c>
-      <c r="G25" s="171">
+      <c r="G25" s="170">
         <f>Fin_Analysis!I88</f>
         <v>0.83968271859293786</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="138" t="s">
-        <v>262</v>
-      </c>
-      <c r="C26" s="171">
+      <c r="B26" s="137" t="s">
+        <v>260</v>
+      </c>
+      <c r="C26" s="170">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="141" t="s">
+      <c r="F26" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="G26" s="178">
+      <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>8.8698834097866247E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4551,10 +4563,10 @@
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G28" s="285" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H28" s="285"/>
     </row>
@@ -4562,22 +4574,22 @@
       <c r="B29" s="87" t="s">
         <v>161</v>
       </c>
-      <c r="C29" s="130">
+      <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2756724423299364</v>
-      </c>
-      <c r="D29" s="129">
+        <v>6.2929839912873051</v>
+      </c>
+      <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>23.574285222663697</v>
+        <v>23.699236959343597</v>
       </c>
       <c r="E29" s="87"/>
-      <c r="F29" s="131">
+      <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.844571529930548</v>
+        <v>10.894075625020744</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.499378454490174</v>
+        <v>20.608032138559651</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -4585,23 +4597,23 @@
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="196" t="s">
-        <v>210</v>
-      </c>
-      <c r="C32" s="224"/>
+      <c r="B32" s="195" t="s">
+        <v>209</v>
+      </c>
+      <c r="C32" s="221"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="245" t="str">
+        <v>210</v>
+      </c>
+      <c r="C33" s="242" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4609,9 +4621,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>212</v>
-      </c>
-      <c r="C34" s="225" t="str">
+        <v>211</v>
+      </c>
+      <c r="C34" s="222" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4619,17 +4631,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="196" t="s">
-        <v>213</v>
-      </c>
-      <c r="C35" s="224"/>
+      <c r="B35" s="195" t="s">
+        <v>212</v>
+      </c>
+      <c r="C35" s="221"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C36" s="245" t="str">
+        <v>224</v>
+      </c>
+      <c r="C36" s="242" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4637,26 +4649,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C37" s="245" t="str">
+        <v>225</v>
+      </c>
+      <c r="C37" s="242" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="196" t="s">
-        <v>214</v>
-      </c>
-      <c r="C38" s="224"/>
+      <c r="B38" s="195" t="s">
+        <v>213</v>
+      </c>
+      <c r="C38" s="221"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="C39" s="245" t="str">
+        <v>214</v>
+      </c>
+      <c r="C39" s="242" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4664,9 +4676,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="C40" s="245" t="str">
+        <v>217</v>
+      </c>
+      <c r="C40" s="242" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4679,16 +4691,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="226" t="s">
-        <v>217</v>
-      </c>
-      <c r="C43" s="244" t="str">
+      <c r="B43" s="223" t="s">
+        <v>216</v>
+      </c>
+      <c r="C43" s="241" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5640,10 +5652,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="D36" sqref="D36"/>
+      <selection pane="topRight" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5669,16 +5681,16 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="148" t="s">
+      <c r="E2" s="147" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="119" t="s">
+      <c r="F2" s="118" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="148" t="s">
+      <c r="G2" s="147" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="147" t="s">
+      <c r="H2" s="146" t="s">
         <v>191</v>
       </c>
       <c r="I2" s="7"/>
@@ -5692,11 +5704,11 @@
       <c r="B3" s="103" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="201">
+      <c r="C3" s="200">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="146" t="s">
+      <c r="E3" s="145" t="s">
         <v>187</v>
       </c>
       <c r="F3" s="85" t="str">
@@ -5721,7 +5733,7 @@
       <c r="B4" s="103" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="128">
+      <c r="C4" s="127">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5729,7 +5741,7 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="146" t="s">
+      <c r="E4" s="145" t="s">
         <v>188</v>
       </c>
       <c r="F4" s="93" t="e">
@@ -5793,47 +5805,47 @@
       <c r="B6" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="200">
+      <c r="C6" s="199">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13089628</v>
       </c>
-      <c r="D6" s="200">
+      <c r="D6" s="199">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>14590475</v>
       </c>
-      <c r="E6" s="200">
+      <c r="E6" s="199">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>15326764</v>
       </c>
-      <c r="F6" s="200">
+      <c r="F6" s="199">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>14526102</v>
       </c>
-      <c r="G6" s="200">
+      <c r="G6" s="199">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>18025422</v>
       </c>
-      <c r="H6" s="200" t="str">
+      <c r="H6" s="199" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="200" t="str">
+      <c r="I6" s="199" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="200" t="str">
+      <c r="J6" s="199" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="200" t="str">
+      <c r="K6" s="199" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="200" t="str">
+      <c r="L6" s="199" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="200" t="str">
+      <c r="M6" s="199" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
@@ -5895,47 +5907,47 @@
       <c r="B8" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="C8" s="199">
+      <c r="C8" s="198">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6368352</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>7605791</v>
       </c>
-      <c r="E8" s="199">
+      <c r="E8" s="198">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>6583757</v>
       </c>
-      <c r="F8" s="199">
+      <c r="F8" s="198">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6139239</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>9041440</v>
       </c>
-      <c r="H8" s="199" t="str">
+      <c r="H8" s="198" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="199" t="str">
+      <c r="I8" s="198" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="199" t="str">
+      <c r="J8" s="198" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="199" t="str">
+      <c r="K8" s="198" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="199" t="str">
+      <c r="L8" s="198" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="199" t="str">
+      <c r="M8" s="198" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
@@ -5946,47 +5958,47 @@
       <c r="B9" s="98" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="151">
+      <c r="C9" s="150">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6721276</v>
       </c>
-      <c r="D9" s="151">
+      <c r="D9" s="150">
         <f t="shared" si="2"/>
         <v>6984684</v>
       </c>
-      <c r="E9" s="151">
+      <c r="E9" s="150">
         <f t="shared" si="2"/>
         <v>8743007</v>
       </c>
-      <c r="F9" s="151">
+      <c r="F9" s="150">
         <f t="shared" si="2"/>
         <v>8386863</v>
       </c>
-      <c r="G9" s="151">
+      <c r="G9" s="150">
         <f t="shared" si="2"/>
         <v>8983982</v>
       </c>
-      <c r="H9" s="151" t="str">
+      <c r="H9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="151" t="str">
+      <c r="I9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="151" t="str">
+      <c r="J9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="151" t="str">
+      <c r="K9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="151" t="str">
+      <c r="L9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="151" t="str">
+      <c r="M9" s="150" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -5997,47 +6009,47 @@
       <c r="B10" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="199">
+      <c r="C10" s="198">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1783204</v>
       </c>
-      <c r="D10" s="199">
+      <c r="D10" s="198">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1720023</v>
       </c>
-      <c r="E10" s="199">
+      <c r="E10" s="198">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>2003343</v>
       </c>
-      <c r="F10" s="199">
+      <c r="F10" s="198">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>1613699</v>
       </c>
-      <c r="G10" s="199">
+      <c r="G10" s="198">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>1602120</v>
       </c>
-      <c r="H10" s="199" t="str">
+      <c r="H10" s="198" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="199" t="str">
+      <c r="I10" s="198" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="199" t="str">
+      <c r="J10" s="198" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="199" t="str">
+      <c r="K10" s="198" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="199" t="str">
+      <c r="L10" s="198" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="199" t="str">
+      <c r="M10" s="198" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
@@ -6048,47 +6060,47 @@
       <c r="B11" s="97" t="s">
         <v>104</v>
       </c>
-      <c r="C11" s="199" t="str">
+      <c r="C11" s="198" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="199" t="str">
+      <c r="D11" s="198" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="199" t="str">
+      <c r="E11" s="198" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="199" t="str">
+      <c r="F11" s="198" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="199" t="str">
+      <c r="G11" s="198" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="199" t="str">
+      <c r="H11" s="198" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="199" t="str">
+      <c r="I11" s="198" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="199" t="str">
+      <c r="J11" s="198" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="199" t="str">
+      <c r="K11" s="198" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="199" t="str">
+      <c r="L11" s="198" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="199" t="str">
+      <c r="M11" s="198" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
@@ -6097,49 +6109,49 @@
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="99" t="s">
-        <v>227</v>
-      </c>
-      <c r="C12" s="199">
+        <v>226</v>
+      </c>
+      <c r="C12" s="198">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D12" s="199">
+      <c r="D12" s="198">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>960141.33333333337</v>
       </c>
-      <c r="E12" s="199" t="str">
+      <c r="E12" s="198" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="199" t="str">
+      <c r="F12" s="198" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="199" t="str">
+      <c r="G12" s="198" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="199" t="str">
+      <c r="H12" s="198" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="199" t="str">
+      <c r="I12" s="198" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="199" t="str">
+      <c r="J12" s="198" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="199" t="str">
+      <c r="K12" s="198" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="199" t="str">
+      <c r="L12" s="198" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="199" t="str">
+      <c r="M12" s="198" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
@@ -6147,50 +6159,50 @@
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C13" s="229">
+      <c r="B13" s="225" t="s">
+        <v>227</v>
+      </c>
+      <c r="C13" s="226">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="D13" s="229">
+      <c r="D13" s="226">
         <f t="shared" si="3"/>
         <v>0.29502258608213011</v>
       </c>
-      <c r="E13" s="229">
+      <c r="E13" s="226">
         <f t="shared" si="3"/>
         <v>0.4397317007034231</v>
       </c>
-      <c r="F13" s="229">
+      <c r="F13" s="226">
         <f t="shared" si="3"/>
         <v>0.46627539858938066</v>
       </c>
-      <c r="G13" s="229">
+      <c r="G13" s="226">
         <f t="shared" si="3"/>
         <v>0.40952505855341415</v>
       </c>
-      <c r="H13" s="229" t="str">
+      <c r="H13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="229" t="str">
+      <c r="I13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="229" t="str">
+      <c r="J13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="229" t="str">
+      <c r="K13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="229" t="str">
+      <c r="L13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="229" t="str">
+      <c r="M13" s="226" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
@@ -6198,50 +6210,50 @@
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="228" t="s">
-        <v>220</v>
-      </c>
-      <c r="C14" s="230">
+      <c r="B14" s="225" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="227">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="D14" s="230">
+      <c r="D14" s="227">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4304519.666666667</v>
       </c>
-      <c r="E14" s="230">
+      <c r="E14" s="227">
         <f t="shared" si="4"/>
         <v>6739664</v>
       </c>
-      <c r="F14" s="230">
+      <c r="F14" s="227">
         <f t="shared" si="4"/>
         <v>6773164</v>
       </c>
-      <c r="G14" s="230">
+      <c r="G14" s="227">
         <f t="shared" si="4"/>
         <v>7381862</v>
       </c>
-      <c r="H14" s="230" t="str">
+      <c r="H14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="230" t="str">
+      <c r="I14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="230" t="str">
+      <c r="J14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="230" t="str">
+      <c r="K14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="230" t="str">
+      <c r="L14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="230" t="str">
+      <c r="M14" s="227" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
@@ -6249,50 +6261,50 @@
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="231" t="s">
-        <v>229</v>
-      </c>
-      <c r="C15" s="232">
+      <c r="B15" s="228" t="s">
+        <v>228</v>
+      </c>
+      <c r="C15" s="229">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.1379309143203668</v>
       </c>
-      <c r="D15" s="232">
+      <c r="D15" s="229">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.36131539099476367</v>
       </c>
-      <c r="E15" s="232">
+      <c r="E15" s="229">
         <f t="shared" si="5"/>
         <v>-4.9459897914770701E-3</v>
       </c>
-      <c r="F15" s="232">
+      <c r="F15" s="229">
         <f t="shared" si="5"/>
         <v>-8.2458599198955498E-2</v>
       </c>
-      <c r="G15" s="232" t="str">
+      <c r="G15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="232" t="str">
+      <c r="H15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="232" t="str">
+      <c r="I15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="232" t="str">
+      <c r="J15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="232" t="str">
+      <c r="K15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="232" t="str">
+      <c r="L15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="232" t="str">
+      <c r="M15" s="229" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
@@ -6303,47 +6315,47 @@
       <c r="B16" s="97" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="199" t="str">
+      <c r="C16" s="198" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="199" t="str">
+      <c r="D16" s="198" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="199" t="str">
+      <c r="E16" s="198" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="199" t="str">
+      <c r="F16" s="198" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="199" t="str">
+      <c r="G16" s="198" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="199" t="str">
+      <c r="H16" s="198" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="199" t="str">
+      <c r="I16" s="198" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="199" t="str">
+      <c r="J16" s="198" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="199" t="str">
+      <c r="K16" s="198" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="199" t="str">
+      <c r="L16" s="198" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="199" t="str">
+      <c r="M16" s="198" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
@@ -6352,49 +6364,49 @@
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="97" t="s">
-        <v>240</v>
-      </c>
-      <c r="C17" s="199">
+        <v>239</v>
+      </c>
+      <c r="C17" s="198">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>599686</v>
       </c>
-      <c r="D17" s="199">
+      <c r="D17" s="198">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>317225</v>
       </c>
-      <c r="E17" s="199">
+      <c r="E17" s="198">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>562656</v>
       </c>
-      <c r="F17" s="199">
+      <c r="F17" s="198">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>781715</v>
       </c>
-      <c r="G17" s="199">
+      <c r="G17" s="198">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>812565</v>
       </c>
-      <c r="H17" s="199" t="str">
+      <c r="H17" s="198" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="199" t="str">
+      <c r="I17" s="198" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="199" t="str">
+      <c r="J17" s="198" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="199" t="str">
+      <c r="K17" s="198" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="199" t="str">
+      <c r="L17" s="198" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="199" t="str">
+      <c r="M17" s="198" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
@@ -6405,47 +6417,47 @@
       <c r="B18" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C18" s="152" t="str">
+      <c r="C18" s="151" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="152" t="str">
+      <c r="D18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="152" t="str">
+      <c r="E18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="152" t="str">
+      <c r="F18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="152" t="str">
+      <c r="G18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="152" t="str">
+      <c r="H18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="152" t="str">
+      <c r="I18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="152" t="str">
+      <c r="J18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="152" t="str">
+      <c r="K18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="152" t="str">
+      <c r="L18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="152" t="str">
+      <c r="M18" s="151" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
@@ -6456,47 +6468,47 @@
       <c r="B19" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="199" t="str">
+      <c r="C19" s="198" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="199" t="str">
+      <c r="D19" s="198" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="199" t="str">
+      <c r="E19" s="198" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="199" t="str">
+      <c r="F19" s="198" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="199" t="str">
+      <c r="G19" s="198" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="199" t="str">
+      <c r="H19" s="198" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="199" t="str">
+      <c r="I19" s="198" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="199" t="str">
+      <c r="J19" s="198" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="199" t="str">
+      <c r="K19" s="198" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="199" t="str">
+      <c r="L19" s="198" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="199" t="str">
+      <c r="M19" s="198" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
@@ -6505,49 +6517,49 @@
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="97" t="s">
-        <v>222</v>
-      </c>
-      <c r="C20" s="152">
+        <v>221</v>
+      </c>
+      <c r="C20" s="151">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="152">
+      <c r="D20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="152">
+      <c r="E20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="152">
+      <c r="F20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="152">
+      <c r="G20" s="151">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="152" t="str">
+      <c r="H20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="152" t="str">
+      <c r="I20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="152" t="str">
+      <c r="J20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="152" t="str">
+      <c r="K20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="152" t="str">
+      <c r="L20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="152" t="str">
+      <c r="M20" s="151" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
@@ -6558,47 +6570,47 @@
       <c r="B21" s="97" t="s">
         <v>105</v>
       </c>
-      <c r="C21" s="199" t="str">
+      <c r="C21" s="198" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="199" t="str">
+      <c r="D21" s="198" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="199" t="str">
+      <c r="E21" s="198" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="199" t="str">
+      <c r="F21" s="198" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="199" t="str">
+      <c r="G21" s="198" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="199" t="str">
+      <c r="H21" s="198" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="199" t="str">
+      <c r="I21" s="198" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="199" t="str">
+      <c r="J21" s="198" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="199" t="str">
+      <c r="K21" s="198" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="199" t="str">
+      <c r="L21" s="198" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="199" t="str">
+      <c r="M21" s="198" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
@@ -6609,47 +6621,47 @@
       <c r="B22" s="98" t="s">
         <v>109</v>
       </c>
-      <c r="C22" s="161">
+      <c r="C22" s="160">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="D22" s="161">
+      <c r="D22" s="160">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>3987294.666666667</v>
       </c>
-      <c r="E22" s="161">
+      <c r="E22" s="160">
         <f t="shared" si="8"/>
         <v>6177008</v>
       </c>
-      <c r="F22" s="161">
+      <c r="F22" s="160">
         <f t="shared" si="8"/>
         <v>5991449</v>
       </c>
-      <c r="G22" s="161">
+      <c r="G22" s="160">
         <f t="shared" si="8"/>
         <v>6569297</v>
       </c>
-      <c r="H22" s="161" t="str">
+      <c r="H22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="161" t="str">
+      <c r="I22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="161" t="str">
+      <c r="J22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="161" t="str">
+      <c r="K22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="161" t="str">
+      <c r="L22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="161" t="str">
+      <c r="M22" s="160" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
@@ -6660,47 +6672,47 @@
       <c r="B23" s="100" t="s">
         <v>110</v>
       </c>
-      <c r="C23" s="153">
+      <c r="C23" s="152">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="D23" s="153">
+      <c r="D23" s="152">
         <f t="shared" si="9"/>
         <v>0.20496049648829115</v>
       </c>
-      <c r="E23" s="153">
+      <c r="E23" s="152">
         <f t="shared" si="9"/>
         <v>0.30226576203561301</v>
       </c>
-      <c r="F23" s="153">
+      <c r="F23" s="152">
         <f t="shared" si="9"/>
         <v>0.30934566960909404</v>
       </c>
-      <c r="G23" s="153">
+      <c r="G23" s="152">
         <f t="shared" si="9"/>
         <v>0.27333466866961559</v>
       </c>
-      <c r="H23" s="153" t="str">
+      <c r="H23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="153" t="str">
+      <c r="I23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="153" t="str">
+      <c r="J23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="153" t="str">
+      <c r="K23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="153" t="str">
+      <c r="L23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="153" t="str">
+      <c r="M23" s="152" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
@@ -6711,7 +6723,7 @@
       <c r="B24" s="101" t="s">
         <v>111</v>
       </c>
-      <c r="C24" s="154">
+      <c r="C24" s="153">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>2333330.5</v>
       </c>
@@ -6759,50 +6771,50 @@
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="234" t="s">
+      <c r="B25" s="231" t="s">
         <v>124</v>
       </c>
-      <c r="C25" s="233">
+      <c r="C25" s="230">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.21974481611759486</v>
       </c>
-      <c r="D25" s="233">
+      <c r="D25" s="230">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.35449417150396006</v>
       </c>
-      <c r="E25" s="233">
+      <c r="E25" s="230">
         <f t="shared" si="10"/>
         <v>3.0970638321381021E-2</v>
       </c>
-      <c r="F25" s="233">
+      <c r="F25" s="230">
         <f t="shared" si="10"/>
         <v>-8.7961923475221165E-2</v>
       </c>
-      <c r="G25" s="233" t="str">
+      <c r="G25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="233" t="str">
+      <c r="H25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="233" t="str">
+      <c r="I25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="233" t="str">
+      <c r="J25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="233" t="str">
+      <c r="K25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="233" t="str">
+      <c r="L25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="233" t="str">
+      <c r="M25" s="230" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
@@ -6866,7 +6878,7 @@
       </c>
       <c r="C27" s="65">
         <f>IF(C34="","",C34+C30)</f>
-        <v>0</v>
+        <v>208432382</v>
       </c>
       <c r="D27" s="65" t="str">
         <f>IF(D34="","",D34+D30)</f>
@@ -6919,43 +6931,43 @@
         <f>Fin_Analysis!C13</f>
         <v>1980623</v>
       </c>
-      <c r="D28" s="199" t="str">
+      <c r="D28" s="198" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="199" t="str">
+      <c r="E28" s="198" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="199" t="str">
+      <c r="F28" s="198" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="199" t="str">
+      <c r="G28" s="198" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="199" t="str">
+      <c r="H28" s="198" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="199" t="str">
+      <c r="I28" s="198" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="199" t="str">
+      <c r="J28" s="198" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="199" t="str">
+      <c r="K28" s="198" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="199" t="str">
+      <c r="L28" s="198" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="199" t="str">
+      <c r="M28" s="198" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
@@ -6970,43 +6982,43 @@
         <f>Fin_Analysis!C18</f>
         <v>18623682</v>
       </c>
-      <c r="D29" s="199" t="str">
+      <c r="D29" s="198" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="199" t="str">
+      <c r="E29" s="198" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="199" t="str">
+      <c r="F29" s="198" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="199" t="str">
+      <c r="G29" s="198" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="199" t="str">
+      <c r="H29" s="198" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="199" t="str">
+      <c r="I29" s="198" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="199" t="str">
+      <c r="J29" s="198" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="199" t="str">
+      <c r="K29" s="198" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="199" t="str">
+      <c r="L29" s="198" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="199" t="str">
+      <c r="M29" s="198" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
@@ -7015,49 +7027,49 @@
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="94" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="199" t="str">
+        <v>87275561</v>
+      </c>
+      <c r="D30" s="198" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="199">
+      <c r="E30" s="198">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>22442764</v>
       </c>
-      <c r="F30" s="199">
+      <c r="F30" s="198">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>20617000</v>
       </c>
-      <c r="G30" s="199">
+      <c r="G30" s="198">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>19835482</v>
       </c>
-      <c r="H30" s="199" t="str">
+      <c r="H30" s="198" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="199" t="str">
+      <c r="I30" s="198" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="199" t="str">
+      <c r="J30" s="198" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="199" t="str">
+      <c r="K30" s="198" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="199" t="str">
+      <c r="L30" s="198" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="199" t="str">
+      <c r="M30" s="198" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
@@ -7072,43 +7084,43 @@
         <f>Fin_Analysis!I15</f>
         <v>6793901</v>
       </c>
-      <c r="D31" s="199" t="str">
+      <c r="D31" s="198" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="199">
+      <c r="E31" s="198">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5316310</v>
       </c>
-      <c r="F31" s="199">
+      <c r="F31" s="198">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>6964787</v>
       </c>
-      <c r="G31" s="199">
+      <c r="G31" s="198">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>8544578</v>
       </c>
-      <c r="H31" s="199" t="str">
+      <c r="H31" s="198" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="199" t="str">
+      <c r="I31" s="198" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="199" t="str">
+      <c r="J31" s="198" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="199" t="str">
+      <c r="K31" s="198" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="199" t="str">
+      <c r="L31" s="198" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="199" t="str">
+      <c r="M31" s="198" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
@@ -7123,43 +7135,43 @@
         <f>Fin_Analysis!I34</f>
         <v>51051351</v>
       </c>
-      <c r="D32" s="199" t="str">
+      <c r="D32" s="198" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="199">
+      <c r="E32" s="198">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>32210595</v>
       </c>
-      <c r="F32" s="199">
+      <c r="F32" s="198">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>37670707</v>
       </c>
-      <c r="G32" s="199">
+      <c r="G32" s="198">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>31147279</v>
       </c>
-      <c r="H32" s="199" t="str">
+      <c r="H32" s="198" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="199" t="str">
+      <c r="I32" s="198" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="199" t="str">
+      <c r="J32" s="198" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="199" t="str">
+      <c r="K32" s="198" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="199" t="str">
+      <c r="L32" s="198" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="199" t="str">
+      <c r="M32" s="198" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
@@ -7223,45 +7235,45 @@
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="199" t="str">
+        <v>121156821</v>
+      </c>
+      <c r="D34" s="198" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="199">
+      <c r="E34" s="198">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>132313126</v>
       </c>
-      <c r="F34" s="199">
+      <c r="F34" s="198">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>124656340</v>
       </c>
-      <c r="G34" s="199">
+      <c r="G34" s="198">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>115383027</v>
       </c>
-      <c r="H34" s="199" t="str">
+      <c r="H34" s="198" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="199" t="str">
+      <c r="I34" s="198" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="199" t="str">
+      <c r="J34" s="198" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="199" t="str">
+      <c r="K34" s="198" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="199" t="str">
+      <c r="L34" s="198" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="199" t="str">
+      <c r="M34" s="198" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
@@ -7274,45 +7286,45 @@
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="199" t="str">
+        <v>13900241</v>
+      </c>
+      <c r="D35" s="198" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="199" t="str">
+      <c r="E35" s="198" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="199" t="str">
+      <c r="F35" s="198" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="199" t="str">
+      <c r="G35" s="198" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="199" t="str">
+      <c r="H35" s="198" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="199" t="str">
+      <c r="I35" s="198" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="199" t="str">
+      <c r="J35" s="198" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="199" t="str">
+      <c r="K35" s="198" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="199" t="str">
+      <c r="L35" s="198" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="199" t="str">
+      <c r="M35" s="198" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
@@ -7327,43 +7339,43 @@
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="199" t="str">
+      <c r="D36" s="198" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="199" t="str">
+      <c r="E36" s="198" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="199" t="str">
+      <c r="F36" s="198" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="199" t="str">
+      <c r="G36" s="198" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="199" t="str">
+      <c r="H36" s="198" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="199" t="str">
+      <c r="I36" s="198" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="199" t="str">
+      <c r="J36" s="198" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="199" t="str">
+      <c r="K36" s="198" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="199" t="str">
+      <c r="L36" s="198" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="199" t="str">
+      <c r="M36" s="198" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
@@ -7425,47 +7437,47 @@
       <c r="B38" s="98" t="s">
         <v>150</v>
       </c>
-      <c r="C38" s="155">
+      <c r="C38" s="154">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>2.2001523954725974E-2</v>
       </c>
-      <c r="D38" s="155" t="e">
+      <c r="D38" s="154" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="155" t="e">
+      <c r="E38" s="154" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="155" t="str">
+      <c r="F38" s="154" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="155" t="str">
+      <c r="G38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="155" t="str">
+      <c r="H38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="155" t="str">
+      <c r="I38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="155" t="str">
+      <c r="J38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="155" t="str">
+      <c r="K38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="155" t="str">
+      <c r="L38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="155" t="str">
+      <c r="M38" s="154" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
@@ -7474,7 +7486,7 @@
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7494,47 +7506,47 @@
       <c r="B40" s="95" t="s">
         <v>95</v>
       </c>
-      <c r="C40" s="156">
+      <c r="C40" s="155">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="D40" s="156">
+      <c r="D40" s="155">
         <f t="shared" si="34"/>
         <v>0.52128467373406284</v>
       </c>
-      <c r="E40" s="156">
+      <c r="E40" s="155">
         <f t="shared" si="34"/>
         <v>0.42955949475049005</v>
       </c>
-      <c r="F40" s="156">
+      <c r="F40" s="155">
         <f t="shared" si="34"/>
         <v>0.42263499182368403</v>
       </c>
-      <c r="G40" s="156">
+      <c r="G40" s="155">
         <f t="shared" si="34"/>
         <v>0.50159380457223135</v>
       </c>
-      <c r="H40" s="156" t="str">
+      <c r="H40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="156" t="str">
+      <c r="I40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="156" t="str">
+      <c r="J40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="156" t="str">
+      <c r="K40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="156" t="str">
+      <c r="L40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="156" t="str">
+      <c r="M40" s="155" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
@@ -7543,49 +7555,49 @@
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="94" t="s">
-        <v>221</v>
-      </c>
-      <c r="C41" s="153">
+        <v>220</v>
+      </c>
+      <c r="C41" s="152">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="D41" s="153">
+      <c r="D41" s="152">
         <f t="shared" si="35"/>
         <v>0.11788670348292293</v>
       </c>
-      <c r="E41" s="153">
+      <c r="E41" s="152">
         <f t="shared" si="35"/>
         <v>0.13070880454608683</v>
       </c>
-      <c r="F41" s="153">
+      <c r="F41" s="152">
         <f t="shared" si="35"/>
         <v>0.1110896095869353</v>
       </c>
-      <c r="G41" s="153">
+      <c r="G41" s="152">
         <f t="shared" si="35"/>
         <v>8.8881136874354449E-2</v>
       </c>
-      <c r="H41" s="153" t="str">
+      <c r="H41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="153" t="str">
+      <c r="I41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="153" t="str">
+      <c r="J41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="153" t="str">
+      <c r="K41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="153" t="str">
+      <c r="L41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="153" t="str">
+      <c r="M41" s="152" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
@@ -7596,47 +7608,47 @@
       <c r="B42" s="94" t="s">
         <v>106</v>
       </c>
-      <c r="C42" s="153">
+      <c r="C42" s="152">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="153">
+      <c r="D42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="153">
+      <c r="E42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="153">
+      <c r="F42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="153">
+      <c r="G42" s="152">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="153" t="str">
+      <c r="H42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="153" t="str">
+      <c r="I42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="153" t="str">
+      <c r="J42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="153" t="str">
+      <c r="K42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="153" t="str">
+      <c r="L42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="153" t="str">
+      <c r="M42" s="152" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
@@ -7647,47 +7659,47 @@
       <c r="B43" s="94" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="153">
+      <c r="C43" s="152">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="D43" s="153">
+      <c r="D43" s="152">
         <f t="shared" si="37"/>
         <v>2.1741924097741849E-2</v>
       </c>
-      <c r="E43" s="153">
+      <c r="E43" s="152">
         <f t="shared" si="37"/>
         <v>3.6710684655939116E-2</v>
       </c>
-      <c r="F43" s="153">
+      <c r="F43" s="152">
         <f t="shared" si="37"/>
         <v>5.3814505777255314E-2</v>
       </c>
-      <c r="G43" s="153">
+      <c r="G43" s="152">
         <f t="shared" si="37"/>
         <v>4.5078833660593357E-2</v>
       </c>
-      <c r="H43" s="153" t="str">
+      <c r="H43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="153" t="str">
+      <c r="I43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="153" t="str">
+      <c r="J43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="153" t="str">
+      <c r="K43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="153" t="str">
+      <c r="L43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="153" t="str">
+      <c r="M43" s="152" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
@@ -7698,47 +7710,47 @@
       <c r="B44" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C44" s="153">
+      <c r="C44" s="152">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="D44" s="153">
+      <c r="D44" s="152">
         <f t="shared" si="38"/>
         <v>6.5806036700884196E-2</v>
       </c>
-      <c r="E44" s="153">
+      <c r="E44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="153">
+      <c r="F44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="153">
+      <c r="G44" s="152">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="153" t="str">
+      <c r="H44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="153" t="str">
+      <c r="I44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="153" t="str">
+      <c r="J44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="153" t="str">
+      <c r="K44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="153" t="str">
+      <c r="L44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="153" t="str">
+      <c r="M44" s="152" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
@@ -7747,49 +7759,49 @@
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="C45" s="153">
+        <v>222</v>
+      </c>
+      <c r="C45" s="152">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="153">
+      <c r="D45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="153">
+      <c r="E45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="153">
+      <c r="F45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="153">
+      <c r="G45" s="152">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="153" t="str">
+      <c r="H45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="153" t="str">
+      <c r="I45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="153" t="str">
+      <c r="J45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="153" t="str">
+      <c r="K45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="153" t="str">
+      <c r="L45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="153" t="str">
+      <c r="M45" s="152" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
@@ -7800,47 +7812,47 @@
       <c r="B46" s="94" t="s">
         <v>120</v>
       </c>
-      <c r="C46" s="153">
+      <c r="C46" s="152">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="D46" s="153">
+      <c r="D46" s="152">
         <f t="shared" si="40"/>
         <v>0.27328066198438822</v>
       </c>
-      <c r="E46" s="153">
+      <c r="E46" s="152">
         <f t="shared" si="40"/>
         <v>0.40302101604748397</v>
       </c>
-      <c r="F46" s="153">
+      <c r="F46" s="152">
         <f t="shared" si="40"/>
         <v>0.41246089281212539</v>
       </c>
-      <c r="G46" s="153">
+      <c r="G46" s="152">
         <f t="shared" si="40"/>
         <v>0.3644462248928208</v>
       </c>
-      <c r="H46" s="153" t="str">
+      <c r="H46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="153" t="str">
+      <c r="I46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="153" t="str">
+      <c r="J46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="153" t="str">
+      <c r="K46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="153" t="str">
+      <c r="L46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="153" t="str">
+      <c r="M46" s="152" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
@@ -7849,9 +7861,11 @@
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
       <c r="B47" s="102" t="s">
-        <v>249</v>
-      </c>
-      <c r="C47" s="36"/>
+        <v>248</v>
+      </c>
+      <c r="C47" s="280" t="s">
+        <v>266</v>
+      </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
       <c r="F47" s="36"/>
@@ -7866,50 +7880,50 @@
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="271" t="s">
-        <v>255</v>
-      </c>
-      <c r="C48" s="272" t="e">
+      <c r="B48" s="268" t="s">
+        <v>254</v>
+      </c>
+      <c r="C48" s="269">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D48" s="272" t="e">
+        <v>6.2800357000190113E-2</v>
+      </c>
+      <c r="D48" s="269" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="272">
+      <c r="E48" s="269">
         <f t="shared" si="41"/>
         <v>9.9038324163300023E-2</v>
       </c>
-      <c r="F48" s="272">
+      <c r="F48" s="269">
         <f t="shared" si="41"/>
         <v>9.9991519435018147E-2</v>
       </c>
-      <c r="G48" s="272">
+      <c r="G48" s="269">
         <f t="shared" si="41"/>
         <v>0.13330587752598277</v>
       </c>
-      <c r="H48" s="272" t="str">
+      <c r="H48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="272" t="str">
+      <c r="I48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="272" t="str">
+      <c r="J48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="272" t="str">
+      <c r="K48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="272" t="str">
+      <c r="L48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="272" t="str">
+      <c r="M48" s="269" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
@@ -7918,49 +7932,49 @@
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C49" s="153">
+        <v>255</v>
+      </c>
+      <c r="C49" s="152">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.15131239787715892</v>
       </c>
-      <c r="D49" s="153" t="str">
+      <c r="D49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="153" t="str">
+      <c r="E49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="153" t="str">
+      <c r="F49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="153" t="str">
+      <c r="G49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="153" t="str">
+      <c r="H49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="153" t="str">
+      <c r="I49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="153" t="str">
+      <c r="J49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="153" t="str">
+      <c r="K49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="153" t="str">
+      <c r="L49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="153" t="str">
+      <c r="M49" s="152" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
@@ -7969,49 +7983,49 @@
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="C50" s="153">
+        <v>256</v>
+      </c>
+      <c r="C50" s="152">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>1.4227816099892221</v>
       </c>
-      <c r="D50" s="153" t="str">
+      <c r="D50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="153" t="str">
+      <c r="E50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="153" t="str">
+      <c r="F50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="153" t="str">
+      <c r="G50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="153" t="str">
+      <c r="H50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="153" t="str">
+      <c r="I50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="153" t="str">
+      <c r="J50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="153" t="str">
+      <c r="K50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="153" t="str">
+      <c r="L50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="153" t="str">
+      <c r="M50" s="152" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
@@ -8020,49 +8034,49 @@
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="C51" s="153" t="e">
+        <v>246</v>
+      </c>
+      <c r="C51" s="152" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="153" t="e">
+      <c r="D51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="153" t="e">
+      <c r="E51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="153" t="e">
+      <c r="F51" s="152" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="153" t="str">
+      <c r="G51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="153" t="str">
+      <c r="H51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="153" t="str">
+      <c r="I51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="153" t="str">
+      <c r="J51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="153" t="str">
+      <c r="K51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="153" t="str">
+      <c r="L51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="153" t="str">
+      <c r="M51" s="152" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
@@ -8071,7 +8085,7 @@
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
       <c r="B52" s="102" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8088,49 +8102,49 @@
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="95" t="s">
-        <v>251</v>
-      </c>
-      <c r="C53" s="156" t="e">
+        <v>250</v>
+      </c>
+      <c r="C53" s="155">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D53" s="156" t="str">
+        <v>0.51458693208236717</v>
+      </c>
+      <c r="D53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="156" t="e">
+      <c r="E53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="156" t="e">
+      <c r="F53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="156" t="e">
+      <c r="G53" s="155" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="156" t="str">
+      <c r="H53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="156" t="str">
+      <c r="I53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="156" t="str">
+      <c r="J53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="156" t="str">
+      <c r="K53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="156" t="str">
+      <c r="L53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="156" t="str">
+      <c r="M53" s="155" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
@@ -8140,47 +8154,47 @@
       <c r="B54" s="94" t="s">
         <v>117</v>
       </c>
-      <c r="C54" s="157">
+      <c r="C54" s="156">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>5.3783279107044654E-2</v>
       </c>
-      <c r="D54" s="157" t="str">
+      <c r="D54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="157">
+      <c r="E54" s="156">
         <f t="shared" si="46"/>
         <v>0.16460211680126566</v>
       </c>
-      <c r="F54" s="157">
+      <c r="F54" s="156">
         <f t="shared" si="46"/>
         <v>0.13423059684295194</v>
       </c>
-      <c r="G54" s="157">
+      <c r="G54" s="156">
         <f t="shared" si="46"/>
         <v>0.16550742385270611</v>
       </c>
-      <c r="H54" s="157" t="str">
+      <c r="H54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="157" t="str">
+      <c r="I54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="157" t="str">
+      <c r="J54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="157" t="str">
+      <c r="K54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="157" t="str">
+      <c r="L54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="157" t="str">
+      <c r="M54" s="156" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
@@ -8190,47 +8204,47 @@
       <c r="B55" s="94" t="s">
         <v>119</v>
       </c>
-      <c r="C55" s="153">
+      <c r="C55" s="152">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.19275644834711586</v>
       </c>
-      <c r="D55" s="153">
+      <c r="D55" s="152">
         <f t="shared" si="47"/>
         <v>7.9558955763155692E-2</v>
       </c>
-      <c r="E55" s="153">
+      <c r="E55" s="152">
         <f t="shared" si="47"/>
         <v>9.108876012464287E-2</v>
       </c>
-      <c r="F55" s="153">
+      <c r="F55" s="152">
         <f t="shared" si="47"/>
         <v>0.1304717773613695</v>
       </c>
-      <c r="G55" s="153">
+      <c r="G55" s="152">
         <f t="shared" si="47"/>
         <v>0.12369131735100422</v>
       </c>
-      <c r="H55" s="153" t="str">
+      <c r="H55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="153" t="str">
+      <c r="I55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="153" t="str">
+      <c r="J55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="153" t="str">
+      <c r="K55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="153" t="str">
+      <c r="L55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="153" t="str">
+      <c r="M55" s="152" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
@@ -8240,47 +8254,47 @@
       <c r="B56" s="98" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="158" t="e">
+      <c r="C56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/C30)</f>
         <v>#REF!</v>
       </c>
-      <c r="D56" s="158" t="e">
+      <c r="D56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/D30)</f>
         <v>#REF!</v>
       </c>
-      <c r="E56" s="158" t="e">
+      <c r="E56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/E30)</f>
         <v>#REF!</v>
       </c>
-      <c r="F56" s="158" t="e">
+      <c r="F56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G56" s="158" t="e">
+      <c r="G56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/G30)</f>
         <v>#REF!</v>
       </c>
-      <c r="H56" s="158" t="e">
+      <c r="H56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/H30)</f>
         <v>#REF!</v>
       </c>
-      <c r="I56" s="158" t="e">
+      <c r="I56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/I30)</f>
         <v>#REF!</v>
       </c>
-      <c r="J56" s="158" t="e">
+      <c r="J56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/J30)</f>
         <v>#REF!</v>
       </c>
-      <c r="K56" s="158" t="e">
+      <c r="K56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/K30)</f>
         <v>#REF!</v>
       </c>
-      <c r="L56" s="158" t="e">
+      <c r="L56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/L30)</f>
         <v>#REF!</v>
       </c>
-      <c r="M56" s="158" t="e">
+      <c r="M56" s="157" t="e">
         <f>IF(#REF!="","",#REF!/M30)</f>
         <v>#REF!</v>
       </c>
@@ -8288,149 +8302,149 @@
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
       <c r="B57" s="102" t="s">
-        <v>252</v>
-      </c>
-      <c r="C57" s="273" t="str">
+        <v>251</v>
+      </c>
+      <c r="C57" s="270" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="273" t="str">
+      <c r="D57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="273" t="str">
+      <c r="E57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="273" t="str">
+      <c r="F57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="273" t="str">
+      <c r="G57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="273" t="str">
+      <c r="H57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="273" t="str">
+      <c r="I57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="273" t="str">
+      <c r="J57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="273" t="str">
+      <c r="K57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="273" t="str">
+      <c r="L57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="273" t="str">
+      <c r="M57" s="270" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="271" t="s">
-        <v>253</v>
-      </c>
-      <c r="C58" s="274" t="e">
+      <c r="B58" s="268" t="s">
+        <v>252</v>
+      </c>
+      <c r="C58" s="271">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D58" s="274" t="e">
+        <v>3.4597349023559515E-2</v>
+      </c>
+      <c r="D58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="274" t="e">
+      <c r="E58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="274" t="e">
+      <c r="F58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="274" t="e">
+      <c r="G58" s="271" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="274" t="str">
+      <c r="H58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="274" t="str">
+      <c r="I58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="274" t="str">
+      <c r="J58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="274" t="str">
+      <c r="K58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="274" t="str">
+      <c r="L58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="274" t="str">
+      <c r="M58" s="271" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="271" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="274" t="e">
+      <c r="B59" s="268" t="s">
+        <v>253</v>
+      </c>
+      <c r="C59" s="271">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D59" s="274" t="e">
+        <v>2.900621419528138E-2</v>
+      </c>
+      <c r="D59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="274" t="e">
+      <c r="E59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="274" t="e">
+      <c r="F59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="274" t="e">
+      <c r="G59" s="271" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="274" t="str">
+      <c r="H59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="274" t="str">
+      <c r="I59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="274" t="str">
+      <c r="J59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="274" t="str">
+      <c r="K59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="274" t="str">
+      <c r="L59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="274" t="str">
+      <c r="M59" s="271" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9726,8 +9740,8 @@
   </sheetPr>
   <dimension ref="A2:K108"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A78" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E82" sqref="E82"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9763,8 +9777,8 @@
         <v>22</v>
       </c>
       <c r="C3" s="87"/>
-      <c r="D3" s="116">
-        <f>C49-I49</f>
+      <c r="D3" s="204">
+        <f>Inputs!C41</f>
         <v>121156821</v>
       </c>
       <c r="E3" s="67" t="str">
@@ -9776,8 +9790,8 @@
       <c r="H3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="204">
-        <f>Inputs!C83</f>
+      <c r="I3" s="282">
+        <f>D3-D4</f>
         <v>107256580</v>
       </c>
       <c r="K3" s="24"/>
@@ -9787,8 +9801,8 @@
         <v>24</v>
       </c>
       <c r="C4" s="87"/>
-      <c r="D4" s="65">
-        <f>D3-I3</f>
+      <c r="D4" s="198">
+        <f>Inputs!C42</f>
         <v>13900241</v>
       </c>
       <c r="E4" s="37"/>
@@ -9819,13 +9833,13 @@
         <v>Adj. Net Asset in HKD</v>
       </c>
       <c r="C6" s="87"/>
-      <c r="D6" s="69" t="e">
+      <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E6" s="56" t="e">
+        <v>-28198312.699999988</v>
+      </c>
+      <c r="E6" s="56">
         <f>1-D6/D3</f>
-        <v>#DIV/0!</v>
+        <v>1.2327422630212457</v>
       </c>
       <c r="F6" s="87"/>
       <c r="G6" s="87"/>
@@ -9845,9 +9859,9 @@
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
       <c r="C7" s="87"/>
-      <c r="D7" s="66" t="e">
+      <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11" t="str">
         <f>Dashboard!H3</f>
@@ -9875,11 +9889,11 @@
         <v>29</v>
       </c>
       <c r="C9" s="86"/>
-      <c r="D9" s="203">
+      <c r="D9" s="202">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="119" t="str">
+      <c r="E9" s="118" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
@@ -9922,7 +9936,7 @@
         <f>Inputs!C48</f>
         <v>13539631</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
@@ -9950,7 +9964,7 @@
         <f>Inputs!C49</f>
         <v>305449</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="197">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
@@ -9978,7 +9992,7 @@
         <f>Inputs!C50</f>
         <v>1980623</v>
       </c>
-      <c r="D13" s="198">
+      <c r="D13" s="197">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
@@ -10006,7 +10020,7 @@
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="198">
+      <c r="D14" s="197">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
@@ -10019,7 +10033,7 @@
       <c r="H14" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="I14" s="205">
+      <c r="I14" s="203">
         <f>Inputs!C76</f>
         <v>114041</v>
       </c>
@@ -10034,7 +10048,7 @@
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="198">
+      <c r="D15" s="197">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
@@ -10061,7 +10075,7 @@
         <f>Inputs!C53</f>
         <v>5889</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
@@ -10083,7 +10097,7 @@
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="197">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
@@ -10105,7 +10119,7 @@
         <f>Inputs!C55</f>
         <v>18623682</v>
       </c>
-      <c r="D18" s="198">
+      <c r="D18" s="197">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
@@ -10126,7 +10140,7 @@
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="198">
+      <c r="D19" s="197">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
@@ -10134,7 +10148,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="134" t="str">
+      <c r="F19" s="133" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10151,7 +10165,7 @@
         <f>Inputs!C57</f>
         <v>23436237</v>
       </c>
-      <c r="D20" s="198">
+      <c r="D20" s="197">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
@@ -10159,7 +10173,7 @@
         <f t="shared" si="0"/>
         <v>14061742.199999999</v>
       </c>
-      <c r="F20" s="134" t="str">
+      <c r="F20" s="133" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10178,7 +10192,7 @@
         <f>Inputs!C58</f>
         <v>514825</v>
       </c>
-      <c r="D21" s="198">
+      <c r="D21" s="197">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
@@ -10199,7 +10213,7 @@
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="198">
+      <c r="D22" s="197">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
@@ -10364,7 +10378,7 @@
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="206">
+      <c r="I28" s="204">
         <f>Inputs!C77</f>
         <v>25845852</v>
       </c>
@@ -10393,7 +10407,7 @@
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="198">
+      <c r="D30" s="197">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
@@ -10419,7 +10433,7 @@
         <f>Inputs!C61</f>
         <v>1408869</v>
       </c>
-      <c r="D31" s="198">
+      <c r="D31" s="197">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
@@ -10446,7 +10460,7 @@
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="198">
+      <c r="D32" s="197">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
@@ -10473,7 +10487,7 @@
         <f>Inputs!C63</f>
         <v>582318</v>
       </c>
-      <c r="D33" s="198">
+      <c r="D33" s="197">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
@@ -10489,7 +10503,7 @@
       <c r="H33" s="86" t="s">
         <v>64</v>
       </c>
-      <c r="I33" s="205">
+      <c r="I33" s="203">
         <f>Inputs!C81</f>
         <v>278874</v>
       </c>
@@ -10503,7 +10517,7 @@
         <f>Inputs!C64</f>
         <v>898512</v>
       </c>
-      <c r="D34" s="198">
+      <c r="D34" s="197">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
@@ -10530,7 +10544,7 @@
         <f>Inputs!C65</f>
         <v>24823141</v>
       </c>
-      <c r="D35" s="198">
+      <c r="D35" s="197">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
@@ -10538,7 +10552,7 @@
         <f t="shared" si="1"/>
         <v>2482314.1</v>
       </c>
-      <c r="F35" s="134" t="str">
+      <c r="F35" s="133" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10556,7 +10570,7 @@
         <f>Inputs!C66</f>
         <v>76964829</v>
       </c>
-      <c r="D36" s="198">
+      <c r="D36" s="197">
         <f>Inputs!D66</f>
         <v>0.3</v>
       </c>
@@ -10564,7 +10578,7 @@
         <f t="shared" si="1"/>
         <v>23089448.699999999</v>
       </c>
-      <c r="F36" s="134" t="str">
+      <c r="F36" s="133" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10583,7 +10597,7 @@
         <f>Inputs!C67</f>
         <v>39222688</v>
       </c>
-      <c r="D37" s="198">
+      <c r="D37" s="197">
         <f>Inputs!D67</f>
         <v>0.2</v>
       </c>
@@ -10591,7 +10605,7 @@
         <f t="shared" si="1"/>
         <v>7844537.6000000006</v>
       </c>
-      <c r="F37" s="134" t="str">
+      <c r="F37" s="133" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10610,7 +10624,7 @@
         <f>Inputs!C68</f>
         <v>6003185</v>
       </c>
-      <c r="D38" s="198">
+      <c r="D38" s="197">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
@@ -10631,7 +10645,7 @@
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="198">
+      <c r="D39" s="197">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
@@ -10652,7 +10666,7 @@
         <f>Inputs!C70</f>
         <v>122504</v>
       </c>
-      <c r="D40" s="198">
+      <c r="D40" s="197">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
@@ -10673,7 +10687,7 @@
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="198">
+      <c r="D41" s="197">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
@@ -10694,7 +10708,7 @@
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="198">
+      <c r="D42" s="197">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
@@ -10840,8 +10854,8 @@
       <c r="H48" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="207">
-        <f>Inputs!C82</f>
+      <c r="I48" s="281">
+        <f>I49-I28</f>
         <v>61429709</v>
       </c>
       <c r="J48" s="8"/>
@@ -10867,8 +10881,8 @@
       <c r="H49" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="I49" s="52">
-        <f>I28+I48</f>
+      <c r="I49" s="40">
+        <f>Inputs!C37</f>
         <v>87275561</v>
       </c>
       <c r="J49" s="87"/>
@@ -10891,9 +10905,9 @@
         <v>85</v>
       </c>
       <c r="C52" s="87"/>
-      <c r="D52" s="74" t="e">
+      <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
-        <v>#DIV/0!</v>
+        <v>BV of the MI</v>
       </c>
       <c r="E52" s="87"/>
       <c r="F52" s="87"/>
@@ -10911,13 +10925,13 @@
         <f>MAX(D4,0)</f>
         <v>13900241</v>
       </c>
-      <c r="D53" s="29" t="e">
+      <c r="D53" s="29">
         <f>IF(E53=0, 0,E53/C53)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E53" s="88" t="e">
+        <v>1</v>
+      </c>
+      <c r="E53" s="88">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
-        <v>#DIV/0!</v>
+        <v>13900241</v>
       </c>
       <c r="F53" s="87"/>
       <c r="G53" s="87"/>
@@ -10938,7 +10952,7 @@
         <v>143</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="125"/>
+      <c r="E55" s="124"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
       <c r="I55" s="87"/>
@@ -11038,7 +11052,7 @@
       <c r="B62" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="C62" s="117">
+      <c r="C62" s="116">
         <f>C11+C30</f>
         <v>13539631</v>
       </c>
@@ -11046,7 +11060,7 @@
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="118">
+      <c r="E62" s="117">
         <f>E11+E30</f>
         <v>12185667.9</v>
       </c>
@@ -11077,11 +11091,11 @@
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="121" t="s">
+      <c r="B64" s="120" t="s">
         <v>144</v>
       </c>
-      <c r="C64" s="208"/>
-      <c r="D64" s="208"/>
+      <c r="C64" s="205"/>
+      <c r="D64" s="205"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>57845252</v>
@@ -11158,12 +11172,12 @@
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="121" t="s">
+      <c r="B69" s="120" t="s">
         <v>145</v>
       </c>
-      <c r="C69" s="208"/>
-      <c r="D69" s="208"/>
-      <c r="E69" s="126">
+      <c r="C69" s="205"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="125">
         <f>I49-E64</f>
         <v>29430309</v>
       </c>
@@ -11242,17 +11256,17 @@
         <f>Data!C6</f>
         <v>13089628</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="238">
+      <c r="D74" s="206"/>
+      <c r="E74" s="235">
         <f>Inputs!E91</f>
         <v>13089628</v>
       </c>
-      <c r="F74" s="209"/>
-      <c r="H74" s="238">
+      <c r="F74" s="206"/>
+      <c r="H74" s="235">
         <f>Inputs!F91</f>
         <v>13089628</v>
       </c>
-      <c r="I74" s="209"/>
+      <c r="I74" s="206"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11263,23 +11277,23 @@
         <f>Data!C8</f>
         <v>6368352</v>
       </c>
-      <c r="D75" s="159">
+      <c r="D75" s="158">
         <f>C75/$C$74</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="E75" s="238">
+      <c r="E75" s="235">
         <f>Inputs!E92</f>
         <v>6368352</v>
       </c>
-      <c r="F75" s="160">
+      <c r="F75" s="159">
         <f>E75/E74</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="H75" s="238">
+      <c r="H75" s="235">
         <f>Inputs!F92</f>
         <v>6368352</v>
       </c>
-      <c r="I75" s="160">
+      <c r="I75" s="159">
         <f>H75/$H$74</f>
         <v>0.48651894461783024</v>
       </c>
@@ -11289,48 +11303,48 @@
       <c r="B76" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="C76" s="161">
+      <c r="C76" s="160">
         <f>C74-C75</f>
         <v>6721276</v>
       </c>
-      <c r="D76" s="210"/>
-      <c r="E76" s="162">
+      <c r="D76" s="207"/>
+      <c r="E76" s="161">
         <f>E74-E75</f>
         <v>6721276</v>
       </c>
-      <c r="F76" s="210"/>
-      <c r="H76" s="162">
+      <c r="F76" s="207"/>
+      <c r="H76" s="161">
         <f>H74-H75</f>
         <v>6721276</v>
       </c>
-      <c r="I76" s="210"/>
+      <c r="I76" s="207"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B77" s="104" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1783204</v>
       </c>
-      <c r="D77" s="159">
+      <c r="D77" s="158">
         <f>C77/$C$74</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="E77" s="238">
+      <c r="E77" s="235">
         <f>Inputs!E93</f>
         <v>1783204</v>
       </c>
-      <c r="F77" s="160">
+      <c r="F77" s="159">
         <f>E77/E74</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="H77" s="238">
+      <c r="H77" s="235">
         <f>Inputs!F93</f>
         <v>1783204</v>
       </c>
-      <c r="I77" s="160">
+      <c r="I77" s="159">
         <f>H77/$H$74</f>
         <v>0.13623030387112606</v>
       </c>
@@ -11344,54 +11358,54 @@
         <f>MAX(Data!C12,0)</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D78" s="159">
+      <c r="D78" s="158">
         <f>C78/$C$74</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="E78" s="180">
+      <c r="E78" s="179">
         <f>E74*F78</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="F78" s="160">
+      <c r="F78" s="159">
         <f>I78</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="H78" s="238">
+      <c r="H78" s="235">
         <f>Inputs!F97</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="I78" s="160">
+      <c r="I78" s="159">
         <f>H78/$H$74</f>
         <v>9.375962912518726E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="256" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="257">
+      <c r="B79" s="253" t="s">
+        <v>218</v>
+      </c>
+      <c r="C79" s="254">
         <f>C76-C77-C78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="D79" s="258">
+      <c r="D79" s="255">
         <f>C79/C74</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="E79" s="259">
+      <c r="E79" s="256">
         <f>E76-E77-E78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="F79" s="258">
+      <c r="F79" s="255">
         <f>E79/E74</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="G79" s="260"/>
-      <c r="H79" s="259">
+      <c r="G79" s="257"/>
+      <c r="H79" s="256">
         <f>H76-H77-H78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="I79" s="258">
+      <c r="I79" s="255">
         <f>H79/H74</f>
         <v>0.28349112238585644</v>
       </c>
@@ -11405,55 +11419,55 @@
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="159">
+      <c r="D80" s="158">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="180">
+      <c r="E80" s="179">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="160">
+      <c r="F80" s="159">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="238">
+      <c r="H80" s="235">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="160">
+      <c r="I80" s="159">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="181" t="s">
+      <c r="K80" s="180" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B81" s="104" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>599686</v>
       </c>
-      <c r="D81" s="159">
+      <c r="D81" s="158">
         <f>C81/$C$74</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="E81" s="180">
+      <c r="E81" s="179">
         <f>E74*F81</f>
         <v>599686</v>
       </c>
-      <c r="F81" s="160">
+      <c r="F81" s="159">
         <f>I81</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="H81" s="238">
+      <c r="H81" s="235">
         <f>Inputs!F94</f>
         <v>599686</v>
       </c>
-      <c r="I81" s="160">
+      <c r="I81" s="159">
         <f>H81/$H$74</f>
         <v>4.581383061459042E-2</v>
       </c>
@@ -11461,29 +11475,29 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="159">
+      <c r="D82" s="158">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="238">
+      <c r="E82" s="235">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="160">
+      <c r="F82" s="159">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="238">
+      <c r="H82" s="235">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="160">
+      <c r="I82" s="159">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
@@ -11493,27 +11507,27 @@
       <c r="B83" s="105" t="s">
         <v>121</v>
       </c>
-      <c r="C83" s="163">
+      <c r="C83" s="162">
         <f>C79-C81-C82-C80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="D83" s="164">
+      <c r="D83" s="163">
         <f>C83/$C$74</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="E83" s="165">
+      <c r="E83" s="164">
         <f>E79-E81-E82-E80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="F83" s="164">
+      <c r="F83" s="163">
         <f>E83/E74</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="H83" s="165">
+      <c r="H83" s="164">
         <f>H79-H81-H82-H80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="I83" s="164">
+      <c r="I83" s="163">
         <f>H83/$H$74</f>
         <v>0.23767729177126601</v>
       </c>
@@ -11523,49 +11537,49 @@
       <c r="B84" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="C84" s="211"/>
-      <c r="D84" s="159">
+      <c r="C84" s="208"/>
+      <c r="D84" s="158">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="212"/>
-      <c r="F84" s="179">
+      <c r="E84" s="209"/>
+      <c r="F84" s="178">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="212"/>
-      <c r="I84" s="202">
+      <c r="H84" s="209"/>
+      <c r="I84" s="201">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="263" t="s">
+      <c r="B85" s="260" t="s">
         <v>157</v>
       </c>
-      <c r="C85" s="257">
+      <c r="C85" s="254">
         <f>C83*(1-I84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="D85" s="258">
+      <c r="D85" s="255">
         <f>C85/$C$74</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="E85" s="264">
+      <c r="E85" s="261">
         <f>E83*(1-F84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="F85" s="258">
+      <c r="F85" s="255">
         <f>E85/E74</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="G85" s="260"/>
-      <c r="H85" s="264">
+      <c r="G85" s="257"/>
+      <c r="H85" s="261">
         <f>H83*(1-I84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="I85" s="258">
+      <c r="I85" s="255">
         <f>H85/$H$74</f>
         <v>0.17825796882844952</v>
       </c>
@@ -11575,69 +11589,69 @@
       <c r="B86" s="87" t="s">
         <v>153</v>
       </c>
-      <c r="C86" s="167">
+      <c r="C86" s="166">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="168">
+      <c r="D86" s="206"/>
+      <c r="E86" s="167">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="F86" s="209"/>
-      <c r="H86" s="168">
+      <c r="F86" s="206"/>
+      <c r="H86" s="167">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="I86" s="209"/>
+      <c r="I86" s="206"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B87" s="87" t="s">
         <v>195</v>
       </c>
-      <c r="C87" s="261">
+      <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
-      </c>
-      <c r="D87" s="209"/>
-      <c r="E87" s="262">
+        <v>0.10563374966975561</v>
+      </c>
+      <c r="D87" s="206"/>
+      <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
-      </c>
-      <c r="F87" s="209"/>
-      <c r="H87" s="262">
+        <v>0.10563374966975561</v>
+      </c>
+      <c r="F87" s="206"/>
+      <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
-      </c>
-      <c r="I87" s="209"/>
+        <v>0.10563374966975561</v>
+      </c>
+      <c r="I87" s="206"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B88" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="C88" s="169">
+      <c r="C88" s="168">
         <f>Inputs!C44</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="D88" s="166">
+      <c r="D88" s="165">
         <f>C88/C86</f>
         <v>0.83968271859293786</v>
       </c>
-      <c r="E88" s="170">
+      <c r="E88" s="169">
         <f>Inputs!E98</f>
         <v>0.67499812748476218</v>
       </c>
-      <c r="F88" s="166">
+      <c r="F88" s="165">
         <f>E88/E86</f>
         <v>0.41984135929646893</v>
       </c>
-      <c r="H88" s="170">
+      <c r="H88" s="169">
         <f>Inputs!F98</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="I88" s="166">
+      <c r="I88" s="165">
         <f>H88/H86</f>
         <v>0.83968271859293786</v>
       </c>
@@ -11645,23 +11659,23 @@
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B89" s="87" t="s">
-        <v>208</v>
-      </c>
-      <c r="C89" s="261">
+        <v>207</v>
+      </c>
+      <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
-      </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="261">
+        <v>8.8698834097866247E-2</v>
+      </c>
+      <c r="D89" s="206"/>
+      <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3774197631956044E-2</v>
-      </c>
-      <c r="F89" s="209"/>
-      <c r="H89" s="261">
+        <v>4.4349417048933124E-2</v>
+      </c>
+      <c r="F89" s="206"/>
+      <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
-      </c>
-      <c r="I89" s="209"/>
+        <v>8.8698834097866247E-2</v>
+      </c>
+      <c r="I89" s="206"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11683,7 +11697,7 @@
       <c r="B92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C92" s="198" t="str">
+      <c r="C92" s="197" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
@@ -11706,27 +11720,27 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="136">
+      <c r="C93" s="135">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="239">
+      <c r="D93" s="236">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
       <c r="E93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="F93" s="144">
+      <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.846976310144214</v>
+        <v>40.094786176065355</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="I93" s="144">
+      <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.846976310144214</v>
+        <v>40.094786176065355</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11734,27 +11748,27 @@
       <c r="B94" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="C94" s="182">
+      <c r="C94" s="181">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="270">
+      <c r="D94" s="267">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
       <c r="E94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="F94" s="144">
+      <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.622618873275993</v>
+        <v>12.657438581698155</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
-      <c r="I94" s="144">
+      <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.001994910891355</v>
+        <v>31.166316037409885</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11768,25 +11782,25 @@
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="127" t="str">
+      <c r="C96" s="126" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="124" t="s">
+      <c r="D96" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E96" s="183" t="str">
+      <c r="E96" s="182" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H96" s="183" t="str">
+      <c r="F96" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H96" s="182" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="124" t="s">
+      <c r="I96" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K96" s="24"/>
@@ -11797,21 +11811,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28751802.674229197</v>
-      </c>
-      <c r="D97" s="213"/>
-      <c r="E97" s="123">
+        <v>28930611.232003707</v>
+      </c>
+      <c r="D97" s="210"/>
+      <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.810989593385798</v>
-      </c>
-      <c r="F97" s="213"/>
-      <c r="H97" s="123">
+        <v>19.934194893499178</v>
+      </c>
+      <c r="F97" s="210"/>
+      <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.810989593385798</v>
-      </c>
-      <c r="I97" s="123">
+        <v>19.934194893499178</v>
+      </c>
+      <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.34792535114526</v>
+        <v>26.511784104134389</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11819,18 +11833,18 @@
       <c r="B98" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="C98" s="91" t="e">
+      <c r="C98" s="91">
         <f>-E53*Exchange_Rate</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D98" s="213"/>
-      <c r="E98" s="213"/>
-      <c r="F98" s="213"/>
-      <c r="H98" s="123" t="e">
+        <v>-13900241</v>
+      </c>
+      <c r="D98" s="210"/>
+      <c r="E98" s="210"/>
+      <c r="F98" s="210"/>
+      <c r="H98" s="122">
         <f>C98*Data!$C$4/Common_Shares</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I98" s="215"/>
+        <v>-9.5777483212689418</v>
+      </c>
+      <c r="I98" s="212"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -11841,46 +11855,46 @@
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-42331948.600000001</v>
       </c>
-      <c r="D99" s="214"/>
-      <c r="E99" s="145">
+      <c r="D99" s="211"/>
+      <c r="E99" s="144">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-33.543408498143812</v>
       </c>
-      <c r="F99" s="214"/>
-      <c r="H99" s="145">
+      <c r="F99" s="211"/>
+      <c r="H99" s="144">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-29.168181302733753</v>
       </c>
-      <c r="I99" s="216"/>
+      <c r="I99" s="213"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C100" s="91" t="e">
+      <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D100" s="109" t="e">
+        <v>-27301578.367996294</v>
+      </c>
+      <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="E100" s="109">
         <f>MAX(E97+H98+E99,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="F100" s="109">
         <f>(E100+H100)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="H100" s="109">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I100" s="109" t="e">
+        <v>0</v>
+      </c>
+      <c r="I100" s="109">
         <f>MAX(I97+H98+H99,0)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="K100" s="24"/>
     </row>
@@ -11892,25 +11906,25 @@
       <c r="B102" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="C102" s="127" t="str">
+      <c r="C102" s="126" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="124" t="s">
+      <c r="D102" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E102" s="183" t="str">
+      <c r="E102" s="182" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H102" s="183" t="str">
+      <c r="F102" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H102" s="182" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="124" t="s">
+      <c r="I102" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K102" s="24"/>
@@ -11921,27 +11935,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22369658.195582673</v>
+        <v>22488224.998948</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2756724423299364</v>
-      </c>
-      <c r="E103" s="123">
+        <v>6.2929839912873051</v>
+      </c>
+      <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2756724423299364</v>
+        <v>6.2929839912873051</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.844571529930548</v>
-      </c>
-      <c r="H103" s="123">
+        <v>10.894075625020744</v>
+      </c>
+      <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.413470617531161</v>
+        <v>15.495167258754181</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.499378454490174</v>
+        <v>20.608032138559651</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11953,25 +11967,25 @@
       <c r="B105" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="C105" s="127" t="str">
+      <c r="C105" s="126" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="124" t="s">
+      <c r="D105" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="E105" s="184" t="str">
+      <c r="E105" s="183" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="227" t="s">
-        <v>224</v>
-      </c>
-      <c r="H105" s="184" t="str">
+      <c r="F105" s="224" t="s">
+        <v>223</v>
+      </c>
+      <c r="H105" s="183" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="124" t="s">
+      <c r="I105" s="123" t="s">
         <v>112</v>
       </c>
       <c r="K105" s="24"/>
@@ -11980,29 +11994,29 @@
       <c r="B106" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="C106" s="91" t="e">
+      <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D106" s="109" t="e">
+        <v>4566521.8563837847</v>
+      </c>
+      <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E106" s="123" t="e">
+        <v>3.1464919956436526</v>
+      </c>
+      <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F106" s="109" t="e">
+        <v>3.1464919956436526</v>
+      </c>
+      <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H106" s="123" t="e">
+        <v>5.4470378125103718</v>
+      </c>
+      <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I106" s="123" t="e">
+        <v>7.7475836293770906</v>
+      </c>
+      <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>#DIV/0!</v>
+        <v>10.304016069279825</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12013,14 +12027,13 @@
       <c r="B108" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="C108" s="128" t="str">
+      <c r="C108" s="127" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{896CC339-96AA-4A38-9186-A646DF641E5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88C7398-581F-4FE5-ADAF-E6D07D0331AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3446,7 +3446,7 @@
       </c>
       <c r="C45" s="151">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8698834097866247E-2</v>
+        <v>8.8815543090100285E-2</v>
       </c>
       <c r="D45" s="151" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4241,7 +4241,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="131">
-        <v>15.22</v>
+        <v>15.2</v>
       </c>
       <c r="H3" s="133" t="s">
         <v>273</v>
@@ -4282,7 +4282,7 @@
       </c>
       <c r="G5" s="287">
         <f>G3*G4/1000000</f>
-        <v>22088.873180160001</v>
+        <v>22059.847065599999</v>
       </c>
       <c r="H5" s="287"/>
       <c r="I5" s="38"/>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="G23" s="176">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18231638134645345</v>
+        <v>0.1820768066009259</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4514,7 +4514,7 @@
       </c>
       <c r="G24" s="265">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4666714295981649</v>
+        <v>9.4542316511098612</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="G26" s="177">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8698834097866247E-2</v>
+        <v>8.8815543090100285E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4576,20 +4576,20 @@
       </c>
       <c r="C29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2929839912873051</v>
+        <v>6.2947423345414357</v>
       </c>
       <c r="D29" s="128">
         <f>G29*(1+G20)</f>
-        <v>23.699236959343597</v>
+        <v>23.711942526087903</v>
       </c>
       <c r="E29" s="87"/>
       <c r="F29" s="130">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.894075625020744</v>
+        <v>10.899108408896128</v>
       </c>
       <c r="G29" s="286">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.608032138559651</v>
+        <v>20.619080457467742</v>
       </c>
       <c r="H29" s="286"/>
     </row>
@@ -11612,17 +11612,17 @@
       </c>
       <c r="C87" s="258">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10563374966975561</v>
+        <v>0.10577274144563688</v>
       </c>
       <c r="D87" s="206"/>
       <c r="E87" s="259">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10563374966975561</v>
+        <v>0.10577274144563688</v>
       </c>
       <c r="F87" s="206"/>
       <c r="H87" s="259">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10563374966975561</v>
+        <v>0.10577274144563688</v>
       </c>
       <c r="I87" s="206"/>
       <c r="K87" s="24"/>
@@ -11663,17 +11663,17 @@
       </c>
       <c r="C89" s="258">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8698834097866247E-2</v>
+        <v>8.8815543090100285E-2</v>
       </c>
       <c r="D89" s="206"/>
       <c r="E89" s="258">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4349417048933124E-2</v>
+        <v>4.4407771545050143E-2</v>
       </c>
       <c r="F89" s="206"/>
       <c r="H89" s="258">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8698834097866247E-2</v>
+        <v>8.8815543090100285E-2</v>
       </c>
       <c r="I89" s="206"/>
       <c r="K89" s="24"/>
@@ -11733,14 +11733,14 @@
       </c>
       <c r="F93" s="143">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.094786176065355</v>
+        <v>40.119994554801117</v>
       </c>
       <c r="H93" s="87" t="s">
         <v>196</v>
       </c>
       <c r="I93" s="143">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.094786176065355</v>
+        <v>40.119994554801117</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11761,14 +11761,14 @@
       </c>
       <c r="F94" s="143">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.657438581698155</v>
+        <v>12.660975238040443</v>
       </c>
       <c r="H94" s="87" t="s">
         <v>197</v>
       </c>
       <c r="I94" s="143">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.166316037409885</v>
+        <v>31.183024833109375</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11811,21 +11811,21 @@
       </c>
       <c r="C97" s="91">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28930611.232003707</v>
+        <v>28948800.474909026</v>
       </c>
       <c r="D97" s="210"/>
       <c r="E97" s="122">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.934194893499178</v>
+        <v>19.946727912941185</v>
       </c>
       <c r="F97" s="210"/>
       <c r="H97" s="122">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.934194893499178</v>
+        <v>19.946727912941185</v>
       </c>
       <c r="I97" s="122">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.511784104134389</v>
+        <v>26.528452582966601</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11874,7 +11874,7 @@
       </c>
       <c r="C100" s="91">
         <f>C97+C98+$C$99</f>
-        <v>-27301578.367996294</v>
+        <v>-27283389.125090975</v>
       </c>
       <c r="D100" s="109">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11935,27 +11935,27 @@
       </c>
       <c r="C103" s="91">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22488224.998948</v>
+        <v>22500281.321443755</v>
       </c>
       <c r="D103" s="109">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2929839912873051</v>
+        <v>6.2947423345414357</v>
       </c>
       <c r="E103" s="122">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2929839912873051</v>
+        <v>6.2947423345414357</v>
       </c>
       <c r="F103" s="109">
         <f>(E103+H103)/2</f>
-        <v>10.894075625020744</v>
+        <v>10.899108408896128</v>
       </c>
       <c r="H103" s="122">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.495167258754181</v>
+        <v>15.50347448325082</v>
       </c>
       <c r="I103" s="109">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.608032138559651</v>
+        <v>20.619080457467742</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11996,27 +11996,27 @@
       </c>
       <c r="C106" s="91">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4566521.8563837847</v>
+        <v>4567797.8032020386</v>
       </c>
       <c r="D106" s="109">
         <f>(D100+D103)/2</f>
-        <v>3.1464919956436526</v>
+        <v>3.1473711672707179</v>
       </c>
       <c r="E106" s="122">
         <f>(E100+E103)/2</f>
-        <v>3.1464919956436526</v>
+        <v>3.1473711672707179</v>
       </c>
       <c r="F106" s="109">
         <f>(F100+F103)/2</f>
-        <v>5.4470378125103718</v>
+        <v>5.4495542044480638</v>
       </c>
       <c r="H106" s="122">
         <f>(H100+H103)/2</f>
-        <v>7.7475836293770906</v>
+        <v>7.7517372416254098</v>
       </c>
       <c r="I106" s="122">
         <f>(I100+I103)/2</f>
-        <v>10.304016069279825</v>
+        <v>10.309540228733871</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B88C7398-581F-4FE5-ADAF-E6D07D0331AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DFD0BA-4164-4949-9AE7-723D08A3AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
   <si>
     <t>Company Info:</t>
   </si>
@@ -108,9 +108,6 @@
     <t>Interest-bearing Debt</t>
   </si>
   <si>
-    <t>Current Ratio</t>
-  </si>
-  <si>
     <t>Output</t>
   </si>
   <si>
@@ -850,10 +847,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>Balance Sheet</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>Years of Projection</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -968,10 +961,6 @@
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
-    <t>PlaceHolder_2</t>
-    <phoneticPr fontId="20" type="noConversion"/>
-  </si>
-  <si>
     <t>PlaceHolder_1</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -989,6 +978,14 @@
   </si>
   <si>
     <t>PlaceHolder_4</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contingent Liabilities</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Contin. Liabilities / Total Assets</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1681,7 +1678,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="299">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1829,7 +1826,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2019,9 +2015,6 @@
     <xf numFmtId="179" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -2357,6 +2350,7 @@
     <xf numFmtId="3" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2812,7 +2806,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2826,172 +2820,172 @@
     <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="6" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B4" s="139" t="s">
+        <v>180</v>
+      </c>
+      <c r="C4" s="185" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B5" s="139" t="s">
+        <v>181</v>
+      </c>
+      <c r="C5" s="188" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B6" s="139" t="s">
+        <v>155</v>
+      </c>
+      <c r="C6" s="186">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B7" s="138" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="187">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B8" s="138" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B4" s="140" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="187" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B5" s="140" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="190" t="s">
+      <c r="C8" s="188" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="262"/>
+    </row>
+    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B9" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="189" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B6" s="140" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="188">
-        <v>45639</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B7" s="139" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="189">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B8" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="C8" s="190" t="s">
-        <v>68</v>
-      </c>
-      <c r="E8" s="264"/>
-    </row>
-    <row r="9" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B9" s="139" t="s">
+    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B10" s="138" t="s">
         <v>203</v>
       </c>
-      <c r="C9" s="191" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B10" s="139" t="s">
+      <c r="C10" s="190">
+        <v>1451305728</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B11" s="138" t="s">
         <v>204</v>
       </c>
-      <c r="C10" s="192">
-        <v>1451305728</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B11" s="139" t="s">
+      <c r="C11" s="189" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B12" s="213" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="214">
+        <v>45291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B13" s="213" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="215">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B14" s="213" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="191" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B12" s="215" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="216">
-        <v>45291</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B13" s="215" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="217">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B14" s="215" t="s">
-        <v>206</v>
-      </c>
-      <c r="C14" s="216">
+      <c r="C14" s="214">
         <v>45473</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B15" s="215" t="s">
-        <v>238</v>
-      </c>
-      <c r="C15" s="175" t="s">
-        <v>243</v>
+      <c r="B15" s="213" t="s">
+        <v>236</v>
+      </c>
+      <c r="C15" s="173" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B16" s="219" t="s">
-        <v>94</v>
-      </c>
-      <c r="C16" s="220">
+      <c r="B16" s="217" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="218">
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B17" s="237" t="s">
-        <v>210</v>
-      </c>
-      <c r="C17" s="239" t="s">
-        <v>229</v>
+      <c r="B17" s="235" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D17" s="24"/>
     </row>
     <row r="18" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B18" s="237" t="s">
+      <c r="B18" s="235" t="s">
+        <v>223</v>
+      </c>
+      <c r="C18" s="237" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="24"/>
+    </row>
+    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B19" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="C18" s="239" t="s">
-        <v>229</v>
-      </c>
-      <c r="D18" s="24"/>
-    </row>
-    <row r="19" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B19" s="237" t="s">
-        <v>225</v>
-      </c>
-      <c r="C19" s="239" t="s">
-        <v>229</v>
+      <c r="C19" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D19" s="24"/>
     </row>
     <row r="20" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B20" s="238" t="s">
-        <v>214</v>
-      </c>
-      <c r="C20" s="239" t="s">
-        <v>229</v>
+      <c r="B20" s="236" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D20" s="24"/>
     </row>
     <row r="21" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B21" s="221" t="s">
-        <v>217</v>
-      </c>
-      <c r="C21" s="239" t="s">
-        <v>229</v>
+      <c r="B21" s="219" t="s">
+        <v>216</v>
+      </c>
+      <c r="C21" s="237" t="s">
+        <v>228</v>
       </c>
       <c r="D21" s="24"/>
     </row>
     <row r="22" spans="2:13" ht="78.75" x14ac:dyDescent="0.4">
-      <c r="B22" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C22" s="240" t="s">
-        <v>241</v>
+      <c r="B22" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C22" s="238" t="s">
+        <v>239</v>
       </c>
       <c r="D22" s="24"/>
     </row>
     <row r="24" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B24" s="115" t="s">
-        <v>129</v>
+      <c r="B24" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C24" s="48">
         <f>C12</f>
@@ -3039,473 +3033,474 @@
       </c>
     </row>
     <row r="25" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B25" s="94" t="s">
+      <c r="B25" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="148">
+      <c r="C25" s="147">
         <v>13089628</v>
       </c>
-      <c r="D25" s="148">
+      <c r="D25" s="147">
         <v>14590475</v>
       </c>
-      <c r="E25" s="148">
+      <c r="E25" s="147">
         <v>15326764</v>
       </c>
-      <c r="F25" s="148">
+      <c r="F25" s="147">
         <v>14526102</v>
       </c>
-      <c r="G25" s="148">
+      <c r="G25" s="147">
         <v>18025422</v>
       </c>
-      <c r="H25" s="148"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="148"/>
-      <c r="K25" s="148"/>
-      <c r="L25" s="148"/>
-      <c r="M25" s="148"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
     </row>
     <row r="26" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="148">
+        <v>6368352</v>
+      </c>
+      <c r="D26" s="148">
+        <v>7605791</v>
+      </c>
+      <c r="E26" s="148">
+        <v>6583757</v>
+      </c>
+      <c r="F26" s="148">
+        <v>6139239</v>
+      </c>
+      <c r="G26" s="148">
+        <v>9041440</v>
+      </c>
+      <c r="H26" s="148"/>
+      <c r="I26" s="148"/>
+      <c r="J26" s="148"/>
+      <c r="K26" s="148"/>
+      <c r="L26" s="148"/>
+      <c r="M26" s="148"/>
+    </row>
+    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B27" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="148">
+        <v>1783204</v>
+      </c>
+      <c r="D27" s="148">
+        <v>1720023</v>
+      </c>
+      <c r="E27" s="148">
+        <v>2003343</v>
+      </c>
+      <c r="F27" s="148">
+        <v>1613699</v>
+      </c>
+      <c r="G27" s="148">
+        <v>1602120</v>
+      </c>
+      <c r="H27" s="148"/>
+      <c r="I27" s="148"/>
+      <c r="J27" s="148"/>
+      <c r="K27" s="148"/>
+      <c r="L27" s="148"/>
+      <c r="M27" s="148"/>
+    </row>
+    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B28" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="149">
-        <v>6368352</v>
-      </c>
-      <c r="D26" s="149">
-        <v>7605791</v>
-      </c>
-      <c r="E26" s="149">
-        <v>6583757</v>
-      </c>
-      <c r="F26" s="149">
-        <v>6139239</v>
-      </c>
-      <c r="G26" s="149">
-        <v>9041440</v>
-      </c>
-      <c r="H26" s="149"/>
-      <c r="I26" s="149"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-    </row>
-    <row r="27" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B27" s="97" t="s">
+      <c r="C28" s="148"/>
+      <c r="D28" s="148"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="148"/>
+      <c r="G28" s="148"/>
+      <c r="H28" s="148"/>
+      <c r="I28" s="148"/>
+      <c r="J28" s="148"/>
+      <c r="K28" s="148"/>
+      <c r="L28" s="148"/>
+      <c r="M28" s="148"/>
+    </row>
+    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B29" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C29" s="148">
+        <v>599686</v>
+      </c>
+      <c r="D29" s="148">
+        <v>317225</v>
+      </c>
+      <c r="E29" s="148">
+        <v>562656</v>
+      </c>
+      <c r="F29" s="148">
+        <v>781715</v>
+      </c>
+      <c r="G29" s="148">
+        <v>812565</v>
+      </c>
+      <c r="H29" s="148"/>
+      <c r="I29" s="148"/>
+      <c r="J29" s="148"/>
+      <c r="K29" s="148"/>
+      <c r="L29" s="148"/>
+      <c r="M29" s="148"/>
+    </row>
+    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B30" s="98" t="s">
+        <v>107</v>
+      </c>
+      <c r="C30" s="148">
+        <v>920459</v>
+      </c>
+      <c r="D30" s="148">
+        <v>720106</v>
+      </c>
+      <c r="E30" s="148"/>
+      <c r="F30" s="148"/>
+      <c r="G30" s="148"/>
+      <c r="H30" s="148"/>
+      <c r="I30" s="148"/>
+      <c r="J30" s="148"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+    </row>
+    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B31" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" s="148"/>
+      <c r="D31" s="148"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="148"/>
+      <c r="G31" s="148"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="148"/>
+      <c r="K31" s="148"/>
+      <c r="L31" s="148"/>
+      <c r="M31" s="148"/>
+    </row>
+    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B32" s="96" t="s">
         <v>101</v>
       </c>
-      <c r="C27" s="149">
-        <v>1783204</v>
-      </c>
-      <c r="D27" s="149">
-        <v>1720023</v>
-      </c>
-      <c r="E27" s="149">
-        <v>2003343</v>
-      </c>
-      <c r="F27" s="149">
-        <v>1613699</v>
-      </c>
-      <c r="G27" s="149">
-        <v>1602120</v>
-      </c>
-      <c r="H27" s="149"/>
-      <c r="I27" s="149"/>
-      <c r="J27" s="149"/>
-      <c r="K27" s="149"/>
-      <c r="L27" s="149"/>
-      <c r="M27" s="149"/>
-    </row>
-    <row r="28" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B28" s="97" t="s">
+      <c r="C32" s="148"/>
+      <c r="D32" s="148"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="148"/>
+      <c r="G32" s="148"/>
+      <c r="H32" s="148"/>
+      <c r="I32" s="148"/>
+      <c r="J32" s="148"/>
+      <c r="K32" s="148"/>
+      <c r="L32" s="148"/>
+      <c r="M32" s="148"/>
+    </row>
+    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B33" s="96" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="149"/>
-      <c r="F28" s="149"/>
-      <c r="G28" s="149"/>
-      <c r="H28" s="149"/>
-      <c r="I28" s="149"/>
-      <c r="J28" s="149"/>
-      <c r="K28" s="149"/>
-      <c r="L28" s="149"/>
-      <c r="M28" s="149"/>
-    </row>
-    <row r="29" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B29" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C29" s="149">
-        <v>599686</v>
-      </c>
-      <c r="D29" s="149">
-        <v>317225</v>
-      </c>
-      <c r="E29" s="149">
-        <v>562656</v>
-      </c>
-      <c r="F29" s="149">
-        <v>781715</v>
-      </c>
-      <c r="G29" s="149">
-        <v>812565</v>
-      </c>
-      <c r="H29" s="149"/>
-      <c r="I29" s="149"/>
-      <c r="J29" s="149"/>
-      <c r="K29" s="149"/>
-      <c r="L29" s="149"/>
-      <c r="M29" s="149"/>
-    </row>
-    <row r="30" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B30" s="99" t="s">
-        <v>108</v>
-      </c>
-      <c r="C30" s="149">
-        <v>920459</v>
-      </c>
-      <c r="D30" s="149">
-        <v>720106</v>
-      </c>
-      <c r="E30" s="149"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="149"/>
-      <c r="H30" s="149"/>
-      <c r="I30" s="149"/>
-      <c r="J30" s="149"/>
-      <c r="K30" s="149"/>
-      <c r="L30" s="149"/>
-      <c r="M30" s="149"/>
-    </row>
-    <row r="31" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B31" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C31" s="149"/>
-      <c r="D31" s="149"/>
-      <c r="E31" s="149"/>
-      <c r="F31" s="149"/>
-      <c r="G31" s="149"/>
-      <c r="H31" s="149"/>
-      <c r="I31" s="149"/>
-      <c r="J31" s="149"/>
-      <c r="K31" s="149"/>
-      <c r="L31" s="149"/>
-      <c r="M31" s="149"/>
-    </row>
-    <row r="32" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B32" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C32" s="149"/>
-      <c r="D32" s="149"/>
-      <c r="E32" s="149"/>
-      <c r="F32" s="149"/>
-      <c r="G32" s="149"/>
-      <c r="H32" s="149"/>
-      <c r="I32" s="149"/>
-      <c r="J32" s="149"/>
-      <c r="K32" s="149"/>
-      <c r="L32" s="149"/>
-      <c r="M32" s="149"/>
-    </row>
-    <row r="33" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B33" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C33" s="149"/>
-      <c r="D33" s="149"/>
-      <c r="E33" s="149"/>
-      <c r="F33" s="149"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="149"/>
-      <c r="I33" s="149"/>
-      <c r="J33" s="149"/>
-      <c r="K33" s="149"/>
-      <c r="L33" s="149"/>
-      <c r="M33" s="149"/>
+      <c r="C33" s="148"/>
+      <c r="D33" s="148"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="148"/>
+      <c r="G33" s="148"/>
+      <c r="H33" s="148"/>
+      <c r="I33" s="148"/>
+      <c r="J33" s="148"/>
+      <c r="K33" s="148"/>
+      <c r="L33" s="148"/>
+      <c r="M33" s="148"/>
     </row>
     <row r="34" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="97" t="s">
-        <v>264</v>
-      </c>
-      <c r="C34" s="214"/>
-      <c r="D34" s="149"/>
-      <c r="E34" s="149">
+      <c r="B34" s="96" t="s">
+        <v>261</v>
+      </c>
+      <c r="C34" s="212"/>
+      <c r="D34" s="148"/>
+      <c r="E34" s="148">
         <v>52019578</v>
       </c>
-      <c r="F34" s="149">
+      <c r="F34" s="148">
         <v>46824778</v>
       </c>
-      <c r="G34" s="149">
+      <c r="G34" s="148">
         <v>30542596</v>
       </c>
-      <c r="H34" s="149"/>
-      <c r="I34" s="149"/>
-      <c r="J34" s="149"/>
-      <c r="K34" s="149"/>
-      <c r="L34" s="149"/>
-      <c r="M34" s="149"/>
+      <c r="H34" s="148"/>
+      <c r="I34" s="148"/>
+      <c r="J34" s="148"/>
+      <c r="K34" s="148"/>
+      <c r="L34" s="148"/>
+      <c r="M34" s="148"/>
     </row>
     <row r="35" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B35" s="94" t="s">
-        <v>113</v>
-      </c>
-      <c r="C35" s="214"/>
-      <c r="D35" s="149"/>
-      <c r="E35" s="149"/>
-      <c r="F35" s="149"/>
-      <c r="G35" s="149"/>
-      <c r="H35" s="149"/>
-      <c r="I35" s="149"/>
-      <c r="J35" s="149"/>
-      <c r="K35" s="149"/>
-      <c r="L35" s="149"/>
-      <c r="M35" s="149"/>
+      <c r="B35" s="93" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="212"/>
+      <c r="D35" s="148"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="148"/>
+      <c r="G35" s="148"/>
+      <c r="H35" s="148"/>
+      <c r="I35" s="148"/>
+      <c r="J35" s="148"/>
+      <c r="K35" s="148"/>
+      <c r="L35" s="148"/>
+      <c r="M35" s="148"/>
     </row>
     <row r="36" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B36" s="94" t="s">
-        <v>142</v>
-      </c>
-      <c r="C36" s="214"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="149"/>
-      <c r="F36" s="149"/>
-      <c r="G36" s="149"/>
-      <c r="H36" s="149"/>
-      <c r="I36" s="149"/>
-      <c r="J36" s="149"/>
-      <c r="K36" s="149"/>
-      <c r="L36" s="149"/>
-      <c r="M36" s="149"/>
+      <c r="B36" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="212"/>
+      <c r="D36" s="148"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="148"/>
+      <c r="G36" s="148"/>
+      <c r="H36" s="148"/>
+      <c r="I36" s="148"/>
+      <c r="J36" s="148"/>
+      <c r="K36" s="148"/>
+      <c r="L36" s="148"/>
+      <c r="M36" s="148"/>
     </row>
     <row r="37" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B37" s="94" t="s">
-        <v>262</v>
-      </c>
-      <c r="C37" s="149">
+      <c r="B37" s="93" t="s">
+        <v>260</v>
+      </c>
+      <c r="C37" s="148">
         <v>87275561</v>
       </c>
-      <c r="D37" s="149"/>
-      <c r="E37" s="149">
+      <c r="D37" s="148"/>
+      <c r="E37" s="148">
         <v>22442764</v>
       </c>
-      <c r="F37" s="149">
+      <c r="F37" s="148">
         <v>20617000</v>
       </c>
-      <c r="G37" s="149">
+      <c r="G37" s="148">
         <v>19835482</v>
       </c>
-      <c r="H37" s="149"/>
-      <c r="I37" s="149"/>
-      <c r="J37" s="149"/>
-      <c r="K37" s="149"/>
-      <c r="L37" s="149"/>
-      <c r="M37" s="149"/>
-    </row>
-    <row r="38" spans="2:13" ht="13.9" hidden="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="94" t="s">
-        <v>263</v>
-      </c>
-      <c r="C38" s="214"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="149"/>
-      <c r="F38" s="149"/>
-      <c r="G38" s="149"/>
-      <c r="H38" s="149"/>
-      <c r="I38" s="149"/>
-      <c r="J38" s="149"/>
-      <c r="K38" s="149"/>
-      <c r="L38" s="149"/>
-      <c r="M38" s="149"/>
+      <c r="H37" s="148"/>
+      <c r="I37" s="148"/>
+      <c r="J37" s="148"/>
+      <c r="K37" s="148"/>
+      <c r="L37" s="148"/>
+      <c r="M37" s="148"/>
+    </row>
+    <row r="38" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B38" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="C38" s="148"/>
+      <c r="D38" s="148"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="148"/>
+      <c r="G38" s="148"/>
+      <c r="H38" s="148"/>
+      <c r="I38" s="148"/>
+      <c r="J38" s="148"/>
+      <c r="K38" s="148"/>
+      <c r="L38" s="148"/>
+      <c r="M38" s="148"/>
     </row>
     <row r="39" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B39" s="94" t="s">
+      <c r="B39" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C39" s="214"/>
-      <c r="D39" s="149"/>
-      <c r="E39" s="149">
+      <c r="C39" s="212"/>
+      <c r="D39" s="148"/>
+      <c r="E39" s="148">
         <v>5316310</v>
       </c>
-      <c r="F39" s="149">
+      <c r="F39" s="148">
         <v>6964787</v>
       </c>
-      <c r="G39" s="149">
+      <c r="G39" s="148">
         <v>8544578</v>
       </c>
-      <c r="H39" s="149"/>
-      <c r="I39" s="149"/>
-      <c r="J39" s="149"/>
-      <c r="K39" s="149"/>
-      <c r="L39" s="149"/>
-      <c r="M39" s="149"/>
+      <c r="H39" s="148"/>
+      <c r="I39" s="148"/>
+      <c r="J39" s="148"/>
+      <c r="K39" s="148"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="148"/>
     </row>
     <row r="40" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B40" s="94" t="s">
+      <c r="B40" s="93" t="s">
         <v>18</v>
       </c>
-      <c r="C40" s="214"/>
-      <c r="D40" s="149"/>
-      <c r="E40" s="149">
+      <c r="C40" s="212"/>
+      <c r="D40" s="148"/>
+      <c r="E40" s="148">
         <v>32210595</v>
       </c>
-      <c r="F40" s="149">
+      <c r="F40" s="148">
         <v>37670707</v>
       </c>
-      <c r="G40" s="149">
+      <c r="G40" s="148">
         <v>31147279</v>
       </c>
-      <c r="H40" s="149"/>
-      <c r="I40" s="149"/>
-      <c r="J40" s="149"/>
-      <c r="K40" s="149"/>
-      <c r="L40" s="149"/>
-      <c r="M40" s="149"/>
+      <c r="H40" s="148"/>
+      <c r="I40" s="148"/>
+      <c r="J40" s="148"/>
+      <c r="K40" s="148"/>
+      <c r="L40" s="148"/>
+      <c r="M40" s="148"/>
     </row>
     <row r="41" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B41" s="94" t="s">
+      <c r="B41" s="93" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="148">
+        <v>121156821</v>
+      </c>
+      <c r="D41" s="148"/>
+      <c r="E41" s="148">
+        <v>132313126</v>
+      </c>
+      <c r="F41" s="148">
+        <v>124656340</v>
+      </c>
+      <c r="G41" s="148">
+        <v>115383027</v>
+      </c>
+      <c r="H41" s="148"/>
+      <c r="I41" s="148"/>
+      <c r="J41" s="148"/>
+      <c r="K41" s="148"/>
+      <c r="L41" s="148"/>
+      <c r="M41" s="148"/>
+    </row>
+    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B42" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C41" s="149">
-        <v>121156821</v>
-      </c>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149">
-        <v>132313126</v>
-      </c>
-      <c r="F41" s="149">
-        <v>124656340</v>
-      </c>
-      <c r="G41" s="149">
-        <v>115383027</v>
-      </c>
-      <c r="H41" s="149"/>
-      <c r="I41" s="149"/>
-      <c r="J41" s="149"/>
-      <c r="K41" s="149"/>
-      <c r="L41" s="149"/>
-      <c r="M41" s="149"/>
-    </row>
-    <row r="42" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B42" s="94" t="s">
-        <v>134</v>
-      </c>
-      <c r="C42" s="149">
+      <c r="C42" s="148">
         <v>13900241</v>
       </c>
-      <c r="D42" s="149"/>
-      <c r="E42" s="149"/>
-      <c r="F42" s="149"/>
-      <c r="G42" s="149"/>
-      <c r="H42" s="149"/>
-      <c r="I42" s="149"/>
-      <c r="J42" s="149"/>
-      <c r="K42" s="149"/>
-      <c r="L42" s="149"/>
-      <c r="M42" s="149"/>
+      <c r="D42" s="148"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="148"/>
+      <c r="G42" s="148"/>
+      <c r="H42" s="148"/>
+      <c r="I42" s="148"/>
+      <c r="J42" s="148"/>
+      <c r="K42" s="148"/>
+      <c r="L42" s="148"/>
+      <c r="M42" s="148"/>
     </row>
     <row r="43" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B43" s="94" t="s">
-        <v>132</v>
-      </c>
-      <c r="C43" s="214"/>
-      <c r="D43" s="149"/>
-      <c r="E43" s="149"/>
-      <c r="F43" s="149"/>
-      <c r="G43" s="149"/>
-      <c r="H43" s="149"/>
-      <c r="I43" s="149"/>
-      <c r="J43" s="149"/>
-      <c r="K43" s="149"/>
-      <c r="L43" s="149"/>
-      <c r="M43" s="149"/>
+      <c r="B43" s="93" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="212"/>
+      <c r="D43" s="148"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="148"/>
+      <c r="G43" s="148"/>
+      <c r="H43" s="148"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="148"/>
+      <c r="K43" s="148"/>
+      <c r="L43" s="148"/>
+      <c r="M43" s="148"/>
     </row>
     <row r="44" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B44" s="74" t="s">
-        <v>194</v>
-      </c>
-      <c r="C44" s="247">
+        <v>193</v>
+      </c>
+      <c r="C44" s="245">
         <v>1.3499962549695244</v>
       </c>
-      <c r="D44" s="247"/>
-      <c r="E44" s="247"/>
-      <c r="F44" s="247"/>
-      <c r="G44" s="247"/>
-      <c r="H44" s="247"/>
-      <c r="I44" s="247"/>
-      <c r="J44" s="247"/>
-      <c r="K44" s="247"/>
-      <c r="L44" s="247"/>
-      <c r="M44" s="247"/>
+      <c r="D44" s="245"/>
+      <c r="E44" s="245"/>
+      <c r="F44" s="245"/>
+      <c r="G44" s="245"/>
+      <c r="H44" s="245"/>
+      <c r="I44" s="245"/>
+      <c r="J44" s="245"/>
+      <c r="K44" s="245"/>
+      <c r="L44" s="245"/>
+      <c r="M44" s="245"/>
     </row>
     <row r="45" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B45" s="74" t="s">
-        <v>235</v>
-      </c>
-      <c r="C45" s="151">
+        <v>233</v>
+      </c>
+      <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8815543090100285E-2</v>
-      </c>
-      <c r="D45" s="151" t="str">
+        <v>8.9049884892448833E-2</v>
+      </c>
+      <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="E45" s="151" t="str">
+      <c r="E45" s="150" t="str">
         <f>IF(E44="","",E44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="F45" s="151" t="str">
+      <c r="F45" s="150" t="str">
         <f>IF(F44="","",F44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="G45" s="151" t="str">
+      <c r="G45" s="150" t="str">
         <f>IF(G44="","",G44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="H45" s="151" t="str">
+      <c r="H45" s="150" t="str">
         <f>IF(H44="","",H44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="I45" s="151" t="str">
+      <c r="I45" s="150" t="str">
         <f>IF(I44="","",I44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="J45" s="151" t="str">
+      <c r="J45" s="150" t="str">
         <f>IF(J44="","",J44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="K45" s="151" t="str">
+      <c r="K45" s="150" t="str">
         <f>IF(K44="","",K44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="L45" s="151" t="str">
+      <c r="L45" s="150" t="str">
         <f>IF(L44="","",L44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
-      <c r="M45" s="151" t="str">
+      <c r="M45" s="150" t="str">
         <f>IF(M44="","",M44*Exchange_Rate/Dashboard!$G$3)</f>
         <v/>
       </c>
     </row>
     <row r="47" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B47" s="10" t="s">
-        <v>233</v>
-      </c>
-      <c r="C47" s="193" t="s">
-        <v>31</v>
-      </c>
-      <c r="D47" s="193" t="s">
-        <v>183</v>
-      </c>
-      <c r="E47" s="111" t="s">
-        <v>33</v>
+      <c r="B47" s="10" t="str">
+        <f>"Balance Sheet"&amp;IF(SUM(C48:C72)=C37+C41,"","- Error")</f>
+        <v>Balance Sheet</v>
+      </c>
+      <c r="C47" s="191" t="s">
+        <v>30</v>
+      </c>
+      <c r="D47" s="191" t="s">
+        <v>182</v>
+      </c>
+      <c r="E47" s="110" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="48" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B48" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C48" s="59">
         <v>13539631</v>
@@ -3513,11 +3508,11 @@
       <c r="D48" s="60">
         <v>0.9</v>
       </c>
-      <c r="E48" s="112"/>
+      <c r="E48" s="111"/>
     </row>
     <row r="49" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C49" s="59">
         <v>305449</v>
@@ -3525,11 +3520,11 @@
       <c r="D49" s="60">
         <v>0.8</v>
       </c>
-      <c r="E49" s="112"/>
+      <c r="E49" s="111"/>
     </row>
     <row r="50" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B50" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C50" s="59">
         <f>1787467+193156</f>
@@ -3539,31 +3534,31 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E50" s="112"/>
+      <c r="E50" s="111"/>
     </row>
     <row r="51" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C51" s="59"/>
       <c r="D51" s="60">
         <v>0.6</v>
       </c>
-      <c r="E51" s="112"/>
+      <c r="E51" s="111"/>
     </row>
     <row r="52" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="59"/>
       <c r="D52" s="60">
         <v>0.5</v>
       </c>
-      <c r="E52" s="112"/>
+      <c r="E52" s="111"/>
     </row>
     <row r="53" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C53" s="59">
         <v>5889</v>
@@ -3572,21 +3567,21 @@
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E53" s="112"/>
+      <c r="E53" s="111"/>
     </row>
     <row r="54" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B54" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C54" s="59"/>
       <c r="D54" s="60">
         <v>0.1</v>
       </c>
-      <c r="E54" s="112"/>
+      <c r="E54" s="111"/>
     </row>
     <row r="55" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C55" s="59">
         <v>18623682</v>
@@ -3595,24 +3590,24 @@
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E55" s="112"/>
+      <c r="E55" s="111"/>
     </row>
     <row r="56" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C56" s="59"/>
       <c r="D56" s="60">
         <f>D50</f>
         <v>0.6</v>
       </c>
-      <c r="E56" s="218" t="s">
-        <v>43</v>
+      <c r="E56" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C57" s="59">
         <v>23436237</v>
@@ -3620,13 +3615,13 @@
       <c r="D57" s="60">
         <v>0.6</v>
       </c>
-      <c r="E57" s="218" t="s">
-        <v>43</v>
+      <c r="E57" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B58" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C58" s="59">
         <f>325570+189255</f>
@@ -3636,33 +3631,33 @@
         <f>D48</f>
         <v>0.9</v>
       </c>
-      <c r="E58" s="112"/>
+      <c r="E58" s="111"/>
     </row>
     <row r="59" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B59" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59" s="119"/>
-      <c r="D59" s="194">
+        <v>47</v>
+      </c>
+      <c r="C59" s="118"/>
+      <c r="D59" s="192">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E59" s="112"/>
+      <c r="E59" s="111"/>
     </row>
     <row r="60" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60" s="59"/>
       <c r="D60" s="60">
         <f>D49</f>
         <v>0.8</v>
       </c>
-      <c r="E60" s="112"/>
+      <c r="E60" s="111"/>
     </row>
     <row r="61" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B61" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" s="59">
         <f>758168+650701</f>
@@ -3672,22 +3667,22 @@
         <f>D51</f>
         <v>0.6</v>
       </c>
-      <c r="E61" s="112"/>
+      <c r="E61" s="111"/>
     </row>
     <row r="62" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C62" s="59"/>
       <c r="D62" s="60">
         <f>D52</f>
         <v>0.5</v>
       </c>
-      <c r="E62" s="112"/>
+      <c r="E62" s="111"/>
     </row>
     <row r="63" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C63" s="59">
         <v>582318</v>
@@ -3696,11 +3691,11 @@
         <f>D62</f>
         <v>0.5</v>
       </c>
-      <c r="E63" s="112"/>
+      <c r="E63" s="111"/>
     </row>
     <row r="64" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C64" s="59">
         <v>898512</v>
@@ -3708,11 +3703,11 @@
       <c r="D64" s="60">
         <v>0.4</v>
       </c>
-      <c r="E64" s="112"/>
+      <c r="E64" s="111"/>
     </row>
     <row r="65" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C65" s="59">
         <v>24823141</v>
@@ -3720,13 +3715,13 @@
       <c r="D65" s="60">
         <v>0.1</v>
       </c>
-      <c r="E65" s="218" t="s">
-        <v>68</v>
+      <c r="E65" s="216" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="66" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C66" s="59">
         <v>76964829</v>
@@ -3734,13 +3729,13 @@
       <c r="D66" s="60">
         <v>0.3</v>
       </c>
-      <c r="E66" s="218" t="s">
-        <v>43</v>
+      <c r="E66" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C67" s="59">
         <v>39222688</v>
@@ -3748,13 +3743,13 @@
       <c r="D67" s="60">
         <v>0.2</v>
       </c>
-      <c r="E67" s="218" t="s">
-        <v>43</v>
+      <c r="E67" s="216" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="68" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C68" s="59">
         <f>4323428+1679757</f>
@@ -3764,22 +3759,22 @@
         <f>D65</f>
         <v>0.1</v>
       </c>
-      <c r="E68" s="112"/>
+      <c r="E68" s="111"/>
     </row>
     <row r="69" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C69" s="59"/>
       <c r="D69" s="60">
         <f>D70</f>
         <v>0.05</v>
       </c>
-      <c r="E69" s="112"/>
+      <c r="E69" s="111"/>
     </row>
     <row r="70" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C70" s="59">
         <v>122504</v>
@@ -3787,32 +3782,32 @@
       <c r="D70" s="60">
         <v>0.05</v>
       </c>
-      <c r="E70" s="112"/>
+      <c r="E70" s="111"/>
     </row>
     <row r="71" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="60">
         <f>D58</f>
         <v>0.9</v>
       </c>
-      <c r="E71" s="112"/>
+      <c r="E71" s="111"/>
     </row>
     <row r="72" spans="2:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="243" t="s">
-        <v>73</v>
-      </c>
-      <c r="C72" s="244"/>
-      <c r="D72" s="245">
+      <c r="B72" s="241" t="s">
+        <v>72</v>
+      </c>
+      <c r="C72" s="242"/>
+      <c r="D72" s="243">
         <v>0</v>
       </c>
-      <c r="E72" s="246"/>
+      <c r="E72" s="244"/>
     </row>
     <row r="73" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C73" s="59">
         <v>6636214</v>
@@ -3820,7 +3815,7 @@
     </row>
     <row r="74" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C74" s="59">
         <v>43646</v>
@@ -3828,15 +3823,15 @@
     </row>
     <row r="75" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C75" s="59"/>
     </row>
     <row r="76" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B76" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C76" s="119">
+      <c r="B76" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="118">
         <v>114041</v>
       </c>
     </row>
@@ -3844,13 +3839,13 @@
       <c r="B77" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="C77" s="83">
+      <c r="C77" s="82">
         <v>25845852</v>
       </c>
     </row>
     <row r="78" spans="2:5" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C78" s="59">
         <f>48494864+2237084</f>
@@ -3859,7 +3854,7 @@
     </row>
     <row r="79" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C79" s="59">
         <v>40529</v>
@@ -3867,79 +3862,79 @@
     </row>
     <row r="80" spans="2:5" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" s="59"/>
+    </row>
+    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
+      <c r="B81" s="85" t="s">
         <v>63</v>
       </c>
-      <c r="C80" s="59"/>
-    </row>
-    <row r="81" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B81" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C81" s="119">
+      <c r="C81" s="118">
         <v>278874</v>
       </c>
     </row>
     <row r="82" spans="2:8" ht="14.25" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B82" s="80" t="s">
-        <v>267</v>
-      </c>
-      <c r="C82" s="214">
+        <v>264</v>
+      </c>
+      <c r="C82" s="212">
         <v>61429709</v>
       </c>
     </row>
     <row r="83" spans="2:8" ht="14.25" hidden="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B83" s="73" t="s">
-        <v>268</v>
-      </c>
-      <c r="C83" s="214">
+        <v>265</v>
+      </c>
+      <c r="C83" s="212">
         <v>107256580</v>
       </c>
     </row>
     <row r="84" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B84" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C84" s="59"/>
     </row>
     <row r="85" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B85" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" s="59"/>
     </row>
     <row r="86" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B86" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="C86" s="196">
+        <v>232</v>
+      </c>
+      <c r="C86" s="194">
         <v>5</v>
       </c>
     </row>
     <row r="87" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B87" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="C87" s="233" t="s">
-        <v>272</v>
-      </c>
-      <c r="D87" s="266">
+        <v>231</v>
+      </c>
+      <c r="C87" s="231" t="s">
+        <v>271</v>
+      </c>
+      <c r="D87" s="264">
         <v>0.02</v>
       </c>
     </row>
     <row r="89" spans="2:8" ht="13.5" x14ac:dyDescent="0.35">
-      <c r="B89" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C89" s="283">
+      <c r="B89" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="282">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="283"/>
-      <c r="E89" s="89" t="s">
-        <v>193</v>
-      </c>
-      <c r="F89" s="89" t="s">
+      <c r="D89" s="282"/>
+      <c r="E89" s="88" t="s">
         <v>192</v>
+      </c>
+      <c r="F89" s="88" t="s">
+        <v>191</v>
       </c>
       <c r="H89" s="31"/>
     </row>
@@ -3948,166 +3943,166 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="284" t="s">
+      <c r="C90" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D90" s="283"/>
+      <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
-      <c r="D90" s="284"/>
-      <c r="E90" s="232" t="s">
-        <v>99</v>
-      </c>
-      <c r="F90" s="252" t="s">
-        <v>99</v>
+      <c r="F90" s="250" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C91" s="77">
         <f>C25</f>
         <v>13089628</v>
       </c>
-      <c r="D91" s="206"/>
-      <c r="E91" s="248">
+      <c r="D91" s="204"/>
+      <c r="E91" s="246">
         <f>C91</f>
         <v>13089628</v>
       </c>
-      <c r="F91" s="248">
+      <c r="F91" s="246">
         <f>C91</f>
         <v>13089628</v>
       </c>
     </row>
     <row r="92" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B92" s="104" t="s">
-        <v>103</v>
+      <c r="B92" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C92" s="77">
         <f>C26</f>
         <v>6368352</v>
       </c>
-      <c r="D92" s="158">
+      <c r="D92" s="156">
         <f>C92/C91</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="E92" s="249">
+      <c r="E92" s="247">
         <f>E91*D92</f>
         <v>6368352</v>
       </c>
-      <c r="F92" s="249">
+      <c r="F92" s="247">
         <f>F91*D92</f>
         <v>6368352</v>
       </c>
     </row>
     <row r="93" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B93" s="104" t="s">
-        <v>231</v>
+      <c r="B93" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C93" s="77">
         <f>C27+C28</f>
         <v>1783204</v>
       </c>
-      <c r="D93" s="158">
+      <c r="D93" s="156">
         <f>C93/C91</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="E93" s="249">
+      <c r="E93" s="247">
         <f>E91*D93</f>
         <v>1783204</v>
       </c>
-      <c r="F93" s="249">
+      <c r="F93" s="247">
         <f>F91*D93</f>
         <v>1783204</v>
       </c>
     </row>
     <row r="94" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B94" s="104" t="s">
-        <v>239</v>
+      <c r="B94" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C94" s="77">
         <f>C29</f>
         <v>599686</v>
       </c>
-      <c r="D94" s="158">
+      <c r="D94" s="156">
         <f>C94/C91</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="E94" s="250"/>
-      <c r="F94" s="249">
+      <c r="E94" s="248"/>
+      <c r="F94" s="247">
         <f>F91*D94</f>
         <v>599686</v>
       </c>
     </row>
     <row r="95" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B95" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C95" s="77">
         <f>ABS(MAX(C33,0)-C32)</f>
         <v>0</v>
       </c>
-      <c r="D95" s="158">
+      <c r="D95" s="156">
         <f>C95/C91</f>
         <v>0</v>
       </c>
-      <c r="E95" s="249">
+      <c r="E95" s="247">
         <f>E91*D95</f>
         <v>0</v>
       </c>
-      <c r="F95" s="249">
+      <c r="F95" s="247">
         <f>F91*D95</f>
         <v>0</v>
       </c>
     </row>
     <row r="96" spans="2:8" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B96" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C96" s="77">
         <f>MAX(C31,0)</f>
         <v>0</v>
       </c>
-      <c r="D96" s="158">
+      <c r="D96" s="156">
         <f>C96/C91</f>
         <v>0</v>
       </c>
-      <c r="E96" s="250"/>
-      <c r="F96" s="249">
+      <c r="E96" s="248"/>
+      <c r="F96" s="247">
         <f>F91*D96</f>
         <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B97" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" s="77">
         <f>MAX(C30,0)/(1-C16)</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D97" s="158">
+      <c r="D97" s="156">
         <f>C97/C91</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="E97" s="250"/>
-      <c r="F97" s="249">
+      <c r="E97" s="248"/>
+      <c r="F97" s="247">
         <f>F91*D97</f>
         <v>1227278.6666666667</v>
       </c>
     </row>
     <row r="98" spans="2:7" ht="13.9" x14ac:dyDescent="0.4">
-      <c r="B98" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C98" s="234">
+      <c r="B98" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C98" s="232">
         <f>C44</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="D98" s="263"/>
-      <c r="E98" s="251">
+      <c r="D98" s="261"/>
+      <c r="E98" s="249">
         <f>F98*50%</f>
         <v>0.67499812748476218</v>
       </c>
-      <c r="F98" s="251">
+      <c r="F98" s="249">
         <f>C98</f>
         <v>1.3499962549695244</v>
       </c>
@@ -4120,32 +4115,32 @@
   </mergeCells>
   <phoneticPr fontId="20" type="noConversion"/>
   <conditionalFormatting sqref="C16 C25:M33 D34:M43 C44:M44 E91:F93 F94 E95:F95 F96:F98">
-    <cfRule type="containsBlanks" dxfId="22" priority="14">
+    <cfRule type="containsBlanks" dxfId="22" priority="15">
       <formula>LEN(TRIM(C16))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C37">
-    <cfRule type="containsBlanks" dxfId="21" priority="3">
+  <conditionalFormatting sqref="C37:C38">
+    <cfRule type="containsBlanks" dxfId="21" priority="1">
       <formula>LEN(TRIM(C37))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C41:C42">
-    <cfRule type="containsBlanks" dxfId="20" priority="1">
+    <cfRule type="containsBlanks" dxfId="20" priority="2">
       <formula>LEN(TRIM(C41))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C87">
-    <cfRule type="containsBlanks" dxfId="19" priority="7">
+    <cfRule type="containsBlanks" dxfId="19" priority="8">
       <formula>LEN(TRIM(C87))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C98">
-    <cfRule type="containsBlanks" dxfId="18" priority="6">
+    <cfRule type="containsBlanks" dxfId="18" priority="7">
       <formula>LEN(TRIM(C98))=0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E98">
-    <cfRule type="containsBlanks" dxfId="17" priority="4">
+    <cfRule type="containsBlanks" dxfId="17" priority="5">
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4204,13 +4199,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="87"/>
-      <c r="H1" s="87"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
@@ -4221,82 +4216,82 @@
         <f>C3&amp;" : "&amp;C4</f>
         <v>0683.HK : 嘉里建設</v>
       </c>
-      <c r="D2" s="87"/>
+      <c r="D2" s="86"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="85"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="C3" s="289" t="str">
+        <v>180</v>
+      </c>
+      <c r="C3" s="288" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="290"/>
-      <c r="E3" s="87"/>
+      <c r="D3" s="289"/>
+      <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G3" s="131">
-        <v>15.2</v>
-      </c>
-      <c r="H3" s="133" t="s">
-        <v>273</v>
+      <c r="G3" s="130">
+        <v>15.16</v>
+      </c>
+      <c r="H3" s="132" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="291" t="str">
+        <v>181</v>
+      </c>
+      <c r="C4" s="290" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="292"/>
-      <c r="E4" s="87"/>
+      <c r="D4" s="291"/>
+      <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="295">
+      <c r="G4" s="294">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="295"/>
+      <c r="H4" s="294"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C5" s="293">
+        <v>155</v>
+      </c>
+      <c r="C5" s="292">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="294"/>
+      <c r="D5" s="293"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="287">
+        <v>96</v>
+      </c>
+      <c r="G5" s="286">
         <f>G3*G4/1000000</f>
-        <v>22059.847065599999</v>
-      </c>
-      <c r="H5" s="287"/>
+        <v>22001.79483648</v>
+      </c>
+      <c r="H5" s="286"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="184">
+      <c r="C6" s="182">
         <f>Inputs!C7</f>
         <v>8</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="183">
         <f>EOMONTH(EDATE(Fin_Analysis!D9,C6),0)</f>
         <v>45716</v>
       </c>
@@ -4307,30 +4302,30 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="288" t="str">
+      <c r="G6" s="287" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="288"/>
+      <c r="H6" s="287"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="86" t="s">
-        <v>179</v>
-      </c>
-      <c r="C7" s="186" t="str">
+      <c r="B7" s="85" t="s">
+        <v>178</v>
+      </c>
+      <c r="C7" s="184" t="str">
         <f>Inputs!C8</f>
         <v>N</v>
       </c>
-      <c r="D7" s="186" t="str">
+      <c r="D7" s="184" t="str">
         <f>Inputs!C9</f>
         <v>C0005</v>
       </c>
-      <c r="E7" s="87"/>
+      <c r="E7" s="86"/>
       <c r="F7" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="132">
+      <c r="G7" s="131">
         <v>1</v>
       </c>
       <c r="H7" s="71" t="str">
@@ -4340,280 +4335,280 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="138" t="s">
-        <v>178</v>
-      </c>
-      <c r="F9" s="142" t="s">
-        <v>173</v>
+      <c r="B9" s="137" t="s">
+        <v>177</v>
+      </c>
+      <c r="F9" s="141" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="C10" s="171">
+        <v>163</v>
+      </c>
+      <c r="C10" s="169">
         <v>4.2000000000000003E-2</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>171</v>
+      <c r="F10" s="109" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="121" t="s">
-        <v>168</v>
-      </c>
-      <c r="C11" s="172">
+      <c r="B11" s="120" t="s">
+        <v>167</v>
+      </c>
+      <c r="C11" s="170">
         <v>5.2299999999999999E-2</v>
       </c>
-      <c r="D11" s="136" t="s">
-        <v>177</v>
-      </c>
-      <c r="F11" s="110" t="s">
-        <v>166</v>
+      <c r="D11" s="135" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="87" t="s">
-        <v>236</v>
-      </c>
-      <c r="C12" s="173">
+      <c r="B12" s="86" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="171">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="D12" s="171">
+      <c r="D12" s="169">
         <v>8.0625000000000002E-2</v>
       </c>
-      <c r="F12" s="110"/>
+      <c r="F12" s="109"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C14" s="171">
+        <v>164</v>
+      </c>
+      <c r="C14" s="169">
         <v>1.8100000000000002E-2</v>
       </c>
-      <c r="F14" s="110" t="s">
-        <v>170</v>
+      <c r="F14" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C15" s="169">
+        <v>6.5000000000000002E-2</v>
+      </c>
+      <c r="F15" s="109" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B16" s="120" t="s">
         <v>174</v>
       </c>
-      <c r="C15" s="171">
-        <v>6.5000000000000002E-2</v>
-      </c>
-      <c r="F15" s="110" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B16" s="121" t="s">
-        <v>175</v>
-      </c>
-      <c r="C16" s="172">
+      <c r="C16" s="170">
         <v>0.16</v>
       </c>
-      <c r="D16" s="262" t="str">
+      <c r="D16" s="260" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
-      <c r="F16" s="110" t="s">
-        <v>167</v>
+      <c r="F16" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="87" t="s">
-        <v>237</v>
-      </c>
-      <c r="C17" s="174">
+      <c r="B17" s="86" t="s">
+        <v>235</v>
+      </c>
+      <c r="C17" s="172">
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D17" s="175"/>
+      <c r="D17" s="173"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="19" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="141" t="s">
-        <v>261</v>
-      </c>
-      <c r="C19" s="134" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="141" t="s">
-        <v>199</v>
-      </c>
-      <c r="G19" s="87"/>
-      <c r="H19" s="87"/>
+      <c r="B19" s="140" t="s">
+        <v>259</v>
+      </c>
+      <c r="C19" s="133" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="140" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
     </row>
     <row r="20" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="272" t="s">
-        <v>252</v>
-      </c>
-      <c r="C20" s="273">
+      <c r="B20" s="270" t="s">
+        <v>250</v>
+      </c>
+      <c r="C20" s="271">
         <f>C23*C22*(1/C21)</f>
         <v>3.4597349023559508E-2</v>
       </c>
-      <c r="F20" s="87" t="s">
-        <v>198</v>
-      </c>
-      <c r="G20" s="171">
+      <c r="F20" s="86" t="s">
+        <v>197</v>
+      </c>
+      <c r="G20" s="169">
         <v>0.15</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="274" t="s">
-        <v>250</v>
-      </c>
-      <c r="C21" s="275">
+      <c r="B21" s="272" t="s">
+        <v>248</v>
+      </c>
+      <c r="C21" s="273">
         <f>Data!C53</f>
         <v>0.51458693208236717</v>
       </c>
-      <c r="F21" s="87"/>
+      <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="276" t="s">
-        <v>265</v>
-      </c>
-      <c r="C22" s="277">
+      <c r="B22" s="274" t="s">
+        <v>262</v>
+      </c>
+      <c r="C22" s="275">
         <f>Data!C48</f>
         <v>6.2800357000190113E-2</v>
       </c>
-      <c r="F22" s="141" t="s">
-        <v>172</v>
+      <c r="F22" s="140" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="278" t="s">
-        <v>257</v>
-      </c>
-      <c r="C23" s="279">
+      <c r="B23" s="276" t="s">
+        <v>255</v>
+      </c>
+      <c r="C23" s="277">
         <f>Data!C13</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="F23" s="139" t="s">
-        <v>176</v>
-      </c>
-      <c r="G23" s="176">
+      <c r="F23" s="138" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.1820768066009259</v>
+        <v>0.18159765710987083</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="136" t="s">
-        <v>258</v>
-      </c>
-      <c r="C24" s="170">
+      <c r="B24" s="135" t="s">
+        <v>256</v>
+      </c>
+      <c r="C24" s="168">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="F24" s="139" t="s">
-        <v>242</v>
-      </c>
-      <c r="G24" s="265">
+      <c r="F24" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4542316511098612</v>
+        <v>9.4293520941332574</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="136" t="s">
-        <v>259</v>
-      </c>
-      <c r="C25" s="170">
+      <c r="B25" s="135" t="s">
+        <v>257</v>
+      </c>
+      <c r="C25" s="168">
         <f>Fin_Analysis!I80</f>
         <v>0</v>
       </c>
-      <c r="F25" s="139" t="s">
-        <v>163</v>
-      </c>
-      <c r="G25" s="170">
+      <c r="F25" s="138" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="168">
         <f>Fin_Analysis!I88</f>
         <v>0.83968271859293786</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="137" t="s">
-        <v>260</v>
-      </c>
-      <c r="C26" s="170">
+      <c r="B26" s="136" t="s">
+        <v>258</v>
+      </c>
+      <c r="C26" s="168">
         <f>Fin_Analysis!I80+Fin_Analysis!I82</f>
         <v>0</v>
       </c>
-      <c r="F26" s="140" t="s">
-        <v>180</v>
-      </c>
-      <c r="G26" s="177">
+      <c r="F26" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8815543090100285E-2</v>
+        <v>8.9049884892448833E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="28" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90" t="s">
+      <c r="B28" s="89" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="89" t="s">
+      <c r="C28" s="88" t="s">
+        <v>158</v>
+      </c>
+      <c r="D28" s="43" t="s">
         <v>159</v>
-      </c>
-      <c r="D28" s="43" t="s">
-        <v>160</v>
       </c>
       <c r="E28" s="58"/>
       <c r="F28" s="53" t="s">
-        <v>223</v>
-      </c>
-      <c r="G28" s="285" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="285"/>
+        <v>222</v>
+      </c>
+      <c r="G28" s="284" t="s">
+        <v>238</v>
+      </c>
+      <c r="H28" s="284"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="87" t="s">
-        <v>161</v>
-      </c>
-      <c r="C29" s="129">
+      <c r="B29" s="86" t="s">
+        <v>160</v>
+      </c>
+      <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2947423345414357</v>
-      </c>
-      <c r="D29" s="128">
+        <v>6.2982741262554356</v>
+      </c>
+      <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.711942526087903</v>
-      </c>
-      <c r="E29" s="87"/>
-      <c r="F29" s="130">
+        <v>23.737470687378366</v>
+      </c>
+      <c r="E29" s="86"/>
+      <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.899108408896128</v>
-      </c>
-      <c r="G29" s="286">
+        <v>10.909219787134749</v>
+      </c>
+      <c r="G29" s="285">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.619080457467742</v>
-      </c>
-      <c r="H29" s="286"/>
+        <v>20.641278858589885</v>
+      </c>
+      <c r="H29" s="285"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="5"/>
       <c r="B31" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C31"/>
     </row>
     <row r="32" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32"/>
-      <c r="B32" s="195" t="s">
-        <v>209</v>
-      </c>
-      <c r="C32" s="221"/>
+      <c r="B32" s="193" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="219"/>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33"/>
       <c r="B33" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="C33" s="242" t="str">
+        <v>209</v>
+      </c>
+      <c r="C33" s="240" t="str">
         <f>Inputs!C17</f>
         <v>unclear</v>
       </c>
@@ -4621,9 +4616,9 @@
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34"/>
       <c r="B34" s="19" t="s">
-        <v>211</v>
-      </c>
-      <c r="C34" s="222" t="str">
+        <v>210</v>
+      </c>
+      <c r="C34" s="220" t="str">
         <f>IF(AND(OR(Fin_Analysis!I26&lt;0.8,Fin_Analysis!I46&lt;0.6),Data!C54&lt;0.8),"Strongly disagree",
 IF(AND(OR(Fin_Analysis!I26&lt;1,Fin_Analysis!I46&lt;0.8),Data!C54&lt;1),"unclear", IF(AND(OR(Fin_Analysis!I26&lt;1.4,Fin_Analysis!I46&lt;1.2),Data!C54&lt;1.4),"agree","Strongly agree")))</f>
         <v>Strongly disagree</v>
@@ -4631,17 +4626,17 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35"/>
-      <c r="B35" s="195" t="s">
-        <v>212</v>
-      </c>
-      <c r="C35" s="221"/>
+      <c r="B35" s="193" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="219"/>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36"/>
       <c r="B36" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C36" s="242" t="str">
+        <v>223</v>
+      </c>
+      <c r="C36" s="240" t="str">
         <f>Inputs!C18</f>
         <v>unclear</v>
       </c>
@@ -4649,26 +4644,26 @@
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37"/>
       <c r="B37" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="C37" s="242" t="str">
+        <v>224</v>
+      </c>
+      <c r="C37" s="240" t="str">
         <f>Inputs!C19</f>
         <v>unclear</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38"/>
-      <c r="B38" s="195" t="s">
-        <v>213</v>
-      </c>
-      <c r="C38" s="221"/>
+      <c r="B38" s="193" t="s">
+        <v>212</v>
+      </c>
+      <c r="C38" s="219"/>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39"/>
       <c r="B39" s="19" t="s">
-        <v>214</v>
-      </c>
-      <c r="C39" s="242" t="str">
+        <v>213</v>
+      </c>
+      <c r="C39" s="240" t="str">
         <f>Inputs!C20</f>
         <v>unclear</v>
       </c>
@@ -4676,9 +4671,9 @@
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40"/>
       <c r="B40" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C40" s="242" t="str">
+        <v>216</v>
+      </c>
+      <c r="C40" s="240" t="str">
         <f>Inputs!C21</f>
         <v>unclear</v>
       </c>
@@ -4691,16 +4686,16 @@
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="5"/>
       <c r="B42" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42"/>
     </row>
     <row r="43" spans="1:3" ht="65.650000000000006" x14ac:dyDescent="0.4">
       <c r="A43"/>
-      <c r="B43" s="223" t="s">
-        <v>216</v>
-      </c>
-      <c r="C43" s="241" t="str">
+      <c r="B43" s="221" t="s">
+        <v>215</v>
+      </c>
+      <c r="C43" s="239" t="str">
         <f>Inputs!C22</f>
         <v>Unclear</v>
       </c>
@@ -5652,10 +5647,10 @@
   </sheetPr>
   <dimension ref="A1:N930"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection activeCell="A4" sqref="A4"/>
-      <selection pane="topRight" activeCell="C2" sqref="C2"/>
+      <selection pane="topRight" activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -5681,59 +5676,59 @@
       </c>
       <c r="C2" s="18"/>
       <c r="D2" s="17"/>
-      <c r="E2" s="147" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="118" t="s">
+      <c r="E2" s="146" t="s">
+        <v>185</v>
+      </c>
+      <c r="F2" s="117" t="s">
+        <v>188</v>
+      </c>
+      <c r="G2" s="146" t="s">
         <v>189</v>
       </c>
-      <c r="G2" s="147" t="s">
+      <c r="H2" s="145" t="s">
         <v>190</v>
       </c>
-      <c r="H2" s="146" t="s">
-        <v>191</v>
-      </c>
       <c r="I2" s="7"/>
-      <c r="J2" s="87"/>
+      <c r="J2" s="86"/>
       <c r="K2" s="7"/>
       <c r="L2" s="7"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
-      <c r="B3" s="103" t="s">
+      <c r="B3" s="102" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="200">
+      <c r="C3" s="198">
         <f>Inputs!C12</f>
         <v>45291</v>
       </c>
-      <c r="E3" s="145" t="s">
-        <v>187</v>
-      </c>
-      <c r="F3" s="85" t="str">
+      <c r="E3" s="144" t="s">
+        <v>186</v>
+      </c>
+      <c r="F3" s="84" t="str">
         <f>H14</f>
         <v/>
       </c>
-      <c r="G3" s="85">
+      <c r="G3" s="84">
         <f>C14</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="H3" s="85">
+      <c r="H3" s="84">
         <v>6</v>
       </c>
-      <c r="I3" s="87"/>
+      <c r="I3" s="86"/>
       <c r="J3" s="42"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
+      <c r="K3" s="86"/>
+      <c r="L3" s="86"/>
+      <c r="M3" s="86"/>
     </row>
     <row r="4" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="102" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="127">
+      <c r="C4" s="126">
         <f>Inputs!C13</f>
         <v>1000</v>
       </c>
@@ -5741,19 +5736,19 @@
         <f>Dashboard!G6</f>
         <v>HKD</v>
       </c>
-      <c r="E4" s="145" t="s">
-        <v>188</v>
-      </c>
-      <c r="F4" s="93" t="e">
+      <c r="E4" s="144" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="92" t="e">
         <f>(G3/F3)^(1/H3)-1</f>
         <v>#VALUE!</v>
       </c>
-      <c r="J4" s="87"/>
+      <c r="J4" s="86"/>
     </row>
     <row r="5" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
-      <c r="B5" s="115" t="s">
-        <v>129</v>
+      <c r="B5" s="114" t="s">
+        <v>128</v>
       </c>
       <c r="C5" s="48">
         <f>C3</f>
@@ -5802,928 +5797,928 @@
     </row>
     <row r="6" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="93" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="199">
+      <c r="C6" s="197">
         <f>IF(Inputs!C25=""," ",Inputs!C25)</f>
         <v>13089628</v>
       </c>
-      <c r="D6" s="199">
+      <c r="D6" s="197">
         <f>IF(Inputs!D25="","",Inputs!D25)</f>
         <v>14590475</v>
       </c>
-      <c r="E6" s="199">
+      <c r="E6" s="197">
         <f>IF(Inputs!E25="","",Inputs!E25)</f>
         <v>15326764</v>
       </c>
-      <c r="F6" s="199">
+      <c r="F6" s="197">
         <f>IF(Inputs!F25="","",Inputs!F25)</f>
         <v>14526102</v>
       </c>
-      <c r="G6" s="199">
+      <c r="G6" s="197">
         <f>IF(Inputs!G25="","",Inputs!G25)</f>
         <v>18025422</v>
       </c>
-      <c r="H6" s="199" t="str">
+      <c r="H6" s="197" t="str">
         <f>IF(Inputs!H25="","",Inputs!H25)</f>
         <v/>
       </c>
-      <c r="I6" s="199" t="str">
+      <c r="I6" s="197" t="str">
         <f>IF(Inputs!I25="","",Inputs!I25)</f>
         <v/>
       </c>
-      <c r="J6" s="199" t="str">
+      <c r="J6" s="197" t="str">
         <f>IF(Inputs!J25="","",Inputs!J25)</f>
         <v/>
       </c>
-      <c r="K6" s="199" t="str">
+      <c r="K6" s="197" t="str">
         <f>IF(Inputs!K25="","",Inputs!K25)</f>
         <v/>
       </c>
-      <c r="L6" s="199" t="str">
+      <c r="L6" s="197" t="str">
         <f>IF(Inputs!L25="","",Inputs!L25)</f>
         <v/>
       </c>
-      <c r="M6" s="199" t="str">
+      <c r="M6" s="197" t="str">
         <f>IF(Inputs!M25="","",Inputs!M25)</f>
         <v/>
       </c>
-      <c r="N6" s="87"/>
+      <c r="N6" s="86"/>
     </row>
     <row r="7" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
-      <c r="B7" s="96" t="s">
+      <c r="B7" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="92">
+      <c r="C7" s="91">
         <f t="shared" ref="C7:M7" si="1">IF(D6="","",C6/D6-1)</f>
         <v>-0.10286484847134858</v>
       </c>
-      <c r="D7" s="92">
+      <c r="D7" s="91">
         <f t="shared" si="1"/>
         <v>-4.8039429588659366E-2</v>
       </c>
-      <c r="E7" s="92">
+      <c r="E7" s="91">
         <f t="shared" si="1"/>
         <v>5.511884743753015E-2</v>
       </c>
-      <c r="F7" s="92">
+      <c r="F7" s="91">
         <f t="shared" si="1"/>
         <v>-0.19413248688435703</v>
       </c>
-      <c r="G7" s="92" t="str">
+      <c r="G7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="H7" s="92" t="str">
+      <c r="H7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="I7" s="92" t="str">
+      <c r="I7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="J7" s="92" t="str">
+      <c r="J7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="K7" s="92" t="str">
+      <c r="K7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="L7" s="92" t="str">
+      <c r="L7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="M7" s="92" t="str">
+      <c r="M7" s="91" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="N7" s="87"/>
+      <c r="N7" s="86"/>
     </row>
     <row r="8" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
-      <c r="B8" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="C8" s="198">
+      <c r="B8" s="96" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8" s="196">
         <f>IF(Inputs!C26="","",Inputs!C26)</f>
         <v>6368352</v>
       </c>
-      <c r="D8" s="198">
+      <c r="D8" s="196">
         <f>IF(Inputs!D26="","",Inputs!D26)</f>
         <v>7605791</v>
       </c>
-      <c r="E8" s="198">
+      <c r="E8" s="196">
         <f>IF(Inputs!E26="","",Inputs!E26)</f>
         <v>6583757</v>
       </c>
-      <c r="F8" s="198">
+      <c r="F8" s="196">
         <f>IF(Inputs!F26="","",Inputs!F26)</f>
         <v>6139239</v>
       </c>
-      <c r="G8" s="198">
+      <c r="G8" s="196">
         <f>IF(Inputs!G26="","",Inputs!G26)</f>
         <v>9041440</v>
       </c>
-      <c r="H8" s="198" t="str">
+      <c r="H8" s="196" t="str">
         <f>IF(Inputs!H26="","",Inputs!H26)</f>
         <v/>
       </c>
-      <c r="I8" s="198" t="str">
+      <c r="I8" s="196" t="str">
         <f>IF(Inputs!I26="","",Inputs!I26)</f>
         <v/>
       </c>
-      <c r="J8" s="198" t="str">
+      <c r="J8" s="196" t="str">
         <f>IF(Inputs!J26="","",Inputs!J26)</f>
         <v/>
       </c>
-      <c r="K8" s="198" t="str">
+      <c r="K8" s="196" t="str">
         <f>IF(Inputs!K26="","",Inputs!K26)</f>
         <v/>
       </c>
-      <c r="L8" s="198" t="str">
+      <c r="L8" s="196" t="str">
         <f>IF(Inputs!L26="","",Inputs!L26)</f>
         <v/>
       </c>
-      <c r="M8" s="198" t="str">
+      <c r="M8" s="196" t="str">
         <f>IF(Inputs!M26="","",Inputs!M26)</f>
         <v/>
       </c>
-      <c r="N8" s="87"/>
+      <c r="N8" s="86"/>
     </row>
     <row r="9" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
-      <c r="B9" s="98" t="s">
-        <v>100</v>
-      </c>
-      <c r="C9" s="150">
+      <c r="B9" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="149">
         <f t="shared" ref="C9:M9" si="2">IF(C6="","",(C6-C8))</f>
         <v>6721276</v>
       </c>
-      <c r="D9" s="150">
+      <c r="D9" s="149">
         <f t="shared" si="2"/>
         <v>6984684</v>
       </c>
-      <c r="E9" s="150">
+      <c r="E9" s="149">
         <f t="shared" si="2"/>
         <v>8743007</v>
       </c>
-      <c r="F9" s="150">
+      <c r="F9" s="149">
         <f t="shared" si="2"/>
         <v>8386863</v>
       </c>
-      <c r="G9" s="150">
+      <c r="G9" s="149">
         <f t="shared" si="2"/>
         <v>8983982</v>
       </c>
-      <c r="H9" s="150" t="str">
+      <c r="H9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="I9" s="150" t="str">
+      <c r="I9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J9" s="150" t="str">
+      <c r="J9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="K9" s="150" t="str">
+      <c r="K9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="L9" s="150" t="str">
+      <c r="L9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="M9" s="150" t="str">
+      <c r="M9" s="149" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="N9" s="87"/>
+      <c r="N9" s="86"/>
     </row>
     <row r="10" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
-      <c r="B10" s="97" t="s">
-        <v>101</v>
-      </c>
-      <c r="C10" s="198">
+      <c r="B10" s="96" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="196">
         <f>IF(Inputs!C27="","",Inputs!C27)</f>
         <v>1783204</v>
       </c>
-      <c r="D10" s="198">
+      <c r="D10" s="196">
         <f>IF(Inputs!D27="","",Inputs!D27)</f>
         <v>1720023</v>
       </c>
-      <c r="E10" s="198">
+      <c r="E10" s="196">
         <f>IF(Inputs!E27="","",Inputs!E27)</f>
         <v>2003343</v>
       </c>
-      <c r="F10" s="198">
+      <c r="F10" s="196">
         <f>IF(Inputs!F27="","",Inputs!F27)</f>
         <v>1613699</v>
       </c>
-      <c r="G10" s="198">
+      <c r="G10" s="196">
         <f>IF(Inputs!G27="","",Inputs!G27)</f>
         <v>1602120</v>
       </c>
-      <c r="H10" s="198" t="str">
+      <c r="H10" s="196" t="str">
         <f>IF(Inputs!H27="","",Inputs!H27)</f>
         <v/>
       </c>
-      <c r="I10" s="198" t="str">
+      <c r="I10" s="196" t="str">
         <f>IF(Inputs!I27="","",Inputs!I27)</f>
         <v/>
       </c>
-      <c r="J10" s="198" t="str">
+      <c r="J10" s="196" t="str">
         <f>IF(Inputs!J27="","",Inputs!J27)</f>
         <v/>
       </c>
-      <c r="K10" s="198" t="str">
+      <c r="K10" s="196" t="str">
         <f>IF(Inputs!K27="","",Inputs!K27)</f>
         <v/>
       </c>
-      <c r="L10" s="198" t="str">
+      <c r="L10" s="196" t="str">
         <f>IF(Inputs!L27="","",Inputs!L27)</f>
         <v/>
       </c>
-      <c r="M10" s="198" t="str">
+      <c r="M10" s="196" t="str">
         <f>IF(Inputs!M27="","",Inputs!M27)</f>
         <v/>
       </c>
-      <c r="N10" s="87"/>
+      <c r="N10" s="86"/>
     </row>
     <row r="11" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
-      <c r="B11" s="97" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="198" t="str">
+      <c r="B11" s="96" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="196" t="str">
         <f>IF(Inputs!C28="","",Inputs!C28)</f>
         <v/>
       </c>
-      <c r="D11" s="198" t="str">
+      <c r="D11" s="196" t="str">
         <f>IF(Inputs!D28="","",Inputs!D28)</f>
         <v/>
       </c>
-      <c r="E11" s="198" t="str">
+      <c r="E11" s="196" t="str">
         <f>IF(Inputs!E28="","",Inputs!E28)</f>
         <v/>
       </c>
-      <c r="F11" s="198" t="str">
+      <c r="F11" s="196" t="str">
         <f>IF(Inputs!F28="","",Inputs!F28)</f>
         <v/>
       </c>
-      <c r="G11" s="198" t="str">
+      <c r="G11" s="196" t="str">
         <f>IF(Inputs!G28="","",Inputs!G28)</f>
         <v/>
       </c>
-      <c r="H11" s="198" t="str">
+      <c r="H11" s="196" t="str">
         <f>IF(Inputs!H28="","",Inputs!H28)</f>
         <v/>
       </c>
-      <c r="I11" s="198" t="str">
+      <c r="I11" s="196" t="str">
         <f>IF(Inputs!I28="","",Inputs!I28)</f>
         <v/>
       </c>
-      <c r="J11" s="198" t="str">
+      <c r="J11" s="196" t="str">
         <f>IF(Inputs!J28="","",Inputs!J28)</f>
         <v/>
       </c>
-      <c r="K11" s="198" t="str">
+      <c r="K11" s="196" t="str">
         <f>IF(Inputs!K28="","",Inputs!K28)</f>
         <v/>
       </c>
-      <c r="L11" s="198" t="str">
+      <c r="L11" s="196" t="str">
         <f>IF(Inputs!L28="","",Inputs!L28)</f>
         <v/>
       </c>
-      <c r="M11" s="198" t="str">
+      <c r="M11" s="196" t="str">
         <f>IF(Inputs!M28="","",Inputs!M28)</f>
         <v/>
       </c>
-      <c r="N11" s="87"/>
+      <c r="N11" s="86"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
-      <c r="B12" s="99" t="s">
-        <v>226</v>
-      </c>
-      <c r="C12" s="198">
+      <c r="B12" s="98" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="196">
         <f>IF(Inputs!C30="","",MAX(Inputs!C30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D12" s="198">
+      <c r="D12" s="196">
         <f>IF(Inputs!D30="","",MAX(Inputs!D30,0)/(1-Fin_Analysis!$I$84))</f>
         <v>960141.33333333337</v>
       </c>
-      <c r="E12" s="198" t="str">
+      <c r="E12" s="196" t="str">
         <f>IF(Inputs!E30="","",MAX(Inputs!E30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="F12" s="198" t="str">
+      <c r="F12" s="196" t="str">
         <f>IF(Inputs!F30="","",MAX(Inputs!F30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="G12" s="198" t="str">
+      <c r="G12" s="196" t="str">
         <f>IF(Inputs!G30="","",MAX(Inputs!G30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="H12" s="198" t="str">
+      <c r="H12" s="196" t="str">
         <f>IF(Inputs!H30="","",MAX(Inputs!H30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="I12" s="198" t="str">
+      <c r="I12" s="196" t="str">
         <f>IF(Inputs!I30="","",MAX(Inputs!I30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="J12" s="198" t="str">
+      <c r="J12" s="196" t="str">
         <f>IF(Inputs!J30="","",MAX(Inputs!J30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="K12" s="198" t="str">
+      <c r="K12" s="196" t="str">
         <f>IF(Inputs!K30="","",MAX(Inputs!K30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="L12" s="198" t="str">
+      <c r="L12" s="196" t="str">
         <f>IF(Inputs!L30="","",MAX(Inputs!L30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="M12" s="198" t="str">
+      <c r="M12" s="196" t="str">
         <f>IF(Inputs!M30="","",MAX(Inputs!M30,0)/(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N12" s="87"/>
+      <c r="N12" s="86"/>
     </row>
     <row r="13" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
-      <c r="B13" s="225" t="s">
-        <v>227</v>
-      </c>
-      <c r="C13" s="226">
+      <c r="B13" s="223" t="s">
+        <v>226</v>
+      </c>
+      <c r="C13" s="224">
         <f t="shared" ref="C13:M13" si="3">IF(C14="","",C14/C6)</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="D13" s="226">
+      <c r="D13" s="224">
         <f t="shared" si="3"/>
         <v>0.29502258608213011</v>
       </c>
-      <c r="E13" s="226">
+      <c r="E13" s="224">
         <f t="shared" si="3"/>
         <v>0.4397317007034231</v>
       </c>
-      <c r="F13" s="226">
+      <c r="F13" s="224">
         <f t="shared" si="3"/>
         <v>0.46627539858938066</v>
       </c>
-      <c r="G13" s="226">
+      <c r="G13" s="224">
         <f t="shared" si="3"/>
         <v>0.40952505855341415</v>
       </c>
-      <c r="H13" s="226" t="str">
+      <c r="H13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="I13" s="226" t="str">
+      <c r="I13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="J13" s="226" t="str">
+      <c r="J13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="K13" s="226" t="str">
+      <c r="K13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="L13" s="226" t="str">
+      <c r="L13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="M13" s="226" t="str">
+      <c r="M13" s="224" t="str">
         <f t="shared" si="3"/>
         <v/>
       </c>
-      <c r="N13" s="87"/>
+      <c r="N13" s="86"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
-      <c r="B14" s="225" t="s">
-        <v>219</v>
-      </c>
-      <c r="C14" s="227">
+      <c r="B14" s="223" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="225">
         <f>IF(C6="","",C9-C10-MAX(C11,0)-MAX(C12,0))</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="D14" s="227">
+      <c r="D14" s="225">
         <f t="shared" ref="D14:M14" si="4">IF(D6="","",D9-D10-MAX(D11,0)-MAX(D12,0))</f>
         <v>4304519.666666667</v>
       </c>
-      <c r="E14" s="227">
+      <c r="E14" s="225">
         <f t="shared" si="4"/>
         <v>6739664</v>
       </c>
-      <c r="F14" s="227">
+      <c r="F14" s="225">
         <f t="shared" si="4"/>
         <v>6773164</v>
       </c>
-      <c r="G14" s="227">
+      <c r="G14" s="225">
         <f t="shared" si="4"/>
         <v>7381862</v>
       </c>
-      <c r="H14" s="227" t="str">
+      <c r="H14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="I14" s="227" t="str">
+      <c r="I14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="J14" s="227" t="str">
+      <c r="J14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="K14" s="227" t="str">
+      <c r="K14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="L14" s="227" t="str">
+      <c r="L14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="M14" s="227" t="str">
+      <c r="M14" s="225" t="str">
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="N14" s="87"/>
+      <c r="N14" s="86"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
-      <c r="B15" s="228" t="s">
-        <v>228</v>
-      </c>
-      <c r="C15" s="229">
+      <c r="B15" s="226" t="s">
+        <v>227</v>
+      </c>
+      <c r="C15" s="227">
         <f>IF(D14="","",IF(ABS(C14+D14)=ABS(C14)+ABS(D14),IF(C14&lt;0,-1,1)*(C14-D14)/D14,"Turn"))</f>
         <v>-0.1379309143203668</v>
       </c>
-      <c r="D15" s="229">
+      <c r="D15" s="227">
         <f t="shared" ref="D15:M15" si="5">IF(E14="","",IF(ABS(D14+E14)=ABS(D14)+ABS(E14),IF(D14&lt;0,-1,1)*(D14-E14)/E14,"Turn"))</f>
         <v>-0.36131539099476367</v>
       </c>
-      <c r="E15" s="229">
+      <c r="E15" s="227">
         <f t="shared" si="5"/>
         <v>-4.9459897914770701E-3</v>
       </c>
-      <c r="F15" s="229">
+      <c r="F15" s="227">
         <f t="shared" si="5"/>
         <v>-8.2458599198955498E-2</v>
       </c>
-      <c r="G15" s="229" t="str">
+      <c r="G15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="H15" s="229" t="str">
+      <c r="H15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I15" s="229" t="str">
+      <c r="I15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="J15" s="229" t="str">
+      <c r="J15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="K15" s="229" t="str">
+      <c r="K15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="L15" s="229" t="str">
+      <c r="L15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="229" t="str">
+      <c r="M15" s="227" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="N15" s="87"/>
+      <c r="N15" s="86"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
-      <c r="B16" s="97" t="s">
-        <v>107</v>
-      </c>
-      <c r="C16" s="198" t="str">
+      <c r="B16" s="96" t="s">
+        <v>106</v>
+      </c>
+      <c r="C16" s="196" t="str">
         <f>IF(Inputs!C31="","",Inputs!C31)</f>
         <v/>
       </c>
-      <c r="D16" s="198" t="str">
+      <c r="D16" s="196" t="str">
         <f>IF(Inputs!D31="","",Inputs!D31)</f>
         <v/>
       </c>
-      <c r="E16" s="198" t="str">
+      <c r="E16" s="196" t="str">
         <f>IF(Inputs!E31="","",Inputs!E31)</f>
         <v/>
       </c>
-      <c r="F16" s="198" t="str">
+      <c r="F16" s="196" t="str">
         <f>IF(Inputs!F31="","",Inputs!F31)</f>
         <v/>
       </c>
-      <c r="G16" s="198" t="str">
+      <c r="G16" s="196" t="str">
         <f>IF(Inputs!G31="","",Inputs!G31)</f>
         <v/>
       </c>
-      <c r="H16" s="198" t="str">
+      <c r="H16" s="196" t="str">
         <f>IF(Inputs!H31="","",Inputs!H31)</f>
         <v/>
       </c>
-      <c r="I16" s="198" t="str">
+      <c r="I16" s="196" t="str">
         <f>IF(Inputs!I31="","",Inputs!I31)</f>
         <v/>
       </c>
-      <c r="J16" s="198" t="str">
+      <c r="J16" s="196" t="str">
         <f>IF(Inputs!J31="","",Inputs!J31)</f>
         <v/>
       </c>
-      <c r="K16" s="198" t="str">
+      <c r="K16" s="196" t="str">
         <f>IF(Inputs!K31="","",Inputs!K31)</f>
         <v/>
       </c>
-      <c r="L16" s="198" t="str">
+      <c r="L16" s="196" t="str">
         <f>IF(Inputs!L31="","",Inputs!L31)</f>
         <v/>
       </c>
-      <c r="M16" s="198" t="str">
+      <c r="M16" s="196" t="str">
         <f>IF(Inputs!M31="","",Inputs!M31)</f>
         <v/>
       </c>
-      <c r="N16" s="87"/>
+      <c r="N16" s="86"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
-      <c r="B17" s="97" t="s">
-        <v>239</v>
-      </c>
-      <c r="C17" s="198">
+      <c r="B17" s="96" t="s">
+        <v>237</v>
+      </c>
+      <c r="C17" s="196">
         <f>IF(Inputs!C29="","",Inputs!C29)</f>
         <v>599686</v>
       </c>
-      <c r="D17" s="198">
+      <c r="D17" s="196">
         <f>IF(Inputs!D29="","",Inputs!D29)</f>
         <v>317225</v>
       </c>
-      <c r="E17" s="198">
+      <c r="E17" s="196">
         <f>IF(Inputs!E29="","",Inputs!E29)</f>
         <v>562656</v>
       </c>
-      <c r="F17" s="198">
+      <c r="F17" s="196">
         <f>IF(Inputs!F29="","",Inputs!F29)</f>
         <v>781715</v>
       </c>
-      <c r="G17" s="198">
+      <c r="G17" s="196">
         <f>IF(Inputs!G29="","",Inputs!G29)</f>
         <v>812565</v>
       </c>
-      <c r="H17" s="198" t="str">
+      <c r="H17" s="196" t="str">
         <f>IF(Inputs!H29="","",Inputs!H29)</f>
         <v/>
       </c>
-      <c r="I17" s="198" t="str">
+      <c r="I17" s="196" t="str">
         <f>IF(Inputs!I29="","",Inputs!I29)</f>
         <v/>
       </c>
-      <c r="J17" s="198" t="str">
+      <c r="J17" s="196" t="str">
         <f>IF(Inputs!J29="","",Inputs!J29)</f>
         <v/>
       </c>
-      <c r="K17" s="198" t="str">
+      <c r="K17" s="196" t="str">
         <f>IF(Inputs!K29="","",Inputs!K29)</f>
         <v/>
       </c>
-      <c r="L17" s="198" t="str">
+      <c r="L17" s="196" t="str">
         <f>IF(Inputs!L29="","",Inputs!L29)</f>
         <v/>
       </c>
-      <c r="M17" s="198" t="str">
+      <c r="M17" s="196" t="str">
         <f>IF(Inputs!M29="","",Inputs!M29)</f>
         <v/>
       </c>
-      <c r="N17" s="87"/>
+      <c r="N17" s="86"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
-      <c r="B18" s="94" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="151" t="str">
+      <c r="B18" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="150" t="str">
         <f t="shared" ref="C18:M18" si="6">IF(OR(C6="",C19=""),"",C19/C6)</f>
         <v/>
       </c>
-      <c r="D18" s="151" t="str">
+      <c r="D18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="E18" s="151" t="str">
+      <c r="E18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="F18" s="151" t="str">
+      <c r="F18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="G18" s="151" t="str">
+      <c r="G18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="H18" s="151" t="str">
+      <c r="H18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I18" s="151" t="str">
+      <c r="I18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="J18" s="151" t="str">
+      <c r="J18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="K18" s="151" t="str">
+      <c r="K18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="L18" s="151" t="str">
+      <c r="L18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="M18" s="151" t="str">
+      <c r="M18" s="150" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="N18" s="87"/>
+      <c r="N18" s="86"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
-      <c r="B19" s="97" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="198" t="str">
+      <c r="B19" s="96" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" s="196" t="str">
         <f>IF(Inputs!C32="","",Inputs!C32)</f>
         <v/>
       </c>
-      <c r="D19" s="198" t="str">
+      <c r="D19" s="196" t="str">
         <f>IF(Inputs!D32="","",Inputs!D32)</f>
         <v/>
       </c>
-      <c r="E19" s="198" t="str">
+      <c r="E19" s="196" t="str">
         <f>IF(Inputs!E32="","",Inputs!E32)</f>
         <v/>
       </c>
-      <c r="F19" s="198" t="str">
+      <c r="F19" s="196" t="str">
         <f>IF(Inputs!F32="","",Inputs!F32)</f>
         <v/>
       </c>
-      <c r="G19" s="198" t="str">
+      <c r="G19" s="196" t="str">
         <f>IF(Inputs!G32="","",Inputs!G32)</f>
         <v/>
       </c>
-      <c r="H19" s="198" t="str">
+      <c r="H19" s="196" t="str">
         <f>IF(Inputs!H32="","",Inputs!H32)</f>
         <v/>
       </c>
-      <c r="I19" s="198" t="str">
+      <c r="I19" s="196" t="str">
         <f>IF(Inputs!I32="","",Inputs!I32)</f>
         <v/>
       </c>
-      <c r="J19" s="198" t="str">
+      <c r="J19" s="196" t="str">
         <f>IF(Inputs!J32="","",Inputs!J32)</f>
         <v/>
       </c>
-      <c r="K19" s="198" t="str">
+      <c r="K19" s="196" t="str">
         <f>IF(Inputs!K32="","",Inputs!K32)</f>
         <v/>
       </c>
-      <c r="L19" s="198" t="str">
+      <c r="L19" s="196" t="str">
         <f>IF(Inputs!L32="","",Inputs!L32)</f>
         <v/>
       </c>
-      <c r="M19" s="198" t="str">
+      <c r="M19" s="196" t="str">
         <f>IF(Inputs!M32="","",Inputs!M32)</f>
         <v/>
       </c>
-      <c r="N19" s="87"/>
+      <c r="N19" s="86"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
-      <c r="B20" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="C20" s="151">
+      <c r="B20" s="96" t="s">
+        <v>220</v>
+      </c>
+      <c r="C20" s="150">
         <f t="shared" ref="C20:M20" si="7">IF(C6="","",MAX(C21,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D20" s="151">
+      <c r="D20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="E20" s="151">
+      <c r="E20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="F20" s="151">
+      <c r="F20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="G20" s="151">
+      <c r="G20" s="150">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="H20" s="151" t="str">
+      <c r="H20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="I20" s="151" t="str">
+      <c r="I20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="J20" s="151" t="str">
+      <c r="J20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="K20" s="151" t="str">
+      <c r="K20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="L20" s="151" t="str">
+      <c r="L20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="M20" s="151" t="str">
+      <c r="M20" s="150" t="str">
         <f t="shared" si="7"/>
         <v/>
       </c>
-      <c r="N20" s="87"/>
+      <c r="N20" s="86"/>
     </row>
     <row r="21" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
-      <c r="B21" s="97" t="s">
-        <v>105</v>
-      </c>
-      <c r="C21" s="198" t="str">
+      <c r="B21" s="96" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="196" t="str">
         <f>IF(Inputs!C33="","",Inputs!C33)</f>
         <v/>
       </c>
-      <c r="D21" s="198" t="str">
+      <c r="D21" s="196" t="str">
         <f>IF(Inputs!D33="","",Inputs!D33)</f>
         <v/>
       </c>
-      <c r="E21" s="198" t="str">
+      <c r="E21" s="196" t="str">
         <f>IF(Inputs!E33="","",Inputs!E33)</f>
         <v/>
       </c>
-      <c r="F21" s="198" t="str">
+      <c r="F21" s="196" t="str">
         <f>IF(Inputs!F33="","",Inputs!F33)</f>
         <v/>
       </c>
-      <c r="G21" s="198" t="str">
+      <c r="G21" s="196" t="str">
         <f>IF(Inputs!G33="","",Inputs!G33)</f>
         <v/>
       </c>
-      <c r="H21" s="198" t="str">
+      <c r="H21" s="196" t="str">
         <f>IF(Inputs!H33="","",Inputs!H33)</f>
         <v/>
       </c>
-      <c r="I21" s="198" t="str">
+      <c r="I21" s="196" t="str">
         <f>IF(Inputs!I33="","",Inputs!I33)</f>
         <v/>
       </c>
-      <c r="J21" s="198" t="str">
+      <c r="J21" s="196" t="str">
         <f>IF(Inputs!J33="","",Inputs!J33)</f>
         <v/>
       </c>
-      <c r="K21" s="198" t="str">
+      <c r="K21" s="196" t="str">
         <f>IF(Inputs!K33="","",Inputs!K33)</f>
         <v/>
       </c>
-      <c r="L21" s="198" t="str">
+      <c r="L21" s="196" t="str">
         <f>IF(Inputs!L33="","",Inputs!L33)</f>
         <v/>
       </c>
-      <c r="M21" s="198" t="str">
+      <c r="M21" s="196" t="str">
         <f>IF(Inputs!M33="","",Inputs!M33)</f>
         <v/>
       </c>
-      <c r="N21" s="87"/>
+      <c r="N21" s="86"/>
     </row>
     <row r="22" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
-      <c r="B22" s="98" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="160">
+      <c r="B22" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="C22" s="158">
         <f>IF(C6="","",C14-MAX(C16,0)-MAX(C17,0)-ABS(MAX(C21,0)-MAX(C19,0)))</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="D22" s="160">
+      <c r="D22" s="158">
         <f t="shared" ref="D22:M22" si="8">IF(D6="","",D14-MAX(D16,0)-MAX(D17,0)-ABS(MAX(D21,0)-MAX(D19,0)))</f>
         <v>3987294.666666667</v>
       </c>
-      <c r="E22" s="160">
+      <c r="E22" s="158">
         <f t="shared" si="8"/>
         <v>6177008</v>
       </c>
-      <c r="F22" s="160">
+      <c r="F22" s="158">
         <f t="shared" si="8"/>
         <v>5991449</v>
       </c>
-      <c r="G22" s="160">
+      <c r="G22" s="158">
         <f t="shared" si="8"/>
         <v>6569297</v>
       </c>
-      <c r="H22" s="160" t="str">
+      <c r="H22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="I22" s="160" t="str">
+      <c r="I22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="J22" s="160" t="str">
+      <c r="J22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="K22" s="160" t="str">
+      <c r="K22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="L22" s="160" t="str">
+      <c r="L22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="M22" s="160" t="str">
+      <c r="M22" s="158" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="N22" s="87"/>
+      <c r="N22" s="86"/>
     </row>
     <row r="23" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
-      <c r="B23" s="100" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="152">
+      <c r="B23" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" s="151">
         <f t="shared" ref="C23:M23" si="9">IF(C6="","",C24/C6)</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="D23" s="152">
+      <c r="D23" s="151">
         <f t="shared" si="9"/>
         <v>0.20496049648829115</v>
       </c>
-      <c r="E23" s="152">
+      <c r="E23" s="151">
         <f t="shared" si="9"/>
         <v>0.30226576203561301</v>
       </c>
-      <c r="F23" s="152">
+      <c r="F23" s="151">
         <f t="shared" si="9"/>
         <v>0.30934566960909404</v>
       </c>
-      <c r="G23" s="152">
+      <c r="G23" s="151">
         <f t="shared" si="9"/>
         <v>0.27333466866961559</v>
       </c>
-      <c r="H23" s="152" t="str">
+      <c r="H23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="I23" s="152" t="str">
+      <c r="I23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="J23" s="152" t="str">
+      <c r="J23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="K23" s="152" t="str">
+      <c r="K23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="L23" s="152" t="str">
+      <c r="L23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M23" s="152" t="str">
+      <c r="M23" s="151" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="N23" s="87"/>
+      <c r="N23" s="86"/>
     </row>
     <row r="24" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
-      <c r="B24" s="101" t="s">
-        <v>111</v>
-      </c>
-      <c r="C24" s="153">
+      <c r="B24" s="100" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="152">
         <f>IF(C6="","",C22*(1-Fin_Analysis!$I$84))</f>
         <v>2333330.5</v>
       </c>
@@ -6767,63 +6762,63 @@
         <f>IF(M6="","",M22*(1-Fin_Analysis!$I$84))</f>
         <v/>
       </c>
-      <c r="N24" s="87"/>
+      <c r="N24" s="86"/>
     </row>
     <row r="25" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A25" s="4"/>
-      <c r="B25" s="231" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="230">
+      <c r="B25" s="229" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="228">
         <f>IF(D24="","",IF(ABS(C24+D24)=ABS(C24)+ABS(D24),IF(C24&lt;0,-1,1)*(C24-D24)/D24,"Turn"))</f>
         <v>-0.21974481611759486</v>
       </c>
-      <c r="D25" s="230">
+      <c r="D25" s="228">
         <f t="shared" ref="D25:M25" si="10">IF(E24="","",IF(ABS(D24+E24)=ABS(D24)+ABS(E24),IF(D24&lt;0,-1,1)*(D24-E24)/E24,"Turn"))</f>
         <v>-0.35449417150396006</v>
       </c>
-      <c r="E25" s="230">
+      <c r="E25" s="228">
         <f t="shared" si="10"/>
         <v>3.0970638321381021E-2</v>
       </c>
-      <c r="F25" s="230">
+      <c r="F25" s="228">
         <f t="shared" si="10"/>
         <v>-8.7961923475221165E-2</v>
       </c>
-      <c r="G25" s="230" t="str">
+      <c r="G25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="H25" s="230" t="str">
+      <c r="H25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="I25" s="230" t="str">
+      <c r="I25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="J25" s="230" t="str">
+      <c r="J25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="K25" s="230" t="str">
+      <c r="K25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="L25" s="230" t="str">
+      <c r="L25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="M25" s="230" t="str">
+      <c r="M25" s="228" t="str">
         <f t="shared" si="10"/>
         <v/>
       </c>
-      <c r="N25" s="87"/>
+      <c r="N25" s="86"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A26" s="16"/>
-      <c r="B26" s="114" t="s">
-        <v>130</v>
+      <c r="B26" s="113" t="s">
+        <v>129</v>
       </c>
       <c r="C26" s="48">
         <f>Fin_Analysis!D9</f>
@@ -6869,11 +6864,11 @@
         <f t="shared" ref="M26" si="19">EOMONTH(EDATE(L26,-12),0)</f>
         <v>41639</v>
       </c>
-      <c r="N26" s="87"/>
+      <c r="N26" s="86"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>14</v>
       </c>
       <c r="C27" s="65">
@@ -6920,266 +6915,266 @@
         <f t="shared" si="20"/>
         <v/>
       </c>
-      <c r="N27" s="87"/>
+      <c r="N27" s="86"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
-      <c r="B28" s="94" t="s">
-        <v>113</v>
+      <c r="B28" s="93" t="s">
+        <v>112</v>
       </c>
       <c r="C28" s="65">
         <f>Fin_Analysis!C13</f>
         <v>1980623</v>
       </c>
-      <c r="D28" s="198" t="str">
+      <c r="D28" s="196" t="str">
         <f>IF(Inputs!D35="","",Inputs!D35)</f>
         <v/>
       </c>
-      <c r="E28" s="198" t="str">
+      <c r="E28" s="196" t="str">
         <f>IF(Inputs!E35="","",Inputs!E35)</f>
         <v/>
       </c>
-      <c r="F28" s="198" t="str">
+      <c r="F28" s="196" t="str">
         <f>IF(Inputs!F35="","",Inputs!F35)</f>
         <v/>
       </c>
-      <c r="G28" s="198" t="str">
+      <c r="G28" s="196" t="str">
         <f>IF(Inputs!G35="","",Inputs!G35)</f>
         <v/>
       </c>
-      <c r="H28" s="198" t="str">
+      <c r="H28" s="196" t="str">
         <f>IF(Inputs!H35="","",Inputs!H35)</f>
         <v/>
       </c>
-      <c r="I28" s="198" t="str">
+      <c r="I28" s="196" t="str">
         <f>IF(Inputs!I35="","",Inputs!I35)</f>
         <v/>
       </c>
-      <c r="J28" s="198" t="str">
+      <c r="J28" s="196" t="str">
         <f>IF(Inputs!J35="","",Inputs!J35)</f>
         <v/>
       </c>
-      <c r="K28" s="198" t="str">
+      <c r="K28" s="196" t="str">
         <f>IF(Inputs!K35="","",Inputs!K35)</f>
         <v/>
       </c>
-      <c r="L28" s="198" t="str">
+      <c r="L28" s="196" t="str">
         <f>IF(Inputs!L35="","",Inputs!L35)</f>
         <v/>
       </c>
-      <c r="M28" s="198" t="str">
+      <c r="M28" s="196" t="str">
         <f>IF(Inputs!M35="","",Inputs!M35)</f>
         <v/>
       </c>
-      <c r="N28" s="87"/>
+      <c r="N28" s="86"/>
     </row>
     <row r="29" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
-      <c r="B29" s="94" t="s">
-        <v>142</v>
+      <c r="B29" s="93" t="s">
+        <v>141</v>
       </c>
       <c r="C29" s="65">
         <f>Fin_Analysis!C18</f>
         <v>18623682</v>
       </c>
-      <c r="D29" s="198" t="str">
+      <c r="D29" s="196" t="str">
         <f>IF(Inputs!D36="","",Inputs!D36)</f>
         <v/>
       </c>
-      <c r="E29" s="198" t="str">
+      <c r="E29" s="196" t="str">
         <f>IF(Inputs!E36="","",Inputs!E36)</f>
         <v/>
       </c>
-      <c r="F29" s="198" t="str">
+      <c r="F29" s="196" t="str">
         <f>IF(Inputs!F36="","",Inputs!F36)</f>
         <v/>
       </c>
-      <c r="G29" s="198" t="str">
+      <c r="G29" s="196" t="str">
         <f>IF(Inputs!G36="","",Inputs!G36)</f>
         <v/>
       </c>
-      <c r="H29" s="198" t="str">
+      <c r="H29" s="196" t="str">
         <f>IF(Inputs!H36="","",Inputs!H36)</f>
         <v/>
       </c>
-      <c r="I29" s="198" t="str">
+      <c r="I29" s="196" t="str">
         <f>IF(Inputs!I36="","",Inputs!I36)</f>
         <v/>
       </c>
-      <c r="J29" s="198" t="str">
+      <c r="J29" s="196" t="str">
         <f>IF(Inputs!J36="","",Inputs!J36)</f>
         <v/>
       </c>
-      <c r="K29" s="198" t="str">
+      <c r="K29" s="196" t="str">
         <f>IF(Inputs!K36="","",Inputs!K36)</f>
         <v/>
       </c>
-      <c r="L29" s="198" t="str">
+      <c r="L29" s="196" t="str">
         <f>IF(Inputs!L36="","",Inputs!L36)</f>
         <v/>
       </c>
-      <c r="M29" s="198" t="str">
+      <c r="M29" s="196" t="str">
         <f>IF(Inputs!M36="","",Inputs!M36)</f>
         <v/>
       </c>
-      <c r="N29" s="87"/>
+      <c r="N29" s="86"/>
     </row>
     <row r="30" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
-      <c r="B30" s="94" t="s">
-        <v>262</v>
+      <c r="B30" s="93" t="s">
+        <v>260</v>
       </c>
       <c r="C30" s="65">
         <f>Inputs!C37</f>
         <v>87275561</v>
       </c>
-      <c r="D30" s="198" t="str">
+      <c r="D30" s="196" t="str">
         <f>IF(Inputs!D37="","",Inputs!D37)</f>
         <v/>
       </c>
-      <c r="E30" s="198">
+      <c r="E30" s="196">
         <f>IF(Inputs!E37="","",Inputs!E37)</f>
         <v>22442764</v>
       </c>
-      <c r="F30" s="198">
+      <c r="F30" s="196">
         <f>IF(Inputs!F37="","",Inputs!F37)</f>
         <v>20617000</v>
       </c>
-      <c r="G30" s="198">
+      <c r="G30" s="196">
         <f>IF(Inputs!G37="","",Inputs!G37)</f>
         <v>19835482</v>
       </c>
-      <c r="H30" s="198" t="str">
+      <c r="H30" s="196" t="str">
         <f>IF(Inputs!H37="","",Inputs!H37)</f>
         <v/>
       </c>
-      <c r="I30" s="198" t="str">
+      <c r="I30" s="196" t="str">
         <f>IF(Inputs!I37="","",Inputs!I37)</f>
         <v/>
       </c>
-      <c r="J30" s="198" t="str">
+      <c r="J30" s="196" t="str">
         <f>IF(Inputs!J37="","",Inputs!J37)</f>
         <v/>
       </c>
-      <c r="K30" s="198" t="str">
+      <c r="K30" s="196" t="str">
         <f>IF(Inputs!K37="","",Inputs!K37)</f>
         <v/>
       </c>
-      <c r="L30" s="198" t="str">
+      <c r="L30" s="196" t="str">
         <f>IF(Inputs!L37="","",Inputs!L37)</f>
         <v/>
       </c>
-      <c r="M30" s="198" t="str">
+      <c r="M30" s="196" t="str">
         <f>IF(Inputs!M37="","",Inputs!M37)</f>
         <v/>
       </c>
-      <c r="N30" s="87"/>
+      <c r="N30" s="86"/>
     </row>
     <row r="31" spans="1:14" ht="15.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
-      <c r="B31" s="94" t="s">
+      <c r="B31" s="93" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="65">
         <f>Fin_Analysis!I15</f>
         <v>6793901</v>
       </c>
-      <c r="D31" s="198" t="str">
+      <c r="D31" s="196" t="str">
         <f>IF(Inputs!D39="","",Inputs!D39)</f>
         <v/>
       </c>
-      <c r="E31" s="198">
+      <c r="E31" s="196">
         <f>IF(Inputs!E39="","",Inputs!E39)</f>
         <v>5316310</v>
       </c>
-      <c r="F31" s="198">
+      <c r="F31" s="196">
         <f>IF(Inputs!F39="","",Inputs!F39)</f>
         <v>6964787</v>
       </c>
-      <c r="G31" s="198">
+      <c r="G31" s="196">
         <f>IF(Inputs!G39="","",Inputs!G39)</f>
         <v>8544578</v>
       </c>
-      <c r="H31" s="198" t="str">
+      <c r="H31" s="196" t="str">
         <f>IF(Inputs!H39="","",Inputs!H39)</f>
         <v/>
       </c>
-      <c r="I31" s="198" t="str">
+      <c r="I31" s="196" t="str">
         <f>IF(Inputs!I39="","",Inputs!I39)</f>
         <v/>
       </c>
-      <c r="J31" s="198" t="str">
+      <c r="J31" s="196" t="str">
         <f>IF(Inputs!J39="","",Inputs!J39)</f>
         <v/>
       </c>
-      <c r="K31" s="198" t="str">
+      <c r="K31" s="196" t="str">
         <f>IF(Inputs!K39="","",Inputs!K39)</f>
         <v/>
       </c>
-      <c r="L31" s="198" t="str">
+      <c r="L31" s="196" t="str">
         <f>IF(Inputs!L39="","",Inputs!L39)</f>
         <v/>
       </c>
-      <c r="M31" s="198" t="str">
+      <c r="M31" s="196" t="str">
         <f>IF(Inputs!M39="","",Inputs!M39)</f>
         <v/>
       </c>
-      <c r="N31" s="87"/>
+      <c r="N31" s="86"/>
     </row>
     <row r="32" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
-      <c r="B32" s="94" t="s">
+      <c r="B32" s="93" t="s">
         <v>18</v>
       </c>
       <c r="C32" s="65">
         <f>Fin_Analysis!I34</f>
         <v>51051351</v>
       </c>
-      <c r="D32" s="198" t="str">
+      <c r="D32" s="196" t="str">
         <f>IF(Inputs!D40="","",Inputs!D40)</f>
         <v/>
       </c>
-      <c r="E32" s="198">
+      <c r="E32" s="196">
         <f>IF(Inputs!E40="","",Inputs!E40)</f>
         <v>32210595</v>
       </c>
-      <c r="F32" s="198">
+      <c r="F32" s="196">
         <f>IF(Inputs!F40="","",Inputs!F40)</f>
         <v>37670707</v>
       </c>
-      <c r="G32" s="198">
+      <c r="G32" s="196">
         <f>IF(Inputs!G40="","",Inputs!G40)</f>
         <v>31147279</v>
       </c>
-      <c r="H32" s="198" t="str">
+      <c r="H32" s="196" t="str">
         <f>IF(Inputs!H40="","",Inputs!H40)</f>
         <v/>
       </c>
-      <c r="I32" s="198" t="str">
+      <c r="I32" s="196" t="str">
         <f>IF(Inputs!I40="","",Inputs!I40)</f>
         <v/>
       </c>
-      <c r="J32" s="198" t="str">
+      <c r="J32" s="196" t="str">
         <f>IF(Inputs!J40="","",Inputs!J40)</f>
         <v/>
       </c>
-      <c r="K32" s="198" t="str">
+      <c r="K32" s="196" t="str">
         <f>IF(Inputs!K40="","",Inputs!K40)</f>
         <v/>
       </c>
-      <c r="L32" s="198" t="str">
+      <c r="L32" s="196" t="str">
         <f>IF(Inputs!L40="","",Inputs!L40)</f>
         <v/>
       </c>
-      <c r="M32" s="198" t="str">
+      <c r="M32" s="196" t="str">
         <f>IF(Inputs!M40="","",Inputs!M40)</f>
         <v/>
       </c>
-      <c r="N32" s="87"/>
+      <c r="N32" s="86"/>
     </row>
     <row r="33" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
-      <c r="B33" s="94" t="s">
+      <c r="B33" s="93" t="s">
         <v>19</v>
       </c>
       <c r="C33" s="77">
@@ -7226,165 +7221,165 @@
         <f t="shared" ref="M33" si="31">IF(OR(M31="",M32=""),"",M31+M32)</f>
         <v/>
       </c>
-      <c r="N33" s="87"/>
+      <c r="N33" s="86"/>
     </row>
     <row r="34" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
-      <c r="B34" s="94" t="s">
-        <v>133</v>
+      <c r="B34" s="93" t="s">
+        <v>132</v>
       </c>
       <c r="C34" s="65">
         <f>Inputs!C41</f>
         <v>121156821</v>
       </c>
-      <c r="D34" s="198" t="str">
+      <c r="D34" s="196" t="str">
         <f>IF(Inputs!D41="","",Inputs!D41)</f>
         <v/>
       </c>
-      <c r="E34" s="198">
+      <c r="E34" s="196">
         <f>IF(Inputs!E41="","",Inputs!E41)</f>
         <v>132313126</v>
       </c>
-      <c r="F34" s="198">
+      <c r="F34" s="196">
         <f>IF(Inputs!F41="","",Inputs!F41)</f>
         <v>124656340</v>
       </c>
-      <c r="G34" s="198">
+      <c r="G34" s="196">
         <f>IF(Inputs!G41="","",Inputs!G41)</f>
         <v>115383027</v>
       </c>
-      <c r="H34" s="198" t="str">
+      <c r="H34" s="196" t="str">
         <f>IF(Inputs!H41="","",Inputs!H41)</f>
         <v/>
       </c>
-      <c r="I34" s="198" t="str">
+      <c r="I34" s="196" t="str">
         <f>IF(Inputs!I41="","",Inputs!I41)</f>
         <v/>
       </c>
-      <c r="J34" s="198" t="str">
+      <c r="J34" s="196" t="str">
         <f>IF(Inputs!J41="","",Inputs!J41)</f>
         <v/>
       </c>
-      <c r="K34" s="198" t="str">
+      <c r="K34" s="196" t="str">
         <f>IF(Inputs!K41="","",Inputs!K41)</f>
         <v/>
       </c>
-      <c r="L34" s="198" t="str">
+      <c r="L34" s="196" t="str">
         <f>IF(Inputs!L41="","",Inputs!L41)</f>
         <v/>
       </c>
-      <c r="M34" s="198" t="str">
+      <c r="M34" s="196" t="str">
         <f>IF(Inputs!M41="","",Inputs!M41)</f>
         <v/>
       </c>
-      <c r="N34" s="87"/>
+      <c r="N34" s="86"/>
     </row>
     <row r="35" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
-      <c r="B35" s="94" t="s">
-        <v>134</v>
+      <c r="B35" s="93" t="s">
+        <v>133</v>
       </c>
       <c r="C35" s="65">
         <f>Inputs!C42</f>
         <v>13900241</v>
       </c>
-      <c r="D35" s="198" t="str">
+      <c r="D35" s="196" t="str">
         <f>IF(Inputs!D42="","",Inputs!D42)</f>
         <v/>
       </c>
-      <c r="E35" s="198" t="str">
+      <c r="E35" s="196" t="str">
         <f>IF(Inputs!E42="","",Inputs!E42)</f>
         <v/>
       </c>
-      <c r="F35" s="198" t="str">
+      <c r="F35" s="196" t="str">
         <f>IF(Inputs!F42="","",Inputs!F42)</f>
         <v/>
       </c>
-      <c r="G35" s="198" t="str">
+      <c r="G35" s="196" t="str">
         <f>IF(Inputs!G42="","",Inputs!G42)</f>
         <v/>
       </c>
-      <c r="H35" s="198" t="str">
+      <c r="H35" s="196" t="str">
         <f>IF(Inputs!H42="","",Inputs!H42)</f>
         <v/>
       </c>
-      <c r="I35" s="198" t="str">
+      <c r="I35" s="196" t="str">
         <f>IF(Inputs!I42="","",Inputs!I42)</f>
         <v/>
       </c>
-      <c r="J35" s="198" t="str">
+      <c r="J35" s="196" t="str">
         <f>IF(Inputs!J42="","",Inputs!J42)</f>
         <v/>
       </c>
-      <c r="K35" s="198" t="str">
+      <c r="K35" s="196" t="str">
         <f>IF(Inputs!K42="","",Inputs!K42)</f>
         <v/>
       </c>
-      <c r="L35" s="198" t="str">
+      <c r="L35" s="196" t="str">
         <f>IF(Inputs!L42="","",Inputs!L42)</f>
         <v/>
       </c>
-      <c r="M35" s="198" t="str">
+      <c r="M35" s="196" t="str">
         <f>IF(Inputs!M42="","",Inputs!M42)</f>
         <v/>
       </c>
-      <c r="N35" s="87"/>
+      <c r="N35" s="86"/>
     </row>
     <row r="36" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
-      <c r="B36" s="94" t="s">
-        <v>132</v>
+      <c r="B36" s="93" t="s">
+        <v>131</v>
       </c>
       <c r="C36" s="65">
         <f>Inputs!C40</f>
         <v>0</v>
       </c>
-      <c r="D36" s="198" t="str">
+      <c r="D36" s="196" t="str">
         <f>IF(Inputs!D43="","",Inputs!D43)</f>
         <v/>
       </c>
-      <c r="E36" s="198" t="str">
+      <c r="E36" s="196" t="str">
         <f>IF(Inputs!E43="","",Inputs!E43)</f>
         <v/>
       </c>
-      <c r="F36" s="198" t="str">
+      <c r="F36" s="196" t="str">
         <f>IF(Inputs!F43="","",Inputs!F43)</f>
         <v/>
       </c>
-      <c r="G36" s="198" t="str">
+      <c r="G36" s="196" t="str">
         <f>IF(Inputs!G43="","",Inputs!G43)</f>
         <v/>
       </c>
-      <c r="H36" s="198" t="str">
+      <c r="H36" s="196" t="str">
         <f>IF(Inputs!H43="","",Inputs!H43)</f>
         <v/>
       </c>
-      <c r="I36" s="198" t="str">
+      <c r="I36" s="196" t="str">
         <f>IF(Inputs!I43="","",Inputs!I43)</f>
         <v/>
       </c>
-      <c r="J36" s="198" t="str">
+      <c r="J36" s="196" t="str">
         <f>IF(Inputs!J43="","",Inputs!J43)</f>
         <v/>
       </c>
-      <c r="K36" s="198" t="str">
+      <c r="K36" s="196" t="str">
         <f>IF(Inputs!K43="","",Inputs!K43)</f>
         <v/>
       </c>
-      <c r="L36" s="198" t="str">
+      <c r="L36" s="196" t="str">
         <f>IF(Inputs!L43="","",Inputs!L43)</f>
         <v/>
       </c>
-      <c r="M36" s="198" t="str">
+      <c r="M36" s="196" t="str">
         <f>IF(Inputs!M43="","",Inputs!M43)</f>
         <v/>
       </c>
-      <c r="N36" s="87"/>
+      <c r="N36" s="86"/>
     </row>
     <row r="37" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
-      <c r="B37" s="94" t="s">
-        <v>136</v>
+      <c r="B37" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="C37" s="65">
         <f>Fin_Analysis!C68</f>
@@ -7430,63 +7425,63 @@
         <f t="shared" si="32"/>
         <v/>
       </c>
-      <c r="N37" s="87"/>
+      <c r="N37" s="86"/>
     </row>
     <row r="38" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
-      <c r="B38" s="98" t="s">
-        <v>150</v>
-      </c>
-      <c r="C38" s="154">
+      <c r="B38" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="C38" s="153">
         <f>IF(C6="","",C14/MAX(C37,0))</f>
         <v>2.2001523954725974E-2</v>
       </c>
-      <c r="D38" s="154" t="e">
+      <c r="D38" s="153" t="e">
         <f>IF(D6="","",D14/MAX(D37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="154" t="e">
+      <c r="E38" s="153" t="e">
         <f>IF(E6="","",E14/MAX(E37,0))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F38" s="154" t="str">
+      <c r="F38" s="153" t="str">
         <f t="shared" ref="F38:M38" si="33">IF(F37="","",F14/F37)</f>
         <v/>
       </c>
-      <c r="G38" s="154" t="str">
+      <c r="G38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="H38" s="154" t="str">
+      <c r="H38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="I38" s="154" t="str">
+      <c r="I38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="J38" s="154" t="str">
+      <c r="J38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="K38" s="154" t="str">
+      <c r="K38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="L38" s="154" t="str">
+      <c r="L38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="M38" s="154" t="str">
+      <c r="M38" s="153" t="str">
         <f t="shared" si="33"/>
         <v/>
       </c>
-      <c r="N38" s="87"/>
+      <c r="N38" s="86"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="16"/>
       <c r="B39" s="55" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="54"/>
       <c r="D39" s="54"/>
@@ -7499,372 +7494,372 @@
       <c r="K39" s="54"/>
       <c r="L39" s="54"/>
       <c r="M39" s="54"/>
-      <c r="N39" s="87"/>
+      <c r="N39" s="86"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
-      <c r="B40" s="95" t="s">
-        <v>95</v>
-      </c>
-      <c r="C40" s="155">
+      <c r="B40" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="154">
         <f t="shared" ref="C40:M40" si="34">IF(C6="","",C8/C6)</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="D40" s="155">
+      <c r="D40" s="154">
         <f t="shared" si="34"/>
         <v>0.52128467373406284</v>
       </c>
-      <c r="E40" s="155">
+      <c r="E40" s="154">
         <f t="shared" si="34"/>
         <v>0.42955949475049005</v>
       </c>
-      <c r="F40" s="155">
+      <c r="F40" s="154">
         <f t="shared" si="34"/>
         <v>0.42263499182368403</v>
       </c>
-      <c r="G40" s="155">
+      <c r="G40" s="154">
         <f t="shared" si="34"/>
         <v>0.50159380457223135</v>
       </c>
-      <c r="H40" s="155" t="str">
+      <c r="H40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="I40" s="155" t="str">
+      <c r="I40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="J40" s="155" t="str">
+      <c r="J40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="K40" s="155" t="str">
+      <c r="K40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="L40" s="155" t="str">
+      <c r="L40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="M40" s="155" t="str">
+      <c r="M40" s="154" t="str">
         <f t="shared" si="34"/>
         <v/>
       </c>
-      <c r="N40" s="87"/>
+      <c r="N40" s="86"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
-      <c r="B41" s="94" t="s">
-        <v>220</v>
-      </c>
-      <c r="C41" s="152">
+      <c r="B41" s="93" t="s">
+        <v>219</v>
+      </c>
+      <c r="C41" s="151">
         <f t="shared" ref="C41:M41" si="35">IF(C6="","",(C10+MAX(C11,0))/C6)</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="D41" s="152">
+      <c r="D41" s="151">
         <f t="shared" si="35"/>
         <v>0.11788670348292293</v>
       </c>
-      <c r="E41" s="152">
+      <c r="E41" s="151">
         <f t="shared" si="35"/>
         <v>0.13070880454608683</v>
       </c>
-      <c r="F41" s="152">
+      <c r="F41" s="151">
         <f t="shared" si="35"/>
         <v>0.1110896095869353</v>
       </c>
-      <c r="G41" s="152">
+      <c r="G41" s="151">
         <f t="shared" si="35"/>
         <v>8.8881136874354449E-2</v>
       </c>
-      <c r="H41" s="152" t="str">
+      <c r="H41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="I41" s="152" t="str">
+      <c r="I41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="J41" s="152" t="str">
+      <c r="J41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="K41" s="152" t="str">
+      <c r="K41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="L41" s="152" t="str">
+      <c r="L41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="M41" s="152" t="str">
+      <c r="M41" s="151" t="str">
         <f t="shared" si="35"/>
         <v/>
       </c>
-      <c r="N41" s="87"/>
+      <c r="N41" s="86"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
-      <c r="B42" s="94" t="s">
-        <v>106</v>
-      </c>
-      <c r="C42" s="152">
+      <c r="B42" s="93" t="s">
+        <v>105</v>
+      </c>
+      <c r="C42" s="151">
         <f t="shared" ref="C42:M42" si="36">IF(C6="","",MAX(C16,0)/C6)</f>
         <v>0</v>
       </c>
-      <c r="D42" s="152">
+      <c r="D42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E42" s="152">
+      <c r="E42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="F42" s="152">
+      <c r="F42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="G42" s="152">
+      <c r="G42" s="151">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="H42" s="152" t="str">
+      <c r="H42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="I42" s="152" t="str">
+      <c r="I42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="J42" s="152" t="str">
+      <c r="J42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="K42" s="152" t="str">
+      <c r="K42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="L42" s="152" t="str">
+      <c r="L42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="M42" s="152" t="str">
+      <c r="M42" s="151" t="str">
         <f t="shared" si="36"/>
         <v/>
       </c>
-      <c r="N42" s="87"/>
+      <c r="N42" s="86"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
-      <c r="B43" s="94" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="152">
+      <c r="B43" s="93" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" s="151">
         <f t="shared" ref="C43:M43" si="37">IF(C6="","",MAX(C17,0)/C6)</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="D43" s="152">
+      <c r="D43" s="151">
         <f t="shared" si="37"/>
         <v>2.1741924097741849E-2</v>
       </c>
-      <c r="E43" s="152">
+      <c r="E43" s="151">
         <f t="shared" si="37"/>
         <v>3.6710684655939116E-2</v>
       </c>
-      <c r="F43" s="152">
+      <c r="F43" s="151">
         <f t="shared" si="37"/>
         <v>5.3814505777255314E-2</v>
       </c>
-      <c r="G43" s="152">
+      <c r="G43" s="151">
         <f t="shared" si="37"/>
         <v>4.5078833660593357E-2</v>
       </c>
-      <c r="H43" s="152" t="str">
+      <c r="H43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="I43" s="152" t="str">
+      <c r="I43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="J43" s="152" t="str">
+      <c r="J43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="K43" s="152" t="str">
+      <c r="K43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="L43" s="152" t="str">
+      <c r="L43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="M43" s="152" t="str">
+      <c r="M43" s="151" t="str">
         <f t="shared" si="37"/>
         <v/>
       </c>
-      <c r="N43" s="87"/>
+      <c r="N43" s="86"/>
     </row>
     <row r="44" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
-      <c r="B44" s="94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="152">
+      <c r="B44" s="93" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="151">
         <f t="shared" ref="C44:M44" si="38">IF(C6="","",MAX(C12,0)/C6)</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="D44" s="152">
+      <c r="D44" s="151">
         <f t="shared" si="38"/>
         <v>6.5806036700884196E-2</v>
       </c>
-      <c r="E44" s="152">
+      <c r="E44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="F44" s="152">
+      <c r="F44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="G44" s="152">
+      <c r="G44" s="151">
         <f t="shared" si="38"/>
         <v>0</v>
       </c>
-      <c r="H44" s="152" t="str">
+      <c r="H44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="I44" s="152" t="str">
+      <c r="I44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="J44" s="152" t="str">
+      <c r="J44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="K44" s="152" t="str">
+      <c r="K44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="L44" s="152" t="str">
+      <c r="L44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="M44" s="152" t="str">
+      <c r="M44" s="151" t="str">
         <f t="shared" si="38"/>
         <v/>
       </c>
-      <c r="N44" s="87"/>
+      <c r="N44" s="86"/>
     </row>
     <row r="45" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
-      <c r="B45" s="94" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" s="152">
+      <c r="B45" s="93" t="s">
+        <v>221</v>
+      </c>
+      <c r="C45" s="151">
         <f t="shared" ref="C45:M45" si="39">IF(C6="","",ABS(MAX(C21,0)-MAX(C19,0))/C6)</f>
         <v>0</v>
       </c>
-      <c r="D45" s="152">
+      <c r="D45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="E45" s="152">
+      <c r="E45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="F45" s="152">
+      <c r="F45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="G45" s="152">
+      <c r="G45" s="151">
         <f t="shared" si="39"/>
         <v>0</v>
       </c>
-      <c r="H45" s="152" t="str">
+      <c r="H45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="I45" s="152" t="str">
+      <c r="I45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="J45" s="152" t="str">
+      <c r="J45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="K45" s="152" t="str">
+      <c r="K45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="L45" s="152" t="str">
+      <c r="L45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="M45" s="152" t="str">
+      <c r="M45" s="151" t="str">
         <f t="shared" si="39"/>
         <v/>
       </c>
-      <c r="N45" s="87"/>
+      <c r="N45" s="86"/>
     </row>
     <row r="46" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
-      <c r="B46" s="94" t="s">
-        <v>120</v>
-      </c>
-      <c r="C46" s="152">
+      <c r="B46" s="93" t="s">
+        <v>119</v>
+      </c>
+      <c r="C46" s="151">
         <f t="shared" ref="C46:M46" si="40">IF(C6="","",C22/C6)</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="D46" s="152">
+      <c r="D46" s="151">
         <f t="shared" si="40"/>
         <v>0.27328066198438822</v>
       </c>
-      <c r="E46" s="152">
+      <c r="E46" s="151">
         <f t="shared" si="40"/>
         <v>0.40302101604748397</v>
       </c>
-      <c r="F46" s="152">
+      <c r="F46" s="151">
         <f t="shared" si="40"/>
         <v>0.41246089281212539</v>
       </c>
-      <c r="G46" s="152">
+      <c r="G46" s="151">
         <f t="shared" si="40"/>
         <v>0.3644462248928208</v>
       </c>
-      <c r="H46" s="152" t="str">
+      <c r="H46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="I46" s="152" t="str">
+      <c r="I46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="J46" s="152" t="str">
+      <c r="J46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="K46" s="152" t="str">
+      <c r="K46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="L46" s="152" t="str">
+      <c r="L46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="M46" s="152" t="str">
+      <c r="M46" s="151" t="str">
         <f t="shared" si="40"/>
         <v/>
       </c>
-      <c r="N46" s="87"/>
+      <c r="N46" s="86"/>
     </row>
     <row r="47" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="16"/>
-      <c r="B47" s="102" t="s">
-        <v>248</v>
-      </c>
-      <c r="C47" s="280" t="s">
-        <v>266</v>
+      <c r="B47" s="101" t="s">
+        <v>246</v>
+      </c>
+      <c r="C47" s="278" t="s">
+        <v>263</v>
       </c>
       <c r="D47" s="36"/>
       <c r="E47" s="36"/>
@@ -7876,216 +7871,216 @@
       <c r="K47" s="36"/>
       <c r="L47" s="36"/>
       <c r="M47" s="36"/>
-      <c r="N47" s="87"/>
+      <c r="N47" s="86"/>
     </row>
     <row r="48" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
-      <c r="B48" s="268" t="s">
-        <v>254</v>
-      </c>
-      <c r="C48" s="269">
+      <c r="B48" s="266" t="s">
+        <v>252</v>
+      </c>
+      <c r="C48" s="267">
         <f t="shared" ref="C48:M48" si="41">IF(C6="","",C6/C27)</f>
         <v>6.2800357000190113E-2</v>
       </c>
-      <c r="D48" s="269" t="e">
+      <c r="D48" s="267" t="e">
         <f t="shared" si="41"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E48" s="269">
+      <c r="E48" s="267">
         <f t="shared" si="41"/>
         <v>9.9038324163300023E-2</v>
       </c>
-      <c r="F48" s="269">
+      <c r="F48" s="267">
         <f t="shared" si="41"/>
         <v>9.9991519435018147E-2</v>
       </c>
-      <c r="G48" s="269">
+      <c r="G48" s="267">
         <f t="shared" si="41"/>
         <v>0.13330587752598277</v>
       </c>
-      <c r="H48" s="269" t="str">
+      <c r="H48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="I48" s="269" t="str">
+      <c r="I48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="J48" s="269" t="str">
+      <c r="J48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="K48" s="269" t="str">
+      <c r="K48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="L48" s="269" t="str">
+      <c r="L48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="M48" s="269" t="str">
+      <c r="M48" s="267" t="str">
         <f t="shared" si="41"/>
         <v/>
       </c>
-      <c r="N48" s="87"/>
+      <c r="N48" s="86"/>
     </row>
     <row r="49" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
-      <c r="B49" s="94" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="152">
+      <c r="B49" s="93" t="s">
+        <v>253</v>
+      </c>
+      <c r="C49" s="151">
         <f t="shared" ref="C49:M49" si="42">IF(C28="","",C28/C6)</f>
         <v>0.15131239787715892</v>
       </c>
-      <c r="D49" s="152" t="str">
+      <c r="D49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="E49" s="152" t="str">
+      <c r="E49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="F49" s="152" t="str">
+      <c r="F49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="G49" s="152" t="str">
+      <c r="G49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="H49" s="152" t="str">
+      <c r="H49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="I49" s="152" t="str">
+      <c r="I49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="J49" s="152" t="str">
+      <c r="J49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="K49" s="152" t="str">
+      <c r="K49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="L49" s="152" t="str">
+      <c r="L49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="M49" s="152" t="str">
+      <c r="M49" s="151" t="str">
         <f t="shared" si="42"/>
         <v/>
       </c>
-      <c r="N49" s="87"/>
+      <c r="N49" s="86"/>
     </row>
     <row r="50" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
-      <c r="B50" s="94" t="s">
-        <v>256</v>
-      </c>
-      <c r="C50" s="152">
+      <c r="B50" s="93" t="s">
+        <v>254</v>
+      </c>
+      <c r="C50" s="151">
         <f t="shared" ref="C50:M50" si="43">IF(C29="","",C29/C6)</f>
         <v>1.4227816099892221</v>
       </c>
-      <c r="D50" s="152" t="str">
+      <c r="D50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="E50" s="152" t="str">
+      <c r="E50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="F50" s="152" t="str">
+      <c r="F50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="G50" s="152" t="str">
+      <c r="G50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="H50" s="152" t="str">
+      <c r="H50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="I50" s="152" t="str">
+      <c r="I50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="J50" s="152" t="str">
+      <c r="J50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="K50" s="152" t="str">
+      <c r="K50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="L50" s="152" t="str">
+      <c r="L50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="M50" s="152" t="str">
+      <c r="M50" s="151" t="str">
         <f t="shared" si="43"/>
         <v/>
       </c>
-      <c r="N50" s="87"/>
+      <c r="N50" s="86"/>
     </row>
     <row r="51" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
-      <c r="B51" s="94" t="s">
-        <v>246</v>
-      </c>
-      <c r="C51" s="152" t="e">
+      <c r="B51" s="93" t="s">
+        <v>244</v>
+      </c>
+      <c r="C51" s="151" t="e">
         <f t="shared" ref="C51:M51" si="44">IF(D6="","",C16/(C6-D6))</f>
         <v>#VALUE!</v>
       </c>
-      <c r="D51" s="152" t="e">
+      <c r="D51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E51" s="152" t="e">
+      <c r="E51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F51" s="152" t="e">
+      <c r="F51" s="151" t="e">
         <f t="shared" si="44"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G51" s="152" t="str">
+      <c r="G51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="H51" s="152" t="str">
+      <c r="H51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="I51" s="152" t="str">
+      <c r="I51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="J51" s="152" t="str">
+      <c r="J51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="K51" s="152" t="str">
+      <c r="K51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="L51" s="152" t="str">
+      <c r="L51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="M51" s="152" t="str">
+      <c r="M51" s="151" t="str">
         <f t="shared" si="44"/>
         <v/>
       </c>
-      <c r="N51" s="87"/>
+      <c r="N51" s="86"/>
     </row>
     <row r="52" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="16"/>
-      <c r="B52" s="102" t="s">
-        <v>249</v>
+      <c r="B52" s="101" t="s">
+        <v>247</v>
       </c>
       <c r="C52" s="36"/>
       <c r="D52" s="36"/>
@@ -8101,350 +8096,350 @@
     </row>
     <row r="53" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
-      <c r="B53" s="95" t="s">
-        <v>250</v>
-      </c>
-      <c r="C53" s="155">
+      <c r="B53" s="94" t="s">
+        <v>248</v>
+      </c>
+      <c r="C53" s="154">
         <f t="shared" ref="C53:M53" si="45">IF(C34="","",(C34-C35)/C27)</f>
         <v>0.51458693208236717</v>
       </c>
-      <c r="D53" s="155" t="str">
+      <c r="D53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="E53" s="155" t="e">
+      <c r="E53" s="154" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F53" s="155" t="e">
+      <c r="F53" s="154" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G53" s="155" t="e">
+      <c r="G53" s="154" t="e">
         <f t="shared" si="45"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H53" s="155" t="str">
+      <c r="H53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="I53" s="155" t="str">
+      <c r="I53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="J53" s="155" t="str">
+      <c r="J53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="K53" s="155" t="str">
+      <c r="K53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="L53" s="155" t="str">
+      <c r="L53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
-      <c r="M53" s="155" t="str">
+      <c r="M53" s="154" t="str">
         <f t="shared" si="45"/>
         <v/>
       </c>
     </row>
     <row r="54" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
-      <c r="B54" s="94" t="s">
-        <v>117</v>
-      </c>
-      <c r="C54" s="156">
+      <c r="B54" s="93" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="155">
         <f t="shared" ref="C54:M54" si="46">IF(OR(C22="",C33=""),"",IF(C33&lt;=0,"-",C22/C33))</f>
         <v>5.3783279107044654E-2</v>
       </c>
-      <c r="D54" s="156" t="str">
+      <c r="D54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="E54" s="156">
+      <c r="E54" s="155">
         <f t="shared" si="46"/>
         <v>0.16460211680126566</v>
       </c>
-      <c r="F54" s="156">
+      <c r="F54" s="155">
         <f t="shared" si="46"/>
         <v>0.13423059684295194</v>
       </c>
-      <c r="G54" s="156">
+      <c r="G54" s="155">
         <f t="shared" si="46"/>
         <v>0.16550742385270611</v>
       </c>
-      <c r="H54" s="156" t="str">
+      <c r="H54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="I54" s="156" t="str">
+      <c r="I54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="J54" s="156" t="str">
+      <c r="J54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="K54" s="156" t="str">
+      <c r="K54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="L54" s="156" t="str">
+      <c r="L54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
-      <c r="M54" s="156" t="str">
+      <c r="M54" s="155" t="str">
         <f t="shared" si="46"/>
         <v/>
       </c>
     </row>
     <row r="55" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
-      <c r="B55" s="94" t="s">
-        <v>119</v>
-      </c>
-      <c r="C55" s="152">
+      <c r="B55" s="93" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="151">
         <f t="shared" ref="C55:M55" si="47">IF(C22="","",IF(MAX(C17,0)&lt;=0,"-",C17/C22))</f>
         <v>0.19275644834711586</v>
       </c>
-      <c r="D55" s="152">
+      <c r="D55" s="151">
         <f t="shared" si="47"/>
         <v>7.9558955763155692E-2</v>
       </c>
-      <c r="E55" s="152">
+      <c r="E55" s="151">
         <f t="shared" si="47"/>
         <v>9.108876012464287E-2</v>
       </c>
-      <c r="F55" s="152">
+      <c r="F55" s="151">
         <f t="shared" si="47"/>
         <v>0.1304717773613695</v>
       </c>
-      <c r="G55" s="152">
+      <c r="G55" s="151">
         <f t="shared" si="47"/>
         <v>0.12369131735100422</v>
       </c>
-      <c r="H55" s="152" t="str">
+      <c r="H55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="I55" s="152" t="str">
+      <c r="I55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="J55" s="152" t="str">
+      <c r="J55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="K55" s="152" t="str">
+      <c r="K55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="L55" s="152" t="str">
+      <c r="L55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
-      <c r="M55" s="152" t="str">
+      <c r="M55" s="151" t="str">
         <f t="shared" si="47"/>
         <v/>
       </c>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
-      <c r="B56" s="98" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/C30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/D30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="E56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/E30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/F30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/G30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/H30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="I56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/I30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/J30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/K30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="L56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/L30)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M56" s="157" t="e">
-        <f>IF(#REF!="","",#REF!/M30)</f>
-        <v>#REF!</v>
+      <c r="B56" s="93" t="s">
+        <v>267</v>
+      </c>
+      <c r="C56" s="151">
+        <f>IF(C34="","",IF(Inputs!C38=0,0,Inputs!C38/C27))</f>
+        <v>0</v>
+      </c>
+      <c r="D56" s="151" t="str">
+        <f>IF(D34="","",IF(Inputs!D38=0,0,Inputs!D38/D27))</f>
+        <v/>
+      </c>
+      <c r="E56" s="151">
+        <f>IF(E34="","",IF(Inputs!E38=0,0,Inputs!E38/E27))</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="151">
+        <f>IF(F34="","",IF(Inputs!F38=0,0,Inputs!F38/F27))</f>
+        <v>0</v>
+      </c>
+      <c r="G56" s="151">
+        <f>IF(G34="","",IF(Inputs!G38=0,0,Inputs!G38/G27))</f>
+        <v>0</v>
+      </c>
+      <c r="H56" s="151" t="str">
+        <f>IF(H34="","",IF(Inputs!H38=0,0,Inputs!H38/H27))</f>
+        <v/>
+      </c>
+      <c r="I56" s="151" t="str">
+        <f>IF(I34="","",IF(Inputs!I38=0,0,Inputs!I38/I27))</f>
+        <v/>
+      </c>
+      <c r="J56" s="151" t="str">
+        <f>IF(J34="","",IF(Inputs!J38=0,0,Inputs!J38/J27))</f>
+        <v/>
+      </c>
+      <c r="K56" s="151" t="str">
+        <f>IF(K34="","",IF(Inputs!K38=0,0,Inputs!K38/K27))</f>
+        <v/>
+      </c>
+      <c r="L56" s="151" t="str">
+        <f>IF(L34="","",IF(Inputs!L38=0,0,Inputs!L38/L27))</f>
+        <v/>
+      </c>
+      <c r="M56" s="151" t="str">
+        <f>IF(M34="","",IF(Inputs!M38=0,0,Inputs!M38/M27))</f>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="16"/>
-      <c r="B57" s="102" t="s">
-        <v>251</v>
-      </c>
-      <c r="C57" s="270" t="str">
+      <c r="B57" s="101" t="s">
+        <v>249</v>
+      </c>
+      <c r="C57" s="268" t="str">
         <f t="shared" ref="C57:M57" si="48">IFERROR(IF(C13*C48*(1/C53)=C58,"","Error"),"")</f>
         <v/>
       </c>
-      <c r="D57" s="270" t="str">
+      <c r="D57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="E57" s="270" t="str">
+      <c r="E57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="F57" s="270" t="str">
+      <c r="F57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="G57" s="270" t="str">
+      <c r="G57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="H57" s="270" t="str">
+      <c r="H57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="I57" s="270" t="str">
+      <c r="I57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="J57" s="270" t="str">
+      <c r="J57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="K57" s="270" t="str">
+      <c r="K57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="L57" s="270" t="str">
+      <c r="L57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
-      <c r="M57" s="270" t="str">
+      <c r="M57" s="268" t="str">
         <f t="shared" si="48"/>
         <v/>
       </c>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
-      <c r="B58" s="268" t="s">
-        <v>252</v>
-      </c>
-      <c r="C58" s="271">
+      <c r="B58" s="266" t="s">
+        <v>250</v>
+      </c>
+      <c r="C58" s="269">
         <f t="shared" ref="C58:M58" si="49">IF(C14="","",C14/(C34-C35))</f>
         <v>3.4597349023559515E-2</v>
       </c>
-      <c r="D58" s="271" t="e">
+      <c r="D58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E58" s="271" t="e">
+      <c r="E58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F58" s="271" t="e">
+      <c r="F58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G58" s="271" t="e">
+      <c r="G58" s="269" t="e">
         <f t="shared" si="49"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H58" s="271" t="str">
+      <c r="H58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="I58" s="271" t="str">
+      <c r="I58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="J58" s="271" t="str">
+      <c r="J58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="K58" s="271" t="str">
+      <c r="K58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="L58" s="271" t="str">
+      <c r="L58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
-      <c r="M58" s="271" t="str">
+      <c r="M58" s="269" t="str">
         <f t="shared" si="49"/>
         <v/>
       </c>
     </row>
     <row r="59" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
-      <c r="B59" s="268" t="s">
-        <v>253</v>
-      </c>
-      <c r="C59" s="271">
+      <c r="B59" s="266" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="269">
         <f t="shared" ref="C59:M59" si="50">IF(C22="","",C22/(C34-C35))</f>
         <v>2.900621419528138E-2</v>
       </c>
-      <c r="D59" s="271" t="e">
+      <c r="D59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="E59" s="271" t="e">
+      <c r="E59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="F59" s="271" t="e">
+      <c r="F59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="G59" s="271" t="e">
+      <c r="G59" s="269" t="e">
         <f t="shared" si="50"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H59" s="271" t="str">
+      <c r="H59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="I59" s="271" t="str">
+      <c r="I59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="J59" s="271" t="str">
+      <c r="J59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="K59" s="271" t="str">
+      <c r="K59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="L59" s="271" t="str">
+      <c r="L59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
-      <c r="M59" s="271" t="str">
+      <c r="M59" s="269" t="str">
         <f t="shared" si="50"/>
         <v/>
       </c>
@@ -9723,7 +9718,7 @@
       <formula>LEN(TRIM(F4))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{00000000-0002-0000-0100-000001000000}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9741,7 +9736,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -9759,25 +9754,25 @@
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2"/>
       <c r="B2" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="45"/>
       <c r="D2" s="64"/>
-      <c r="E2" s="87"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
       <c r="H2" s="7"/>
-      <c r="I2" s="87"/>
+      <c r="I2" s="86"/>
       <c r="K2" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="87"/>
-      <c r="D3" s="204">
+        <v>21</v>
+      </c>
+      <c r="C3" s="86"/>
+      <c r="D3" s="202">
         <f>Inputs!C41</f>
         <v>121156821</v>
       </c>
@@ -9785,12 +9780,12 @@
         <f>IF((C49-I49)=D3,"", "Error!")</f>
         <v/>
       </c>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
       <c r="H3" s="47" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="282">
+        <v>22</v>
+      </c>
+      <c r="I3" s="280">
         <f>D3-D4</f>
         <v>107256580</v>
       </c>
@@ -9798,28 +9793,28 @@
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="87"/>
-      <c r="D4" s="198">
+        <v>23</v>
+      </c>
+      <c r="C4" s="86"/>
+      <c r="D4" s="196">
         <f>Inputs!C42</f>
         <v>13900241</v>
       </c>
       <c r="E4" s="37"/>
-      <c r="F4" s="87"/>
-      <c r="G4" s="87"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
       <c r="H4" s="21"/>
       <c r="I4" s="54"/>
       <c r="K4" s="24"/>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="I5" s="63">
         <f>C28/I28</f>
@@ -9832,7 +9827,7 @@
         <f>"Adj. Net Asset in "&amp;Dashboard!G6</f>
         <v>Adj. Net Asset in HKD</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="86"/>
       <c r="D6" s="69">
         <f>(E49-I49-E53)</f>
         <v>-28198312.699999988</v>
@@ -9841,16 +9836,16 @@
         <f>1-D6/D3</f>
         <v>1.2327422630212457</v>
       </c>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" s="63">
         <f>(C24+C25)/I28</f>
         <v>0.61253898691364483</v>
       </c>
-      <c r="J6" s="87"/>
+      <c r="J6" s="86"/>
       <c r="K6" s="24"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
@@ -9858,7 +9853,7 @@
         <f>"Adj. Net Asset per Shares in "&amp;Dashboard!H3</f>
         <v>Adj. Net Asset per Shares in HKD</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="86"/>
       <c r="D7" s="66">
         <f>MAX((D6*Exchange_Rate*Data!C4)/Common_Shares, 0)</f>
         <v>0</v>
@@ -9868,287 +9863,287 @@
         <v>HKD</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="63">
         <f>C24/I28</f>
         <v>0.61231113603838638</v>
       </c>
-      <c r="J7" s="87"/>
+      <c r="J7" s="86"/>
       <c r="K7" s="33"/>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="87"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
+      <c r="C8" s="86"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
       <c r="K8" s="24"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2"/>
       <c r="B9" s="46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="202">
+        <v>28</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="200">
         <f>Inputs!C14</f>
         <v>45473</v>
       </c>
-      <c r="E9" s="118" t="str">
+      <c r="E9" s="117" t="str">
         <f>IF(MONTH(D9)=MONTH(Data!C3),"FY","Quarter")</f>
         <v>Quarter</v>
       </c>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
+      <c r="F9" s="85"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="85"/>
+      <c r="I9" s="85"/>
       <c r="K9" s="24"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="74" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="74" t="s">
+      <c r="D10" s="74" t="s">
+        <v>182</v>
+      </c>
+      <c r="E10" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="74" t="s">
-        <v>183</v>
-      </c>
-      <c r="E10" s="74" t="s">
+      <c r="F10" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="111" t="s">
+      <c r="G10" s="86"/>
+      <c r="H10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="87"/>
-      <c r="H10" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="I10" s="74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K10" s="24"/>
     </row>
     <row r="11" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="40">
         <f>Inputs!C48</f>
         <v>13539631</v>
       </c>
-      <c r="D11" s="197">
+      <c r="D11" s="195">
         <f>Inputs!D48</f>
         <v>0.9</v>
       </c>
-      <c r="E11" s="88">
+      <c r="E11" s="87">
         <f t="shared" ref="E11:E22" si="0">C11*D11</f>
         <v>12185667.9</v>
       </c>
-      <c r="F11" s="112"/>
-      <c r="G11" s="87"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="86"/>
       <c r="H11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I11" s="40">
         <f>Inputs!C73</f>
         <v>6636214</v>
       </c>
-      <c r="J11" s="87"/>
+      <c r="J11" s="86"/>
       <c r="K11" s="24"/>
     </row>
     <row r="12" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B12" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C12" s="40">
         <f>Inputs!C49</f>
         <v>305449</v>
       </c>
-      <c r="D12" s="197">
+      <c r="D12" s="195">
         <f>Inputs!D49</f>
         <v>0.8</v>
       </c>
-      <c r="E12" s="88">
+      <c r="E12" s="87">
         <f t="shared" si="0"/>
         <v>244359.2</v>
       </c>
-      <c r="F12" s="112"/>
-      <c r="G12" s="87"/>
+      <c r="F12" s="111"/>
+      <c r="G12" s="86"/>
       <c r="H12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I12" s="40">
         <f>Inputs!C74</f>
         <v>43646</v>
       </c>
-      <c r="J12" s="87"/>
+      <c r="J12" s="86"/>
       <c r="K12" s="24"/>
     </row>
     <row r="13" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B13" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C13" s="40">
         <f>Inputs!C50</f>
         <v>1980623</v>
       </c>
-      <c r="D13" s="197">
+      <c r="D13" s="195">
         <f>Inputs!D50</f>
         <v>0.6</v>
       </c>
-      <c r="E13" s="88">
+      <c r="E13" s="87">
         <f t="shared" si="0"/>
         <v>1188373.8</v>
       </c>
-      <c r="F13" s="112"/>
-      <c r="G13" s="87"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="86"/>
       <c r="H13" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="40">
         <f>Inputs!C75</f>
         <v>0</v>
       </c>
-      <c r="J13" s="87"/>
+      <c r="J13" s="86"/>
       <c r="K13" s="26"/>
     </row>
     <row r="14" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B14" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="40">
         <f>Inputs!C51</f>
         <v>0</v>
       </c>
-      <c r="D14" s="197">
+      <c r="D14" s="195">
         <f>Inputs!D51</f>
         <v>0.6</v>
       </c>
-      <c r="E14" s="88">
+      <c r="E14" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F14" s="112"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="203">
+      <c r="F14" s="111"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="85" t="s">
+        <v>39</v>
+      </c>
+      <c r="I14" s="201">
         <f>Inputs!C76</f>
         <v>114041</v>
       </c>
-      <c r="J14" s="87"/>
+      <c r="J14" s="86"/>
       <c r="K14" s="27"/>
     </row>
     <row r="15" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="40">
         <f>Inputs!C52</f>
         <v>0</v>
       </c>
-      <c r="D15" s="197">
+      <c r="D15" s="195">
         <f>Inputs!D52</f>
         <v>0.5</v>
       </c>
-      <c r="E15" s="88">
+      <c r="E15" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F15" s="112"/>
-      <c r="G15" s="87"/>
+      <c r="F15" s="111"/>
+      <c r="G15" s="86"/>
       <c r="H15" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="I15" s="84">
+        <v>50</v>
+      </c>
+      <c r="I15" s="83">
         <f>SUM(I11:I14)</f>
         <v>6793901</v>
       </c>
-      <c r="J15" s="87"/>
+      <c r="J15" s="86"/>
     </row>
     <row r="16" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="40">
         <f>Inputs!C53</f>
         <v>5889</v>
       </c>
-      <c r="D16" s="197">
+      <c r="D16" s="195">
         <f>Inputs!D53</f>
         <v>0.6</v>
       </c>
-      <c r="E16" s="88">
+      <c r="E16" s="87">
         <f t="shared" si="0"/>
         <v>3533.4</v>
       </c>
-      <c r="F16" s="112"/>
+      <c r="F16" s="111"/>
       <c r="G16" s="30"/>
       <c r="H16" s="3"/>
       <c r="I16" s="40"/>
-      <c r="J16" s="87"/>
+      <c r="J16" s="86"/>
     </row>
     <row r="17" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C17" s="40">
         <f>Inputs!C54</f>
         <v>0</v>
       </c>
-      <c r="D17" s="197">
+      <c r="D17" s="195">
         <f>Inputs!D54</f>
         <v>0.1</v>
       </c>
-      <c r="E17" s="88">
+      <c r="E17" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F17" s="112"/>
-      <c r="G17" s="87"/>
+      <c r="F17" s="111"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="3"/>
       <c r="I17" s="40"/>
-      <c r="J17" s="87"/>
+      <c r="J17" s="86"/>
     </row>
     <row r="18" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="40">
         <f>Inputs!C55</f>
         <v>18623682</v>
       </c>
-      <c r="D18" s="197">
+      <c r="D18" s="195">
         <f>Inputs!D55</f>
         <v>0.5</v>
       </c>
-      <c r="E18" s="88">
+      <c r="E18" s="87">
         <f t="shared" si="0"/>
         <v>9311841</v>
       </c>
-      <c r="F18" s="112"/>
-      <c r="G18" s="87"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="87"/>
+      <c r="F18" s="111"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="86"/>
+      <c r="I18" s="86"/>
     </row>
     <row r="19" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="40">
         <f>Inputs!C56</f>
         <v>0</v>
       </c>
-      <c r="D19" s="197">
+      <c r="D19" s="195">
         <f>Inputs!D56</f>
         <v>0.6</v>
       </c>
-      <c r="E19" s="88">
+      <c r="E19" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F19" s="133" t="str">
+      <c r="F19" s="132" t="str">
         <f>Inputs!E56</f>
         <v>Y</v>
       </c>
@@ -10159,21 +10154,21 @@
     </row>
     <row r="20" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B20" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C20" s="40">
         <f>Inputs!C57</f>
         <v>23436237</v>
       </c>
-      <c r="D20" s="197">
+      <c r="D20" s="195">
         <f>Inputs!D57</f>
         <v>0.6</v>
       </c>
-      <c r="E20" s="88">
+      <c r="E20" s="87">
         <f t="shared" si="0"/>
         <v>14061742.199999999</v>
       </c>
-      <c r="F20" s="133" t="str">
+      <c r="F20" s="132" t="str">
         <f>Inputs!E57</f>
         <v>Y</v>
       </c>
@@ -10186,45 +10181,45 @@
     </row>
     <row r="21" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B21" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="40">
         <f>Inputs!C58</f>
         <v>514825</v>
       </c>
-      <c r="D21" s="197">
+      <c r="D21" s="195">
         <f>Inputs!D58</f>
         <v>0.9</v>
       </c>
-      <c r="E21" s="88">
+      <c r="E21" s="87">
         <f t="shared" si="0"/>
         <v>463342.5</v>
       </c>
-      <c r="F21" s="112"/>
-      <c r="G21" s="87"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="86"/>
       <c r="H21" s="3"/>
       <c r="I21" s="40"/>
     </row>
     <row r="22" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="40">
         <f>Inputs!C59</f>
         <v>0</v>
       </c>
-      <c r="D22" s="197">
+      <c r="D22" s="195">
         <f>Inputs!D59</f>
         <v>0.05</v>
       </c>
-      <c r="E22" s="88">
+      <c r="E22" s="87">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F22" s="112"/>
-      <c r="G22" s="87"/>
+      <c r="F22" s="111"/>
+      <c r="G22" s="86"/>
       <c r="H22" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I22" s="52">
         <f>I28-SUM(I11:I14)</f>
@@ -10232,17 +10227,17 @@
       </c>
     </row>
     <row r="23" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="111" t="s">
-        <v>49</v>
-      </c>
-      <c r="G23" s="87"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="110" t="s">
+        <v>48</v>
+      </c>
+      <c r="G23" s="86"/>
     </row>
     <row r="24" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B24" s="23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" s="61">
         <f>SUM(C11:C14)</f>
@@ -10252,19 +10247,19 @@
         <f>IF(E24=0,0,E24/C24)</f>
         <v>0.86052423074033424</v>
       </c>
-      <c r="E24" s="88">
+      <c r="E24" s="87">
         <f>SUM(E11:E14)</f>
         <v>13618400.9</v>
       </c>
-      <c r="F24" s="113">
+      <c r="F24" s="112">
         <f>E24/$E$28</f>
         <v>0.36355620272480266</v>
       </c>
-      <c r="G24" s="87"/>
+      <c r="G24" s="86"/>
     </row>
     <row r="25" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B25" s="23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C25" s="61">
         <f>SUM(C15:C17)</f>
@@ -10274,17 +10269,17 @@
         <f>IF(E25=0,0,E25/C25)</f>
         <v>0.6</v>
       </c>
-      <c r="E25" s="88">
+      <c r="E25" s="87">
         <f>SUM(E15:E17)</f>
         <v>3533.4</v>
       </c>
-      <c r="F25" s="113">
+      <c r="F25" s="112">
         <f>E25/$E$28</f>
         <v>9.4327483537940028E-5</v>
       </c>
-      <c r="G25" s="87"/>
+      <c r="G25" s="86"/>
       <c r="H25" s="23" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="63">
         <f>E28/I28</f>
@@ -10293,7 +10288,7 @@
     </row>
     <row r="26" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B26" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C26" s="61">
         <f>C18+C19+C20</f>
@@ -10303,17 +10298,17 @@
         <f>IF(E26=0,0,E26/C26)</f>
         <v>0.55572107021889416</v>
       </c>
-      <c r="E26" s="88">
+      <c r="E26" s="87">
         <f>E18+E19+E20</f>
         <v>23373583.199999999</v>
       </c>
-      <c r="F26" s="113">
+      <c r="F26" s="112">
         <f>E26/$E$28</f>
         <v>0.62398009976811897</v>
       </c>
-      <c r="G26" s="87"/>
+      <c r="G26" s="86"/>
       <c r="H26" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I26" s="63">
         <f>E24/($I$28-I22)</f>
@@ -10326,7 +10321,7 @@
     </row>
     <row r="27" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B27" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C27" s="77">
         <f>C21+C22</f>
@@ -10336,17 +10331,17 @@
         <f>IF(E27=0,0,E27/C27)</f>
         <v>0.9</v>
       </c>
-      <c r="E27" s="88">
+      <c r="E27" s="87">
         <f>E21+E22</f>
         <v>463342.5</v>
       </c>
-      <c r="F27" s="113">
+      <c r="F27" s="112">
         <f>E27/$E$28</f>
         <v>1.2369370023540492E-2</v>
       </c>
-      <c r="G27" s="87"/>
+      <c r="G27" s="86"/>
       <c r="H27" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I27" s="63">
         <f>(E25+E24)/$I$28</f>
@@ -10373,12 +10368,12 @@
         <f>SUM(E24:E27)</f>
         <v>37458860</v>
       </c>
-      <c r="F28" s="112"/>
-      <c r="G28" s="87"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="86"/>
       <c r="H28" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="I28" s="204">
+      <c r="I28" s="202">
         <f>Inputs!C77</f>
         <v>25845852</v>
       </c>
@@ -10388,171 +10383,171 @@
       </c>
     </row>
     <row r="29" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C29" s="87"/>
-      <c r="D29" s="87"/>
-      <c r="E29" s="87"/>
-      <c r="F29" s="112" t="s">
-        <v>33</v>
-      </c>
-      <c r="G29" s="87"/>
-      <c r="H29" s="87"/>
-      <c r="I29" s="87"/>
-      <c r="J29" s="87"/>
+      <c r="C29" s="86"/>
+      <c r="D29" s="86"/>
+      <c r="E29" s="86"/>
+      <c r="F29" s="111" t="s">
+        <v>32</v>
+      </c>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
     </row>
     <row r="30" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B30" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="40">
         <f>Inputs!C60</f>
         <v>0</v>
       </c>
-      <c r="D30" s="197">
+      <c r="D30" s="195">
         <f>Inputs!D60</f>
         <v>0.8</v>
       </c>
-      <c r="E30" s="88">
+      <c r="E30" s="87">
         <v>0</v>
       </c>
-      <c r="F30" s="112"/>
-      <c r="G30" s="87"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="86"/>
       <c r="H30" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I30" s="40">
         <f>Inputs!C78</f>
         <v>50731948</v>
       </c>
-      <c r="J30" s="87"/>
+      <c r="J30" s="86"/>
     </row>
     <row r="31" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B31" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="40">
         <f>Inputs!C61</f>
         <v>1408869</v>
       </c>
-      <c r="D31" s="197">
+      <c r="D31" s="195">
         <f>Inputs!D61</f>
         <v>0.6</v>
       </c>
-      <c r="E31" s="88">
+      <c r="E31" s="87">
         <f t="shared" ref="E31:E42" si="1">C31*D31</f>
         <v>845321.4</v>
       </c>
-      <c r="F31" s="112"/>
-      <c r="G31" s="87"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="86"/>
       <c r="H31" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I31" s="40">
         <f>Inputs!C79</f>
         <v>40529</v>
       </c>
-      <c r="J31" s="87"/>
+      <c r="J31" s="86"/>
     </row>
     <row r="32" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B32" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C32" s="40">
         <f>Inputs!C62</f>
         <v>0</v>
       </c>
-      <c r="D32" s="197">
+      <c r="D32" s="195">
         <f>Inputs!D62</f>
         <v>0.5</v>
       </c>
-      <c r="E32" s="88">
+      <c r="E32" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F32" s="112"/>
-      <c r="G32" s="87"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="86"/>
       <c r="H32" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I32" s="40">
         <f>Inputs!C80</f>
         <v>0</v>
       </c>
-      <c r="J32" s="87"/>
+      <c r="J32" s="86"/>
     </row>
     <row r="33" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B33" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C33" s="40">
         <f>Inputs!C63</f>
         <v>582318</v>
       </c>
-      <c r="D33" s="197">
+      <c r="D33" s="195">
         <f>Inputs!D63</f>
         <v>0.5</v>
       </c>
-      <c r="E33" s="88">
+      <c r="E33" s="87">
         <f t="shared" si="1"/>
         <v>291159</v>
       </c>
-      <c r="F33" s="112"/>
+      <c r="F33" s="111"/>
       <c r="G33" s="30">
         <f>IF(F33="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="H33" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="I33" s="203">
+      <c r="H33" s="85" t="s">
+        <v>63</v>
+      </c>
+      <c r="I33" s="201">
         <f>Inputs!C81</f>
         <v>278874</v>
       </c>
-      <c r="J33" s="87"/>
+      <c r="J33" s="86"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" s="40">
         <f>Inputs!C64</f>
         <v>898512</v>
       </c>
-      <c r="D34" s="197">
+      <c r="D34" s="195">
         <f>Inputs!D64</f>
         <v>0.4</v>
       </c>
-      <c r="E34" s="88">
+      <c r="E34" s="87">
         <f t="shared" si="1"/>
         <v>359404.80000000005</v>
       </c>
-      <c r="F34" s="112"/>
-      <c r="G34" s="87"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="86"/>
       <c r="H34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I34" s="84">
+        <v>74</v>
+      </c>
+      <c r="I34" s="83">
         <f>SUM(I30:I33)</f>
         <v>51051351</v>
       </c>
-      <c r="J34" s="87"/>
+      <c r="J34" s="86"/>
     </row>
     <row r="35" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B35" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C35" s="40">
         <f>Inputs!C65</f>
         <v>24823141</v>
       </c>
-      <c r="D35" s="197">
+      <c r="D35" s="195">
         <f>Inputs!D65</f>
         <v>0.1</v>
       </c>
-      <c r="E35" s="88">
+      <c r="E35" s="87">
         <f t="shared" si="1"/>
         <v>2482314.1</v>
       </c>
-      <c r="F35" s="133" t="str">
+      <c r="F35" s="132" t="str">
         <f>Inputs!E65</f>
         <v>N</v>
       </c>
@@ -10560,25 +10555,25 @@
         <f>IF(F35="Y",0,1)</f>
         <v>1</v>
       </c>
-      <c r="J35" s="87"/>
+      <c r="J35" s="86"/>
     </row>
     <row r="36" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B36" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C36" s="40">
         <f>Inputs!C66</f>
         <v>76964829</v>
       </c>
-      <c r="D36" s="197">
+      <c r="D36" s="195">
         <f>Inputs!D66</f>
         <v>0.3</v>
       </c>
-      <c r="E36" s="88">
+      <c r="E36" s="87">
         <f t="shared" si="1"/>
         <v>23089448.699999999</v>
       </c>
-      <c r="F36" s="133" t="str">
+      <c r="F36" s="132" t="str">
         <f>Inputs!E66</f>
         <v>Y</v>
       </c>
@@ -10586,26 +10581,26 @@
         <f>IF(F36="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="87"/>
-      <c r="I36" s="87"/>
+      <c r="H36" s="86"/>
+      <c r="I36" s="86"/>
     </row>
     <row r="37" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B37" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C37" s="40">
         <f>Inputs!C67</f>
         <v>39222688</v>
       </c>
-      <c r="D37" s="197">
+      <c r="D37" s="195">
         <f>Inputs!D67</f>
         <v>0.2</v>
       </c>
-      <c r="E37" s="88">
+      <c r="E37" s="87">
         <f t="shared" si="1"/>
         <v>7844537.6000000006</v>
       </c>
-      <c r="F37" s="133" t="str">
+      <c r="F37" s="132" t="str">
         <f>Inputs!E67</f>
         <v>Y</v>
       </c>
@@ -10613,113 +10608,113 @@
         <f>IF(F37="Y",0,1)</f>
         <v>0</v>
       </c>
-      <c r="H37" s="87"/>
-      <c r="I37" s="87"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
     </row>
     <row r="38" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C38" s="40">
         <f>Inputs!C68</f>
         <v>6003185</v>
       </c>
-      <c r="D38" s="197">
+      <c r="D38" s="195">
         <f>Inputs!D68</f>
         <v>0.1</v>
       </c>
-      <c r="E38" s="88">
+      <c r="E38" s="87">
         <f t="shared" si="1"/>
         <v>600318.5</v>
       </c>
-      <c r="F38" s="112"/>
-      <c r="G38" s="87"/>
-      <c r="H38" s="87"/>
-      <c r="I38" s="87"/>
+      <c r="F38" s="111"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="86"/>
+      <c r="I38" s="86"/>
     </row>
     <row r="39" spans="2:10" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="40">
         <f>Inputs!C69</f>
         <v>0</v>
       </c>
-      <c r="D39" s="197">
+      <c r="D39" s="195">
         <f>Inputs!D69</f>
         <v>0.05</v>
       </c>
-      <c r="E39" s="88">
+      <c r="E39" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F39" s="112"/>
-      <c r="G39" s="87"/>
-      <c r="H39" s="87"/>
-      <c r="I39" s="87"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="86"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
     </row>
     <row r="40" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="40">
         <f>Inputs!C70</f>
         <v>122504</v>
       </c>
-      <c r="D40" s="197">
+      <c r="D40" s="195">
         <f>Inputs!D70</f>
         <v>0.05</v>
       </c>
-      <c r="E40" s="88">
+      <c r="E40" s="87">
         <f t="shared" si="1"/>
         <v>6125.2000000000007</v>
       </c>
-      <c r="F40" s="112"/>
-      <c r="G40" s="87"/>
-      <c r="H40" s="87"/>
-      <c r="I40" s="87"/>
+      <c r="F40" s="111"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+      <c r="I40" s="86"/>
     </row>
     <row r="41" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B41" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C41" s="40">
         <f>Inputs!C71</f>
         <v>0</v>
       </c>
-      <c r="D41" s="197">
+      <c r="D41" s="195">
         <f>Inputs!D71</f>
         <v>0.9</v>
       </c>
-      <c r="E41" s="88">
+      <c r="E41" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F41" s="112"/>
-      <c r="G41" s="87"/>
-      <c r="H41" s="87"/>
-      <c r="I41" s="87"/>
+      <c r="F41" s="111"/>
+      <c r="G41" s="86"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B42" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C42" s="40">
         <f>Inputs!C72</f>
         <v>0</v>
       </c>
-      <c r="D42" s="197">
+      <c r="D42" s="195">
         <f>Inputs!D72</f>
         <v>0</v>
       </c>
-      <c r="E42" s="88">
+      <c r="E42" s="87">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="F42" s="112"/>
-      <c r="G42" s="87"/>
+      <c r="F42" s="111"/>
+      <c r="G42" s="86"/>
       <c r="H42" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I42" s="52">
         <f>I48-SUM(I30:I33)</f>
@@ -10727,17 +10722,17 @@
       </c>
     </row>
     <row r="43" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C43" s="87"/>
-      <c r="D43" s="87"/>
-      <c r="E43" s="87"/>
-      <c r="F43" s="87"/>
-      <c r="G43" s="87"/>
-      <c r="H43" s="87"/>
-      <c r="I43" s="87"/>
+      <c r="C43" s="86"/>
+      <c r="D43" s="86"/>
+      <c r="E43" s="86"/>
+      <c r="F43" s="86"/>
+      <c r="G43" s="86"/>
+      <c r="H43" s="86"/>
+      <c r="I43" s="86"/>
     </row>
     <row r="44" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B44" s="23" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C44" s="61">
         <f>SUM(C30:C31)</f>
@@ -10747,16 +10742,16 @@
         <f>IF(E44=0,0,E44/C44)</f>
         <v>0.6</v>
       </c>
-      <c r="E44" s="88">
+      <c r="E44" s="87">
         <f>SUM(E30:E31)</f>
         <v>845321.4</v>
       </c>
       <c r="F44" s="72"/>
-      <c r="G44" s="87"/>
+      <c r="G44" s="86"/>
     </row>
     <row r="45" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B45" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C45" s="61">
         <f>SUM(C32:C35)</f>
@@ -10766,16 +10761,16 @@
         <f>IF(E45=0,0,E45/C45)</f>
         <v>0.11910284952792871</v>
       </c>
-      <c r="E45" s="88">
+      <c r="E45" s="87">
         <f>SUM(E32:E35)</f>
         <v>3132877.9000000004</v>
       </c>
       <c r="F45" s="72"/>
-      <c r="G45" s="87"/>
+      <c r="G45" s="86"/>
     </row>
     <row r="46" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B46" s="23" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C46" s="61">
         <f>C36+C37+C38+C39</f>
@@ -10785,14 +10780,14 @@
         <f>IF(E46=0,0,E46/C46)</f>
         <v>0.25807450390128706</v>
       </c>
-      <c r="E46" s="88">
+      <c r="E46" s="87">
         <f>E36+E37+E38+E39</f>
         <v>31534304.800000001</v>
       </c>
-      <c r="F46" s="87"/>
-      <c r="G46" s="87"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
       <c r="H46" s="23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I46" s="63">
         <f>(E44+E24)/E64</f>
@@ -10805,7 +10800,7 @@
     </row>
     <row r="47" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B47" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C47" s="61">
         <f>C40+C41+C42</f>
@@ -10815,14 +10810,14 @@
         <f>IF(E47=0,0,E47/C47)</f>
         <v>0.05</v>
       </c>
-      <c r="E47" s="88">
+      <c r="E47" s="87">
         <f>E40+E41+E42</f>
         <v>6125.2000000000007</v>
       </c>
-      <c r="F47" s="87"/>
-      <c r="G47" s="87"/>
+      <c r="F47" s="86"/>
+      <c r="G47" s="86"/>
       <c r="H47" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I47" s="63">
         <f>(E44+E45+E24+E25)/$I$49</f>
@@ -10835,13 +10830,13 @@
     </row>
     <row r="48" spans="2:10" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B48" s="80" t="s">
-        <v>81</v>
-      </c>
-      <c r="C48" s="81">
+        <v>80</v>
+      </c>
+      <c r="C48" s="281">
         <f>SUM(C30:C42)</f>
         <v>150026046</v>
       </c>
-      <c r="D48" s="82">
+      <c r="D48" s="81">
         <f>E48/C48</f>
         <v>0.23674975277292853</v>
       </c>
@@ -10849,12 +10844,12 @@
         <f>SUM(E30:E42)</f>
         <v>35518629.300000004</v>
       </c>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
+      <c r="F48" s="86"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="80" t="s">
-        <v>82</v>
-      </c>
-      <c r="I48" s="281">
+        <v>81</v>
+      </c>
+      <c r="I48" s="279">
         <f>I49-I28</f>
         <v>61429709</v>
       </c>
@@ -10865,63 +10860,63 @@
         <v>14</v>
       </c>
       <c r="C49" s="61">
-        <f>C28+C48</f>
+        <f>Inputs!C41+Inputs!C37</f>
         <v>208432382</v>
       </c>
       <c r="D49" s="56">
         <f>E49/C49</f>
         <v>0.3501254872191597</v>
       </c>
-      <c r="E49" s="88">
+      <c r="E49" s="87">
         <f>E28+E48</f>
         <v>72977489.300000012</v>
       </c>
-      <c r="F49" s="87"/>
-      <c r="G49" s="87"/>
+      <c r="F49" s="86"/>
+      <c r="G49" s="86"/>
       <c r="H49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I49" s="40">
         <f>Inputs!C37</f>
         <v>87275561</v>
       </c>
-      <c r="J49" s="87"/>
+      <c r="J49" s="86"/>
     </row>
     <row r="50" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C50" s="87"/>
-      <c r="D50" s="87"/>
-      <c r="E50" s="87"/>
-      <c r="I50" s="87"/>
+      <c r="C50" s="86"/>
+      <c r="D50" s="86"/>
+      <c r="E50" s="86"/>
+      <c r="I50" s="86"/>
     </row>
     <row r="51" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B51" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C51" s="31"/>
       <c r="D51" s="18"/>
     </row>
     <row r="52" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B52" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="C52" s="87"/>
+        <v>84</v>
+      </c>
+      <c r="C52" s="86"/>
       <c r="D52" s="74" t="str">
         <f>IF(E53=D4,"BV of the MI","P/B Approach")</f>
         <v>BV of the MI</v>
       </c>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="I52" s="87"/>
+      <c r="E52" s="86"/>
+      <c r="F52" s="86"/>
+      <c r="G52" s="86"/>
+      <c r="I52" s="86"/>
       <c r="K52" s="50" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B53" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" s="88">
+        <v>85</v>
+      </c>
+      <c r="C53" s="87">
         <f>MAX(D4,0)</f>
         <v>13900241</v>
       </c>
@@ -10929,45 +10924,45 @@
         <f>IF(E53=0, 0,E53/C53)</f>
         <v>1</v>
       </c>
-      <c r="E53" s="88">
+      <c r="E53" s="87">
         <f>IF(C53=0,0,MAX(C53,C53*Dashboard!G23))</f>
         <v>13900241</v>
       </c>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
+      <c r="F53" s="86"/>
+      <c r="G53" s="86"/>
       <c r="I53" s="41"/>
       <c r="K53" s="33"/>
     </row>
     <row r="54" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C54" s="87"/>
-      <c r="D54" s="87"/>
-      <c r="E54" s="87"/>
-      <c r="F54" s="87"/>
-      <c r="G54" s="87"/>
-      <c r="I54" s="87"/>
+      <c r="C54" s="86"/>
+      <c r="D54" s="86"/>
+      <c r="E54" s="86"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="I54" s="86"/>
       <c r="K54" s="33"/>
     </row>
     <row r="55" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B55" s="25" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C55" s="3"/>
-      <c r="E55" s="124"/>
+      <c r="E55" s="123"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
-      <c r="I55" s="87"/>
+      <c r="I55" s="86"/>
       <c r="K55" s="33"/>
     </row>
     <row r="56" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B56" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="296">
+        <v>86</v>
+      </c>
+      <c r="C56" s="86"/>
+      <c r="D56" s="295">
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="294"/>
+      <c r="E56" s="293"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10975,61 +10970,61 @@
     </row>
     <row r="57" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B57" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" s="87"/>
-      <c r="D57" s="295">
+        <v>87</v>
+      </c>
+      <c r="C57" s="86"/>
+      <c r="D57" s="294">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="294"/>
-      <c r="G57" s="87"/>
-      <c r="I57" s="87"/>
+      <c r="E57" s="293"/>
+      <c r="G57" s="86"/>
+      <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="58" spans="2:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B58" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="C58" s="87"/>
-      <c r="D58" s="295">
+        <v>89</v>
+      </c>
+      <c r="C58" s="86"/>
+      <c r="D58" s="294">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="294"/>
+      <c r="E58" s="293"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
-      <c r="I58" s="87"/>
+      <c r="I58" s="86"/>
       <c r="K58" s="33"/>
     </row>
     <row r="59" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C59" s="87"/>
-      <c r="D59" s="87"/>
-      <c r="E59" s="87"/>
-      <c r="F59" s="87"/>
-      <c r="G59" s="87"/>
-      <c r="I59" s="87"/>
+      <c r="C59" s="86"/>
+      <c r="D59" s="86"/>
+      <c r="E59" s="86"/>
+      <c r="F59" s="86"/>
+      <c r="G59" s="86"/>
+      <c r="I59" s="86"/>
       <c r="K59" s="33"/>
     </row>
     <row r="60" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B60" s="25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="75" t="s">
-        <v>91</v>
-      </c>
-      <c r="E60" s="87"/>
+        <v>90</v>
+      </c>
+      <c r="E60" s="86"/>
       <c r="F60" s="9"/>
       <c r="G60" s="9"/>
-      <c r="I60" s="87"/>
+      <c r="I60" s="86"/>
       <c r="K60" s="33"/>
     </row>
     <row r="61" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B61" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C61" s="68">
         <f>C14+C15+(C19*G19)+(C20*G20)+C31+C32+(C35*G35)+(C36*G36)+(C37*G37)</f>
@@ -11043,35 +11038,35 @@
         <f>E14+E15+(E19*G19)+(E20*G20)+E31+E32+(E35*G35)+(E36*G36)+(E37*G37)</f>
         <v>3327635.5</v>
       </c>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="I61" s="87"/>
+      <c r="F61" s="86"/>
+      <c r="G61" s="86"/>
+      <c r="I61" s="86"/>
       <c r="K61" s="33"/>
     </row>
     <row r="62" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B62" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="C62" s="116">
+        <v>134</v>
+      </c>
+      <c r="C62" s="115">
         <f>C11+C30</f>
         <v>13539631</v>
       </c>
-      <c r="D62" s="107">
+      <c r="D62" s="106">
         <f t="shared" si="2"/>
         <v>0.9</v>
       </c>
-      <c r="E62" s="117">
+      <c r="E62" s="116">
         <f>E11+E30</f>
         <v>12185667.9</v>
       </c>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="I62" s="87"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="I62" s="86"/>
       <c r="K62" s="33"/>
     </row>
     <row r="63" spans="2:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B63" s="19" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C63" s="68">
         <f>C61+C62</f>
@@ -11085,29 +11080,29 @@
         <f>E61+E62</f>
         <v>15513303.4</v>
       </c>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="I63" s="87"/>
+      <c r="F63" s="86"/>
+      <c r="G63" s="86"/>
+      <c r="I63" s="86"/>
       <c r="K63" s="33"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="120" t="s">
-        <v>144</v>
-      </c>
-      <c r="C64" s="205"/>
-      <c r="D64" s="205"/>
+      <c r="B64" s="119" t="s">
+        <v>143</v>
+      </c>
+      <c r="C64" s="203"/>
+      <c r="D64" s="203"/>
       <c r="E64" s="69">
         <f>D56+D57+D58</f>
         <v>57845252</v>
       </c>
-      <c r="F64" s="87"/>
-      <c r="G64" s="87"/>
-      <c r="I64" s="87"/>
+      <c r="F64" s="86"/>
+      <c r="G64" s="86"/>
+      <c r="I64" s="86"/>
       <c r="K64" s="33"/>
     </row>
     <row r="65" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C65" s="68">
         <f>C63-E64</f>
@@ -11121,9 +11116,9 @@
         <f>E63-E64</f>
         <v>-42331948.600000001</v>
       </c>
-      <c r="F65" s="87"/>
-      <c r="G65" s="87"/>
-      <c r="I65" s="87"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="K65" s="33"/>
     </row>
     <row r="66" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
@@ -11131,28 +11126,28 @@
       <c r="C66" s="68"/>
       <c r="D66" s="29"/>
       <c r="E66" s="61"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="I66" s="87"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="I66" s="86"/>
       <c r="K66" s="33"/>
     </row>
     <row r="67" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B67" s="25" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="75" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E67" s="61"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="87"/>
-      <c r="I67" s="87"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="86"/>
+      <c r="I67" s="86"/>
       <c r="K67" s="33"/>
     </row>
     <row r="68" spans="1:11" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B68" s="19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C68" s="68">
         <f>C49-C63</f>
@@ -11166,29 +11161,29 @@
         <f>E49-E63</f>
         <v>57464185.900000013</v>
       </c>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="I68" s="87"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="86"/>
+      <c r="I68" s="86"/>
       <c r="K68" s="33"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="120" t="s">
-        <v>145</v>
-      </c>
-      <c r="C69" s="205"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="125">
+      <c r="B69" s="119" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="203"/>
+      <c r="D69" s="203"/>
+      <c r="E69" s="124">
         <f>I49-E64</f>
         <v>29430309</v>
       </c>
-      <c r="F69" s="87"/>
-      <c r="G69" s="87"/>
-      <c r="I69" s="87"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="86"/>
+      <c r="I69" s="86"/>
       <c r="K69" s="33"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B70" s="19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C70" s="68">
         <f>C68-E69</f>
@@ -11202,29 +11197,29 @@
         <f>E68-E69</f>
         <v>28033876.900000013</v>
       </c>
-      <c r="F70" s="87"/>
-      <c r="G70" s="87"/>
-      <c r="I70" s="87"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="I70" s="86"/>
       <c r="K70" s="33"/>
     </row>
     <row r="72" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="5"/>
-      <c r="B72" s="106" t="s">
-        <v>123</v>
-      </c>
-      <c r="C72" s="283">
+      <c r="B72" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="C72" s="282">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="283"/>
-      <c r="E72" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F72" s="297"/>
-      <c r="H72" s="297" t="s">
+      <c r="D72" s="282"/>
+      <c r="E72" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I72" s="297"/>
+      <c r="F72" s="296"/>
+      <c r="H72" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I72" s="296"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11234,66 +11229,66 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="284" t="s">
+      <c r="C73" s="283" t="s">
+        <v>97</v>
+      </c>
+      <c r="D73" s="283"/>
+      <c r="E73" s="297" t="s">
         <v>98</v>
       </c>
-      <c r="D73" s="284"/>
-      <c r="E73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="F73" s="284"/>
-      <c r="H73" s="298" t="s">
-        <v>99</v>
-      </c>
-      <c r="I73" s="284"/>
+      <c r="F73" s="283"/>
+      <c r="H73" s="297" t="s">
+        <v>98</v>
+      </c>
+      <c r="I73" s="283"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C74" s="77">
         <f>Data!C6</f>
         <v>13089628</v>
       </c>
-      <c r="D74" s="206"/>
-      <c r="E74" s="235">
+      <c r="D74" s="204"/>
+      <c r="E74" s="233">
         <f>Inputs!E91</f>
         <v>13089628</v>
       </c>
-      <c r="F74" s="206"/>
-      <c r="H74" s="235">
+      <c r="F74" s="204"/>
+      <c r="H74" s="233">
         <f>Inputs!F91</f>
         <v>13089628</v>
       </c>
-      <c r="I74" s="206"/>
+      <c r="I74" s="204"/>
       <c r="K74" s="24"/>
     </row>
     <row r="75" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B75" s="104" t="s">
-        <v>103</v>
+      <c r="B75" s="103" t="s">
+        <v>102</v>
       </c>
       <c r="C75" s="77">
         <f>Data!C8</f>
         <v>6368352</v>
       </c>
-      <c r="D75" s="158">
+      <c r="D75" s="156">
         <f>C75/$C$74</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="E75" s="235">
+      <c r="E75" s="233">
         <f>Inputs!E92</f>
         <v>6368352</v>
       </c>
-      <c r="F75" s="159">
+      <c r="F75" s="157">
         <f>E75/E74</f>
         <v>0.48651894461783024</v>
       </c>
-      <c r="H75" s="235">
+      <c r="H75" s="233">
         <f>Inputs!F92</f>
         <v>6368352</v>
       </c>
-      <c r="I75" s="159">
+      <c r="I75" s="157">
         <f>H75/$H$74</f>
         <v>0.48651894461783024</v>
       </c>
@@ -11301,50 +11296,50 @@
     </row>
     <row r="76" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B76" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="C76" s="160">
+        <v>92</v>
+      </c>
+      <c r="C76" s="158">
         <f>C74-C75</f>
         <v>6721276</v>
       </c>
-      <c r="D76" s="207"/>
-      <c r="E76" s="161">
+      <c r="D76" s="205"/>
+      <c r="E76" s="159">
         <f>E74-E75</f>
         <v>6721276</v>
       </c>
-      <c r="F76" s="207"/>
-      <c r="H76" s="161">
+      <c r="F76" s="205"/>
+      <c r="H76" s="159">
         <f>H74-H75</f>
         <v>6721276</v>
       </c>
-      <c r="I76" s="207"/>
+      <c r="I76" s="205"/>
       <c r="K76" s="24"/>
     </row>
     <row r="77" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B77" s="104" t="s">
-        <v>231</v>
+      <c r="B77" s="103" t="s">
+        <v>230</v>
       </c>
       <c r="C77" s="77">
         <f>Data!C10+MAX(Data!C11,0)</f>
         <v>1783204</v>
       </c>
-      <c r="D77" s="158">
+      <c r="D77" s="156">
         <f>C77/$C$74</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="E77" s="235">
+      <c r="E77" s="233">
         <f>Inputs!E93</f>
         <v>1783204</v>
       </c>
-      <c r="F77" s="159">
+      <c r="F77" s="157">
         <f>E77/E74</f>
         <v>0.13623030387112606</v>
       </c>
-      <c r="H77" s="235">
+      <c r="H77" s="233">
         <f>Inputs!F93</f>
         <v>1783204</v>
       </c>
-      <c r="I77" s="159">
+      <c r="I77" s="157">
         <f>H77/$H$74</f>
         <v>0.13623030387112606</v>
       </c>
@@ -11352,60 +11347,60 @@
     </row>
     <row r="78" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B78" s="73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" s="77">
         <f>MAX(Data!C12,0)</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="D78" s="158">
+      <c r="D78" s="156">
         <f>C78/$C$74</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="E78" s="179">
+      <c r="E78" s="177">
         <f>E74*F78</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="F78" s="159">
+      <c r="F78" s="157">
         <f>I78</f>
         <v>9.375962912518726E-2</v>
       </c>
-      <c r="H78" s="235">
+      <c r="H78" s="233">
         <f>Inputs!F97</f>
         <v>1227278.6666666667</v>
       </c>
-      <c r="I78" s="159">
+      <c r="I78" s="157">
         <f>H78/$H$74</f>
         <v>9.375962912518726E-2</v>
       </c>
       <c r="K78" s="24"/>
     </row>
     <row r="79" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B79" s="253" t="s">
-        <v>218</v>
-      </c>
-      <c r="C79" s="254">
+      <c r="B79" s="251" t="s">
+        <v>217</v>
+      </c>
+      <c r="C79" s="252">
         <f>C76-C77-C78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="D79" s="255">
+      <c r="D79" s="253">
         <f>C79/C74</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="E79" s="256">
+      <c r="E79" s="254">
         <f>E76-E77-E78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="F79" s="255">
+      <c r="F79" s="253">
         <f>E79/E74</f>
         <v>0.28349112238585644</v>
       </c>
-      <c r="G79" s="257"/>
-      <c r="H79" s="256">
+      <c r="G79" s="255"/>
+      <c r="H79" s="254">
         <f>H76-H77-H78</f>
         <v>3710793.333333333</v>
       </c>
-      <c r="I79" s="255">
+      <c r="I79" s="253">
         <f>H79/H74</f>
         <v>0.28349112238585644</v>
       </c>
@@ -11413,61 +11408,61 @@
     </row>
     <row r="80" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B80" s="28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C80" s="77">
         <f>MAX(Data!C16,0)</f>
         <v>0</v>
       </c>
-      <c r="D80" s="158">
+      <c r="D80" s="156">
         <f>C80/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E80" s="179">
+      <c r="E80" s="177">
         <f>E74*F80</f>
         <v>0</v>
       </c>
-      <c r="F80" s="159">
+      <c r="F80" s="157">
         <f>I80</f>
         <v>0</v>
       </c>
-      <c r="H80" s="235">
+      <c r="H80" s="233">
         <f>Inputs!F96</f>
         <v>0</v>
       </c>
-      <c r="I80" s="159">
+      <c r="I80" s="157">
         <f>H80/$H$74</f>
         <v>0</v>
       </c>
-      <c r="K80" s="180" t="s">
-        <v>127</v>
+      <c r="K80" s="178" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B81" s="104" t="s">
-        <v>239</v>
+      <c r="B81" s="103" t="s">
+        <v>237</v>
       </c>
       <c r="C81" s="77">
         <f>MAX(Data!C17,0)</f>
         <v>599686</v>
       </c>
-      <c r="D81" s="158">
+      <c r="D81" s="156">
         <f>C81/$C$74</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="E81" s="179">
+      <c r="E81" s="177">
         <f>E74*F81</f>
         <v>599686</v>
       </c>
-      <c r="F81" s="159">
+      <c r="F81" s="157">
         <f>I81</f>
         <v>4.581383061459042E-2</v>
       </c>
-      <c r="H81" s="235">
+      <c r="H81" s="233">
         <f>Inputs!F94</f>
         <v>599686</v>
       </c>
-      <c r="I81" s="159">
+      <c r="I81" s="157">
         <f>H81/$H$74</f>
         <v>4.581383061459042E-2</v>
       </c>
@@ -11475,59 +11470,59 @@
     </row>
     <row r="82" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B82" s="28" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C82" s="77">
         <f>ABS(MAX(Data!C21,0)-MAX(Data!C19,0))</f>
         <v>0</v>
       </c>
-      <c r="D82" s="158">
+      <c r="D82" s="156">
         <f>C82/$C$74</f>
         <v>0</v>
       </c>
-      <c r="E82" s="235">
+      <c r="E82" s="233">
         <f>Inputs!E95</f>
         <v>0</v>
       </c>
-      <c r="F82" s="159">
+      <c r="F82" s="157">
         <f>E82/E74</f>
         <v>0</v>
       </c>
-      <c r="H82" s="235">
+      <c r="H82" s="233">
         <f>Inputs!F95</f>
         <v>0</v>
       </c>
-      <c r="I82" s="159">
+      <c r="I82" s="157">
         <f>H82/$H$74</f>
         <v>0</v>
       </c>
       <c r="K82" s="24"/>
     </row>
     <row r="83" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="105" t="s">
-        <v>121</v>
-      </c>
-      <c r="C83" s="162">
+      <c r="B83" s="104" t="s">
+        <v>120</v>
+      </c>
+      <c r="C83" s="160">
         <f>C79-C81-C82-C80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="D83" s="163">
+      <c r="D83" s="161">
         <f>C83/$C$74</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="E83" s="164">
+      <c r="E83" s="162">
         <f>E79-E81-E82-E80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="F83" s="163">
+      <c r="F83" s="161">
         <f>E83/E74</f>
         <v>0.23767729177126601</v>
       </c>
-      <c r="H83" s="164">
+      <c r="H83" s="162">
         <f>H79-H81-H82-H80</f>
         <v>3111107.333333333</v>
       </c>
-      <c r="I83" s="163">
+      <c r="I83" s="161">
         <f>H83/$H$74</f>
         <v>0.23767729177126601</v>
       </c>
@@ -11535,184 +11530,184 @@
     </row>
     <row r="84" spans="1:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B84" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="C84" s="208"/>
-      <c r="D84" s="158">
+        <v>93</v>
+      </c>
+      <c r="C84" s="206"/>
+      <c r="D84" s="156">
         <f>I84</f>
         <v>0.25</v>
       </c>
-      <c r="E84" s="209"/>
-      <c r="F84" s="178">
+      <c r="E84" s="207"/>
+      <c r="F84" s="176">
         <f t="shared" ref="F84" si="3">I84</f>
         <v>0.25</v>
       </c>
-      <c r="H84" s="209"/>
-      <c r="I84" s="201">
+      <c r="H84" s="207"/>
+      <c r="I84" s="199">
         <f>Inputs!C16</f>
         <v>0.25</v>
       </c>
       <c r="K84" s="24"/>
     </row>
     <row r="85" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B85" s="260" t="s">
-        <v>157</v>
-      </c>
-      <c r="C85" s="254">
+      <c r="B85" s="258" t="s">
+        <v>156</v>
+      </c>
+      <c r="C85" s="252">
         <f>C83*(1-I84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="D85" s="255">
+      <c r="D85" s="253">
         <f>C85/$C$74</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="E85" s="261">
+      <c r="E85" s="259">
         <f>E83*(1-F84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="F85" s="255">
+      <c r="F85" s="253">
         <f>E85/E74</f>
         <v>0.17825796882844952</v>
       </c>
-      <c r="G85" s="257"/>
-      <c r="H85" s="261">
+      <c r="G85" s="255"/>
+      <c r="H85" s="259">
         <f>H83*(1-I84)</f>
         <v>2333330.5</v>
       </c>
-      <c r="I85" s="255">
+      <c r="I85" s="253">
         <f>H85/$H$74</f>
         <v>0.17825796882844952</v>
       </c>
       <c r="K85" s="24"/>
     </row>
     <row r="86" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B86" s="87" t="s">
-        <v>153</v>
-      </c>
-      <c r="C86" s="166">
+      <c r="B86" s="86" t="s">
+        <v>152</v>
+      </c>
+      <c r="C86" s="164">
         <f>C85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="D86" s="206"/>
-      <c r="E86" s="167">
+      <c r="D86" s="204"/>
+      <c r="E86" s="165">
         <f>E85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="F86" s="206"/>
-      <c r="H86" s="167">
+      <c r="F86" s="204"/>
+      <c r="H86" s="165">
         <f>H85*Data!C4/Common_Shares</f>
         <v>1.6077456699736805</v>
       </c>
-      <c r="I86" s="206"/>
+      <c r="I86" s="204"/>
       <c r="K86" s="24"/>
     </row>
     <row r="87" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B87" s="87" t="s">
-        <v>195</v>
-      </c>
-      <c r="C87" s="258">
+      <c r="B87" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10577274144563688</v>
-      </c>
-      <c r="D87" s="206"/>
-      <c r="E87" s="259">
+        <v>0.10605182519615307</v>
+      </c>
+      <c r="D87" s="204"/>
+      <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10577274144563688</v>
-      </c>
-      <c r="F87" s="206"/>
-      <c r="H87" s="259">
+        <v>0.10605182519615307</v>
+      </c>
+      <c r="F87" s="204"/>
+      <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10577274144563688</v>
-      </c>
-      <c r="I87" s="206"/>
+        <v>0.10605182519615307</v>
+      </c>
+      <c r="I87" s="204"/>
       <c r="K87" s="24"/>
     </row>
     <row r="88" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B88" s="86" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="168">
+      <c r="B88" s="85" t="s">
+        <v>193</v>
+      </c>
+      <c r="C88" s="166">
         <f>Inputs!C44</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="D88" s="165">
+      <c r="D88" s="163">
         <f>C88/C86</f>
         <v>0.83968271859293786</v>
       </c>
-      <c r="E88" s="169">
+      <c r="E88" s="167">
         <f>Inputs!E98</f>
         <v>0.67499812748476218</v>
       </c>
-      <c r="F88" s="165">
+      <c r="F88" s="163">
         <f>E88/E86</f>
         <v>0.41984135929646893</v>
       </c>
-      <c r="H88" s="169">
+      <c r="H88" s="167">
         <f>Inputs!F98</f>
         <v>1.3499962549695244</v>
       </c>
-      <c r="I88" s="165">
+      <c r="I88" s="163">
         <f>H88/H86</f>
         <v>0.83968271859293786</v>
       </c>
       <c r="K88" s="24"/>
     </row>
     <row r="89" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B89" s="87" t="s">
-        <v>207</v>
-      </c>
-      <c r="C89" s="258">
+      <c r="B89" s="86" t="s">
+        <v>206</v>
+      </c>
+      <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8815543090100285E-2</v>
-      </c>
-      <c r="D89" s="206"/>
-      <c r="E89" s="258">
+        <v>8.9049884892448833E-2</v>
+      </c>
+      <c r="D89" s="204"/>
+      <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4407771545050143E-2</v>
-      </c>
-      <c r="F89" s="206"/>
-      <c r="H89" s="258">
+        <v>4.4524942446224416E-2</v>
+      </c>
+      <c r="F89" s="204"/>
+      <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8815543090100285E-2</v>
-      </c>
-      <c r="I89" s="206"/>
+        <v>8.9049884892448833E-2</v>
+      </c>
+      <c r="I89" s="204"/>
       <c r="K89" s="24"/>
     </row>
     <row r="90" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B90" s="28"/>
-      <c r="C90" s="88"/>
+      <c r="C90" s="87"/>
     </row>
     <row r="91" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A91" s="5"/>
-      <c r="B91" s="106" t="str">
+      <c r="B91" s="105" t="str">
         <f xml:space="preserve"> "Valuation Drivers in "&amp;Dashboard!H3</f>
         <v>Valuation Drivers in HKD</v>
       </c>
       <c r="C91" s="21"/>
       <c r="K91" s="50" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B92" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="C92" s="197" t="str">
+        <v>147</v>
+      </c>
+      <c r="C92" s="195" t="str">
         <f>Inputs!C15</f>
         <v>CN</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E92" s="297" t="s">
-        <v>193</v>
-      </c>
-      <c r="F92" s="297"/>
-      <c r="G92" s="87"/>
-      <c r="H92" s="297" t="s">
+        <v>148</v>
+      </c>
+      <c r="E92" s="296" t="s">
         <v>192</v>
       </c>
-      <c r="I92" s="297"/>
+      <c r="F92" s="296"/>
+      <c r="G92" s="86"/>
+      <c r="H92" s="296" t="s">
+        <v>191</v>
+      </c>
+      <c r="I92" s="296"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11720,55 +11715,55 @@
         <f>C92&amp;" Discount Rate"</f>
         <v>CN Discount Rate</v>
       </c>
-      <c r="C93" s="135">
+      <c r="C93" s="134">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
         <v>8.6249999999999993E-2</v>
       </c>
-      <c r="D93" s="236">
+      <c r="D93" s="234">
         <f>Inputs!C86</f>
         <v>5</v>
       </c>
-      <c r="E93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="F93" s="143">
+      <c r="E93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.119994554801117</v>
-      </c>
-      <c r="H93" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="I93" s="143">
+        <v>40.170649139838261</v>
+      </c>
+      <c r="H93" s="86" t="s">
+        <v>195</v>
+      </c>
+      <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.119994554801117</v>
+        <v>40.170649139838261</v>
       </c>
       <c r="K93" s="24"/>
     </row>
     <row r="94" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B94" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="C94" s="181">
+        <v>197</v>
+      </c>
+      <c r="C94" s="179">
         <f>Dashboard!G20</f>
         <v>0.15</v>
       </c>
-      <c r="D94" s="267">
+      <c r="D94" s="265">
         <f>Inputs!D87</f>
         <v>0.02</v>
       </c>
-      <c r="E94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F94" s="143">
+      <c r="E94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.660975238040443</v>
-      </c>
-      <c r="H94" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="I94" s="143">
+        <v>12.668078932689149</v>
+      </c>
+      <c r="H94" s="86" t="s">
+        <v>196</v>
+      </c>
+      <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.183024833109375</v>
+        <v>31.216596325052233</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11778,121 +11773,121 @@
     </row>
     <row r="96" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A96" s="5"/>
-      <c r="B96" s="106" t="str">
+      <c r="B96" s="105" t="str">
         <f xml:space="preserve"> "Valuation in "&amp;Dashboard!H3</f>
         <v>Valuation in HKD</v>
       </c>
-      <c r="C96" s="126" t="str">
+      <c r="C96" s="125" t="str">
         <f>Dashboard!H3</f>
         <v>HKD</v>
       </c>
-      <c r="D96" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E96" s="182" t="str">
+      <c r="D96" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E96" s="180" t="str">
         <f>E72</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F96" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H96" s="182" t="str">
+      <c r="F96" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H96" s="180" t="str">
         <f>H72</f>
         <v>Base Case</v>
       </c>
-      <c r="I96" s="123" t="s">
-        <v>112</v>
+      <c r="I96" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B97" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="91">
+        <v>125</v>
+      </c>
+      <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28948800.474909026</v>
-      </c>
-      <c r="D97" s="210"/>
-      <c r="E97" s="122">
+        <v>28985350.566494327</v>
+      </c>
+      <c r="D97" s="208"/>
+      <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.946727912941185</v>
-      </c>
-      <c r="F97" s="210"/>
-      <c r="H97" s="122">
+        <v>19.971912194157845</v>
+      </c>
+      <c r="F97" s="208"/>
+      <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.946727912941185</v>
-      </c>
-      <c r="I97" s="122">
+        <v>19.971912194157845</v>
+      </c>
+      <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.528452582966601</v>
+        <v>26.561946798810329</v>
       </c>
       <c r="K97" s="24"/>
     </row>
     <row r="98" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B98" s="28" t="s">
-        <v>140</v>
-      </c>
-      <c r="C98" s="91">
+        <v>139</v>
+      </c>
+      <c r="C98" s="90">
         <f>-E53*Exchange_Rate</f>
         <v>-13900241</v>
       </c>
-      <c r="D98" s="210"/>
-      <c r="E98" s="210"/>
-      <c r="F98" s="210"/>
-      <c r="H98" s="122">
+      <c r="D98" s="208"/>
+      <c r="E98" s="208"/>
+      <c r="F98" s="208"/>
+      <c r="H98" s="121">
         <f>C98*Data!$C$4/Common_Shares</f>
         <v>-9.5777483212689418</v>
       </c>
-      <c r="I98" s="212"/>
+      <c r="I98" s="210"/>
       <c r="K98" s="24"/>
     </row>
     <row r="99" spans="2:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B99" s="105" t="s">
-        <v>141</v>
-      </c>
-      <c r="C99" s="108">
+      <c r="B99" s="104" t="s">
+        <v>140</v>
+      </c>
+      <c r="C99" s="107">
         <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
         <v>-42331948.600000001</v>
       </c>
-      <c r="D99" s="211"/>
-      <c r="E99" s="144">
+      <c r="D99" s="209"/>
+      <c r="E99" s="143">
         <f>IF(H99&gt;0,H99*(1-C94),H99*(1+C94))</f>
         <v>-33.543408498143812</v>
       </c>
-      <c r="F99" s="211"/>
-      <c r="H99" s="144">
+      <c r="F99" s="209"/>
+      <c r="H99" s="143">
         <f>C99*Data!$C$4/Common_Shares</f>
         <v>-29.168181302733753</v>
       </c>
-      <c r="I99" s="213"/>
+      <c r="I99" s="211"/>
       <c r="K99" s="24"/>
     </row>
     <row r="100" spans="2:11" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B100" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C100" s="91">
+        <v>111</v>
+      </c>
+      <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-27283389.125090975</v>
-      </c>
-      <c r="D100" s="109">
+        <v>-27246839.033505674</v>
+      </c>
+      <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
         <v>0</v>
       </c>
-      <c r="E100" s="109">
+      <c r="E100" s="108">
         <f>MAX(E97+H98+E99,0)</f>
         <v>0</v>
       </c>
-      <c r="F100" s="109">
+      <c r="F100" s="108">
         <f>(E100+H100)/2</f>
         <v>0</v>
       </c>
-      <c r="H100" s="109">
+      <c r="H100" s="108">
         <f>MAX(C100*Data!$C$4/Common_Shares,0)</f>
         <v>0</v>
       </c>
-      <c r="I100" s="109">
+      <c r="I100" s="108">
         <f>MAX(I97+H98+H99,0)</f>
         <v>0</v>
       </c>
@@ -11904,58 +11899,58 @@
     </row>
     <row r="102" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="126" t="str">
+        <v>154</v>
+      </c>
+      <c r="C102" s="125" t="str">
         <f>C96</f>
         <v>HKD</v>
       </c>
-      <c r="D102" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E102" s="182" t="str">
+      <c r="D102" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E102" s="180" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F102" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H102" s="182" t="str">
+      <c r="F102" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H102" s="180" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I102" s="123" t="s">
-        <v>112</v>
+      <c r="I102" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K102" s="24"/>
     </row>
     <row r="103" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B103" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C103" s="91">
+        <v>153</v>
+      </c>
+      <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22500281.321443755</v>
-      </c>
-      <c r="D103" s="109">
+        <v>22524505.014210496</v>
+      </c>
+      <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2947423345414357</v>
-      </c>
-      <c r="E103" s="122">
+        <v>6.2982741262554356</v>
+      </c>
+      <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2947423345414357</v>
-      </c>
-      <c r="F103" s="109">
+        <v>6.2982741262554356</v>
+      </c>
+      <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.899108408896128</v>
-      </c>
-      <c r="H103" s="122">
+        <v>10.909219787134749</v>
+      </c>
+      <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.50347448325082</v>
-      </c>
-      <c r="I103" s="109">
+        <v>15.520165448014064</v>
+      </c>
+      <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.619080457467742</v>
+        <v>20.641278858589885</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11965,58 +11960,58 @@
     </row>
     <row r="105" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B105" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="C105" s="126" t="str">
+        <v>183</v>
+      </c>
+      <c r="C105" s="125" t="str">
         <f>C102</f>
         <v>HKD</v>
       </c>
-      <c r="D105" s="123" t="s">
-        <v>200</v>
-      </c>
-      <c r="E105" s="183" t="str">
+      <c r="D105" s="122" t="s">
+        <v>199</v>
+      </c>
+      <c r="E105" s="181" t="str">
         <f>E96</f>
         <v>Pessimistic Case</v>
       </c>
-      <c r="F105" s="224" t="s">
-        <v>223</v>
-      </c>
-      <c r="H105" s="183" t="str">
+      <c r="F105" s="222" t="s">
+        <v>222</v>
+      </c>
+      <c r="H105" s="181" t="str">
         <f>H96</f>
         <v>Base Case</v>
       </c>
-      <c r="I105" s="123" t="s">
-        <v>112</v>
+      <c r="I105" s="122" t="s">
+        <v>111</v>
       </c>
       <c r="K105" s="24"/>
     </row>
     <row r="106" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B106" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C106" s="91">
+        <v>184</v>
+      </c>
+      <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4567797.8032020386</v>
-      </c>
-      <c r="D106" s="109">
+        <v>4570360.6579743549</v>
+      </c>
+      <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1473711672707179</v>
-      </c>
-      <c r="E106" s="122">
+        <v>3.1491370631277178</v>
+      </c>
+      <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1473711672707179</v>
-      </c>
-      <c r="F106" s="109">
+        <v>3.1491370631277178</v>
+      </c>
+      <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.4495542044480638</v>
-      </c>
-      <c r="H106" s="122">
+        <v>5.4546098935673744</v>
+      </c>
+      <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.7517372416254098</v>
-      </c>
-      <c r="I106" s="122">
+        <v>7.7600827240070318</v>
+      </c>
+      <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.309540228733871</v>
+        <v>10.320639429294943</v>
       </c>
       <c r="K106" s="24"/>
     </row>
@@ -12025,15 +12020,16 @@
     </row>
     <row r="108" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B108" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C108" s="127" t="str">
+        <v>157</v>
+      </c>
+      <c r="C108" s="126" t="str">
         <f>Inputs!C87</f>
         <v>Dividend</v>
       </c>
       <c r="K108" s="24"/>
     </row>
   </sheetData>
+  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="11">
     <mergeCell ref="D56:E56"/>
     <mergeCell ref="D57:E57"/>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11DFD0BA-4164-4949-9AE7-723D08A3AC8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DD26B9-7F64-457F-B217-D76F1FC2FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="275">
   <si>
     <t>Company Info:</t>
   </si>
@@ -986,6 +986,14 @@
   </si>
   <si>
     <t>Contin. Liabilities / Total Assets</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leverage Ratio</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pages.stern.nyu.edu/~adamodar/New_Home_Page/datafile/countrytaxrates.html</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
   <si>
@@ -1678,7 +1686,7 @@
     <xf numFmtId="176" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2330,9 +2338,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2341,9 +2346,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -2351,6 +2353,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="14" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2806,7 +2820,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C73" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -2828,7 +2842,7 @@
         <v>180</v>
       </c>
       <c r="C4" s="185" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2836,7 +2850,7 @@
         <v>181</v>
       </c>
       <c r="C5" s="188" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2869,7 +2883,7 @@
         <v>202</v>
       </c>
       <c r="C9" s="189" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="13.9" x14ac:dyDescent="0.4">
@@ -2928,6 +2942,9 @@
         <v>0.25</v>
       </c>
       <c r="D16" s="24"/>
+      <c r="E16" s="109" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="17" spans="2:13" ht="13.9" x14ac:dyDescent="0.4">
       <c r="B17" s="235" t="s">
@@ -3440,7 +3457,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.9049884892448833E-2</v>
+        <v>8.8932559615910692E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -3915,7 +3932,7 @@
         <v>231</v>
       </c>
       <c r="C87" s="231" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D87" s="264">
         <v>0.02</v>
@@ -3925,11 +3942,11 @@
       <c r="B89" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C89" s="282">
+      <c r="C89" s="284">
         <f>C24</f>
         <v>45291</v>
       </c>
-      <c r="D89" s="282"/>
+      <c r="D89" s="284"/>
       <c r="E89" s="88" t="s">
         <v>192</v>
       </c>
@@ -3943,10 +3960,10 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C90" s="283" t="s">
+      <c r="C90" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D90" s="283"/>
+      <c r="D90" s="285"/>
       <c r="E90" s="230" t="s">
         <v>98</v>
       </c>
@@ -4168,8 +4185,11 @@
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -4182,8 +4202,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4226,60 +4246,60 @@
       <c r="B3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="C3" s="288" t="str">
+      <c r="C3" s="290" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="289"/>
+      <c r="D3" s="291"/>
       <c r="E3" s="86"/>
       <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>15.16</v>
+        <v>15.18</v>
       </c>
       <c r="H3" s="132" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B4" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="C4" s="290" t="str">
+      <c r="C4" s="292" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="291"/>
+      <c r="D4" s="293"/>
       <c r="E4" s="86"/>
       <c r="F4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="294">
+      <c r="G4" s="296">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="294"/>
+      <c r="H4" s="296"/>
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="C5" s="292">
+      <c r="C5" s="294">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="293"/>
+      <c r="D5" s="295"/>
       <c r="E5" s="34"/>
       <c r="F5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="G5" s="286">
+      <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>22001.79483648</v>
-      </c>
-      <c r="H5" s="286"/>
+        <v>22030.820951040001</v>
+      </c>
+      <c r="H5" s="288"/>
       <c r="I5" s="38"/>
       <c r="J5" s="28"/>
     </row>
@@ -4302,11 +4322,11 @@
       <c r="F6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="287" t="str">
+      <c r="G6" s="289" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="287"/>
+      <c r="H6" s="289"/>
       <c r="I6" s="38"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4447,7 +4467,7 @@
         <v>250</v>
       </c>
       <c r="C20" s="271">
-        <f>C23*C22*(1/C21)</f>
+        <f>C21*C22*C23</f>
         <v>3.4597349023559508E-2</v>
       </c>
       <c r="F20" s="86" t="s">
@@ -4459,20 +4479,20 @@
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B21" s="272" t="s">
-        <v>248</v>
-      </c>
-      <c r="C21" s="273">
-        <f>Data!C53</f>
-        <v>0.51458693208236717</v>
+        <v>255</v>
+      </c>
+      <c r="C21" s="283">
+        <f>Data!C13</f>
+        <v>0.28349112238585644</v>
       </c>
       <c r="F21" s="86"/>
       <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B22" s="274" t="s">
+      <c r="B22" s="273" t="s">
         <v>262</v>
       </c>
-      <c r="C22" s="275">
+      <c r="C22" s="274">
         <f>Data!C48</f>
         <v>6.2800357000190113E-2</v>
       </c>
@@ -4481,26 +4501,26 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="276" t="s">
-        <v>255</v>
-      </c>
-      <c r="C23" s="277">
-        <f>Data!C13</f>
-        <v>0.28349112238585644</v>
+      <c r="B23" s="275" t="s">
+        <v>268</v>
+      </c>
+      <c r="C23" s="282">
+        <f>1/Data!C53</f>
+        <v>1.9433062475048148</v>
       </c>
       <c r="F23" s="138" t="s">
         <v>175</v>
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18159765710987083</v>
+        <v>0.18183723185539838</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="135" t="s">
+      <c r="B24" s="280" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="168">
+      <c r="C24" s="281">
         <f>Fin_Analysis!I81</f>
         <v>4.581383061459042E-2</v>
       </c>
@@ -4509,7 +4529,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4293520941332574</v>
+        <v>9.4417918726215593</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4541,7 +4561,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.9049884892448833E-2</v>
+        <v>8.8932559615910692E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4560,10 +4580,10 @@
       <c r="F28" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="G28" s="284" t="s">
+      <c r="G28" s="286" t="s">
         <v>238</v>
       </c>
-      <c r="H28" s="284"/>
+      <c r="H28" s="286"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B29" s="86" t="s">
@@ -4571,22 +4591,22 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2982741262554356</v>
+        <v>6.2965057056875837</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.737470687378366</v>
+        <v>23.724687042896822</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.909219787134749</v>
-      </c>
-      <c r="G29" s="285">
+        <v>10.904156439991739</v>
+      </c>
+      <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.641278858589885</v>
-      </c>
-      <c r="H29" s="285"/>
+        <v>20.630162645997238</v>
+      </c>
+      <c r="H29" s="287"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -5617,7 +5637,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
+  <dataValidations disablePrompts="1" count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -7858,7 +7878,7 @@
       <c r="B47" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="C47" s="278" t="s">
+      <c r="C47" s="276" t="s">
         <v>263</v>
       </c>
       <c r="D47" s="36"/>
@@ -9785,7 +9805,7 @@
       <c r="H3" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="280">
+      <c r="I3" s="278">
         <f>D3-D4</f>
         <v>107256580</v>
       </c>
@@ -10832,7 +10852,7 @@
       <c r="B48" s="80" t="s">
         <v>80</v>
       </c>
-      <c r="C48" s="281">
+      <c r="C48" s="279">
         <f>SUM(C30:C42)</f>
         <v>150026046</v>
       </c>
@@ -10849,7 +10869,7 @@
       <c r="H48" s="80" t="s">
         <v>81</v>
       </c>
-      <c r="I48" s="279">
+      <c r="I48" s="277">
         <f>I49-I28</f>
         <v>61429709</v>
       </c>
@@ -10958,11 +10978,11 @@
         <v>86</v>
       </c>
       <c r="C56" s="86"/>
-      <c r="D56" s="295">
+      <c r="D56" s="297">
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="293"/>
+      <c r="E56" s="295"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
       <c r="I56" s="56"/>
@@ -10973,11 +10993,11 @@
         <v>87</v>
       </c>
       <c r="C57" s="86"/>
-      <c r="D57" s="294">
+      <c r="D57" s="296">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="293"/>
+      <c r="E57" s="295"/>
       <c r="G57" s="86"/>
       <c r="I57" s="86"/>
       <c r="K57" s="33" t="s">
@@ -10989,11 +11009,11 @@
         <v>89</v>
       </c>
       <c r="C58" s="86"/>
-      <c r="D58" s="294">
+      <c r="D58" s="296">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="293"/>
+      <c r="E58" s="295"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
       <c r="I58" s="86"/>
@@ -11207,19 +11227,19 @@
       <c r="B72" s="105" t="s">
         <v>122</v>
       </c>
-      <c r="C72" s="282">
+      <c r="C72" s="284">
         <f>Data!C5</f>
         <v>45291</v>
       </c>
-      <c r="D72" s="282"/>
-      <c r="E72" s="296" t="s">
+      <c r="D72" s="284"/>
+      <c r="E72" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F72" s="296"/>
-      <c r="H72" s="296" t="s">
+      <c r="F72" s="298"/>
+      <c r="H72" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I72" s="296"/>
+      <c r="I72" s="298"/>
       <c r="K72" s="50" t="s">
         <v>8</v>
       </c>
@@ -11229,18 +11249,18 @@
         <f>"(Numbers in "&amp;Data!C4&amp;Dashboard!G6&amp;")"</f>
         <v>(Numbers in 1000HKD)</v>
       </c>
-      <c r="C73" s="283" t="s">
+      <c r="C73" s="285" t="s">
         <v>97</v>
       </c>
-      <c r="D73" s="283"/>
-      <c r="E73" s="297" t="s">
+      <c r="D73" s="285"/>
+      <c r="E73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="F73" s="283"/>
-      <c r="H73" s="297" t="s">
+      <c r="F73" s="285"/>
+      <c r="H73" s="299" t="s">
         <v>98</v>
       </c>
-      <c r="I73" s="283"/>
+      <c r="I73" s="285"/>
       <c r="K73" s="24"/>
     </row>
     <row r="74" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11607,17 +11627,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10605182519615307</v>
+        <v>0.10591209947125696</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10605182519615307</v>
+        <v>0.10591209947125696</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10605182519615307</v>
+        <v>0.10591209947125696</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11658,17 +11678,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9049884892448833E-2</v>
+        <v>8.8932559615910692E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4524942446224416E-2</v>
+        <v>4.4466279807955346E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.9049884892448833E-2</v>
+        <v>8.8932559615910692E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11699,15 +11719,15 @@
       <c r="D92" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="E92" s="296" t="s">
+      <c r="E92" s="298" t="s">
         <v>192</v>
       </c>
-      <c r="F92" s="296"/>
+      <c r="F92" s="298"/>
       <c r="G92" s="86"/>
-      <c r="H92" s="296" t="s">
+      <c r="H92" s="298" t="s">
         <v>191</v>
       </c>
-      <c r="I92" s="296"/>
+      <c r="I92" s="298"/>
       <c r="K92" s="24"/>
     </row>
     <row r="93" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
@@ -11728,14 +11748,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.170649139838261</v>
+        <v>40.14528208654248</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.170649139838261</v>
+        <v>40.14528208654248</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11756,14 +11776,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.668078932689149</v>
+        <v>12.664522007269477</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.216596325052233</v>
+        <v>31.199784851134101</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11806,21 +11826,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28985350.566494327</v>
+        <v>28967046.831096437</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.971912194157845</v>
+        <v>19.959300285416109</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.971912194157845</v>
+        <v>19.959300285416109</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.561946798810329</v>
+        <v>26.545173399960348</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11869,7 +11889,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-27246839.033505674</v>
+        <v>-27265142.768903565</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11930,27 +11950,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22524505.014210496</v>
+        <v>22512374.603687126</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2982741262554356</v>
+        <v>6.2965057056875837</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2982741262554356</v>
+        <v>6.2965057056875837</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.909219787134749</v>
+        <v>10.904156439991739</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.520165448014064</v>
+        <v>15.511807174295894</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.641278858589885</v>
+        <v>20.630162645997238</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -11991,27 +12011,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4570360.6579743549</v>
+        <v>4569077.3985245358</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1491370631277178</v>
+        <v>3.1482528528437919</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1491370631277178</v>
+        <v>3.1482528528437919</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.4546098935673744</v>
+        <v>5.4520782199958697</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.7600827240070318</v>
+        <v>7.7559035871479471</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.320639429294943</v>
+        <v>10.315081322998619</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B5DD26B9-7F64-457F-B217-D76F1FC2FA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F2860CE1-2086-4B2B-A114-58F988C4D563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3457,7 +3457,7 @@
       </c>
       <c r="C45" s="150">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.8932559615910692E-2</v>
+        <v>9.1339394788195152E-2</v>
       </c>
       <c r="D45" s="150" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4256,7 +4256,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="130">
-        <v>15.18</v>
+        <v>14.78</v>
       </c>
       <c r="H3" s="132" t="s">
         <v>274</v>
@@ -4297,7 +4297,7 @@
       </c>
       <c r="G5" s="288">
         <f>G3*G4/1000000</f>
-        <v>22030.820951040001</v>
+        <v>21450.298659839998</v>
       </c>
       <c r="H5" s="288"/>
       <c r="I5" s="38"/>
@@ -4513,7 +4513,7 @@
       </c>
       <c r="G23" s="174">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18183723185539838</v>
+        <v>0.17704573694484768</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="G24" s="263">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.4417918726215593</v>
+        <v>9.1929963028555104</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -4561,7 +4561,7 @@
       </c>
       <c r="G26" s="175">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.8932559615910692E-2</v>
+        <v>9.1339394788195152E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -4591,20 +4591,20 @@
       </c>
       <c r="C29" s="128">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.2965057056875837</v>
+        <v>6.332863063146652</v>
       </c>
       <c r="D29" s="127">
         <f>G29*(1+G20)</f>
-        <v>23.724687042896822</v>
+        <v>23.988038470608313</v>
       </c>
       <c r="E29" s="86"/>
       <c r="F29" s="129">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.904156439991739</v>
+        <v>11.008428068195167</v>
       </c>
       <c r="G29" s="287">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.630162645997238</v>
+        <v>20.85916388748549</v>
       </c>
       <c r="H29" s="287"/>
     </row>
@@ -9756,7 +9756,7 @@
   <dimension ref="A2:K108"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C99" sqref="C99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -11627,17 +11627,17 @@
       </c>
       <c r="C87" s="256">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10591209947125696</v>
+        <v>0.10877846210918002</v>
       </c>
       <c r="D87" s="204"/>
       <c r="E87" s="257">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10591209947125696</v>
+        <v>0.10877846210918002</v>
       </c>
       <c r="F87" s="204"/>
       <c r="H87" s="257">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10591209947125696</v>
+        <v>0.10877846210918002</v>
       </c>
       <c r="I87" s="204"/>
       <c r="K87" s="24"/>
@@ -11678,17 +11678,17 @@
       </c>
       <c r="C89" s="256">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8932559615910692E-2</v>
+        <v>9.1339394788195152E-2</v>
       </c>
       <c r="D89" s="204"/>
       <c r="E89" s="256">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.4466279807955346E-2</v>
+        <v>4.5669697394097576E-2</v>
       </c>
       <c r="F89" s="204"/>
       <c r="H89" s="256">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.8932559615910692E-2</v>
+        <v>9.1339394788195152E-2</v>
       </c>
       <c r="I89" s="204"/>
       <c r="K89" s="24"/>
@@ -11748,14 +11748,14 @@
       </c>
       <c r="F93" s="142">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.14528208654248</v>
+        <v>40.668239466561964</v>
       </c>
       <c r="H93" s="86" t="s">
         <v>195</v>
       </c>
       <c r="I93" s="142">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>40.14528208654248</v>
+        <v>40.668239466561964</v>
       </c>
       <c r="K93" s="24"/>
     </row>
@@ -11776,14 +11776,14 @@
       </c>
       <c r="F94" s="142">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.664522007269477</v>
+        <v>12.737649639513281</v>
       </c>
       <c r="H94" s="86" t="s">
         <v>196</v>
       </c>
       <c r="I94" s="142">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.199784851134101</v>
+        <v>31.546112196568885</v>
       </c>
       <c r="K94" s="24"/>
     </row>
@@ -11826,21 +11826,21 @@
       </c>
       <c r="C97" s="90">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28967046.831096437</v>
+        <v>29344389.575507488</v>
       </c>
       <c r="D97" s="208"/>
       <c r="E97" s="121">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.959300285416109</v>
+        <v>20.219302528314344</v>
       </c>
       <c r="F97" s="208"/>
       <c r="H97" s="121">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.959300285416109</v>
+        <v>20.219302528314344</v>
       </c>
       <c r="I97" s="121">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.545173399960348</v>
+        <v>26.890967316751873</v>
       </c>
       <c r="K97" s="24"/>
     </row>
@@ -11867,7 +11867,7 @@
         <v>140</v>
       </c>
       <c r="C99" s="107">
-        <f>(E65-IF(E70&lt;0,MIN(E65,ABS(E70)),0))*Exchange_Rate</f>
+        <f>(E65+IF(E70&lt;0,E70,0))*Exchange_Rate</f>
         <v>-42331948.600000001</v>
       </c>
       <c r="D99" s="209"/>
@@ -11889,7 +11889,7 @@
       </c>
       <c r="C100" s="90">
         <f>C97+C98+$C$99</f>
-        <v>-27265142.768903565</v>
+        <v>-26887800.024492513</v>
       </c>
       <c r="D100" s="108">
         <f>MIN(F100*(1-C94),E100)</f>
@@ -11950,27 +11950,27 @@
       </c>
       <c r="C103" s="90">
         <f>H103*Common_Shares/Data!C4</f>
-        <v>22512374.603687126</v>
+        <v>22762268.985110879</v>
       </c>
       <c r="D103" s="108">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.2965057056875837</v>
+        <v>6.332863063146652</v>
       </c>
       <c r="E103" s="121">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.2965057056875837</v>
+        <v>6.332863063146652</v>
       </c>
       <c r="F103" s="108">
         <f>(E103+H103)/2</f>
-        <v>10.904156439991739</v>
+        <v>11.008428068195167</v>
       </c>
       <c r="H103" s="121">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.511807174295894</v>
+        <v>15.683993073243682</v>
       </c>
       <c r="I103" s="108">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.630162645997238</v>
+        <v>20.85916388748549</v>
       </c>
       <c r="K103" s="24"/>
     </row>
@@ -12011,27 +12011,27 @@
       </c>
       <c r="C106" s="90">
         <f>E106*Common_Shares/Data!C4</f>
-        <v>4569077.3985245358</v>
+        <v>4595460.219092181</v>
       </c>
       <c r="D106" s="108">
         <f>(D100+D103)/2</f>
-        <v>3.1482528528437919</v>
+        <v>3.166431531573326</v>
       </c>
       <c r="E106" s="121">
         <f>(E100+E103)/2</f>
-        <v>3.1482528528437919</v>
+        <v>3.166431531573326</v>
       </c>
       <c r="F106" s="108">
         <f>(F100+F103)/2</f>
-        <v>5.4520782199958697</v>
+        <v>5.5042140340975836</v>
       </c>
       <c r="H106" s="121">
         <f>(H100+H103)/2</f>
-        <v>7.7559035871479471</v>
+        <v>7.8419965366218412</v>
       </c>
       <c r="I106" s="121">
         <f>(I100+I103)/2</f>
-        <v>10.315081322998619</v>
+        <v>10.429581943742745</v>
       </c>
       <c r="K106" s="24"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DBDCFF2D-CB89-4491-9925-BCDDCFBF370F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F526D9F4-FB38-42EC-9775-C531A74F4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7209060398548088E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.48</v>
+        <v>15.54</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4510,7 +4510,7 @@
       </c>
       <c r="G5" s="313">
         <f>G3*G4/1000000</f>
-        <v>22466.212669440003</v>
+        <v>22553.291013120001</v>
       </c>
       <c r="H5" s="313"/>
       <c r="I5" s="17"/>
@@ -4690,7 +4690,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4731,7 +4731,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18543085303831139</v>
+        <v>0.18614957727489398</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6283885499460968</v>
+        <v>9.6657078854110026</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4779,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7209060398548088E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4809,20 +4809,20 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.6143183665476837</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>23.496022102980824</v>
+        <v>23.501104207541875</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.416350388397696</v>
+        <v>10.815570092547695</v>
       </c>
       <c r="G29" s="312">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.431323567809414</v>
+        <v>20.435742789166849</v>
       </c>
       <c r="H29" s="312"/>
     </row>
@@ -11859,17 +11859,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10385953940398453</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10385953940398453</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10385953940398453</v>
+        <v>0.10345853732134366</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11910,17 +11910,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7209060398548088E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3604530199274044E-2</v>
+        <v>4.3436172939817386E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7209060398548088E-2</v>
+        <v>8.6872345879634771E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11973,21 +11973,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.641710697685298</v>
+        <v>39.701924715284115</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>32.641710697685298</v>
+        <v>39.701924715284115</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12008,14 +12008,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>11.580426445723205</v>
+        <v>12.602193027352399</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>26.187007348185478</v>
+        <v>30.905756257759275</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12058,21 +12058,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31148583.353181265</v>
+        <v>28647139.906330846</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.462454638076967</v>
+        <v>19.738873315003442</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.462454638076967</v>
+        <v>19.738873315003442</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>25.467337454940051</v>
+        <v>26.252013215587173</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12177,23 +12177,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.6143183665476837</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6143183665476837</v>
+        <v>6.265517186937938</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>12.416350388397696</v>
+        <v>10.815570092547695</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.21838241024771</v>
+        <v>15.36562299815745</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.431323567809414</v>
+        <v>20.435742789166849</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12232,23 +12232,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.8071591832738418</v>
+        <v>3.132758593468969</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.8071591832738418</v>
+        <v>3.132758593468969</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>6.2081751941988479</v>
+        <v>5.4077850462738475</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.6091912051238548</v>
+        <v>7.6828114990787251</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.215661783904707</v>
+        <v>10.217871394583424</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F526D9F4-FB38-42EC-9775-C531A74F4300}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A14CBE-09F8-4410-8479-5346C8EE6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2582,6 +2582,9 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2598,9 +2601,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2814,11 +2814,11 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF0000FF"/>
+      <color rgb="FFFFFFCC"/>
       <color rgb="FFB6D7A8"/>
       <color rgb="FF2F75B5"/>
-      <color rgb="FFFFFFCC"/>
       <color rgb="FFFF0000"/>
-      <color rgb="FF0000FF"/>
       <color rgb="FFCCFF33"/>
     </mruColors>
   </colors>
@@ -3033,7 +3033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48ED7348-D356-493F-B1FA-0B9102624322}">
   <dimension ref="A2:M98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E91" sqref="E91:F98"/>
     </sheetView>
   </sheetViews>
@@ -3058,6 +3058,7 @@
       <c r="C4" s="66" t="s">
         <v>282</v>
       </c>
+      <c r="D4" s="66"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="B5" s="46" t="s">
@@ -3670,7 +3671,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.6760684766678947E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4374,7 +4375,7 @@
       <formula>LEN(TRIM(E98))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C8" xr:uid="{4F1A5CDA-569A-4509-AA2D-9CF95C6DB1A5}">
       <formula1>"Tier 1, Superior Cycl. ,Tier 3, N"</formula1>
     </dataValidation>
@@ -4397,6 +4398,9 @@
     <dataValidation type="list" allowBlank="1" sqref="C22" xr:uid="{AC11383D-4B80-4250-901A-577B0CB0078C}">
       <formula1>"Consumer Monopoly,Unclear,Commodity-type Business"</formula1>
     </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D4" xr:uid="{EC47C593-A7DE-4ABB-B6D2-C8BF531E4639}">
+      <formula1>"HOLD"</formula1>
+    </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E16" r:id="rId1" xr:uid="{F8B38130-6ADB-477B-BA33-0F2CE7EF4838}"/>
@@ -4415,8 +4419,8 @@
   </sheetPr>
   <dimension ref="A1:J923"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4452,24 +4456,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="G2" s="311" t="str">
+        <f>IF(Inputs!D4="","",Inputs!D4)</f>
+        <v/>
+      </c>
+      <c r="H2" s="311"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="315" t="str">
+      <c r="C3" s="316" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="316"/>
+      <c r="D3" s="317"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.54</v>
+        <v>15.56</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4479,7 +4486,7 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="317" t="str">
+      <c r="C4" s="311" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
@@ -4508,11 +4515,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="313">
+      <c r="G5" s="314">
         <f>G3*G4/1000000</f>
-        <v>22553.291013120001</v>
-      </c>
-      <c r="H5" s="313"/>
+        <v>22582.317127679999</v>
+      </c>
+      <c r="H5" s="314"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4535,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="314" t="str">
+      <c r="G6" s="315" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="314"/>
+      <c r="H6" s="315"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4607,10 +4614,10 @@
         <v>222</v>
       </c>
       <c r="C12" s="120">
-        <v>7.4999999999999997E-2</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D12" s="121">
-        <v>8.0625000000000002E-2</v>
+        <v>7.5250000000000011E-2</v>
       </c>
       <c r="F12" s="25"/>
     </row>
@@ -4657,7 +4664,7 @@
         <v>223</v>
       </c>
       <c r="C17" s="119">
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D17" s="122"/>
     </row>
@@ -4731,7 +4738,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18614957727489398</v>
+        <v>0.18638915202042153</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4747,7 +4754,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6657078854110026</v>
+        <v>9.6781476638993063</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4779,7 +4786,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.6760684766678947E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4798,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="311" t="s">
+      <c r="G28" s="312" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="311"/>
+      <c r="H28" s="312"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4809,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.265517186937938</v>
+        <v>6.8591648832479839</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>23.501104207541875</v>
+        <v>26.413184630468344</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>10.815570092547695</v>
-      </c>
-      <c r="G29" s="312">
+        <v>11.838257797152853</v>
+      </c>
+      <c r="G29" s="313">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>20.435742789166849</v>
-      </c>
-      <c r="H29" s="312"/>
+        <v>22.967986635189867</v>
+      </c>
+      <c r="H29" s="313"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5806,15 +5813,16 @@
     <row r="922" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -5842,7 +5850,7 @@
       <formula>LEN(TRIM(G20))=0</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="3">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" sqref="G6" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"HKD,USD,CNY,EUR"</formula1>
     </dataValidation>
@@ -11859,17 +11867,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10332555719625196</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10332555719625196</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10345853732134366</v>
+        <v>0.10332555719625196</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11910,17 +11918,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.6760684766678947E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3436172939817386E-2</v>
+        <v>4.3380342383339474E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6872345879634771E-2</v>
+        <v>8.6760684766678947E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11969,7 +11977,7 @@
       </c>
       <c r="C93" s="242">
         <f>IF(C92="CN",Dashboard!C17,IF(C92="US",Dashboard!C12,IF(C92="HK",Dashboard!D12,Dashboard!D17)))</f>
-        <v>8.6249999999999993E-2</v>
+        <v>8.0500000000000002E-2</v>
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
@@ -11980,14 +11988,14 @@
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.701924715284115</v>
+        <v>43.449057980764401</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.701924715284115</v>
+        <v>43.449057980764401</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12008,14 +12016,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>12.602193027352399</v>
+        <v>13.796230588168427</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>30.905756257759275</v>
+        <v>33.825699227394168</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12058,21 +12066,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>28647139.906330846</v>
+        <v>31350904.312557615</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>19.738873315003442</v>
+        <v>21.601860798662553</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>19.738873315003442</v>
+        <v>21.601860798662553</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>26.252013215587173</v>
+        <v>29.502343064813697</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12177,23 +12185,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.265517186937938</v>
+        <v>6.8591648832479839</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.265517186937938</v>
+        <v>6.8591648832479839</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>10.815570092547695</v>
+        <v>11.838257797152853</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>15.36562299815745</v>
+        <v>16.817350711057721</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>20.435742789166849</v>
+        <v>22.967986635189867</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12232,23 +12240,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.132758593468969</v>
+        <v>3.429582441623992</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.132758593468969</v>
+        <v>3.429582441623992</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.4077850462738475</v>
+        <v>5.9191288985764263</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>7.6828114990787251</v>
+        <v>8.4086753555288603</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>10.217871394583424</v>
+        <v>11.483993317594933</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{05A14CBE-09F8-4410-8479-5346C8EE6F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAE782A1-37E2-46EF-8339-FDD0256DBF30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2582,31 +2582,31 @@
     <xf numFmtId="181" fontId="37" fillId="13" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3671,7 +3671,7 @@
       </c>
       <c r="C45" s="87">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6760684766678947E-2</v>
+        <v>8.6538221472405405E-2</v>
       </c>
       <c r="D45" s="87" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4456,27 +4456,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="311" t="str">
+      <c r="G2" s="313" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="311"/>
+      <c r="H2" s="313"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="311" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="312"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.56</v>
+        <v>15.6</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>260</v>
@@ -4486,40 +4486,40 @@
       <c r="B4" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C4" s="311" t="str">
+      <c r="C4" s="313" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="318"/>
+      <c r="D4" s="314"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="321">
+      <c r="G4" s="317">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="321"/>
+      <c r="H4" s="317"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="C5" s="319">
+      <c r="C5" s="315">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="320"/>
+      <c r="D5" s="316"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="320">
         <f>G3*G4/1000000</f>
-        <v>22582.317127679999</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>22640.369356799998</v>
+      </c>
+      <c r="H5" s="320"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4542,11 +4542,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="321" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="321"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4697,7 +4697,7 @@
         <v>0.15</v>
       </c>
       <c r="H20" s="307">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C34*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18638915202042153</v>
+        <v>0.18686830151147657</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4754,7 +4754,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.6781476638993063</v>
+        <v>9.7030272208759101</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4786,7 +4786,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6760684766678947E-2</v>
+        <v>8.6538221472405405E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4805,10 +4805,10 @@
       <c r="F28" s="52" t="s">
         <v>211</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="318" t="s">
         <v>226</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="318"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4816,22 +4816,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>6.8591648832479839</v>
+        <v>7.5568574108344704</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>26.413184630468344</v>
+        <v>26.239525512562913</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>11.838257797152853</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.669126839721137</v>
+      </c>
+      <c r="G29" s="319">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>22.967986635189867</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>22.81697870657645</v>
+      </c>
+      <c r="H29" s="319"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5814,15 +5814,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11195,7 +11195,7 @@
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="320"/>
+      <c r="E56" s="316"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="176"/>
@@ -11206,11 +11206,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="321">
+      <c r="D57" s="317">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="320"/>
+      <c r="E57" s="316"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="178" t="s">
@@ -11222,11 +11222,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="321">
+      <c r="D58" s="317">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="320"/>
+      <c r="E58" s="316"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11867,17 +11867,17 @@
       </c>
       <c r="C87" s="238">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10332555719625196</v>
+        <v>0.10306061987010773</v>
       </c>
       <c r="D87" s="103"/>
       <c r="E87" s="239">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10332555719625196</v>
+        <v>0.10306061987010773</v>
       </c>
       <c r="F87" s="103"/>
       <c r="H87" s="239">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10332555719625196</v>
+        <v>0.10306061987010773</v>
       </c>
       <c r="I87" s="103"/>
       <c r="K87" s="75"/>
@@ -11918,17 +11918,17 @@
       </c>
       <c r="C89" s="238">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6760684766678947E-2</v>
+        <v>8.6538221472405405E-2</v>
       </c>
       <c r="D89" s="103"/>
       <c r="E89" s="238">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3380342383339474E-2</v>
+        <v>4.3269110736202702E-2</v>
       </c>
       <c r="F89" s="103"/>
       <c r="H89" s="238">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6760684766678947E-2</v>
+        <v>8.6538221472405405E-2</v>
       </c>
       <c r="I89" s="103"/>
       <c r="K89" s="75"/>
@@ -11981,21 +11981,21 @@
       </c>
       <c r="D93" s="259">
         <f>Dashboard!H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="F93" s="243">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.449057980764401</v>
+        <v>39.342277268686502</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>185</v>
       </c>
       <c r="I93" s="243">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>43.449057980764401</v>
+        <v>39.342277268686502</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12016,14 +12016,14 @@
       </c>
       <c r="F94" s="243">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.796230588168427</v>
+        <v>13.216990841908302</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>186</v>
       </c>
       <c r="I94" s="243">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>33.825699227394168</v>
+        <v>31.099773207521718</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12066,21 +12066,21 @@
       </c>
       <c r="C97" s="249">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>31350904.312557615</v>
+        <v>32645779.483411759</v>
       </c>
       <c r="D97" s="250"/>
       <c r="E97" s="251">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>21.601860798662553</v>
+        <v>22.494074717392529</v>
       </c>
       <c r="F97" s="250"/>
       <c r="H97" s="251">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>21.601860798662553</v>
+        <v>22.494074717392529</v>
       </c>
       <c r="I97" s="251">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.502343064813697</v>
+        <v>28.864258807222996</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12185,23 +12185,23 @@
       <c r="C103" s="249"/>
       <c r="D103" s="257">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>6.8591648832479839</v>
+        <v>7.5568574108344704</v>
       </c>
       <c r="E103" s="251">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>6.8591648832479839</v>
+        <v>7.5568574108344704</v>
       </c>
       <c r="F103" s="257">
         <f>(E103+H103)/2</f>
-        <v>11.838257797152853</v>
+        <v>12.669126839721137</v>
       </c>
       <c r="H103" s="251">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>16.817350711057721</v>
+        <v>17.781396268607804</v>
       </c>
       <c r="I103" s="257">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>22.967986635189867</v>
+        <v>22.81697870657645</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12240,23 +12240,23 @@
       <c r="C106" s="249"/>
       <c r="D106" s="257">
         <f>(D100+D103)/2</f>
-        <v>3.429582441623992</v>
+        <v>3.7784287054172352</v>
       </c>
       <c r="E106" s="251">
         <f>(E100+E103)/2</f>
-        <v>3.429582441623992</v>
+        <v>3.7784287054172352</v>
       </c>
       <c r="F106" s="257">
         <f>(F100+F103)/2</f>
-        <v>5.9191288985764263</v>
+        <v>6.3345634198605687</v>
       </c>
       <c r="H106" s="251">
         <f>(H100+H103)/2</f>
-        <v>8.4086753555288603</v>
+        <v>8.8906981343039018</v>
       </c>
       <c r="I106" s="251">
         <f>(I100+I103)/2</f>
-        <v>11.483993317594933</v>
+        <v>11.408489353288225</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DA4F1DED-7837-4C27-9D2D-EF17925EB68F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E36788-F3E7-40D4-A2A2-BBA332405E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="12690" windowHeight="7643" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Inputs" sheetId="4" r:id="rId1"/>
@@ -2595,6 +2595,9 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2611,9 +2614,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.6538221472405405E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4478,27 +4478,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="318" t="str">
+      <c r="G2" s="312" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="318"/>
+      <c r="H2" s="312"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="316" t="str">
+      <c r="C3" s="317" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="317"/>
+      <c r="D3" s="318"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.6</v>
+        <v>15.42</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4508,7 +4508,7 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="318" t="str">
+      <c r="C4" s="312" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
@@ -4537,11 +4537,11 @@
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="314">
+      <c r="G5" s="315">
         <f>G3*G4/1000000</f>
-        <v>22640.369356799998</v>
-      </c>
-      <c r="H5" s="314"/>
+        <v>22379.134325759998</v>
+      </c>
+      <c r="H5" s="315"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4564,11 +4564,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="315" t="str">
+      <c r="G6" s="316" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="315"/>
+      <c r="H6" s="316"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18686830151147657</v>
+        <v>0.18471212880172877</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.7030272208759101</v>
+        <v>9.5910692144811875</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.6538221472405405E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4827,10 +4827,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="312" t="s">
+      <c r="G28" s="313" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="312"/>
+      <c r="H28" s="313"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4838,22 +4838,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.6198312225914249</v>
+        <v>7.6345981612491123</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>26.507218905979741</v>
+        <v>26.605933384230667</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.774702896718814</v>
-      </c>
-      <c r="G29" s="313">
+        <v>12.815471773345571</v>
+      </c>
+      <c r="G29" s="314">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>23.049755570417169</v>
-      </c>
-      <c r="H29" s="313"/>
+        <v>23.135594247157105</v>
+      </c>
+      <c r="H29" s="314"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5836,15 +5836,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="G29:H29"/>
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="G6:H6"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="G4:H4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11991,17 +11991,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10306061987010773</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10306061987010773</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10306061987010773</v>
+        <v>0.10426366212540081</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12042,17 +12042,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6538221472405405E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3269110736202702E-2</v>
+        <v>4.3774197631956044E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.6538221472405405E-2</v>
+        <v>8.7548395263912088E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12112,14 +12112,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.670129579258891</v>
+        <v>39.843476262212782</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.670129579258891</v>
+        <v>39.843476262212782</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12140,14 +12140,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.327132432257539</v>
+        <v>13.352959900263201</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.358937984251067</v>
+        <v>31.475720556296761</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12190,21 +12190,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>32917827.645773526</v>
+        <v>33061668.774929456</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>22.681525340037467</v>
+        <v>22.780636868629141</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>22.681525340037467</v>
+        <v>22.780636868629141</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.15872950505889</v>
+        <v>29.286144491913241</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12309,23 +12309,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.6198312225914249</v>
+        <v>7.6345981612491123</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6198312225914249</v>
+        <v>7.6345981612491123</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>12.774702896718814</v>
+        <v>12.815471773345571</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.929574570846203</v>
+        <v>17.99634538544203</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.049755570417169</v>
+        <v>23.135594247157105</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12364,23 +12364,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.8099156112957124</v>
+        <v>3.8172990806245561</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.8099156112957124</v>
+        <v>3.8172990806245561</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.3873514483594072</v>
+        <v>6.4077358866727856</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>8.9647872854231014</v>
+        <v>8.9981726927210151</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>11.524877785208584</v>
+        <v>11.567797123578552</v>
       </c>
       <c r="K106" s="75"/>
     </row>

--- a/financial_models/opportunities/0683.HK_Valuation.xlsx
+++ b/financial_models/opportunities/0683.HK_Valuation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jerry\PycharmProjects\Invest_Proc_v3\financial_models\opportunities\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{45E36788-F3E7-40D4-A2A2-BBA332405E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7AA0463C-8D6F-449F-9C2E-288507A2AB6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="17115" windowHeight="10755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2595,31 +2595,31 @@
     <xf numFmtId="181" fontId="37" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="177" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="3" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3688,7 +3688,7 @@
       </c>
       <c r="C45" s="82">
         <f>IF(C44="","",C44*Exchange_Rate/Dashboard!$G$3)</f>
-        <v>8.7548395263912088E-2</v>
+        <v>9.0482322719137018E-2</v>
       </c>
       <c r="D45" s="82" t="str">
         <f>IF(D44="","",D44*Exchange_Rate/Dashboard!$G$3)</f>
@@ -4478,27 +4478,27 @@
       <c r="D2" s="3"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="312" t="str">
+      <c r="G2" s="314" t="str">
         <f>IF(Inputs!D4="","",Inputs!D4)</f>
         <v/>
       </c>
-      <c r="H2" s="312"/>
+      <c r="H2" s="314"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="317" t="str">
+      <c r="C3" s="312" t="str">
         <f>Inputs!C4</f>
         <v>0683.HK</v>
       </c>
-      <c r="D3" s="318"/>
+      <c r="D3" s="313"/>
       <c r="E3" s="3"/>
       <c r="F3" s="9" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="10">
-        <v>15.42</v>
+        <v>14.92</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>257</v>
@@ -4508,40 +4508,40 @@
       <c r="B4" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C4" s="312" t="str">
+      <c r="C4" s="314" t="str">
         <f>Inputs!C5</f>
         <v>嘉里建設</v>
       </c>
-      <c r="D4" s="319"/>
+      <c r="D4" s="315"/>
       <c r="E4" s="3"/>
       <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="322">
+      <c r="G4" s="318">
         <f>Inputs!C10</f>
         <v>1451305728</v>
       </c>
-      <c r="H4" s="322"/>
+      <c r="H4" s="318"/>
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="C5" s="320">
+      <c r="C5" s="316">
         <f>Inputs!C6</f>
         <v>45639</v>
       </c>
-      <c r="D5" s="321"/>
+      <c r="D5" s="317"/>
       <c r="E5" s="16"/>
       <c r="F5" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="315">
+      <c r="G5" s="321">
         <f>G3*G4/1000000</f>
-        <v>22379.134325759998</v>
-      </c>
-      <c r="H5" s="315"/>
+        <v>21653.481461759999</v>
+      </c>
+      <c r="H5" s="321"/>
       <c r="I5" s="17"/>
       <c r="J5" s="18"/>
     </row>
@@ -4564,11 +4564,11 @@
       <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="316" t="str">
+      <c r="G6" s="322" t="str">
         <f>Inputs!C11</f>
         <v>HKD</v>
       </c>
-      <c r="H6" s="316"/>
+      <c r="H6" s="322"/>
       <c r="I6" s="17"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4760,7 +4760,7 @@
       </c>
       <c r="G23" s="40">
         <f>G3/(Data!C36*Data!C4/Common_Shares*Exchange_Rate)</f>
-        <v>0.18471212880172877</v>
+        <v>0.17872276016354041</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4776,7 +4776,7 @@
       </c>
       <c r="G24" s="43">
         <f>G3/(Fin_Analysis!H86*G7)</f>
-        <v>9.5910692144811875</v>
+        <v>9.2800747522736273</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
       </c>
       <c r="G26" s="47">
         <f>Fin_Analysis!H88*Exchange_Rate/G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>9.0482322719137018E-2</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -4827,10 +4827,10 @@
       <c r="F28" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="G28" s="313" t="s">
+      <c r="G28" s="319" t="s">
         <v>224</v>
       </c>
-      <c r="H28" s="313"/>
+      <c r="H28" s="319"/>
     </row>
     <row r="29" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B29" s="3" t="s">
@@ -4838,22 +4838,22 @@
       </c>
       <c r="C29" s="53">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!D100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!D103,Fin_Analysis!D106))</f>
-        <v>7.6345981612491123</v>
+        <v>7.6776086571019206</v>
       </c>
       <c r="D29" s="54">
         <f>G29*(1+G20)</f>
-        <v>26.605933384230667</v>
+        <v>26.894201292650806</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="55">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!F100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!F103,Fin_Analysis!F106))</f>
-        <v>12.815471773345571</v>
-      </c>
-      <c r="G29" s="314">
+        <v>12.934469726537158</v>
+      </c>
+      <c r="G29" s="320">
         <f>IF(Fin_Analysis!C108="Profit",Fin_Analysis!I100,IF(Fin_Analysis!C108="Dividend",Fin_Analysis!I103,Fin_Analysis!I106))</f>
-        <v>23.135594247157105</v>
-      </c>
-      <c r="H29" s="314"/>
+        <v>23.386261993609399</v>
+      </c>
+      <c r="H29" s="320"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -5836,15 +5836,15 @@
     <row r="923" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="G4:H4"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="G6:H6"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="C11:C12 C16:C17">
@@ -11319,7 +11319,7 @@
         <f>I15+I34</f>
         <v>57845252</v>
       </c>
-      <c r="E56" s="321"/>
+      <c r="E56" s="317"/>
       <c r="F56" s="9"/>
       <c r="G56" s="9"/>
       <c r="I56" s="170"/>
@@ -11330,11 +11330,11 @@
         <v>83</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="322">
+      <c r="D57" s="318">
         <f>Inputs!C84</f>
         <v>0</v>
       </c>
-      <c r="E57" s="321"/>
+      <c r="E57" s="317"/>
       <c r="G57" s="3"/>
       <c r="I57" s="3"/>
       <c r="K57" s="172" t="s">
@@ -11346,11 +11346,11 @@
         <v>85</v>
       </c>
       <c r="C58" s="3"/>
-      <c r="D58" s="322">
+      <c r="D58" s="318">
         <f>Inputs!C85</f>
         <v>0</v>
       </c>
-      <c r="E58" s="321"/>
+      <c r="E58" s="317"/>
       <c r="F58" s="9"/>
       <c r="G58" s="9"/>
       <c r="I58" s="3"/>
@@ -11991,17 +11991,17 @@
       </c>
       <c r="C87" s="232">
         <f>C86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10775775267920111</v>
       </c>
       <c r="D87" s="98"/>
       <c r="E87" s="233">
         <f>E86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10775775267920111</v>
       </c>
       <c r="F87" s="98"/>
       <c r="H87" s="233">
         <f>H86*Exchange_Rate/Dashboard!G3</f>
-        <v>0.10426366212540081</v>
+        <v>0.10775775267920111</v>
       </c>
       <c r="I87" s="98"/>
       <c r="K87" s="75"/>
@@ -12042,17 +12042,17 @@
       </c>
       <c r="C89" s="232">
         <f>C88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>9.0482322719137018E-2</v>
       </c>
       <c r="D89" s="98"/>
       <c r="E89" s="232">
         <f>E88*Exchange_Rate/Dashboard!G3</f>
-        <v>4.3774197631956044E-2</v>
+        <v>4.5241161359568509E-2</v>
       </c>
       <c r="F89" s="98"/>
       <c r="H89" s="232">
         <f>H88*Exchange_Rate/Dashboard!G3</f>
-        <v>8.7548395263912088E-2</v>
+        <v>9.0482322719137018E-2</v>
       </c>
       <c r="I89" s="98"/>
       <c r="K89" s="75"/>
@@ -12112,14 +12112,14 @@
       </c>
       <c r="F93" s="237">
         <f>FV(E87,D93,0,-(E86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.843476262212782</v>
+        <v>40.350162750922657</v>
       </c>
       <c r="H93" s="3" t="s">
         <v>183</v>
       </c>
       <c r="I93" s="237">
         <f>FV(H87,D93,0,-(H86/(C93-D94)))*Exchange_Rate</f>
-        <v>39.843476262212782</v>
+        <v>40.350162750922657</v>
       </c>
       <c r="K93" s="75"/>
     </row>
@@ -12140,14 +12140,14 @@
       </c>
       <c r="F94" s="237">
         <f>FV(E89,D93,0,-(E88/(C93-D94)))*Exchange_Rate</f>
-        <v>13.352959900263201</v>
+        <v>13.428185526325361</v>
       </c>
       <c r="H94" s="3" t="s">
         <v>184</v>
       </c>
       <c r="I94" s="237">
         <f>FV(H89,D93,0,-(H88/(C93-D94)))*Exchange_Rate</f>
-        <v>31.475720556296761</v>
+        <v>31.816751257973184</v>
       </c>
       <c r="K94" s="75"/>
     </row>
@@ -12190,21 +12190,21 @@
       </c>
       <c r="C97" s="243">
         <f>H97*Common_Shares/Data!C4</f>
-        <v>33061668.774929456</v>
+        <v>33482111.528272875</v>
       </c>
       <c r="D97" s="244"/>
       <c r="E97" s="245">
         <f>PV(C94,D93,0,-F93)</f>
-        <v>22.780636868629141</v>
+        <v>23.070336513047149</v>
       </c>
       <c r="F97" s="244"/>
       <c r="H97" s="245">
         <f>PV(C94,D93,0,-I93)</f>
-        <v>22.780636868629141</v>
+        <v>23.070336513047149</v>
       </c>
       <c r="I97" s="245">
         <f>PV(C93,D93,0,-I93)</f>
-        <v>29.286144491913241</v>
+        <v>29.658574187123612</v>
       </c>
       <c r="K97" s="75"/>
     </row>
@@ -12309,23 +12309,23 @@
       <c r="C103" s="243"/>
       <c r="D103" s="251">
         <f>MIN(F103*(1-C94),E103)</f>
-        <v>7.6345981612491123</v>
+        <v>7.6776086571019206</v>
       </c>
       <c r="E103" s="245">
         <f>PV(C94,D93,0,-F94)</f>
-        <v>7.6345981612491123</v>
+        <v>7.6776086571019206</v>
       </c>
       <c r="F103" s="251">
         <f>(E103+H103)/2</f>
-        <v>12.815471773345571</v>
+        <v>12.934469726537158</v>
       </c>
       <c r="H103" s="245">
         <f>PV(C94,D93,0,-I94)</f>
-        <v>17.99634538544203</v>
+        <v>18.191330795972394</v>
       </c>
       <c r="I103" s="251">
         <f>PV(C93,D93,0,-I94)</f>
-        <v>23.135594247157105</v>
+        <v>23.386261993609399</v>
       </c>
       <c r="K103" s="75"/>
     </row>
@@ -12364,23 +12364,23 @@
       <c r="C106" s="243"/>
       <c r="D106" s="251">
         <f>(D100+D103)/2</f>
-        <v>3.8172990806245561</v>
+        <v>3.8388043285509603</v>
       </c>
       <c r="E106" s="245">
         <f>(E100+E103)/2</f>
-        <v>3.8172990806245561</v>
+        <v>3.8388043285509603</v>
       </c>
       <c r="F106" s="251">
         <f>(F100+F103)/2</f>
-        <v>6.4077358866727856</v>
+        <v>6.4672348632685788</v>
       </c>
       <c r="H106" s="245">
         <f>(H100+H103)/2</f>
-        <v>8.9981726927210151</v>
+        <v>9.0956653979861972</v>
       </c>
       <c r="I106" s="245">
         <f>(I100+I103)/2</f>
-        <v>11.567797123578552</v>
+        <v>11.693130996804699</v>
       </c>
       <c r="K106" s="75"/>
     </row>
